--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50AD59C0-1F09-4D13-BAF3-5FFA3CBFEF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A634E2F-7C46-4CE7-A360-979D72B8360E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3330,8 +3330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AB86D6-575A-4813-BD30-F3C4157EFE0D}">
   <dimension ref="E11:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A634E2F-7C46-4CE7-A360-979D72B8360E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F8CC973-0B2E-403B-B385-66637B5A3E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="142">
   <si>
     <t>Resource Name</t>
   </si>
@@ -401,7 +401,7 @@
     <t>created Logical data model with operations</t>
   </si>
   <si>
-    <t>6Hour</t>
+    <t>6:00Hour</t>
   </si>
   <si>
     <t>1Hour</t>
@@ -413,7 +413,7 @@
     <t xml:space="preserve">Discussion about DataModel  -  1hr                                                                           Createddatamodel for Article,Article-Comment,Article-Rating - 2hr                                       Mapped relationships between data models - 1.5hr                           Review Session with Rafi-1hr                                                                               Team Retrospecive meeting -1hr                                                                         Explored about Context classes in Entity Core - 1hr   </t>
   </si>
   <si>
-    <t>.  6.30 hours</t>
+    <t>6.30 hours</t>
   </si>
   <si>
     <t>1 hour</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">Datamodel(Discussion) - 1 hr                                                                   Creation of entity data model - 2 hrs                                                          Refined the Data model- 1 hr                                                                                        Session with Rafi - 1 hr                                                                                        Team discussion (After Review ) - 1 hr </t>
   </si>
   <si>
-    <t>6 hours</t>
+    <t>6:00 hours</t>
   </si>
   <si>
     <t>2 hours</t>
@@ -445,7 +445,7 @@
   <si>
     <t xml:space="preserve"> Brain stroming   -1hr
 Discussed about data model -1 hr
-Creation of Data table and check the data model flow -1 hr
+Creation of Data table and check the data model flow -2 hr
 refined the Data Model -1 hr
 Session with Rafi - 1 hr
 Team discussion on the changes to be done after meeting -1 hr</t>
@@ -476,6 +476,23 @@
 Review Session with Rafi-1hr
 Discussed about the Changes need to done after Review -1hr
 </t>
+  </si>
+  <si>
+    <t>Working on Refining User Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Discussed about data model -1 hr
+Creation of Data table and check the data model flow -1 hr 15 mins
+Refined the Data Model -45 mins
+Review Session with Rafi - 1 hr
+Team discussion on the changes to be done after meeting -1 hr</t>
+  </si>
+  <si>
+    <t>5:00 hours</t>
+  </si>
+  <si>
+    <t>2:00 hours</t>
   </si>
 </sst>
 </file>
@@ -3331,7 +3348,7 @@
   <dimension ref="E11:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3484,7 +3501,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="6:12" ht="58.5" customHeight="1">
+    <row r="19" spans="6:12" ht="83.25" customHeight="1">
       <c r="F19" s="27" t="s">
         <v>11</v>
       </c>
@@ -3645,17 +3662,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="6:12" ht="30">
+    <row r="26" spans="6:12" ht="72.75" customHeight="1">
       <c r="F26" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="30"/>
+      <c r="G26" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>139</v>
+      </c>
       <c r="I26" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
+      <c r="J26" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>141</v>
+      </c>
       <c r="L26" s="34" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F8CC973-0B2E-403B-B385-66637B5A3E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -21,8 +20,9 @@
     <sheet name="09.04.2022" sheetId="46" r:id="rId6"/>
     <sheet name="11.04.2022" sheetId="47" r:id="rId7"/>
     <sheet name="12.04.2022 " sheetId="49" r:id="rId8"/>
+    <sheet name="13.04.2022" sheetId="50" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="146">
   <si>
     <t>Resource Name</t>
   </si>
@@ -494,12 +494,24 @@
   <si>
     <t>2:00 hours</t>
   </si>
+  <si>
+    <t>1.Refining Operations in Data Model.                                                                                             2.High Level Design</t>
+  </si>
+  <si>
+    <t>1. Started Creating operations in Data Model - 2hr   2.Group Dicussion for creating Physical and logical model -1hr                                                                  3.Meeting With Raffi regarding HLD - 1hr                                    4.Explored about High Level Design - 1hr                                            5.Explored about Entity Db Context class -1 hr</t>
+  </si>
+  <si>
+    <t>6hours </t>
+  </si>
+  <si>
+    <t>2 hour</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -844,6 +856,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,23 +956,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -989,23 +991,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1181,12 +1166,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB2D5E3-4B43-48DE-B6AB-74C89F64C892}">
-  <dimension ref="B4:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
@@ -1195,7 +1180,7 @@
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" ht="15">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1197,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="15">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1221,7 +1206,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" ht="15">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1230,7 +1215,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" ht="15">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1239,7 +1224,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
@@ -1248,7 +1233,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" ht="15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
@@ -1271,7 +1256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="45.75" customHeight="1">
+    <row r="10" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1282,7 +1267,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" ht="45.75" customHeight="1">
+    <row r="11" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1293,7 +1278,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" ht="39" customHeight="1">
+    <row r="12" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1304,7 +1289,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1">
+    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1315,7 +1300,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" ht="44.25" customHeight="1">
+    <row r="14" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1326,7 +1311,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:8" ht="35.25" customHeight="1">
+    <row r="15" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1337,7 +1322,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:8" ht="15">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1348,7 +1333,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" ht="50.25" customHeight="1">
+    <row r="17" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1359,7 +1344,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="47.25" customHeight="1">
+    <row r="18" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1370,7 +1355,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" ht="46.5" customHeight="1">
+    <row r="19" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1381,9 +1366,6 @@
       <c r="G19" s="5"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" ht="15"/>
-    <row r="21" spans="2:8" ht="15"/>
-    <row r="22" spans="2:8" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="187" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -1391,14 +1373,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E62D10-54D4-4787-A1A2-F3FE8B19A9D8}">
-  <dimension ref="B4:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
@@ -1407,7 +1389,7 @@
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1406,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1433,7 +1415,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1442,7 +1424,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1451,7 +1433,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
@@ -1460,7 +1442,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" ht="15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="45.75" customHeight="1">
+    <row r="10" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1502,7 +1484,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:8" ht="45.75" customHeight="1">
+    <row r="11" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1521,7 +1503,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="2:8" ht="39" customHeight="1">
+    <row r="12" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1540,7 +1522,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" ht="33" customHeight="1">
+    <row r="13" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1559,7 +1541,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" ht="33" customHeight="1">
+    <row r="14" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1578,7 +1560,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="2:8" ht="35.25" customHeight="1">
+    <row r="15" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1597,7 +1579,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:8" ht="25.5">
+    <row r="16" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1618,7 +1600,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" ht="25.5">
+    <row r="17" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1639,7 +1621,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="25.5">
+    <row r="18" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
@@ -1660,7 +1642,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" ht="25.5">
+    <row r="19" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1679,9 +1661,6 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8" ht="15"/>
-    <row r="21" spans="2:8" ht="15"/>
-    <row r="22" spans="2:8" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="187" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -1689,14 +1668,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F4477B-54A4-44FB-9400-913F92230D27}">
-  <dimension ref="B4:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
@@ -1705,7 +1684,7 @@
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1701,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1731,7 +1710,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1740,7 +1719,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1749,7 +1728,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
@@ -1758,7 +1737,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" ht="15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
@@ -1781,7 +1760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="45.75" customHeight="1">
+    <row r="10" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1800,7 +1779,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" ht="45.75" customHeight="1">
+    <row r="11" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1819,7 +1798,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" ht="39" customHeight="1">
+    <row r="12" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1838,7 +1817,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1">
+    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1857,7 +1836,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" ht="44.25" customHeight="1">
+    <row r="14" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1876,7 +1855,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:8" ht="35.25" customHeight="1">
+    <row r="15" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1895,7 +1874,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:8" ht="15">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1916,7 +1895,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" ht="50.25" customHeight="1">
+    <row r="17" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1935,7 +1914,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="47.25" customHeight="1">
+    <row r="18" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1954,7 +1933,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" ht="46.5" customHeight="1">
+    <row r="19" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1973,11 +1952,8 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" ht="15"/>
-    <row r="21" spans="2:8" ht="15"/>
-    <row r="22" spans="2:8" ht="15"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:H19">
+  <sortState ref="B10:H19">
     <sortCondition ref="B10:B19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1986,14 +1962,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9483AB1E-2E48-4C63-BF41-D38272F555D9}">
-  <dimension ref="B4:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
@@ -2002,7 +1978,7 @@
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" ht="15">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -2019,7 +1995,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="15">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2028,7 +2004,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" ht="15">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2037,7 +2013,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" ht="15">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -2046,7 +2022,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
@@ -2055,7 +2031,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" ht="15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
@@ -2078,7 +2054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="45.75" customHeight="1">
+    <row r="10" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2097,7 +2073,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" ht="56.25" customHeight="1">
+    <row r="11" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2112,7 +2088,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" ht="39" customHeight="1">
+    <row r="12" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2131,7 +2107,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1">
+    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2150,7 +2126,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" ht="44.25" customHeight="1">
+    <row r="14" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2169,7 +2145,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:8" ht="43.5" customHeight="1">
+    <row r="15" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2188,7 +2164,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:8" ht="15">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2199,7 +2175,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" ht="50.25" customHeight="1">
+    <row r="17" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2218,7 +2194,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="47.25" customHeight="1">
+    <row r="18" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2237,7 +2213,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" ht="46.5" customHeight="1">
+    <row r="19" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2256,9 +2232,6 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" ht="15"/>
-    <row r="21" spans="2:8" ht="15"/>
-    <row r="22" spans="2:8" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="187" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -2266,16 +2239,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA977E4-D73A-4DCB-BEA4-AA6D942663EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2285,7 +2258,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -2295,7 +2268,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -2305,7 +2278,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" ht="45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="13" t="s">
         <v>0</v>
@@ -2323,7 +2296,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="17" t="s">
         <v>60</v>
@@ -2341,7 +2314,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="17" t="s">
         <v>60</v>
@@ -2359,7 +2332,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="15"/>
       <c r="C7" s="19"/>
@@ -2369,7 +2342,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="22"/>
       <c r="C8" s="16"/>
@@ -2379,7 +2352,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" ht="45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
         <v>0</v>
@@ -2403,7 +2376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="87" customHeight="1">
+    <row r="10" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="17" t="s">
         <v>9</v>
@@ -2427,7 +2400,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="38.25">
+    <row r="11" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="17" t="s">
         <v>10</v>
@@ -2451,7 +2424,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="17" t="s">
         <v>11</v>
@@ -2475,7 +2448,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="38.25">
+    <row r="13" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="17" t="s">
         <v>12</v>
@@ -2499,7 +2472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="25.5">
+    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="17" t="s">
         <v>13</v>
@@ -2523,7 +2496,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="38.25">
+    <row r="15" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="17" t="s">
         <v>14</v>
@@ -2547,7 +2520,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="17" t="s">
         <v>15</v>
@@ -2571,7 +2544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="51">
+    <row r="17" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="17" t="s">
         <v>16</v>
@@ -2595,7 +2568,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="38.25">
+    <row r="18" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="17" t="s">
         <v>17</v>
@@ -2619,7 +2592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="25.5">
+    <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="17" t="s">
         <v>18</v>
@@ -2649,14 +2622,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25696A5-BAC8-430A-BEED-05F7BFE8E93D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
     <col min="3" max="3" width="70.140625" customWidth="1"/>
@@ -2664,7 +2637,7 @@
     <col min="5" max="8" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -2673,7 +2646,7 @@
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -2682,7 +2655,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -2691,7 +2664,7 @@
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
     </row>
-    <row r="4" spans="2:8" ht="45">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>0</v>
       </c>
@@ -2708,7 +2681,7 @@
       <c r="G4" s="28"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
         <v>60</v>
       </c>
@@ -2725,7 +2698,7 @@
       <c r="G5" s="31"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
         <v>60</v>
       </c>
@@ -2742,7 +2715,7 @@
       <c r="G6" s="28"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="28"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -2751,7 +2724,7 @@
       <c r="G7" s="33"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
       <c r="C8" s="16"/>
       <c r="D8" s="22"/>
@@ -2760,7 +2733,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="45">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>0</v>
       </c>
@@ -2783,7 +2756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="s">
         <v>9</v>
       </c>
@@ -2798,7 +2771,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="25.5">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="27" t="s">
         <v>10</v>
       </c>
@@ -2817,7 +2790,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
         <v>11</v>
       </c>
@@ -2840,7 +2813,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="25.5">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
         <v>12</v>
       </c>
@@ -2863,7 +2836,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
         <v>13</v>
       </c>
@@ -2880,7 +2853,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="25.5">
+    <row r="15" spans="2:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="s">
         <v>14</v>
       </c>
@@ -2903,7 +2876,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="27" t="s">
         <v>15</v>
       </c>
@@ -2926,7 +2899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="25.5">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
         <v>16</v>
       </c>
@@ -2949,7 +2922,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="25.5">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="s">
         <v>17</v>
       </c>
@@ -2972,7 +2945,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="28.5" customHeight="1">
+    <row r="19" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="27" t="s">
         <v>18</v>
       </c>
@@ -3001,14 +2974,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B14D27-A155-49A8-BAE9-01782A2106DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F11:L26"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="2.28515625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
@@ -3020,7 +2993,7 @@
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="6:12" ht="45">
+    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F11" s="26" t="s">
         <v>0</v>
       </c>
@@ -3037,7 +3010,7 @@
       <c r="K11" s="28"/>
       <c r="L11" s="16"/>
     </row>
-    <row r="12" spans="6:12">
+    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F12" s="27" t="s">
         <v>60</v>
       </c>
@@ -3054,7 +3027,7 @@
       <c r="K12" s="31"/>
       <c r="L12" s="16"/>
     </row>
-    <row r="13" spans="6:12">
+    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F13" s="27" t="s">
         <v>60</v>
       </c>
@@ -3071,7 +3044,7 @@
       <c r="K13" s="28"/>
       <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="6:12">
+    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F14" s="28"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
@@ -3080,7 +3053,7 @@
       <c r="K14" s="33"/>
       <c r="L14" s="16"/>
     </row>
-    <row r="15" spans="6:12">
+    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F15" s="22"/>
       <c r="G15" s="16"/>
       <c r="H15" s="22"/>
@@ -3089,7 +3062,7 @@
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="6:12" ht="54.75" customHeight="1">
+    <row r="16" spans="6:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" s="37" t="s">
         <v>0</v>
       </c>
@@ -3112,7 +3085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="6:12" ht="62.25" customHeight="1">
+    <row r="17" spans="6:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F17" s="27" t="s">
         <v>9</v>
       </c>
@@ -3135,7 +3108,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="6:12" ht="56.25" customHeight="1">
+    <row r="18" spans="6:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="27" t="s">
         <v>10</v>
       </c>
@@ -3158,7 +3131,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="6:12" ht="58.5" customHeight="1">
+    <row r="19" spans="6:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="27" t="s">
         <v>11</v>
       </c>
@@ -3181,7 +3154,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="6:12" ht="54.75" customHeight="1">
+    <row r="20" spans="6:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="27" t="s">
         <v>12</v>
       </c>
@@ -3204,7 +3177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="6:12" ht="43.5" customHeight="1">
+    <row r="21" spans="6:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="27" t="s">
         <v>13</v>
       </c>
@@ -3227,7 +3200,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="6:12" ht="46.5" customHeight="1">
+    <row r="22" spans="6:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="27" t="s">
         <v>14</v>
       </c>
@@ -3250,7 +3223,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="6:12" ht="40.5" customHeight="1">
+    <row r="23" spans="6:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="27" t="s">
         <v>15</v>
       </c>
@@ -3273,7 +3246,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="6:12" ht="44.25" customHeight="1">
+    <row r="24" spans="6:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="27" t="s">
         <v>16</v>
       </c>
@@ -3296,7 +3269,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="6:12" ht="40.5" customHeight="1">
+    <row r="25" spans="6:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="27" t="s">
         <v>17</v>
       </c>
@@ -3315,7 +3288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="6:12" ht="30">
+    <row r="26" spans="6:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F26" s="40" t="s">
         <v>18</v>
       </c>
@@ -3344,14 +3317,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AB86D6-575A-4813-BD30-F3C4157EFE0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E11:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="D20" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="2.28515625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
@@ -3363,7 +3336,7 @@
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="6:12">
+    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F11" s="26" t="s">
         <v>0</v>
       </c>
@@ -3380,7 +3353,7 @@
       <c r="K11" s="28"/>
       <c r="L11" s="16"/>
     </row>
-    <row r="12" spans="6:12">
+    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F12" s="27" t="s">
         <v>60</v>
       </c>
@@ -3397,7 +3370,7 @@
       <c r="K12" s="31"/>
       <c r="L12" s="16"/>
     </row>
-    <row r="13" spans="6:12">
+    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F13" s="27" t="s">
         <v>60</v>
       </c>
@@ -3414,7 +3387,7 @@
       <c r="K13" s="28"/>
       <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="6:12">
+    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F14" s="28"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
@@ -3423,7 +3396,7 @@
       <c r="K14" s="33"/>
       <c r="L14" s="16"/>
     </row>
-    <row r="15" spans="6:12">
+    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F15" s="22"/>
       <c r="G15" s="16"/>
       <c r="H15" s="22"/>
@@ -3432,7 +3405,7 @@
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="6:12" ht="54.75" customHeight="1">
+    <row r="16" spans="6:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" s="37" t="s">
         <v>0</v>
       </c>
@@ -3455,7 +3428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="6:12" ht="98.25" customHeight="1">
+    <row r="17" spans="6:12" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F17" s="27" t="s">
         <v>9</v>
       </c>
@@ -3478,7 +3451,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="6:12" ht="56.25" customHeight="1">
+    <row r="18" spans="6:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="27" t="s">
         <v>10</v>
       </c>
@@ -3501,7 +3474,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="6:12" ht="83.25" customHeight="1">
+    <row r="19" spans="6:12" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="27" t="s">
         <v>11</v>
       </c>
@@ -3524,7 +3497,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="6:12" ht="82.5" customHeight="1">
+    <row r="20" spans="6:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="27" t="s">
         <v>12</v>
       </c>
@@ -3547,7 +3520,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="6:12" ht="38.25" customHeight="1">
+    <row r="21" spans="6:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="27" t="s">
         <v>13</v>
       </c>
@@ -3570,7 +3543,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="6:12" ht="84" customHeight="1">
+    <row r="22" spans="6:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="27" t="s">
         <v>14</v>
       </c>
@@ -3593,7 +3566,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="6:12" ht="40.5" customHeight="1">
+    <row r="23" spans="6:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="27" t="s">
         <v>15</v>
       </c>
@@ -3616,7 +3589,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="6:12" ht="87.75" customHeight="1">
+    <row r="24" spans="6:12" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="27" t="s">
         <v>16</v>
       </c>
@@ -3639,7 +3612,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="6:12" ht="99" customHeight="1">
+    <row r="25" spans="6:12" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="27" t="s">
         <v>17</v>
       </c>
@@ -3662,7 +3635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="6:12" ht="72.75" customHeight="1">
+    <row r="26" spans="6:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="40" t="s">
         <v>18</v>
       </c>
@@ -3688,4 +3661,288 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E7:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="28"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="22"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E12" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="43"/>
+      <c r="I15" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E19" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25213"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{906741D0-C5B6-4C84-A86D-50A1265EF4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="12.04.2022 " sheetId="49" r:id="rId8"/>
     <sheet name="13.04.2022" sheetId="50" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="144">
   <si>
     <t>Resource Name</t>
   </si>
@@ -495,23 +496,17 @@
     <t>2:00 hours</t>
   </si>
   <si>
-    <t>1.Refining Operations in Data Model.                                                                                             2.High Level Design</t>
-  </si>
-  <si>
-    <t>1. Started Creating operations in Data Model - 2hr   2.Group Dicussion for creating Physical and logical model -1hr                                                                  3.Meeting With Raffi regarding HLD - 1hr                                    4.Explored about High Level Design - 1hr                                            5.Explored about Entity Db Context class -1 hr</t>
-  </si>
-  <si>
-    <t>6hours </t>
-  </si>
-  <si>
-    <t>2 hour</t>
+    <t>Added Operations for data model and converted into physical model</t>
+  </si>
+  <si>
+    <t>finished Physical data model.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -856,13 +851,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -956,6 +944,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -991,6 +996,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1166,12 +1188,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB2D5E3-4B43-48DE-B6AB-74C89F64C892}">
+  <dimension ref="B4:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G17" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:X31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
@@ -1180,7 +1204,7 @@
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1221,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15">
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1206,7 +1230,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15">
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1215,7 +1239,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="15">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1224,7 +1248,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15">
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
@@ -1233,7 +1257,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="15">
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="45.75" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1267,7 +1291,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="45.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1278,7 +1302,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="39" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1289,7 +1313,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="39.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1300,7 +1324,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="44.25" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1311,7 +1335,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="35.25" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1322,7 +1346,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="15">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1333,7 +1357,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="50.25" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1344,7 +1368,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="47.25" customHeight="1">
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1355,7 +1379,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="46.5" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1366,6 +1390,9 @@
       <c r="G19" s="5"/>
       <c r="H19" s="3"/>
     </row>
+    <row r="20" spans="2:8" ht="15"/>
+    <row r="21" spans="2:8" ht="15"/>
+    <row r="22" spans="2:8" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="187" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -1373,14 +1400,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E62D10-54D4-4787-A1A2-F3FE8B19A9D8}">
+  <dimension ref="B4:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
@@ -1389,7 +1416,7 @@
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1433,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8">
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1415,7 +1442,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8">
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1424,7 +1451,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1433,7 +1460,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
@@ -1442,7 +1469,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="15">
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="45.75" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1484,7 +1511,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="45.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1503,7 +1530,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="39" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1522,7 +1549,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="33" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1541,7 +1568,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="33" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1560,7 +1587,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="35.25" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1579,7 +1606,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="25.5">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1600,7 +1627,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="25.5">
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1621,7 +1648,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="25.5">
       <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
@@ -1642,7 +1669,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="25.5">
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1661,6 +1688,9 @@
       </c>
       <c r="H19" s="4"/>
     </row>
+    <row r="20" spans="2:8" ht="15"/>
+    <row r="21" spans="2:8" ht="15"/>
+    <row r="22" spans="2:8" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="187" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -1668,14 +1698,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F4477B-54A4-44FB-9400-913F92230D27}">
+  <dimension ref="B4:H22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
@@ -1684,7 +1714,7 @@
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1701,7 +1731,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8">
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1710,7 +1740,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8">
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1719,7 +1749,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1728,7 +1758,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
@@ -1737,7 +1767,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="15">
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +1790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="45.75" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1779,7 +1809,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="45.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1798,7 +1828,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="39" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1817,7 +1847,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="39.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1836,7 +1866,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="44.25" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1855,7 +1885,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="35.25" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1874,7 +1904,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="15">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1895,7 +1925,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="50.25" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1914,7 +1944,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="47.25" customHeight="1">
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1933,7 +1963,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="46.5" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1952,8 +1982,11 @@
       </c>
       <c r="H19" s="3"/>
     </row>
+    <row r="20" spans="2:8" ht="15"/>
+    <row r="21" spans="2:8" ht="15"/>
+    <row r="22" spans="2:8" ht="15"/>
   </sheetData>
-  <sortState ref="B10:H19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:H19">
     <sortCondition ref="B10:B19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1962,14 +1995,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9483AB1E-2E48-4C63-BF41-D38272F555D9}">
+  <dimension ref="B4:H22"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
@@ -1978,7 +2011,7 @@
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1995,7 +2028,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15">
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2004,7 +2037,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15">
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2013,7 +2046,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="15">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -2022,7 +2055,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15">
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
@@ -2031,7 +2064,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="15">
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
@@ -2054,7 +2087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="45.75" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2073,7 +2106,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="56.25" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2088,7 +2121,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="39" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2107,7 +2140,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="39.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2126,7 +2159,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="44.25" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2145,7 +2178,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="43.5" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2164,7 +2197,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="15">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2175,7 +2208,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="50.25" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2194,7 +2227,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="47.25" customHeight="1">
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2213,7 +2246,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="46.5" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2232,6 +2265,9 @@
       </c>
       <c r="H19" s="3"/>
     </row>
+    <row r="20" spans="2:8" ht="15"/>
+    <row r="21" spans="2:8" ht="15"/>
+    <row r="22" spans="2:8" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="187" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -2239,16 +2275,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA977E4-D73A-4DCB-BEA4-AA6D942663EB}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2258,7 +2294,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -2268,7 +2304,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -2278,7 +2314,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="45">
       <c r="A4" s="12"/>
       <c r="B4" s="13" t="s">
         <v>0</v>
@@ -2296,7 +2332,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="12"/>
       <c r="B5" s="17" t="s">
         <v>60</v>
@@ -2314,7 +2350,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="12"/>
       <c r="B6" s="17" t="s">
         <v>60</v>
@@ -2332,7 +2368,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="12"/>
       <c r="B7" s="15"/>
       <c r="C7" s="19"/>
@@ -2342,7 +2378,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="12"/>
       <c r="B8" s="22"/>
       <c r="C8" s="16"/>
@@ -2352,7 +2388,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="45">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
         <v>0</v>
@@ -2376,7 +2412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="87" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="17" t="s">
         <v>9</v>
@@ -2400,7 +2436,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="38.25">
       <c r="A11" s="12"/>
       <c r="B11" s="17" t="s">
         <v>10</v>
@@ -2424,7 +2460,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="12"/>
       <c r="B12" s="17" t="s">
         <v>11</v>
@@ -2448,7 +2484,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="38.25">
       <c r="A13" s="12"/>
       <c r="B13" s="17" t="s">
         <v>12</v>
@@ -2472,7 +2508,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="25.5">
       <c r="A14" s="12"/>
       <c r="B14" s="17" t="s">
         <v>13</v>
@@ -2496,7 +2532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="38.25">
       <c r="A15" s="12"/>
       <c r="B15" s="17" t="s">
         <v>14</v>
@@ -2520,7 +2556,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="12"/>
       <c r="B16" s="17" t="s">
         <v>15</v>
@@ -2544,7 +2580,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="51">
       <c r="A17" s="12"/>
       <c r="B17" s="17" t="s">
         <v>16</v>
@@ -2568,7 +2604,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="38.25">
       <c r="A18" s="12"/>
       <c r="B18" s="17" t="s">
         <v>17</v>
@@ -2592,7 +2628,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="25.5">
       <c r="A19" s="12"/>
       <c r="B19" s="17" t="s">
         <v>18</v>
@@ -2622,14 +2658,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25696A5-BAC8-430A-BEED-05F7BFE8E93D}">
   <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
     <col min="3" max="3" width="70.140625" customWidth="1"/>
@@ -2637,7 +2673,7 @@
     <col min="5" max="8" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8">
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -2646,7 +2682,7 @@
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8">
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -2655,7 +2691,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8">
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -2664,7 +2700,7 @@
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="45">
       <c r="B4" s="26" t="s">
         <v>0</v>
       </c>
@@ -2681,7 +2717,7 @@
       <c r="G4" s="28"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8">
       <c r="B5" s="27" t="s">
         <v>60</v>
       </c>
@@ -2698,7 +2734,7 @@
       <c r="G5" s="31"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8">
       <c r="B6" s="27" t="s">
         <v>60</v>
       </c>
@@ -2715,7 +2751,7 @@
       <c r="G6" s="28"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="B7" s="28"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -2724,7 +2760,7 @@
       <c r="G7" s="33"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="B8" s="22"/>
       <c r="C8" s="16"/>
       <c r="D8" s="22"/>
@@ -2733,7 +2769,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="45">
       <c r="B9" s="26" t="s">
         <v>0</v>
       </c>
@@ -2756,7 +2792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="B10" s="27" t="s">
         <v>9</v>
       </c>
@@ -2771,7 +2807,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="25.5">
       <c r="B11" s="27" t="s">
         <v>10</v>
       </c>
@@ -2790,7 +2826,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="30">
       <c r="B12" s="27" t="s">
         <v>11</v>
       </c>
@@ -2813,7 +2849,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="25.5">
       <c r="B13" s="27" t="s">
         <v>12</v>
       </c>
@@ -2836,7 +2872,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8">
       <c r="B14" s="27" t="s">
         <v>13</v>
       </c>
@@ -2853,7 +2889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="25.5">
       <c r="B15" s="27" t="s">
         <v>14</v>
       </c>
@@ -2876,7 +2912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8">
       <c r="B16" s="27" t="s">
         <v>15</v>
       </c>
@@ -2899,7 +2935,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="25.5">
       <c r="B17" s="27" t="s">
         <v>16</v>
       </c>
@@ -2922,7 +2958,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="25.5">
       <c r="B18" s="27" t="s">
         <v>17</v>
       </c>
@@ -2945,7 +2981,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="28.5" customHeight="1">
       <c r="B19" s="27" t="s">
         <v>18</v>
       </c>
@@ -2974,14 +3010,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B14D27-A155-49A8-BAE9-01782A2106DF}">
   <dimension ref="F11:L26"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="2.28515625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
@@ -2993,7 +3029,7 @@
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:12" ht="45">
       <c r="F11" s="26" t="s">
         <v>0</v>
       </c>
@@ -3010,7 +3046,7 @@
       <c r="K11" s="28"/>
       <c r="L11" s="16"/>
     </row>
-    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:12">
       <c r="F12" s="27" t="s">
         <v>60</v>
       </c>
@@ -3027,7 +3063,7 @@
       <c r="K12" s="31"/>
       <c r="L12" s="16"/>
     </row>
-    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="6:12">
       <c r="F13" s="27" t="s">
         <v>60</v>
       </c>
@@ -3044,7 +3080,7 @@
       <c r="K13" s="28"/>
       <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="6:12">
       <c r="F14" s="28"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
@@ -3053,7 +3089,7 @@
       <c r="K14" s="33"/>
       <c r="L14" s="16"/>
     </row>
-    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="6:12">
       <c r="F15" s="22"/>
       <c r="G15" s="16"/>
       <c r="H15" s="22"/>
@@ -3062,7 +3098,7 @@
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="6:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="6:12" ht="54.75" customHeight="1">
       <c r="F16" s="37" t="s">
         <v>0</v>
       </c>
@@ -3085,7 +3121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="6:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:12" ht="62.25" customHeight="1">
       <c r="F17" s="27" t="s">
         <v>9</v>
       </c>
@@ -3108,7 +3144,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="6:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:12" ht="56.25" customHeight="1">
       <c r="F18" s="27" t="s">
         <v>10</v>
       </c>
@@ -3131,7 +3167,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="6:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:12" ht="58.5" customHeight="1">
       <c r="F19" s="27" t="s">
         <v>11</v>
       </c>
@@ -3154,7 +3190,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="6:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:12" ht="54.75" customHeight="1">
       <c r="F20" s="27" t="s">
         <v>12</v>
       </c>
@@ -3177,7 +3213,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="6:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:12" ht="43.5" customHeight="1">
       <c r="F21" s="27" t="s">
         <v>13</v>
       </c>
@@ -3200,7 +3236,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="6:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:12" ht="46.5" customHeight="1">
       <c r="F22" s="27" t="s">
         <v>14</v>
       </c>
@@ -3223,7 +3259,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="6:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:12" ht="40.5" customHeight="1">
       <c r="F23" s="27" t="s">
         <v>15</v>
       </c>
@@ -3246,7 +3282,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="6:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:12" ht="44.25" customHeight="1">
       <c r="F24" s="27" t="s">
         <v>16</v>
       </c>
@@ -3269,7 +3305,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="6:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:12" ht="40.5" customHeight="1">
       <c r="F25" s="27" t="s">
         <v>17</v>
       </c>
@@ -3288,7 +3324,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="6:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:12" ht="30">
       <c r="F26" s="40" t="s">
         <v>18</v>
       </c>
@@ -3317,14 +3353,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AB86D6-575A-4813-BD30-F3C4157EFE0D}">
   <dimension ref="E11:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="D20" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="2.28515625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
@@ -3336,7 +3372,7 @@
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:12">
       <c r="F11" s="26" t="s">
         <v>0</v>
       </c>
@@ -3353,7 +3389,7 @@
       <c r="K11" s="28"/>
       <c r="L11" s="16"/>
     </row>
-    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:12">
       <c r="F12" s="27" t="s">
         <v>60</v>
       </c>
@@ -3370,7 +3406,7 @@
       <c r="K12" s="31"/>
       <c r="L12" s="16"/>
     </row>
-    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="6:12">
       <c r="F13" s="27" t="s">
         <v>60</v>
       </c>
@@ -3387,7 +3423,7 @@
       <c r="K13" s="28"/>
       <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="6:12">
       <c r="F14" s="28"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
@@ -3396,7 +3432,7 @@
       <c r="K14" s="33"/>
       <c r="L14" s="16"/>
     </row>
-    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="6:12">
       <c r="F15" s="22"/>
       <c r="G15" s="16"/>
       <c r="H15" s="22"/>
@@ -3405,7 +3441,7 @@
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="6:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="6:12" ht="54.75" customHeight="1">
       <c r="F16" s="37" t="s">
         <v>0</v>
       </c>
@@ -3428,7 +3464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="6:12" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:12" ht="98.25" customHeight="1">
       <c r="F17" s="27" t="s">
         <v>9</v>
       </c>
@@ -3451,7 +3487,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="6:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:12" ht="56.25" customHeight="1">
       <c r="F18" s="27" t="s">
         <v>10</v>
       </c>
@@ -3474,7 +3510,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="6:12" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:12" ht="83.25" customHeight="1">
       <c r="F19" s="27" t="s">
         <v>11</v>
       </c>
@@ -3497,7 +3533,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="6:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:12" ht="82.5" customHeight="1">
       <c r="F20" s="27" t="s">
         <v>12</v>
       </c>
@@ -3520,7 +3556,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="6:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:12" ht="38.25" customHeight="1">
       <c r="F21" s="27" t="s">
         <v>13</v>
       </c>
@@ -3543,7 +3579,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="6:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:12" ht="84" customHeight="1">
       <c r="F22" s="27" t="s">
         <v>14</v>
       </c>
@@ -3566,7 +3602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="6:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:12" ht="40.5" customHeight="1">
       <c r="F23" s="27" t="s">
         <v>15</v>
       </c>
@@ -3589,7 +3625,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="6:12" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:12" ht="87.75" customHeight="1">
       <c r="F24" s="27" t="s">
         <v>16</v>
       </c>
@@ -3612,7 +3648,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="6:12" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:12" ht="99" customHeight="1">
       <c r="F25" s="27" t="s">
         <v>17</v>
       </c>
@@ -3635,7 +3671,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="6:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:12" ht="72.75" customHeight="1">
       <c r="F26" s="40" t="s">
         <v>18</v>
       </c>
@@ -3664,285 +3700,166 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E7:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCF94B2-2771-407D-B383-3DD881079E24}">
+  <dimension ref="E7:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
-    <col min="7" max="7" width="42.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="6" max="6" width="86.42578125" customWidth="1"/>
+    <col min="7" max="7" width="49.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E7" s="26" t="s">
+    <row r="7" spans="5:11" ht="45">
+      <c r="E7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11" ht="30">
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="5:11" ht="30">
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="5:11" ht="30">
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="5:11" ht="29.25" customHeight="1">
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="5:11" ht="54.75" customHeight="1">
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
+        <v>6</v>
+      </c>
+      <c r="J12" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E8" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E9" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E10" s="28"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E11" s="22"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E12" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="5:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="5:11" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="5:11" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="5:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="27" t="s">
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="5:11" ht="66" customHeight="1">
+      <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="27" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="5:11">
+      <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="27" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="5:11" ht="34.5" customHeight="1">
+      <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="27" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="5:11" ht="32.25" customHeight="1">
+      <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="5:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="40" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="5:11" ht="30">
+      <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>60</v>
-      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D92C78DD-4E58-456D-9BFB-4C290337E14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2E945EB-C8FD-433B-B394-A6824AE520CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="161">
   <si>
     <t>Resource Name</t>
   </si>
@@ -474,7 +474,7 @@
     <t xml:space="preserve">Brainstorming- 1hr
 Discussion about Data model-1hr
 Creation of Query entity in Data model -1.30hr
-Refrained the data model -2hr
+Refined the data model -2hr
 Review Session with Rafi-1hr
 Discussed about the Changes need to done after Review -1hr
 </t>
@@ -530,6 +530,17 @@
     <t>finished Physical data model</t>
   </si>
   <si>
+    <t>Creating  the operation for  data model</t>
+  </si>
+  <si>
+    <t>Discussed about the Changes need to done after Review 
+Refined the data model 
+Discussion with Raffi about design pattern</t>
+  </si>
+  <si>
+    <t>5 hours</t>
+  </si>
+  <si>
     <t>Working on HLD Document</t>
   </si>
   <si>
@@ -543,6 +554,13 @@
   </si>
   <si>
     <t>4 Hours</t>
+  </si>
+  <si>
+    <t>Working on operation in the data model</t>
+  </si>
+  <si>
+    <t>Refining the operation on the data model.
+Exploring about the code first approach in the web API.</t>
   </si>
 </sst>
 </file>
@@ -1448,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C63C9BC-8DDB-47B1-97C5-6554A935B49F}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1560,17 +1578,17 @@
         <v>9</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="30" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K13" s="23" t="s">
         <v>60</v>
@@ -1694,13 +1712,21 @@
       <c r="E21" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="30"/>
+      <c r="F21" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>160</v>
+      </c>
       <c r="H21" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
+      <c r="I21" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>123</v>
+      </c>
       <c r="K21" s="23" t="s">
         <v>60</v>
       </c>
@@ -3678,8 +3704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="E11:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="D20" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4025,8 +4051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4283,13 +4309,21 @@
       <c r="E21" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="30"/>
+      <c r="F21" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>153</v>
+      </c>
       <c r="H21" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
+      <c r="I21" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>127</v>
+      </c>
       <c r="K21" s="23" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2E945EB-C8FD-433B-B394-A6824AE520CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79982CFA-CAD2-4C91-B151-6B4BAD98E6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="162">
   <si>
     <t>Resource Name</t>
   </si>
@@ -554,6 +554,10 @@
   </si>
   <si>
     <t>4 Hours</t>
+  </si>
+  <si>
+    <t>Refined operations on the data model.
+Explored about creating web api , angular and typescript.</t>
   </si>
   <si>
     <t>Working on operation in the data model</t>
@@ -1466,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C63C9BC-8DDB-47B1-97C5-6554A935B49F}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1640,8 +1644,12 @@
       <c r="E17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="39"/>
+      <c r="F17" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>159</v>
+      </c>
       <c r="H17" s="30" t="s">
         <v>60</v>
       </c>
@@ -1713,10 +1721,10 @@
         <v>17</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>60</v>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79982CFA-CAD2-4C91-B151-6B4BAD98E6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED4DB1A7-1449-4BEB-B74B-CFC41F71FE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="166">
   <si>
     <t>Resource Name</t>
   </si>
@@ -554,6 +554,18 @@
   </si>
   <si>
     <t>4 Hours</t>
+  </si>
+  <si>
+    <t>Refining ViewModel and Operations in Datamodel .</t>
+  </si>
+  <si>
+    <t>Refined Datamodel operations .                                          started creating view models.                                               Explored and worked with Web Api Scaffold,Code First and Database First Approach using migrations in Sample Application.                                                                  Explored about typescript.</t>
+  </si>
+  <si>
+    <t>4 hours</t>
+  </si>
+  <si>
+    <t>2.5 hours</t>
   </si>
   <si>
     <t>Refined operations on the data model.
@@ -1470,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C63C9BC-8DDB-47B1-97C5-6554A935B49F}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1616,11 +1628,19 @@
       <c r="E15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>160</v>
+      </c>
       <c r="H15" s="43"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="I15" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>162</v>
+      </c>
       <c r="K15" s="34" t="s">
         <v>60</v>
       </c>
@@ -1629,13 +1649,10 @@
       <c r="E16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
       <c r="H16" s="30" t="s">
         <v>60</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
       <c r="K16" s="23" t="s">
         <v>60</v>
       </c>
@@ -1648,7 +1665,7 @@
         <v>155</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>60</v>
@@ -1721,10 +1738,10 @@
         <v>17</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>60</v>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED4DB1A7-1449-4BEB-B74B-CFC41F71FE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B854D2E2-565B-458A-A96C-C73D040A0A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="9" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="169">
   <si>
     <t>Resource Name</t>
   </si>
@@ -530,6 +530,14 @@
     <t>finished Physical data model</t>
   </si>
   <si>
+    <t>Started creating HLD</t>
+  </si>
+  <si>
+    <t>Creation of Logical model
+meeting with Rafi
+Explored on HLD</t>
+  </si>
+  <si>
     <t>Creating  the operation for  data model</t>
   </si>
   <si>
@@ -570,6 +578,10 @@
   <si>
     <t>Refined operations on the data model.
 Explored about creating web api , angular and typescript.</t>
+  </si>
+  <si>
+    <t>Refined the physical model
+Explored on HLD,Web API,Typescript</t>
   </si>
   <si>
     <t>Working on operation in the data model</t>
@@ -1482,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C63C9BC-8DDB-47B1-97C5-6554A935B49F}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1594,17 +1606,17 @@
         <v>9</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K13" s="23" t="s">
         <v>60</v>
@@ -1629,17 +1641,17 @@
         <v>11</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H15" s="43"/>
       <c r="I15" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K15" s="34" t="s">
         <v>60</v>
@@ -1662,10 +1674,10 @@
         <v>13</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>60</v>
@@ -1684,13 +1696,21 @@
       <c r="E18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="42"/>
+      <c r="F18" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>166</v>
+      </c>
       <c r="H18" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="I18" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="30">
+        <v>2</v>
+      </c>
       <c r="K18" s="23" t="s">
         <v>60</v>
       </c>
@@ -1738,16 +1758,16 @@
         <v>17</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>60</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J21" s="30" t="s">
         <v>123</v>
@@ -3729,7 +3749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="E11:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="D20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -4076,8 +4096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4281,13 +4301,21 @@
       <c r="E18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="42"/>
+      <c r="F18" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>153</v>
+      </c>
       <c r="H18" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="I18" s="30">
+        <v>5</v>
+      </c>
+      <c r="J18" s="30">
+        <v>1</v>
+      </c>
       <c r="K18" s="23" t="s">
         <v>60</v>
       </c>
@@ -4335,16 +4363,16 @@
         <v>17</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>60</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J21" s="30" t="s">
         <v>127</v>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F181BD8F-2C5A-41CD-AD93-BD5ADDCB3FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F36A10A-D5BF-42BB-8D25-2CD2360F15D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="9" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="186">
   <si>
     <t>Resource Name</t>
   </si>
@@ -570,7 +570,7 @@
     <t>Refining the acceptance criteria,dependencies,constraints</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.Group Dicussion for creating Physical and logical model -1hour                                                                  3.Meeting With Raffi regarding HLD - 1hour                                 4.Explored about High Level Design - 30 Mins                                          </t>
+    <t xml:space="preserve">Group Dicussion for creating Physical and logical model -1hour                                                                 Meeting With Raffi regarding HLD - 1hour                            Explored about High Level Design - 30 Mins                                          </t>
   </si>
   <si>
     <t>4:30 Hours</t>
@@ -638,6 +638,9 @@
   <si>
     <t>Refining the operation on the data model.
 Exploring about the code first approach in the web API.</t>
+  </si>
+  <si>
+    <t>Refined the acceptance criteria,dependencies,constraints</t>
   </si>
 </sst>
 </file>
@@ -1546,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C63C9BC-8DDB-47B1-97C5-6554A935B49F}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1731,7 +1734,12 @@
       <c r="H16" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="30">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
       <c r="K16" s="23" t="s">
         <v>60</v>
       </c>
@@ -1855,8 +1863,12 @@
       <c r="E22" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="F22" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>185</v>
+      </c>
       <c r="H22" s="30" t="s">
         <v>60</v>
       </c>
@@ -3824,7 +3836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="E11:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
+    <sheetView topLeftCell="D19" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -4171,8 +4183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4312,8 +4324,12 @@
       <c r="H14" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="I14" s="30">
+        <v>5</v>
+      </c>
+      <c r="J14" s="30">
+        <v>2</v>
+      </c>
       <c r="K14" s="23" t="s">
         <v>60</v>
       </c>
@@ -4352,8 +4368,12 @@
       <c r="H16" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
+      <c r="I16" s="30">
+        <v>6</v>
+      </c>
+      <c r="J16" s="30">
+        <v>2</v>
+      </c>
       <c r="K16" s="23" t="s">
         <v>60</v>
       </c>
@@ -4480,7 +4500,7 @@
       <c r="F22" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="18" t="s">
         <v>164</v>
       </c>
       <c r="H22" s="30" t="s">

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F36A10A-D5BF-42BB-8D25-2CD2360F15D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A6025E-99C6-4B70-A0BE-85A4BCDD1BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="9" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="12.04.2022 " sheetId="49" r:id="rId8"/>
     <sheet name="13.04.2022" sheetId="50" r:id="rId9"/>
     <sheet name="18.04.2022" sheetId="51" r:id="rId10"/>
+    <sheet name="19.04.2022 " sheetId="52" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="189">
   <si>
     <t>Resource Name</t>
   </si>
@@ -641,6 +642,17 @@
   </si>
   <si>
     <t>Refined the acceptance criteria,dependencies,constraints</t>
+  </si>
+  <si>
+    <t>Working on the HLD Document, and created Layout for the user side</t>
+  </si>
+  <si>
+    <t>Explored About components and System architecture for the HLD document
+Started Working on the HLD document
+Explored about the Components in Angular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working </t>
   </si>
 </sst>
 </file>
@@ -876,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1000,6 +1012,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1549,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C63C9BC-8DDB-47B1-97C5-6554A935B49F}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1878,6 +1903,285 @@
       <c r="J22" s="30" t="s">
         <v>141</v>
       </c>
+      <c r="K22" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277FC7A1-65DE-4294-81B5-CC274C5DE27E}">
+  <dimension ref="E7:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:11" ht="60">
+      <c r="E7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="5:11">
+      <c r="E8" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="5:11">
+      <c r="E9" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="5:11">
+      <c r="E10" s="28"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="5:11">
+      <c r="E11" s="22"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="5:11" ht="60">
+      <c r="E12" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" ht="105" customHeight="1">
+      <c r="E13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="H13" s="30">
+        <v>6</v>
+      </c>
+      <c r="I13" s="30">
+        <v>2</v>
+      </c>
+      <c r="J13" s="30"/>
+      <c r="K13" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" ht="101.25" customHeight="1">
+      <c r="E14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" ht="93.75" customHeight="1">
+      <c r="E15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" ht="90.75" customHeight="1">
+      <c r="E16" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" ht="70.5" customHeight="1">
+      <c r="E17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="39"/>
+      <c r="H17" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" ht="121.5" customHeight="1">
+      <c r="E18" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11">
+      <c r="E19" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" ht="98.25" customHeight="1">
+      <c r="E20" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" ht="83.25" customHeight="1">
+      <c r="E21" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" ht="105" customHeight="1">
+      <c r="E22" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="34" t="s">
         <v>60</v>
       </c>
@@ -4183,7 +4487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A6025E-99C6-4B70-A0BE-85A4BCDD1BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A76A8B63-27A1-4535-8319-F229B96346B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="191">
   <si>
     <t>Resource Name</t>
   </si>
@@ -653,6 +653,14 @@
   </si>
   <si>
     <t xml:space="preserve">Working </t>
+  </si>
+  <si>
+    <t>Working on the HLD document.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explored on Components and system Architecture
+Created the Database Dictionary
+Started working on HLD </t>
   </si>
 </sst>
 </file>
@@ -888,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1012,19 +1020,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1917,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277FC7A1-65DE-4294-81B5-CC274C5DE27E}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2067,8 +2062,8 @@
       <c r="G15" s="30"/>
       <c r="H15" s="43"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49" t="s">
+      <c r="J15" s="30"/>
+      <c r="K15" s="34" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2076,13 +2071,12 @@
       <c r="E16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="47"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="30" t="s">
         <v>60</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="51" t="s">
+      <c r="K16" s="23" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2098,8 +2092,8 @@
         <v>60</v>
       </c>
       <c r="I17" s="30"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49" t="s">
+      <c r="J17" s="30"/>
+      <c r="K17" s="34" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2107,12 +2101,18 @@
       <c r="E18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="30"/>
+      <c r="F18" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" s="30">
+        <v>5</v>
+      </c>
+      <c r="I18" s="30">
+        <v>2</v>
+      </c>
       <c r="J18" s="30"/>
       <c r="K18" s="23" t="s">
         <v>60</v>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A76A8B63-27A1-4535-8319-F229B96346B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E0808BA-612B-4217-B404-8033AFAA65C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="194">
   <si>
     <t>Resource Name</t>
   </si>
@@ -652,6 +652,9 @@
 Explored about the Components in Angular</t>
   </si>
   <si>
+    <t>Refining in View Model</t>
+  </si>
+  <si>
     <t xml:space="preserve">Working </t>
   </si>
   <si>
@@ -661,6 +664,12 @@
     <t xml:space="preserve">Explored on Components and system Architecture
 Created the Database Dictionary
 Started working on HLD </t>
+  </si>
+  <si>
+    <t>Created layout for user navigation bar</t>
+  </si>
+  <si>
+    <t>Explored on Typescript and component files in angular.                                                                              Worked on user side layout.</t>
   </si>
 </sst>
 </file>
@@ -1569,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C63C9BC-8DDB-47B1-97C5-6554A935B49F}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1912,7 +1921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277FC7A1-65DE-4294-81B5-CC274C5DE27E}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -2029,13 +2038,13 @@
       <c r="G13" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="30"/>
+      <c r="I13" s="30">
         <v>6</v>
       </c>
-      <c r="I13" s="30">
+      <c r="J13" s="30">
         <v>2</v>
       </c>
-      <c r="J13" s="30"/>
       <c r="K13" s="23" t="s">
         <v>60</v>
       </c>
@@ -2058,7 +2067,9 @@
       <c r="E15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="30"/>
+      <c r="F15" s="30" t="s">
+        <v>188</v>
+      </c>
       <c r="G15" s="30"/>
       <c r="H15" s="43"/>
       <c r="I15" s="30"/>
@@ -2085,7 +2096,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G17" s="39"/>
       <c r="H17" s="30" t="s">
@@ -2102,18 +2113,18 @@
         <v>14</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="H18" s="30">
+        <v>191</v>
+      </c>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30">
         <v>5</v>
       </c>
-      <c r="I18" s="30">
+      <c r="J18" s="30">
         <v>2</v>
       </c>
-      <c r="J18" s="30"/>
       <c r="K18" s="23" t="s">
         <v>60</v>
       </c>
@@ -2145,13 +2156,21 @@
       <c r="E20" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
+      <c r="F20" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>193</v>
+      </c>
       <c r="H20" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="I20" s="30">
+        <v>5</v>
+      </c>
+      <c r="J20" s="30">
+        <v>3</v>
+      </c>
       <c r="K20" s="23" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E0808BA-612B-4217-B404-8033AFAA65C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BF018DA-9973-4D6D-B270-32533A500A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="195">
   <si>
     <t>Resource Name</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>Refining in View Model</t>
+  </si>
+  <si>
+    <t>Refined View Model and Operations in DataModel.2h                                                                 Started Exploring about Angular and its components. 1.5hr                                                                               Created Sample Component and Worked with Sample API in Angular.   2hr                                                                    Explored about typecript.1hr</t>
   </si>
   <si>
     <t xml:space="preserve">Working </t>
@@ -1578,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C63C9BC-8DDB-47B1-97C5-6554A935B49F}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1921,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277FC7A1-65DE-4294-81B5-CC274C5DE27E}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2070,10 +2073,16 @@
       <c r="F15" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="G15" s="30"/>
+      <c r="G15" s="30" t="s">
+        <v>189</v>
+      </c>
       <c r="H15" s="43"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
+      <c r="I15" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>127</v>
+      </c>
       <c r="K15" s="34" t="s">
         <v>60</v>
       </c>
@@ -2096,7 +2105,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G17" s="39"/>
       <c r="H17" s="30" t="s">
@@ -2113,10 +2122,10 @@
         <v>14</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30">
@@ -2157,10 +2166,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>60</v>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BF018DA-9973-4D6D-B270-32533A500A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBAE7327-601C-4966-A21E-5AA9BC41353E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="197">
   <si>
     <t>Resource Name</t>
   </si>
@@ -637,8 +637,8 @@
     <t>Working on operation in the data model</t>
   </si>
   <si>
-    <t>Refining the operation on the data model.
-Exploring about the code first approach in the web API.</t>
+    <t xml:space="preserve">Refining the operation on the data model.
+Exploring about the code first approach </t>
   </si>
   <si>
     <t>Refined the acceptance criteria,dependencies,constraints</t>
@@ -673,6 +673,13 @@
   </si>
   <si>
     <t>Explored on Typescript and component files in angular.                                                                              Worked on user side layout.</t>
+  </si>
+  <si>
+    <t>Worked on view model</t>
+  </si>
+  <si>
+    <t>Explored about Typescript and worked on sample code.
+Refining operation in the data model.</t>
   </si>
 </sst>
 </file>
@@ -1581,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C63C9BC-8DDB-47B1-97C5-6554A935B49F}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1924,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277FC7A1-65DE-4294-81B5-CC274C5DE27E}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2112,7 +2119,6 @@
         <v>60</v>
       </c>
       <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
       <c r="K17" s="34" t="s">
         <v>60</v>
       </c>
@@ -2188,13 +2194,21 @@
       <c r="E21" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="30"/>
+      <c r="F21" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>196</v>
+      </c>
       <c r="H21" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
+      <c r="I21" s="30">
+        <v>5</v>
+      </c>
+      <c r="J21" s="30">
+        <v>2</v>
+      </c>
       <c r="K21" s="23" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBAE7327-601C-4966-A21E-5AA9BC41353E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{012A714F-576A-4611-9E4A-931668F6669D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="198">
   <si>
     <t>Resource Name</t>
   </si>
@@ -658,7 +658,10 @@
     <t>Refined View Model and Operations in DataModel.2h                                                                 Started Exploring about Angular and its components. 1.5hr                                                                               Created Sample Component and Worked with Sample API in Angular.   2hr                                                                    Explored about typecript.1hr</t>
   </si>
   <si>
-    <t xml:space="preserve">Working </t>
+    <t>Working  on View Model</t>
+  </si>
+  <si>
+    <t>Explored on Typescript and component files in angular.                                                                              Worked on Dashboard for Layouts.</t>
   </si>
   <si>
     <t>Working on the HLD document.</t>
@@ -1588,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C63C9BC-8DDB-47B1-97C5-6554A935B49F}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1931,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277FC7A1-65DE-4294-81B5-CC274C5DE27E}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2114,11 +2117,18 @@
       <c r="F17" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="G17" s="39"/>
+      <c r="G17" s="39" t="s">
+        <v>191</v>
+      </c>
       <c r="H17" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="30"/>
+      <c r="I17" s="30">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
       <c r="K17" s="34" t="s">
         <v>60</v>
       </c>
@@ -2128,10 +2138,10 @@
         <v>14</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30">
@@ -2172,10 +2182,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>60</v>
@@ -2195,10 +2205,10 @@
         <v>17</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>60</v>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{012A714F-576A-4611-9E4A-931668F6669D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8184D64D-AD9F-4C7C-B5B7-ED40C50E7182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="201">
   <si>
     <t>Resource Name</t>
   </si>
@@ -658,10 +658,20 @@
     <t>Refined View Model and Operations in DataModel.2h                                                                 Started Exploring about Angular and its components. 1.5hr                                                                               Created Sample Component and Worked with Sample API in Angular.   2hr                                                                    Explored about typecript.1hr</t>
   </si>
   <si>
+    <t>Working on Admin Layout.</t>
+  </si>
+  <si>
+    <t>Explored on Typescript.
+Worked on Admin side layout.</t>
+  </si>
+  <si>
     <t>Working  on View Model</t>
   </si>
   <si>
-    <t>Explored on Typescript and component files in angular.                                                                              Worked on Dashboard for Layouts.</t>
+    <t>Explored on Typescript.                                                                              Worked on Dashboard for Layouts.</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
   <si>
     <t>Working on the HLD document.</t>
@@ -1932,10 +1942,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277FC7A1-65DE-4294-81B5-CC274C5DE27E}">
-  <dimension ref="E7:K22"/>
+  <dimension ref="E7:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2101,7 +2111,12 @@
       <c r="E16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="46"/>
+      <c r="F16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>191</v>
+      </c>
       <c r="H16" s="30" t="s">
         <v>60</v>
       </c>
@@ -2110,15 +2125,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="5:11" ht="70.5" customHeight="1">
+    <row r="17" spans="5:15" ht="70.5" customHeight="1">
       <c r="E17" s="27" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>60</v>
@@ -2132,16 +2147,19 @@
       <c r="K17" s="34" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="5:11" ht="121.5" customHeight="1">
+      <c r="O17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" ht="121.5" customHeight="1">
       <c r="E18" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30">
@@ -2154,7 +2172,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="5:11">
+    <row r="19" spans="5:15">
       <c r="E19" s="27" t="s">
         <v>15</v>
       </c>
@@ -2177,15 +2195,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="98.25" customHeight="1">
+    <row r="20" spans="5:15" ht="98.25" customHeight="1">
       <c r="E20" s="27" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>60</v>
@@ -2200,15 +2218,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="5:11" ht="83.25" customHeight="1">
+    <row r="21" spans="5:15" ht="83.25" customHeight="1">
       <c r="E21" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>60</v>
@@ -2223,7 +2241,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="5:11" ht="105" customHeight="1">
+    <row r="22" spans="5:15" ht="105" customHeight="1">
       <c r="E22" s="40" t="s">
         <v>18</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7F0B0D0-451D-4EC6-A750-74AB49BBC143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="416" documentId="11_1247F60BE6C2AA1B97E2F28F91B8B58A572C5BD9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14EFC527-577C-4745-9490-7200D6478AA1}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="221">
   <si>
     <t>Resource Name</t>
   </si>
@@ -750,7 +750,16 @@
 </t>
   </si>
   <si>
-    <t>Working on Operations and Services</t>
+    <t>refining Services in Class File</t>
+  </si>
+  <si>
+    <t>1.Refined Viewmodel and operations -2hr                                                                                   2.Session on HLD   - 30min                                                   3. Created Article Card Component in Angular-1hr,        4.SoftSkill session-1hr,                                                           5.Started creating services for datamod</t>
+  </si>
+  <si>
+    <t>Working on Services</t>
+  </si>
+  <si>
+    <t>Working on Data model and Services</t>
   </si>
   <si>
     <t>SoftSkill Session
@@ -2010,8 +2019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277FC7A1-65DE-4294-81B5-CC274C5DE27E}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2351,8 +2360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C081B83-E4F9-48C7-866F-0458E5F9EE36}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2500,8 +2509,12 @@
       <c r="E15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="F15" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>217</v>
+      </c>
       <c r="H15" s="43"/>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
@@ -2526,7 +2539,9 @@
       <c r="E17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="30"/>
+      <c r="F17" s="30" t="s">
+        <v>218</v>
+      </c>
       <c r="G17" s="39"/>
       <c r="H17" s="30" t="s">
         <v>60</v>
@@ -2541,10 +2556,10 @@
         <v>14</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30" t="s">

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86AB8D5A-3040-43EC-866B-98119DC8278A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78C660CA-F542-4A86-821B-E7676E197D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -2397,8 +2397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C081B83-E4F9-48C7-866F-0458E5F9EE36}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78C660CA-F542-4A86-821B-E7676E197D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3BAFF0E-7CAA-4615-9DE4-C845C5F2005E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="233">
   <si>
     <t>Resource Name</t>
   </si>
@@ -746,6 +746,9 @@
     <t>1.30hours</t>
   </si>
   <si>
+    <t>Working on System Architecture</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 </t>
   </si>
@@ -790,7 +793,7 @@
 Started working on the Refining of operations in Datamodel</t>
   </si>
   <si>
-    <t>Working on System Architecture</t>
+    <t xml:space="preserve">SoftSkill session-1hr,   </t>
   </si>
   <si>
     <t>Worked on Navigation bar for user side-1.30hr                                                                         Attended rafi session about hld-30mins                        Review with rafi-30mins                                                      Worked on System Architecture-1hr                        Explored on Src files,types of binding in angular and typescript-2.30hrs                                                                soft skill-1hr</t>
@@ -802,7 +805,15 @@
     <t>Working on syatem architecture and NFR</t>
   </si>
   <si>
-    <t>Attended soft skill session</t>
+    <t>Attended soft skill session-1hr
+Attended the session on Hld-30min
+Review session with raffi-30min
+Worked on System Architecture-1hr
+Worked on NFR-1hr
+Working on uer side layout-1hr</t>
+  </si>
+  <si>
+    <t>4 hrs</t>
   </si>
 </sst>
 </file>
@@ -2397,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C081B83-E4F9-48C7-866F-0458E5F9EE36}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2529,9 +2540,11 @@
       <c r="E14" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="35"/>
+      <c r="F14" s="35" t="s">
+        <v>215</v>
+      </c>
       <c r="G14" s="45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>60</v>
@@ -2547,14 +2560,14 @@
         <v>11</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H15" s="43"/>
       <c r="I15" s="30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>116</v>
@@ -2568,10 +2581,10 @@
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>60</v>
@@ -2580,7 +2593,7 @@
         <v>195</v>
       </c>
       <c r="J16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K16" s="23" t="s">
         <v>60</v>
@@ -2591,10 +2604,10 @@
         <v>13</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>60</v>
@@ -2614,10 +2627,10 @@
         <v>14</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30" t="s">
@@ -2630,16 +2643,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="5:11">
+    <row r="19" spans="5:11" ht="85.5" customHeight="1">
       <c r="E19" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="G19" s="30" t="s">
+        <v>227</v>
+      </c>
       <c r="H19" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="30"/>
+      <c r="I19" s="30" t="s">
+        <v>60</v>
+      </c>
       <c r="J19" s="30"/>
       <c r="K19" s="23" t="s">
         <v>60</v>
@@ -2650,19 +2667,19 @@
         <v>16</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>60</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K20" s="23" t="s">
         <v>60</v>
@@ -2673,16 +2690,20 @@
         <v>17</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
+      <c r="I21" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>204</v>
+      </c>
       <c r="K21" s="23" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78C660CA-F542-4A86-821B-E7676E197D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{911BDDC0-6A58-4C9A-AAD1-B331DE6100E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="235">
   <si>
     <t>Resource Name</t>
   </si>
@@ -746,8 +746,7 @@
     <t>1.30hours</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t>Working on System Architecture</t>
   </si>
   <si>
     <t>Refining Services in Class File</t>
@@ -790,7 +789,22 @@
 Started working on the Refining of operations in Datamodel</t>
   </si>
   <si>
-    <t>Working on System Architecture</t>
+    <t>Working on NFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Worked on Review Dashboard Layout 
+Team Discussion
+Review meeting 
+SoftSkill session-1hr,  
+Session on HLD - 3O mins
+Exploring angular   </t>
+  </si>
+  <si>
+    <t> 5hr</t>
+  </si>
+  <si>
+    <t>1 hr</t>
   </si>
   <si>
     <t>Worked on Navigation bar for user side-1.30hr                                                                         Attended rafi session about hld-30mins                        Review with rafi-30mins                                                      Worked on System Architecture-1hr                        Explored on Src files,types of binding in angular and typescript-2.30hrs                                                                soft skill-1hr</t>
@@ -802,7 +816,15 @@
     <t>Working on syatem architecture and NFR</t>
   </si>
   <si>
-    <t>Attended soft skill session</t>
+    <t>Attended soft skill session-1hr
+Attended the session on Hld-30min
+Review session with raffi-30min
+Worked on System Architecture-1hr
+Worked on NFR-1hr
+Working on uer side layout-1hr</t>
+  </si>
+  <si>
+    <t>4 hrs</t>
   </si>
 </sst>
 </file>
@@ -2397,8 +2419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C081B83-E4F9-48C7-866F-0458E5F9EE36}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2529,9 +2551,11 @@
       <c r="E14" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="45" t="s">
+      <c r="F14" s="35" t="s">
         <v>215</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>212</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>60</v>
@@ -2630,17 +2654,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="5:11">
+    <row r="19" spans="5:11" ht="85.5" customHeight="1">
       <c r="E19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="F19" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>227</v>
+      </c>
       <c r="H19" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
+      <c r="I19" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>229</v>
+      </c>
       <c r="K19" s="23" t="s">
         <v>60</v>
       </c>
@@ -2650,19 +2682,19 @@
         <v>16</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>60</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K20" s="23" t="s">
         <v>60</v>
@@ -2673,16 +2705,20 @@
         <v>17</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
+      <c r="I21" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>204</v>
+      </c>
       <c r="K21" s="23" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92115D18-7D91-4DB1-ADAD-A547BD556883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7253B17D-4B08-45E4-8E40-2960E32FA98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="18.04.2022" sheetId="51" r:id="rId10"/>
     <sheet name="19.04.2022 " sheetId="52" r:id="rId11"/>
     <sheet name="20.04.2022" sheetId="54" r:id="rId12"/>
+    <sheet name="21.04.2022" sheetId="55" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="246">
   <si>
     <t>Resource Name</t>
   </si>
@@ -852,6 +853,29 @@
   </si>
   <si>
     <t>3 hours</t>
+  </si>
+  <si>
+    <t>Working on the Editor in the Create article page</t>
+  </si>
+  <si>
+    <t>9.00-9.15 -Brainstorming with team
+9.15-10.15-Refined the Articles,Articles Comment,user,department and designation entity
+10.15-10.40-Break
+10.40-12.00-Refined the operation for article,article comment,user,department and designation entity
+12.00-12.30-Referring other team mates work
+12.30-1.00-Discussion with the team before meeting
+1.00-1.30-Lunch
+1.30-2.45-Review session with rafi
+3.00-4.00-Timesheet and SVN Session
+4.00-4.30-Break
+4.30-5.00-Discussion with team after the review meeting 
+5.00-6.00-Started working on the editor in the create article page</t>
+  </si>
+  <si>
+    <t>6.20 hours</t>
+  </si>
+  <si>
+    <t>2.25 hours</t>
   </si>
 </sst>
 </file>
@@ -2446,7 +2470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C081B83-E4F9-48C7-866F-0458E5F9EE36}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -2773,6 +2797,277 @@
       <c r="J22" s="30" t="s">
         <v>241</v>
       </c>
+      <c r="K22" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AF63B3-2472-435F-A833-BA0C49A1E3BE}">
+  <dimension ref="E7:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:11">
+      <c r="E7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="5:11">
+      <c r="E8" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="5:11">
+      <c r="E9" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="5:11">
+      <c r="E10" s="28"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="5:11">
+      <c r="E11" s="22"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="5:11" ht="30">
+      <c r="E12" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" ht="230.25" customHeight="1">
+      <c r="E13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" ht="101.25" customHeight="1">
+      <c r="E14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" ht="93.75" customHeight="1">
+      <c r="E15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" ht="90.75" customHeight="1">
+      <c r="E16" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="K16" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" ht="70.5" customHeight="1">
+      <c r="E17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" ht="121.5" customHeight="1">
+      <c r="E18" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30">
+        <v>1</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" ht="85.5" customHeight="1">
+      <c r="E19" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" ht="98.25" customHeight="1">
+      <c r="E20" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" ht="83.25" customHeight="1">
+      <c r="E21" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" ht="145.5" customHeight="1">
+      <c r="E22" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="34" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7253B17D-4B08-45E4-8E40-2960E32FA98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95E970A9-671B-4671-AAF5-080E65119C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="247">
   <si>
     <t>Resource Name</t>
   </si>
@@ -876,6 +876,20 @@
   </si>
   <si>
     <t>2.25 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00-9.15 -Brainstorming with team
+9.30-10.30-NFR
+10.30-10.45-break
+10.45-12.00-learnt about what is API codefirst uproch 
+12.00-12.30-learnt about HTTP(put,update,delete,get)
+12.30-1.00-Discussion with the team before meeting
+1.00-1.30-Lunch
+1.30-2.45-Review session with rafi
+3.00-4.00-Timesheet and SVN Session
+4.30-5.00-Discussion with team after the review meeting 
+5.00-5.30-Data model 
+</t>
   </si>
 </sst>
 </file>
@@ -2470,7 +2484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C081B83-E4F9-48C7-866F-0458E5F9EE36}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -2811,8 +2825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AF63B3-2472-435F-A833-BA0C49A1E3BE}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2997,7 +3011,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="121.5" customHeight="1">
+    <row r="18" spans="5:11" ht="96.75" customHeight="1">
       <c r="E18" s="27" t="s">
         <v>14</v>
       </c>
@@ -3012,12 +3026,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="5:11" ht="85.5" customHeight="1">
+    <row r="19" spans="5:11" ht="223.5" customHeight="1">
       <c r="E19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="F19" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>246</v>
+      </c>
       <c r="H19" s="30" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95A0C8EE-5453-4BFE-99F2-F4DD9904E741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{104BC102-858D-4C5E-9F78-46430A60F236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="254">
   <si>
     <t>Resource Name</t>
   </si>
@@ -911,6 +911,26 @@
 4.30-5.00-Discussion with team after the review meeting 
 5.00-5.30-Data model 
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00am-9.15am Brainstroming with team
+9.15am-9.20am Mail checking
+9.20am-10.25am Working on system architecture
+10.25am-11.00am Working on NFR
+11.00am-11.20am Tea break
+11.20am-12.30pm Understanding the service,database diagram,data model done by the organization.
+12.30pm-1.15pm Lunch
+1.30pm-2.45pm review seesion with Rafi
+3.00pm-4.00pm Timesheet and SVN session
+4.00pm-4.30pm Tea break
+4.30pm-5.00pm discussion about the work split in team
+</t>
+  </si>
+  <si>
+    <t>3.55 Hours</t>
+  </si>
+  <si>
+    <t>2.35 Hours</t>
   </si>
 </sst>
 </file>
@@ -2846,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AF63B3-2472-435F-A833-BA0C49A1E3BE}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3078,7 +3098,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="98.25" customHeight="1">
+    <row r="20" spans="5:11" ht="55.5" customHeight="1">
       <c r="E20" s="27" t="s">
         <v>16</v>
       </c>
@@ -3093,17 +3113,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="5:11" ht="83.25" customHeight="1">
+    <row r="21" spans="5:11" ht="222.75" customHeight="1">
       <c r="E21" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="39"/>
-      <c r="G21" s="30"/>
+      <c r="G21" s="30" t="s">
+        <v>251</v>
+      </c>
       <c r="H21" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
+      <c r="I21" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>253</v>
+      </c>
       <c r="K21" s="23" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{104BC102-858D-4C5E-9F78-46430A60F236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{137ABC5A-E3F1-48BA-B722-7B2B806DC4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="255">
   <si>
     <t>Resource Name</t>
   </si>
@@ -882,6 +882,17 @@
   </si>
   <si>
     <t>6.15hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00-9.15 -Brainstorming with team.
+9:40-11:10 - Worked on services.
+12.30-1.00-Discussion with the team before meeting.
+1.00-1.30-Lunch.
+1.30-2.45-Review session with rafi.
+3.00-4.00-Timesheet and SVN Session.
+4.30-5.00-Discussion with team after the review meeting .
+5.10-5.30- Gathering information to do sample web api.
+</t>
   </si>
   <si>
     <t>Working on services</t>
@@ -2525,7 +2536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C081B83-E4F9-48C7-866F-0458E5F9EE36}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -2866,8 +2877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AF63B3-2472-435F-A833-BA0C49A1E3BE}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3028,7 +3039,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="5:11" ht="90.75" customHeight="1">
+    <row r="16" spans="5:11" ht="90" customHeight="1">
       <c r="E16" s="27" t="s">
         <v>12</v>
       </c>
@@ -3041,16 +3052,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="5:11" ht="70.5" customHeight="1">
+    <row r="17" spans="5:11" ht="166.5" customHeight="1">
       <c r="E17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="39"/>
+      <c r="F17" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>248</v>
+      </c>
       <c r="H17" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="30"/>
+      <c r="I17" s="30">
+        <v>4</v>
+      </c>
       <c r="J17">
         <v>2</v>
       </c>
@@ -3063,10 +3080,10 @@
         <v>14</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30" t="s">
@@ -3087,7 +3104,7 @@
         <v>229</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H19" s="30" t="s">
         <v>60</v>
@@ -3119,16 +3136,16 @@
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>60</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K21" s="23" t="s">
         <v>60</v>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{137ABC5A-E3F1-48BA-B722-7B2B806DC4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC3A2CED-EC97-4C99-80B9-5A25C888F79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="259">
   <si>
     <t>Resource Name</t>
   </si>
@@ -884,6 +884,28 @@
     <t>6.15hour</t>
   </si>
   <si>
+    <t>Worked on Dependency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00-9.15 -Brainstorming with team
+9.15-10.30-Worked on Services and Dependency Interaction.
+10.30-10.40-Break
+10.40-12.30-Learned AngularMaterial,DesignComponent,Route modules,and How to import Api in src file.
+12.30-1.00-Discussion with the team before meeting
+1.00-1.30-Break
+1.30-2.45-Review session with rafi
+3.00-4.00-Timesheet and SVN Session
+4.00-4.30-Break
+4.30-5.00-Discussion with team after the review meeting 
+5.00-5.45-Refined MasterTable services and discuss with team. </t>
+  </si>
+  <si>
+    <t>6.hours</t>
+  </si>
+  <si>
+    <t>2.10hours</t>
+  </si>
+  <si>
     <t xml:space="preserve">9.00-9.15 -Brainstorming with team.
 9:40-11:10 - Worked on services.
 12.30-1.00-Discussion with the team before meeting.
@@ -918,7 +940,7 @@
 12.30-1.00-Discussion with the team before meeting
 1.00-1.30-Lunch
 1.30-2.45-Review session with rafi
-3.00-4.00-Timesheet and SVN Session
+3.00-4.00-Timesheet and SVN Session 4.00-4.30 -Break
 4.30-5.00-Discussion with team after the review meeting 
 5.00-5.30-Data model 
 </t>
@@ -2536,7 +2558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C081B83-E4F9-48C7-866F-0458E5F9EE36}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -2877,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AF63B3-2472-435F-A833-BA0C49A1E3BE}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3043,11 +3065,21 @@
       <c r="E16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="46"/>
+      <c r="F16" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>249</v>
+      </c>
       <c r="H16" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="J16" t="s">
+        <v>251</v>
+      </c>
       <c r="K16" s="23" t="s">
         <v>60</v>
       </c>
@@ -3060,7 +3092,7 @@
         <v>225</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>60</v>
@@ -3080,10 +3112,10 @@
         <v>14</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30" t="s">
@@ -3104,13 +3136,17 @@
         <v>229</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H19" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
+      <c r="I19" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>127</v>
+      </c>
       <c r="K19" s="23" t="s">
         <v>60</v>
       </c>
@@ -3136,16 +3172,16 @@
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="30" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>60</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K21" s="23" t="s">
         <v>60</v>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CA761D5-D78A-4CFC-A3DA-80EC33CCB267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCDAED1A-BAFF-43B4-A20A-BC4B35EE606E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="266">
   <si>
     <t>Resource Name</t>
   </si>
@@ -866,7 +866,7 @@
 12.30-1.00-Discussion with the team before meeting
 1.00-1.30-Lunch
 1.30-2.45-Review session with rafi
-3.00-4.00-Timesheet and SVN Session
+3.00-4.00-Timesheet and SVN Session by AspireSystems
 4.00-4.30-Break
 4.30-5.00-Discussion with team after the review meeting 
 5.00-6.00-Started working on the editor in the create article page</t>
@@ -887,13 +887,13 @@
 12.30-1.00-Discussion with the team before meeting
 1.00-1.30-Lunch
 1.30-2.45-Review session with rafi
-3.00-4.00-Timesheet and SVN Session
+3.00-4.00-Timesheet and SVN Session by AspireSystems
 4.00-4.20-Break
 4.30-5.00-Discussion with team after the review meeting 
 5.00-6.00-Explored System Architecture(presentation layer,bussiness layer,data access layer &amp; cross cutting concerns)</t>
   </si>
   <si>
-    <t>9.00 - 9.15 -General Discussion                                                           9.15-10.00-Refined Operations in the data model                             10.00-11.00 - created Services and  its methods.                               11.00-11.20    - Coffee break                                                                   11.20-12.00    - Refined Services                                                                   12.00-12.30 - Refined database diagram in SQL                                 12.30-1.00 - Team Discussion before review                             1.00-1.30  - Lunch                                                                                    1.30-2.45  - Review Meeting with Raffi                                                        3.00-4.00 -Timesheet and SVN session.                                                      4.00-4.20 - Break                                                                                             4.30-5.00-Team Discussion After Review                                                         5.00-6.00 - Worked with Sample Web API.S</t>
+    <t>9.00 - 9.15 -General Discussion                                                           9.15-10.00-Refined Operations in the data model                             10.00-11.00 - created Services and  its methods.                               11.00-11.20    - Coffee break                                                                   11.20-12.00    - Refined Services                                                                   12.00-12.30 - Refined database diagram in SQL                                 12.30-1.00 - Team Discussion before review                             1.00-1.30  - Lunch                                                                                    1.30-2.45  - Review Meeting with Raffi                                                        3.00-4.00 -Timesheet and SVN session by AspireSystems                                                  4.00-4.20 - Break                                                                                             4.30-5.00-Team Discussion After Review                                                         5.00-6.00 - Worked with Sample Web API.S</t>
   </si>
   <si>
     <t>6.15hour</t>
@@ -909,7 +909,7 @@
 12.30-1.00-Discussion with the team before meeting
 1.00-1.30-Break
 1.30-2.45-Review session with rafi
-3.00-4.00-Timesheet and SVN Session
+3.00-4.00-Timesheet and SVN Session by AspireSystems
 4.00-4.30-Break
 4.30-5.00-Discussion with team after the review meeting 
 5.00-5.45-Refined MasterTable services and discuss with team. </t>
@@ -926,7 +926,7 @@
 12.30-1.00-Discussion with the team before meeting.
 1.00-1.30-Lunch.
 1.30-2.45-Review session with rafi.
-3.00-4.00-Timesheet and SVN Session.
+3.00-4.00-Timesheet and SVN Session by AspireSystems .
 4.30-5.00-Discussion with team after the review meeting .
 5.10-5.30- Gathering information to do sample web api.
 </t>
@@ -940,11 +940,11 @@
 Discussion with Team before Review                       -12.30 -1.00
 Lunch                                                                             -1.00 -1.25
 Session with Rafi                                                         -1.30 -2.45
-Attended Timesheet and SVN session                     -3.00 -4.00
+Attended Timesheet and SVN session by AspireSystems                    -3.00 -4.00
 Discussion with the team about review meeting   -4.30 -5.00
 Created the Master Table services                           -5.00 -5.15
 Refined the Article and User Services                   -5.15 -5.40
-Changes in the Services has been done with discussion                                                    -                                                                                    -5.40 -6.00</t>
+Changes in the Services has been done with discussion                                                                                                                      -5.40 -6.00</t>
   </si>
   <si>
     <t xml:space="preserve">9.00-9.15 -Brainstorming with team
@@ -955,7 +955,7 @@
 12.30-1.00-Discussion with the team before meeting
 1.00-1.30-Lunch
 1.30-2.45-Review session with rafi
-3.00-4.00-Timesheet and SVN Session 4.00-4.30 -Break
+3.00-4.00-Timesheet and SVN Session by AspireSystems4.00-4.30 -Break
 4.30-5.00-Discussion with team after the review meeting 
 5.00-5.30-Data model 
 </t>
@@ -973,7 +973,7 @@
 1.00-1.30 Lunch
 1.30-2.45 Review with Rafi
 2.45-3.00 break
-3.00-4.00 Timesheet and SNS Session
+3.00-4.00 Timesheet and SNS Session by AspireSystems
 4.00-4.30 Break
 4.30-5.00 Discussion with team
 5.00-5.50 Worked on basic code of WebApi CodeFirst approach</t>
@@ -993,7 +993,7 @@
 11.20am-12.30pm Understanding the service,database diagram,data model done by the organization.
 12.30pm-1.15pm Lunch
 1.30pm-2.45pm review seesion with Rafi
-3.00pm-4.00pm Timesheet and SVN session
+3.00pm-4.00pm Timesheet and SVN session by AspireSystems
 4.00pm-4.30pm Tea break
 4.30pm-5.00pm discussion about the work split in team
 </t>
@@ -1003,6 +1003,22 @@
   </si>
   <si>
     <t>2.35 Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00-9.15 -Brainstorming with team
+9.15-10.30-Database Diagram
+10.30-11:00-Break
+11.00-12.00-Reviewing and Correcting the database Diagram.
+12.30-1.00-Discussion with the team before meeting
+1.00-1.30-Lunch
+1.30-2.45-Review session with rafi
+3.00-4.00-Timesheet and SVN Session by AspireSystems
+4.00-4.30-Break
+4.30-5.00-Discussion with team after the review meeting and splited the work.
+5.00-5:30 - Had a look on system architecture concepts.              </t>
+  </si>
+  <si>
+    <t>4hrs 30 mins</t>
   </si>
 </sst>
 </file>
@@ -2938,8 +2954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AF63B3-2472-435F-A833-BA0C49A1E3BE}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3045,7 +3061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="5:11" ht="230.25" customHeight="1">
+    <row r="13" spans="5:11" ht="219.75" customHeight="1">
       <c r="E13" s="27" t="s">
         <v>9</v>
       </c>
@@ -3066,7 +3082,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="5:11" ht="101.25" customHeight="1">
+    <row r="14" spans="5:11" ht="218.25" customHeight="1">
       <c r="E14" s="27" t="s">
         <v>10</v>
       </c>
@@ -3083,7 +3099,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="5:11" ht="93.75" customHeight="1">
+    <row r="15" spans="5:11" ht="186.75" customHeight="1">
       <c r="E15" s="27" t="s">
         <v>11</v>
       </c>
@@ -3102,7 +3118,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="5:11" ht="90" customHeight="1">
+    <row r="16" spans="5:11" ht="240" customHeight="1">
       <c r="E16" s="27" t="s">
         <v>12</v>
       </c>
@@ -3125,7 +3141,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="5:11" ht="166.5" customHeight="1">
+    <row r="17" spans="5:11" ht="129" customHeight="1">
       <c r="E17" s="27" t="s">
         <v>13</v>
       </c>
@@ -3148,7 +3164,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="194.25" customHeight="1">
+    <row r="18" spans="5:11" ht="179.25" customHeight="1">
       <c r="E18" s="27" t="s">
         <v>14</v>
       </c>
@@ -3169,7 +3185,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="5:11" ht="223.5" customHeight="1">
+    <row r="19" spans="5:11" ht="207.75" customHeight="1">
       <c r="E19" s="27" t="s">
         <v>15</v>
       </c>
@@ -3236,17 +3252,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="5:11" ht="145.5" customHeight="1">
+    <row r="22" spans="5:11" ht="217.5" customHeight="1">
       <c r="E22" s="40" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="G22" s="30" t="s">
+        <v>264</v>
+      </c>
       <c r="H22" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+      <c r="I22" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>196</v>
+      </c>
       <c r="K22" s="34" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCDAED1A-BAFF-43B4-A20A-BC4B35EE606E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{396AFB10-1368-47A4-B600-468ED0ECF08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="271">
   <si>
     <t>Resource Name</t>
   </si>
@@ -876,6 +876,9 @@
   </si>
   <si>
     <t>2.25 hours</t>
+  </si>
+  <si>
+    <t>Creating system architecture</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -893,6 +896,12 @@
 5.00-6.00-Explored System Architecture(presentation layer,bussiness layer,data access layer &amp; cross cutting concerns)</t>
   </si>
   <si>
+    <t>6.45 hr</t>
+  </si>
+  <si>
+    <t>Creating Sample Web API</t>
+  </si>
+  <si>
     <t>9.00 - 9.15 -General Discussion                                                           9.15-10.00-Refined Operations in the data model                             10.00-11.00 - created Services and  its methods.                               11.00-11.20    - Coffee break                                                                   11.20-12.00    - Refined Services                                                                   12.00-12.30 - Refined database diagram in SQL                                 12.30-1.00 - Team Discussion before review                             1.00-1.30  - Lunch                                                                                    1.30-2.45  - Review Meeting with Raffi                                                        3.00-4.00 -Timesheet and SVN session by AspireSystems                                                  4.00-4.20 - Break                                                                                             4.30-5.00-Team Discussion After Review                                                         5.00-6.00 - Worked with Sample Web API.S</t>
   </si>
   <si>
@@ -985,6 +994,9 @@
     <t>2hrs 20 mins</t>
   </si>
   <si>
+    <t>working on bread crums and pagination</t>
+  </si>
+  <si>
     <t xml:space="preserve">9.00am-9.15am Brainstroming with team
 9.15am-9.20am Mail checking
 9.20am-10.25am Working on system architecture
@@ -1003,6 +1015,9 @@
   </si>
   <si>
     <t>2.35 Hours</t>
+  </si>
+  <si>
+    <t>Refineing system architecture</t>
   </si>
   <si>
     <t xml:space="preserve">9.00-9.15 -Brainstorming with team
@@ -2613,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C081B83-E4F9-48C7-866F-0458E5F9EE36}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2954,8 +2969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AF63B3-2472-435F-A833-BA0C49A1E3BE}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3086,15 +3101,21 @@
       <c r="E14" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="35"/>
+      <c r="F14" s="35" t="s">
+        <v>246</v>
+      </c>
       <c r="G14" s="30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="I14" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="J14" s="30">
+        <v>2.15</v>
+      </c>
       <c r="K14" s="23" t="s">
         <v>60</v>
       </c>
@@ -3103,13 +3124,15 @@
       <c r="E15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="30"/>
+      <c r="F15" s="30" t="s">
+        <v>249</v>
+      </c>
       <c r="G15" s="30" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H15" s="43"/>
       <c r="I15" s="30" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>151</v>
@@ -3123,19 +3146,19 @@
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>60</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J16" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K16" s="23" t="s">
         <v>60</v>
@@ -3149,7 +3172,7 @@
         <v>225</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>60</v>
@@ -3169,10 +3192,10 @@
         <v>14</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30" t="s">
@@ -3193,7 +3216,7 @@
         <v>229</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H19" s="30" t="s">
         <v>60</v>
@@ -3213,19 +3236,19 @@
         <v>16</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>60</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K20" s="23" t="s">
         <v>60</v>
@@ -3235,18 +3258,20 @@
       <c r="E21" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="39"/>
+      <c r="F21" s="39" t="s">
+        <v>264</v>
+      </c>
       <c r="G21" s="30" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>60</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K21" s="23" t="s">
         <v>60</v>
@@ -3256,15 +3281,17 @@
       <c r="E22" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="30"/>
+      <c r="F22" s="30" t="s">
+        <v>268</v>
+      </c>
       <c r="G22" s="30" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H22" s="30" t="s">
         <v>60</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="J22" s="30" t="s">
         <v>196</v>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{396AFB10-1368-47A4-B600-468ED0ECF08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F02750B-1DC6-4D3B-A76D-3484BCDEBAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,7 @@
     <sheet name="19.04.2022 " sheetId="52" r:id="rId11"/>
     <sheet name="20.04.2022" sheetId="54" r:id="rId12"/>
     <sheet name="21.04.2022" sheetId="55" r:id="rId13"/>
+    <sheet name="22.04.2022" sheetId="56" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="275">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1034,6 +1035,30 @@
   </si>
   <si>
     <t>4hrs 30 mins</t>
+  </si>
+  <si>
+    <t>Working on the editor,cards view and filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00-9.15 -Brainstorming with team
+9.15-10.15-Searched for the Text editor template and tried out the samples to include in the application
+10.15-10.40-Break
+11.00-12.00-Refined the navigation bar and footer in the user side layout
+12.00-12.30-Reviewed and referred teammates work
+12.30-1.00-Discussion with team before meeting
+1.00-1.50-Lunch
+2.00-3.05-Review Session with Rafi
+3.10-3.30-Discussion with team after the review
+3.30-5.00-Activity session with Training department
+5.00.5.30-Tea Break
+5.30-6.00-Discussion with team after the review
+</t>
+  </si>
+  <si>
+    <t>5.10 hours</t>
+  </si>
+  <si>
+    <t>3.15 hours</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1265,11 +1290,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1393,6 +1442,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2969,7 +3041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AF63B3-2472-435F-A833-BA0C49A1E3BE}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -3297,6 +3369,275 @@
         <v>196</v>
       </c>
       <c r="K22" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8DC50E-16A4-4CDA-8FF3-0E88F8D8A47F}">
+  <dimension ref="E7:K22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="7" max="7" width="49.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:11">
+      <c r="E7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="5:11">
+      <c r="E8" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="5:11">
+      <c r="E9" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="5:11">
+      <c r="E10" s="28"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="5:11">
+      <c r="E11" s="22"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="5:11" ht="30">
+      <c r="E12" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" ht="219.75" customHeight="1">
+      <c r="E13" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" ht="218.25" customHeight="1">
+      <c r="E14" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" ht="186.75" customHeight="1">
+      <c r="E15" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" ht="240" customHeight="1">
+      <c r="E16" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="51"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="49"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" ht="129" customHeight="1">
+      <c r="E17" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="49"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" ht="179.25" customHeight="1">
+      <c r="E18" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="49"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" ht="207.75" customHeight="1">
+      <c r="E19" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" ht="225" customHeight="1">
+      <c r="E20" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" ht="222.75" customHeight="1">
+      <c r="E21" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" ht="217.5" customHeight="1">
+      <c r="E22" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="52" t="s">
         <v>60</v>
       </c>
     </row>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F02750B-1DC6-4D3B-A76D-3484BCDEBAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E195A7A6-F76B-4FBC-97B9-9A380A42D439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="277">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1059,6 +1059,23 @@
   </si>
   <si>
     <t>3.15 hours</t>
+  </si>
+  <si>
+    <t>Working on the Refining of DataModel,Services for the Spam and Reviewer</t>
+  </si>
+  <si>
+    <t>9.00-9.30   Brainstroming with the Team
+9.30-10.30  Refined the services of Article and Query Services
+10.45-11.00 Break
+11.00-12.15 Review the Services and made changes in the services
+12.00-12.30 Understand the works done by the team members
+12.30-1.00  Team Discussion before review
+1.00-1.45   Lunch
+2.00-3.05   Session with Rafi
+3.10-3.25   Discussion with team After review
+3.30-5.00   Fun Friday Activity
+5.00 -5.25  Break
+5.30-6.00   Team discussion aboutthe review meeting and works to be done</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1444,7 +1461,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3382,15 +3398,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8DC50E-16A4-4CDA-8FF3-0E88F8D8A47F}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" customWidth="1"/>
-    <col min="7" max="7" width="49.28515625" customWidth="1"/>
+    <col min="7" max="7" width="59" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" customWidth="1"/>
@@ -3467,177 +3483,185 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="5:11" ht="30">
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="55" t="s">
+      <c r="H12" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="55" t="s">
+      <c r="J12" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="54" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:11" ht="219.75" customHeight="1">
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="50" t="s">
+      <c r="J13" s="48"/>
+      <c r="K13" s="49" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="5:11" ht="218.25" customHeight="1">
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="5:11" ht="186.75" customHeight="1">
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="52" t="s">
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="51" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="5:11" ht="240" customHeight="1">
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="50" t="s">
+      <c r="F16" s="50"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="48"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="49" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="5:11" ht="129" customHeight="1">
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52" t="s">
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="48"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="179.25" customHeight="1">
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50" t="s">
+      <c r="F18" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" s="49" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="207.75" customHeight="1">
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="50" t="s">
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="225" customHeight="1">
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="50" t="s">
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="5:11" ht="222.75" customHeight="1">
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="50" t="s">
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="5:11" ht="217.5" customHeight="1">
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="52" t="s">
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="51" t="s">
         <v>60</v>
       </c>
     </row>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F70A4291-4844-48BF-8237-FCDAA4135B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE888399-033F-4623-9505-B7C00C3BF69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="284">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1075,6 +1075,19 @@
 3.30-5.00-Activity session with Training department
 5.00-5.30-Break
 5.30-6.00-Discussion with team after the review</t>
+  </si>
+  <si>
+    <t>09.00-09.15- Brainstroming with team
+09.15-11.00-Learned Angular Concept(Api,routing modules)
+11.00-11.20-Break
+11.20-12.30-Working on Admin Dashboard
+12.30-01.00- Discusion with team
+01.00-02.00- Break
+02.00-03.05-Review session with Rafi
+03.05-03.30-Discussion with team
+03.30-05.00-Activity session with Training team
+05.00-05.30-Working on Admin Dashboard
+05.30-06.00-Discussion with team.</t>
   </si>
   <si>
     <t>Working on the Refining of DataModel,Services for the Spam and Reviewer</t>
@@ -3116,8 +3129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AF63B3-2472-435F-A833-BA0C49A1E3BE}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3457,8 +3470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8DC50E-16A4-4CDA-8FF3-0E88F8D8A47F}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3617,12 +3630,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="5:11" ht="240" customHeight="1">
+    <row r="16" spans="5:11" ht="181.5" customHeight="1">
       <c r="E16" s="47" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="50"/>
-      <c r="G16" s="52"/>
+      <c r="G16" s="52" t="s">
+        <v>277</v>
+      </c>
       <c r="H16" s="48" t="s">
         <v>60</v>
       </c>
@@ -3652,10 +3667,10 @@
         <v>14</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H18" s="48"/>
       <c r="I18" s="48" t="s">
@@ -3674,7 +3689,7 @@
       </c>
       <c r="F19" s="48"/>
       <c r="G19" s="48" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H19" s="48" t="s">
         <v>60</v>
@@ -3691,7 +3706,7 @@
       </c>
       <c r="F20" s="48"/>
       <c r="G20" s="48" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H20" s="48" t="s">
         <v>60</v>
@@ -3700,7 +3715,7 @@
         <v>262</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K20" s="49" t="s">
         <v>60</v>
@@ -3712,7 +3727,7 @@
       </c>
       <c r="F21" s="48"/>
       <c r="G21" s="48" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H21" s="48" t="s">
         <v>60</v>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE888399-033F-4623-9505-B7C00C3BF69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1DA3120-0490-43C9-BE93-FDBA5987DA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="291">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1071,10 +1071,19 @@
 12.30-1.00-Discussion with the team before meeting
 1.00-2.00-Lunch
 2.00-3.05-Review session with rafi
-3.10-3.30-Timesheet and SVN Session
+3.10-3.30-Discussion with team after the review
 3.30-5.00-Activity session with Training department
 5.00-5.30-Break
 5.30-6.00-Discussion with team after the review</t>
+  </si>
+  <si>
+    <t> 6hr</t>
+  </si>
+  <si>
+    <t>Working on web api</t>
+  </si>
+  <si>
+    <t>Working on admin dashboard</t>
   </si>
   <si>
     <t>09.00-09.15- Brainstroming with team
@@ -1108,9 +1117,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.00-9.15 - Brainstroming
-9.30-11-Anguar(routing, module,components(html,css))  
+9.30-11.00-Anguar(routing, module,components(html,css))  
 10.30-11.00 -Break
-11.00-12.30 - Worked on Admin Dashboard
+11.00-12.30 - Worked on Reviewer Dashboard
 12.30-1.00 Team Discussion
 1.00-1.55 Lunch
 2.00-3.05 Review session with rafi
@@ -1118,6 +1127,15 @@
 3.30-5.00 Activity with Training department
 5.00-5.30 Break
 5.30-6.00 Discussion with team </t>
+  </si>
+  <si>
+    <t>5.30 hr</t>
+  </si>
+  <si>
+    <t>2 hr</t>
+  </si>
+  <si>
+    <t>Craetaing a layout page for particular query</t>
   </si>
   <si>
     <t xml:space="preserve">9.00-9.15 Brainstroming
@@ -1135,6 +1153,9 @@
   </si>
   <si>
     <t>1hr 30 mins</t>
+  </si>
+  <si>
+    <t>Creating a layout page for particular article</t>
   </si>
   <si>
     <t>9.00-9.15- Brainstroming with team
@@ -3470,8 +3491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8DC50E-16A4-4CDA-8FF3-0E88F8D8A47F}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3609,9 +3630,11 @@
         <v>276</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="48"/>
+        <v>277</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>217</v>
+      </c>
       <c r="J14" s="48"/>
       <c r="K14" s="49" t="s">
         <v>60</v>
@@ -3621,7 +3644,9 @@
       <c r="E15" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="48"/>
+      <c r="F15" s="48" t="s">
+        <v>278</v>
+      </c>
       <c r="G15" s="48"/>
       <c r="H15" s="50"/>
       <c r="I15" s="48"/>
@@ -3634,9 +3659,11 @@
       <c r="E16" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="50"/>
+      <c r="F16" s="50" t="s">
+        <v>279</v>
+      </c>
       <c r="G16" s="52" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H16" s="48" t="s">
         <v>60</v>
@@ -3647,12 +3674,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="5:11" ht="129" customHeight="1">
+    <row r="17" spans="5:11" ht="227.25" customHeight="1">
       <c r="E17" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
+      <c r="F17" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>280</v>
+      </c>
       <c r="H17" s="48" t="s">
         <v>60</v>
       </c>
@@ -3667,10 +3698,10 @@
         <v>14</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H18" s="48"/>
       <c r="I18" s="48" t="s">
@@ -3687,15 +3718,21 @@
       <c r="E19" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="48"/>
+      <c r="F19" s="48" t="s">
+        <v>279</v>
+      </c>
       <c r="G19" s="48" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H19" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
+      <c r="I19" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>285</v>
+      </c>
       <c r="K19" s="49" t="s">
         <v>60</v>
       </c>
@@ -3704,9 +3741,11 @@
       <c r="E20" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="48"/>
+      <c r="F20" s="48" t="s">
+        <v>286</v>
+      </c>
       <c r="G20" s="48" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H20" s="48" t="s">
         <v>60</v>
@@ -3715,7 +3754,7 @@
         <v>262</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="K20" s="49" t="s">
         <v>60</v>
@@ -3725,9 +3764,11 @@
       <c r="E21" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="48"/>
+      <c r="F21" s="48" t="s">
+        <v>289</v>
+      </c>
       <c r="G21" s="48" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="H21" s="48" t="s">
         <v>60</v>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3A06D4E-1E0C-443B-9986-418EAC4038CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE74057A-2724-4B75-A2BA-F8D02DA545A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="307">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1270,6 +1270,15 @@
   </si>
   <si>
     <t>6 hr</t>
+  </si>
+  <si>
+    <t>9.00-9.15 Brainstroming with team                            9.15-10 Worked on interactions and Query Layout
+10-10.40 Discussed on Query Services with team        10.40-11 Break                                                                  11-1 Worked on User Side                                                  1-2 Lunch
+2.30-3.20 Session with Rafi                                                 3.20-3.30 break                                                                     3.35-4 Worked on User side                                                              
+4.00-5.00 Discussion with team</t>
+  </si>
+  <si>
+    <t>6hr 30mins</t>
   </si>
 </sst>
 </file>
@@ -3595,7 +3604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8DC50E-16A4-4CDA-8FF3-0E88F8D8A47F}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -3934,8 +3943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5397B1E9-7124-4543-9DEC-A2AA41143497}">
   <dimension ref="H6:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4112,12 +4121,18 @@
         <v>16</v>
       </c>
       <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
+      <c r="J14" s="48" t="s">
+        <v>305</v>
+      </c>
       <c r="K14" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
+      <c r="L14" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="M14" s="48" t="s">
+        <v>218</v>
+      </c>
       <c r="N14" s="49" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE74057A-2724-4B75-A2BA-F8D02DA545A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{654AD218-FC3F-4FDE-821B-ADAC07E4057C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="311">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1213,7 +1213,17 @@
     <t>Working on User Side Article and Query Cards</t>
   </si>
   <si>
-    <t>AB</t>
+    <t>09.00-09.15- Brainstroming with team
+09.15-11.00-Worked on Interaction .
+11.00-11.20-Break
+11.20-01.00-Worked on Interaction.                01.00-02.00- Break
+02.00-02.30- Discussion with team
+02.30-03.20-Review session with Rafi
+03.20-03.50-Discussion with team
+03.50-04.10-Break</t>
+  </si>
+  <si>
+    <t>Working on sample WebApi</t>
   </si>
   <si>
     <t>Working on Admin and Reviewer works.</t>
@@ -1241,14 +1251,14 @@
 Working on Admin Layout</t>
   </si>
   <si>
-    <t>9.00-9.30   Brainstroming with the Team
+    <t>9.00-9.15   Brainstroming with the Team
 9.45-10.30  Worked on Refining the datamodel and services
 10.20-11.10 Discussion about the changes to be made in Spam Report
 11.20-11.35 Break
 12.00-12.30 Modified the changes in the datamodel after discussion
 12.30-1.00  Team Discussion before review
 1.00-1.45   Worked on Dependencies
-2.00-2.20   Lunch
+2.05-2.25   Lunch
 2.30-3.20   Session with Rafi
 3.30-3.50  Break
 4.00-5.00  Team discussion about the review meeting and changes to be done</t>
@@ -1279,6 +1289,34 @@
   </si>
   <si>
     <t>6hr 30mins</t>
+  </si>
+  <si>
+    <t>9.00-9.15 Brainstroming with team                         
+9.15-10.20 Worked on the particular article
+10.20-11.10 Discussion about the changes in the spam report
+11.10-11.35 Break
+11.35-12.30 worked on the article pag
+12.30-1.00 Discussion with team 
+1.00-1.45 Lunch
+2.30-3.20 Review session
+3.20-3.50 Break
+3.50-4.30 team discussion
+4.30-5.20 worked o the layout</t>
+  </si>
+  <si>
+    <t>Working on spam reports layout</t>
+  </si>
+  <si>
+    <t>9.00-9.30   Brainstroming with the Team
+9.45-10.30  Worked on Refining the datamodel and services
+10.20-11.10 Discussion about the changes to be made in Spam Report
+11.20-11.35 Break
+12.30-1.00  Team Discussion before review
+1.00-1.45   Worked on Dependencies
+2.05-2.25   Lunch
+2.30-3.20   Session with Rafi
+3.30-3.50  Break
+4.00-5.00  Team discussion about the review meeting and changes to be done</t>
   </si>
 </sst>
 </file>
@@ -3943,8 +3981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5397B1E9-7124-4543-9DEC-A2AA41143497}">
   <dimension ref="H6:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3989,11 +4027,15 @@
         <v>294</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>295</v>
+        <v>24</v>
       </c>
       <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
+      <c r="L7" s="48">
+        <v>3</v>
+      </c>
+      <c r="M7" s="48">
+        <v>5</v>
+      </c>
       <c r="N7" s="49" t="s">
         <v>60</v>
       </c>
@@ -4003,12 +4045,18 @@
         <v>10</v>
       </c>
       <c r="I8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="J8" s="48"/>
+        <v>24</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>295</v>
+      </c>
       <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
+      <c r="L8" s="48">
+        <v>4.5</v>
+      </c>
+      <c r="M8" s="48">
+        <v>2</v>
+      </c>
       <c r="N8" s="49" t="s">
         <v>60</v>
       </c>
@@ -4017,11 +4065,19 @@
       <c r="H9" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
+      <c r="I9" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>24</v>
+      </c>
       <c r="K9" s="50"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
+      <c r="L9" s="48">
+        <v>2</v>
+      </c>
+      <c r="M9" s="48">
+        <v>6</v>
+      </c>
       <c r="N9" s="51" t="s">
         <v>60</v>
       </c>
@@ -4031,19 +4087,19 @@
         <v>12</v>
       </c>
       <c r="I10" s="50" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J10" s="52" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K10" s="48" t="s">
         <v>60</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M10" s="50" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N10" s="49" t="s">
         <v>60</v>
@@ -4057,7 +4113,7 @@
         <v>278</v>
       </c>
       <c r="J11" s="52" t="s">
-        <v>295</v>
+        <v>24</v>
       </c>
       <c r="K11" s="48" t="s">
         <v>60</v>
@@ -4077,10 +4133,10 @@
         <v>14</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K12" s="48"/>
       <c r="L12" s="48">
@@ -4098,16 +4154,16 @@
         <v>15</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K13" s="48" t="s">
         <v>60</v>
       </c>
       <c r="L13" s="48" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M13" s="48" t="s">
         <v>287</v>
@@ -4122,13 +4178,13 @@
       </c>
       <c r="I14" s="48"/>
       <c r="J14" s="48" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K14" s="48" t="s">
         <v>60</v>
       </c>
       <c r="L14" s="48" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M14" s="48" t="s">
         <v>218</v>
@@ -4142,7 +4198,9 @@
         <v>17</v>
       </c>
       <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
+      <c r="J15" s="48" t="s">
+        <v>308</v>
+      </c>
       <c r="K15" s="48" t="s">
         <v>60</v>
       </c>
@@ -4156,8 +4214,12 @@
       <c r="H16" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="I16" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>310</v>
+      </c>
       <c r="K16" s="48" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{654AD218-FC3F-4FDE-821B-ADAC07E4057C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D1D00D-2FE6-489D-A8A6-9C85B44319BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="314">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1248,7 +1248,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-Working on Admin Layout</t>
+Working on Admin Layout(User Verification)</t>
   </si>
   <si>
     <t>9.00-9.15   Brainstroming with the Team
@@ -1282,6 +1282,9 @@
     <t>6 hr</t>
   </si>
   <si>
+    <t>Working on User side Layout-Specific Query,Raise Query</t>
+  </si>
+  <si>
     <t>9.00-9.15 Brainstroming with team                            9.15-10 Worked on interactions and Query Layout
 10-10.40 Discussed on Query Services with team        10.40-11 Break                                                                  11-1 Worked on User Side                                                  1-2 Lunch
 2.30-3.20 Session with Rafi                                                 3.20-3.30 break                                                                     3.35-4 Worked on User side                                                              
@@ -1289,6 +1292,9 @@
   </si>
   <si>
     <t>6hr 30mins</t>
+  </si>
+  <si>
+    <t>Working on User side Layout-Specific Article,Login,Register</t>
   </si>
   <si>
     <t>9.00-9.15 Brainstroming with team                         
@@ -1304,11 +1310,13 @@
 4.30-5.20 worked o the layout</t>
   </si>
   <si>
+    <t>6 hours</t>
+  </si>
+  <si>
     <t>Working on spam reports layout</t>
   </si>
   <si>
     <t>9.00-9.30   Brainstroming with the Team
-9.45-10.30  Worked on Refining the datamodel and services
 10.20-11.10 Discussion about the changes to be made in Spam Report
 11.20-11.35 Break
 12.30-1.00  Team Discussion before review
@@ -3981,8 +3989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5397B1E9-7124-4543-9DEC-A2AA41143497}">
   <dimension ref="H6:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4176,15 +4184,17 @@
       <c r="H14" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="48"/>
+      <c r="I14" s="48" t="s">
+        <v>306</v>
+      </c>
       <c r="J14" s="48" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K14" s="48" t="s">
         <v>60</v>
       </c>
       <c r="L14" s="48" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M14" s="48" t="s">
         <v>218</v>
@@ -4197,15 +4207,21 @@
       <c r="H15" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="48"/>
+      <c r="I15" s="48" t="s">
+        <v>309</v>
+      </c>
       <c r="J15" s="48" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K15" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
+      <c r="L15" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="M15" s="48" t="s">
+        <v>123</v>
+      </c>
       <c r="N15" s="49" t="s">
         <v>60</v>
       </c>
@@ -4215,16 +4231,20 @@
         <v>18</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K16" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
+      <c r="L16" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="M16" s="55" t="s">
+        <v>162</v>
+      </c>
       <c r="N16" s="51" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D1D00D-2FE6-489D-A8A6-9C85B44319BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17E18D03-903A-4EA4-8B9B-43348DEDA1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="14" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="21.04.2022" sheetId="55" r:id="rId13"/>
     <sheet name="22.04.2022" sheetId="56" r:id="rId14"/>
     <sheet name="23.04.2022" sheetId="57" r:id="rId15"/>
+    <sheet name="24.04.2022" sheetId="58" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="316">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1325,6 +1326,26 @@
 2.30-3.20   Session with Rafi
 3.30-3.50  Break
 4.00-5.00  Team discussion about the review meeting and changes to be done</t>
+  </si>
+  <si>
+    <t>Working on the create article and update article pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00-9.15 -Brainstorming
+9.15-10.15-Working on the Article view cards and Query cards
+10.15-10.45-Break
+10.45-11.30-Merged the layout Work of team members and pushed into github
+11.30-12.30-Started Working on the filter in the article and query 
+12.30-1.00-Team meeting before review
+1.00-2.00-Lunch
+2.00-2.35-checked the merged work and resolved the conflicts
+2.35-2.55-Review with Rafi
+3.00-3.30-Discussion with team after review meeting
+3.30-4.20-Worked on create article editor
+4.20-4.40-Session with rafi on estimation
+4.40-5.10-Evening break
+5.10-6.00-Worked on create article editor and filter in article and query pages
+ </t>
   </si>
 </sst>
 </file>
@@ -3309,7 +3330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AF63B3-2472-435F-A833-BA0C49A1E3BE}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -3989,7 +4010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5397B1E9-7124-4543-9DEC-A2AA41143497}">
   <dimension ref="H6:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -4251,6 +4272,269 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07930DF9-416C-427A-A7D1-D0D69B73A6C1}">
+  <dimension ref="E7:K22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="7" max="7" width="59" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:11">
+      <c r="E7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="5:11">
+      <c r="E8" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="5:11">
+      <c r="E9" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="5:11">
+      <c r="E10" s="28"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="5:11">
+      <c r="E11" s="22"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="5:11" ht="30">
+      <c r="E12" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" ht="246.75" customHeight="1">
+      <c r="E13" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" ht="218.25" customHeight="1">
+      <c r="E14" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" ht="186.75" customHeight="1">
+      <c r="E15" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" ht="181.5" customHeight="1">
+      <c r="E16" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="48"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" ht="227.25" customHeight="1">
+      <c r="E17" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="48"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="48"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" ht="179.25" customHeight="1">
+      <c r="E18" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="48"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" ht="207.75" customHeight="1">
+      <c r="E19" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" ht="225" customHeight="1">
+      <c r="E20" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" ht="222.75" customHeight="1">
+      <c r="E21" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" ht="217.5" customHeight="1">
+      <c r="E22" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17E18D03-903A-4EA4-8B9B-43348DEDA1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{474B238A-E52B-46DA-BADC-43D1D11E4038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="14" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="21.04.2022" sheetId="55" r:id="rId13"/>
     <sheet name="22.04.2022" sheetId="56" r:id="rId14"/>
     <sheet name="23.04.2022" sheetId="57" r:id="rId15"/>
-    <sheet name="24.04.2022" sheetId="58" r:id="rId16"/>
+    <sheet name="25.04.2022" sheetId="58" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="322">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1345,6 +1345,44 @@
 4.20-4.40-Session with rafi on estimation
 4.40-5.10-Evening break
 5.10-6.00-Worked on create article editor and filter in article and query pages
+ </t>
+  </si>
+  <si>
+    <t>Working on User Side Home Page</t>
+  </si>
+  <si>
+    <t>8.59-11.10 Logging</t>
+  </si>
+  <si>
+    <t>Working on the User Verification and Employees page refining and on PopUp Message.</t>
+  </si>
+  <si>
+    <t>9.00-9.30 Brainstroming with the team
+9.30-11.00 Worked on User Verification(Admin Side) Layout
+11.15-11.30 break
+11.40-1.00 After pushed the common source in Github,Refined the Admin Layout
+1.10-1.40 Lunch
+2.35-2.55 Review Session with Rafi
+3.00-3.30 Team Discussion after the Review session
+4.20-4.40 Session with Rafi on Time Estimation
+4.50-6.00 Worked on layout in Admin Side.</t>
+  </si>
+  <si>
+    <t>1 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00-9.15 -Brainstorming
+9.15-10.15-Working on Reviewer Dashboard
+10.15-10.45-Break
+11.30-12.30-Working on Reviewer Dashboard
+12.30-1.00-Team meeting before review
+1.00-2.00-Lunch
+2.00-2.35-Working on Reviewer Dashboard
+2.35-2.55-Review with Rafi
+3.00-3.30-Discussion with team after review meeting
+3.30-4.20-Working on Reviewer Dashboard(Table,Buttons)
+4.20-4.40-Session with rafi on estimation
+4.40-5.30-Working on Reviewer Dashboard
  </t>
   </si>
 </sst>
@@ -4279,8 +4317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07930DF9-416C-427A-A7D1-D0D69B73A6C1}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4407,8 +4445,12 @@
       <c r="E14" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="48"/>
+      <c r="F14" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>24</v>
+      </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
@@ -4449,7 +4491,9 @@
         <v>13</v>
       </c>
       <c r="F17" s="48"/>
-      <c r="G17" s="52"/>
+      <c r="G17" s="52" t="s">
+        <v>317</v>
+      </c>
       <c r="H17" s="48" t="s">
         <v>60</v>
       </c>
@@ -4463,11 +4507,19 @@
       <c r="E18" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="42"/>
+      <c r="F18" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>319</v>
+      </c>
       <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
+      <c r="I18" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>320</v>
+      </c>
       <c r="K18" s="49" t="s">
         <v>60</v>
       </c>
@@ -4477,7 +4529,9 @@
         <v>15</v>
       </c>
       <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
+      <c r="G19" s="48" t="s">
+        <v>321</v>
+      </c>
       <c r="H19" s="48" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62CD397C-C382-4FC5-B0A3-9BEDD5AF9714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFC24A13-B2EC-4774-8A61-6812E0185677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="336">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1453,6 +1453,24 @@
 3.30-4.00 Break
 4.00-5.00 Register and login
 5.00-5.30 Article</t>
+  </si>
+  <si>
+    <t>Working on admindashboard</t>
+  </si>
+  <si>
+    <t>9.00-9.15 -Brainstorming
+9.15-10.30-Working on the Spam reports  adminside
+10.35-11:00-Break
+11.30-12.30-working on SpamReports Layout
+12.30-1.00-Team meeting before review
+1.00-2.00-Lunch
+2.35-2.55-Review with Rafi
+3.00-3.30-Discussion with team after review meeting
+3.30-4.20-Had a look on estimation template
+4.20-4.40-Session with rafi on estimation
+4.40-5.10-Evening break
+5.10-6.00-Shifting My machine from caleum to corvus.
+8:00-9:10-Worked on group mail creation for all team.</t>
   </si>
 </sst>
 </file>
@@ -4117,7 +4135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5397B1E9-7124-4543-9DEC-A2AA41143497}">
   <dimension ref="H6:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -4386,8 +4404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07930DF9-416C-427A-A7D1-D0D69B73A6C1}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4684,8 +4702,12 @@
       <c r="E22" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
+      <c r="F22" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>335</v>
+      </c>
       <c r="H22" s="48" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFC24A13-B2EC-4774-8A61-6812E0185677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D477025-64DC-4318-BA8D-25834FCBE66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="338">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1354,6 +1354,9 @@
     <t>Working on User Side Home Page</t>
   </si>
   <si>
+    <t>0 hr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Refining Exceptions and Validations in Web API  </t>
   </si>
   <si>
@@ -1436,6 +1439,9 @@
 3.00-3.30-Discussion with team after review meeting
 3.30-4.00 break
 4.00-6 Report spam and myprofile</t>
+  </si>
+  <si>
+    <t>6 hrs</t>
   </si>
   <si>
     <t>Working on Specific query</t>
@@ -4404,8 +4410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07930DF9-416C-427A-A7D1-D0D69B73A6C1}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4543,8 +4549,12 @@
         <v>24</v>
       </c>
       <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
+      <c r="I14" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>318</v>
+      </c>
       <c r="K14" s="49" t="s">
         <v>60</v>
       </c>
@@ -4554,10 +4564,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H15" s="50"/>
       <c r="I15" s="48" t="s">
@@ -4575,10 +4585,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H16" s="48" t="s">
         <v>60</v>
@@ -4587,7 +4597,7 @@
         <v>195</v>
       </c>
       <c r="J16" s="50" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K16" s="49" t="s">
         <v>60</v>
@@ -4598,16 +4608,20 @@
         <v>13</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H17" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="50"/>
+      <c r="I17" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="J17" s="50" t="s">
+        <v>196</v>
+      </c>
       <c r="K17" s="51" t="s">
         <v>60</v>
       </c>
@@ -4617,17 +4631,17 @@
         <v>14</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H18" s="48"/>
       <c r="I18" s="48" t="s">
         <v>195</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K18" s="49" t="s">
         <v>60</v>
@@ -4638,16 +4652,20 @@
         <v>15</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H19" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
+      <c r="I19" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="K19" s="49" t="s">
         <v>60</v>
       </c>
@@ -4657,19 +4675,19 @@
         <v>16</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H20" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="48">
-        <v>6</v>
-      </c>
-      <c r="J20" s="48">
-        <v>1</v>
+      <c r="I20" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>328</v>
       </c>
       <c r="K20" s="49" t="s">
         <v>60</v>
@@ -4680,19 +4698,19 @@
         <v>17</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G21" s="48" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H21" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="48">
-        <v>5</v>
-      </c>
-      <c r="J21" s="48">
-        <v>2</v>
+      <c r="I21" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>204</v>
       </c>
       <c r="K21" s="49" t="s">
         <v>60</v>
@@ -4703,16 +4721,20 @@
         <v>18</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H22" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
+      <c r="I22" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" s="55" t="s">
+        <v>237</v>
+      </c>
       <c r="K22" s="51" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0C8C2D0-A711-45D8-A6EF-0CFEDEA98466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{064F3222-684E-4595-9FC6-6089954C843D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="347">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1503,6 +1503,32 @@
   </si>
   <si>
     <t>3hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00-9.15 -Team Discussion
+9.15-9.30-Reviewing overall Html pages 
+9.30-10.30-Softskill session
+10.30-10.50-Break                                                                                                         10.50-11.30 -Refined Web ApI                                                                                                11:30-12:30 - Worked with page Responsiveness.                                                 1.45-2.30-Review Session with Rafi                                                                           2.30-3.00-Lunch
+3.00-3.30-Team Discussion after Review meeting                                                 3.30-4.00 - Explained WebAPI basics to Team.                                                          4.00-4.30 -Break                                                                                                                4.30-5.10 - Explained about ADO.NET,Entity Framework and Code First Approach to the Team.                                                                                                 5.10-6.00-Helped Team to Create Sample Table using Migrations.                                                                                                                                                                                                                                                                                     </t>
+  </si>
+  <si>
+    <t>2.5hours</t>
+  </si>
+  <si>
+    <t>09.00-09.15 -Brainstorming.
+09.15-09.30-Started working on the Publish and Reject page.
+09.30-10.30-Softskill session.
+10.30-11.00-Break.
+11.00.12.30-Working  on the Publish ,Reject page and Message box.
+12.30-01.15-Alligned Reviewer side operations.
+01.15-01.45-Break.
+01.45-02.30-Review Session with Rafi.
+02.30-03.00-Refined the mistakes(Naming,Allignment).
+03.00-03.30-Team Discussion after Review meeting.
+03.30-04.00-Worked with the sample WebAPI.
+04.00-04.30-Break.
+04.30-05.00-Session with team about the Entity framework and code first approach.
+05.00-05.50-Started working with codefirst approach with example.</t>
   </si>
   <si>
     <t>Working on Layout of Articles,Trending Articles,Latest Articles</t>
@@ -4791,8 +4817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A440936E-3200-45BA-83DC-D1EB0B674CC3}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4918,7 +4944,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="5:11" ht="218.25" customHeight="1">
+    <row r="14" spans="5:11" ht="158.25" customHeight="1">
       <c r="E14" s="47" t="s">
         <v>10</v>
       </c>
@@ -4936,10 +4962,16 @@
         <v>11</v>
       </c>
       <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
+      <c r="G15" s="48" t="s">
+        <v>342</v>
+      </c>
       <c r="H15" s="50"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
+      <c r="I15" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>343</v>
+      </c>
       <c r="K15" s="51" t="s">
         <v>60</v>
       </c>
@@ -4949,7 +4981,9 @@
         <v>12</v>
       </c>
       <c r="F16" s="50"/>
-      <c r="G16" s="52"/>
+      <c r="G16" s="52" t="s">
+        <v>344</v>
+      </c>
       <c r="H16" s="48" t="s">
         <v>60</v>
       </c>
@@ -4979,10 +5013,10 @@
         <v>14</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H18" s="48"/>
       <c r="I18" s="48" t="s">

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{064F3222-684E-4595-9FC6-6089954C843D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD21E25F-1AE4-4247-9F31-F3136B3B81C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="351">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1505,6 +1505,9 @@
     <t>3hours</t>
   </si>
   <si>
+    <t>Refining HomePage and Exception hanling in Web API</t>
+  </si>
+  <si>
     <t xml:space="preserve">9.00-9.15 -Team Discussion
 9.15-9.30-Reviewing overall Html pages 
 9.30-10.30-Softskill session
@@ -1515,11 +1518,14 @@
     <t>2.5hours</t>
   </si>
   <si>
+    <t>Working on Estimation for Reviewer Dashboard,To Review,Article Reviewed and its operations.</t>
+  </si>
+  <si>
     <t>09.00-09.15 -Brainstorming.
 09.15-09.30-Started working on the Publish and Reject page.
 09.30-10.30-Softskill session.
 10.30-11.00-Break.
-11.00.12.30-Working  on the Publish ,Reject page and Message box.
+11.00.12.30-Working  on the Publish ,Reject page.
 12.30-01.15-Alligned Reviewer side operations.
 01.15-01.45-Break.
 01.45-02.30-Review Session with Rafi.
@@ -1528,7 +1534,14 @@
 03.30-04.00-Worked with the sample WebAPI.
 04.00-04.30-Break.
 04.30-05.00-Session with team about the Entity framework and code first approach.
-05.00-05.50-Started working with codefirst approach with example.</t>
+05.00-05.50-Started working with codefirst approach with example.
+08.45-10.00- Working on Reason for Rejection page.</t>
+  </si>
+  <si>
+    <t>6.15 hrs</t>
+  </si>
+  <si>
+    <t>2.30hrs</t>
   </si>
   <si>
     <t>Working on Layout of Articles,Trending Articles,Latest Articles</t>
@@ -4478,7 +4491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07930DF9-416C-427A-A7D1-D0D69B73A6C1}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -4817,8 +4830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A440936E-3200-45BA-83DC-D1EB0B674CC3}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4961,16 +4974,18 @@
       <c r="E15" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="48"/>
+      <c r="F15" s="48" t="s">
+        <v>342</v>
+      </c>
       <c r="G15" s="48" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H15" s="50"/>
       <c r="I15" s="48" t="s">
         <v>311</v>
       </c>
       <c r="J15" s="48" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K15" s="51" t="s">
         <v>60</v>
@@ -4980,15 +4995,21 @@
       <c r="E16" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="50"/>
+      <c r="F16" s="50" t="s">
+        <v>345</v>
+      </c>
       <c r="G16" s="52" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H16" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="50"/>
+      <c r="I16" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>348</v>
+      </c>
       <c r="K16" s="49" t="s">
         <v>60</v>
       </c>
@@ -5013,10 +5034,10 @@
         <v>14</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H18" s="48"/>
       <c r="I18" s="48" t="s">

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D8F9916-DE8C-4222-A0B4-41F0B7B94765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{556EA9A6-E9D9-4EE5-8C06-878B9AD0B991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="372">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1594,6 +1594,9 @@
 5.00-6.00 Worked on Sample WebApi.</t>
   </si>
   <si>
+    <t>Working on Reviewer layout</t>
+  </si>
+  <si>
     <t>09.00-09.15 -Brainstorming.
 09.15-09.30-Started worked on Article Reviewed Page
 09.30-10.30-Softskill session.
@@ -1611,12 +1614,18 @@
 08.45-10.00- Worked on Confirmation Box</t>
   </si>
   <si>
+    <t>05:30hrs</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
     <t>Working on Specific query,raise query,</t>
   </si>
   <si>
     <t xml:space="preserve">
 9.00-9.15 -Brainstorming
-9.15-9.30-worked on Report spam layout
+9.15-9.30-Worked  on Report spam layout
 9.30-10.30-Softskill session
 10.30-11.00-Break
 11.00-12.30-Worked on Report Spam and view profile
@@ -1658,6 +1667,30 @@
   </si>
   <si>
     <t>3.20 Hours</t>
+  </si>
+  <si>
+    <t>Working on Spam Reports Layout</t>
+  </si>
+  <si>
+    <t>9.00-9.15 -Brainstorming
+9.15-9.30-Started working on spam report page
+9.30-10.30-Softskill session
+10.30-11.00-Break
+11.00.11.30-learning about (Modal)
+11.30-12.30-Working on Modals
+12.30-1.30-Started working on the estimation for SpamReports Page(Admin side)
+1.45-2.30-Review Session with Rafi
+2.30-3.00-Lunch
+3.00-3.30-Team Discussion after Review meeting
+3.30-4.00-Worked with the sample WebAPI
+4.00-4.30-Break
+4.30-5.00-Software Installation</t>
+  </si>
+  <si>
+    <t>4:00 hours</t>
+  </si>
+  <si>
+    <t>3:00 hours</t>
   </si>
 </sst>
 </file>
@@ -4322,7 +4355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5397B1E9-7124-4543-9DEC-A2AA41143497}">
   <dimension ref="H6:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -4591,7 +4624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07930DF9-416C-427A-A7D1-D0D69B73A6C1}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -4928,10 +4961,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A440936E-3200-45BA-83DC-D1EB0B674CC3}">
-  <dimension ref="E7:K22"/>
+  <dimension ref="E7:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="G21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5122,7 +5155,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="5:11" ht="227.25" customHeight="1">
+    <row r="17" spans="5:14" ht="227.25" customHeight="1">
       <c r="E17" s="47" t="s">
         <v>13</v>
       </c>
@@ -5145,7 +5178,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="179.25" customHeight="1">
+    <row r="18" spans="5:14" ht="179.25" customHeight="1">
       <c r="E18" s="47" t="s">
         <v>14</v>
       </c>
@@ -5166,32 +5199,41 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="5:11" ht="207.75" customHeight="1">
+    <row r="19" spans="5:14" ht="207.75" customHeight="1">
       <c r="E19" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="48"/>
+      <c r="F19" s="48" t="s">
+        <v>357</v>
+      </c>
       <c r="G19" s="48" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H19" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
+      <c r="I19" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>323</v>
+      </c>
       <c r="K19" s="49" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="5:11" ht="225" customHeight="1">
+      <c r="N19" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14" ht="225" customHeight="1">
       <c r="E20" s="47" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H20" s="48" t="s">
         <v>60</v>
@@ -5200,46 +5242,54 @@
         <v>144</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K20" s="49" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="5:11" ht="222.75" customHeight="1">
+    <row r="21" spans="5:14" ht="222.75" customHeight="1">
       <c r="E21" s="47" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G21" s="48" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H21" s="48" t="s">
         <v>60</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="J21" s="48" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K21" s="49" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="5:11" ht="217.5" customHeight="1">
+    <row r="22" spans="5:14" ht="217.5" customHeight="1">
       <c r="E22" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
+      <c r="F22" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>369</v>
+      </c>
       <c r="H22" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
+      <c r="I22" s="55" t="s">
+        <v>370</v>
+      </c>
+      <c r="J22" s="55" t="s">
+        <v>371</v>
+      </c>
       <c r="K22" s="51" t="s">
         <v>60</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{556EA9A6-E9D9-4EE5-8C06-878B9AD0B991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{968B9834-EE4F-4307-A0FC-4E10A0EB6A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4624,7 +4624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07930DF9-416C-427A-A7D1-D0D69B73A6C1}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -4963,8 +4963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A440936E-3200-45BA-83DC-D1EB0B674CC3}">
   <dimension ref="E7:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{968B9834-EE4F-4307-A0FC-4E10A0EB6A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32CEC4FB-5162-4BD9-9E8C-B4A1A5705BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="23.04.2022" sheetId="57" r:id="rId15"/>
     <sheet name="25.04.2022" sheetId="58" r:id="rId16"/>
     <sheet name="26.04.2022" sheetId="59" r:id="rId17"/>
+    <sheet name="27.04.2022" sheetId="60" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="410">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1692,12 +1693,129 @@
   <si>
     <t>3:00 hours</t>
   </si>
+  <si>
+    <t xml:space="preserve">Resource </t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Task Type</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Brainstorming with Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Worked on the Create Editor in the page</t>
+  </si>
+  <si>
+    <t>Non Project</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>Lunch and Break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration </t>
+  </si>
+  <si>
+    <t>Resolved the problems on spam report and specific query page</t>
+  </si>
+  <si>
+    <t>Team meeting about estimation</t>
+  </si>
+  <si>
+    <t>Customer Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on the Estimation for Create,updateArticle and report spam      </t>
+  </si>
+  <si>
+    <t>Reviewed the estimation and otherpages done by teammates and updated the repository</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Review With Rafi</t>
+  </si>
+  <si>
+    <t>Team meeting after Review</t>
+  </si>
+  <si>
+    <t>Working on the Responsiveness of report spam page and footer</t>
+  </si>
+  <si>
+    <t>Angular Session by Training Department</t>
+  </si>
+  <si>
+    <t>Explored on the bootstrap modal and CkEditor</t>
+  </si>
+  <si>
+    <t>Working on responsiveness and create article page</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t>Soft Skill</t>
+  </si>
+  <si>
+    <t>Customer Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch </t>
+  </si>
+  <si>
+    <t>Morning Break</t>
+  </si>
+  <si>
+    <t>Evening Break</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Topics&gt;</t>
+  </si>
+  <si>
+    <t>Working on HTML layout</t>
+  </si>
+  <si>
+    <t>Resource Name 11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]hh:mm:ss;@"/>
+  </numFmts>
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1803,8 +1921,16 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1814,6 +1940,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1950,7 +2082,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2101,11 +2233,151 @@
     <xf numFmtId="20" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4624,7 +4896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07930DF9-416C-427A-A7D1-D0D69B73A6C1}">
   <dimension ref="E7:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -4963,8 +5235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A440936E-3200-45BA-83DC-D1EB0B674CC3}">
   <dimension ref="E7:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5297,6 +5569,3439 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C9DD7D-30C6-4A9E-B772-3BC050FE4627}">
+  <dimension ref="A1:Q166"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1" s="58"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2" s="59">
+        <v>0.375</v>
+      </c>
+      <c r="E2" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F2" s="59">
+        <f>E2-D2</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="62"/>
+      <c r="B3" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D3" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E3" s="59">
+        <v>0.4375</v>
+      </c>
+      <c r="F3" s="59">
+        <f t="shared" ref="F3:F66" si="0">E3-D3</f>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I3" s="59">
+        <f>SUMIFS(F2:F16, C2:C16,H3)</f>
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="62"/>
+      <c r="B4" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="59">
+        <v>0.4375</v>
+      </c>
+      <c r="E4" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F4" s="59">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I4" s="59">
+        <f>SUMIFS(F2:F16, C2:C16,H4)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="62"/>
+      <c r="B5" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E5" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F5" s="59">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I5" s="59">
+        <f>SUMIFS(F2:F16, C2:C16,H5)</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="62"/>
+      <c r="B6" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D6" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E6" s="59">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F6" s="59">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I6" s="59">
+        <f>SUMIFS(F2:F16, C2:C16,H6)</f>
+        <v>3.6111111111111149E-2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="62"/>
+      <c r="B7" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7" s="59">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E7" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F7" s="59">
+        <f>E7-D7</f>
+        <v>3.1250000000000056E-2</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I7" s="59">
+        <f>SUMIFS(F2:F16, C2:C16,H7)</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="62"/>
+      <c r="B8" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D8" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E8" s="59">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F8" s="59">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I8" s="59">
+        <f>SUMIFS(F2:F16, C2:C16,H8)</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="62"/>
+      <c r="B9" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" s="59">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E9" s="59">
+        <v>0.5625</v>
+      </c>
+      <c r="F9" s="59">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I9" s="57">
+        <f>SUM(I3:I8)</f>
+        <v>0.35902777777777783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="62"/>
+      <c r="B10" s="43" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D10" s="59">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E10" s="59">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F10" s="59">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="I10" s="61"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="62"/>
+      <c r="B11" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11" s="59">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="E11" s="59">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F11" s="59">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
+      <c r="I11" s="61"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="62"/>
+      <c r="B12" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" s="59">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E12" s="59">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F12" s="59">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="62"/>
+      <c r="B13" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D13" s="59">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E13" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F13" s="59">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="62"/>
+      <c r="B14" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D14" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E14" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F14" s="59">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="62"/>
+      <c r="B15" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D15" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E15" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F15" s="59">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="62"/>
+      <c r="B16" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D17" s="59">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E17" s="59">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F17" s="59">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="62"/>
+      <c r="B18" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D18" s="59">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E18" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F18" s="59">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I18" s="59">
+        <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="62"/>
+      <c r="B19" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D19" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E19" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F19" s="59">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I19" s="59">
+        <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="62"/>
+      <c r="B20" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D20" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E20" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F20" s="59">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H20" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I20" s="59">
+        <f t="shared" ref="I20" si="3">SUMIFS(F17:F31, C17:C31,H20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="62"/>
+      <c r="B21" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D21" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E21" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F21" s="59">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H21" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I21" s="59">
+        <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="62"/>
+      <c r="B22" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D22" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E22" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F22" s="59">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I22" s="59">
+        <f t="shared" ref="I22" si="5">SUMIFS(F17:F31, C17:C31,H22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="62"/>
+      <c r="B23" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D23" s="59">
+        <v>0.65625</v>
+      </c>
+      <c r="E23" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F23" s="59">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H23" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I23" s="59">
+        <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="62"/>
+      <c r="B24" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D24" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E24" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="59">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I24" s="57">
+        <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="62"/>
+      <c r="B25" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D25" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="F25" s="59">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I25" s="61"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="62"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="61"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="62"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="62"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="62"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="62"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="62"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D32" s="59">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E32" s="59">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F32" s="59">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I32" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="62"/>
+      <c r="B33" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D33" s="59">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E33" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F33" s="59">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H33" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I33" s="59">
+        <f t="shared" ref="I33" si="8">SUMIFS(F32:F46, C32:C46,H33)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="62"/>
+      <c r="B34" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D34" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E34" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F34" s="59">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H34" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I34" s="59">
+        <f t="shared" ref="I34" si="9">SUMIFS(F32:F46, C32:C46,H34)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="62"/>
+      <c r="B35" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D35" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E35" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F35" s="59">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H35" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I35" s="59">
+        <f t="shared" ref="I35" si="10">SUMIFS(F32:F46, C32:C46,H35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="62"/>
+      <c r="B36" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D36" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E36" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F36" s="59">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H36" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I36" s="59">
+        <f t="shared" ref="I36" si="11">SUMIFS(F32:F46, C32:C46,H36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="62"/>
+      <c r="B37" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D37" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E37" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F37" s="59">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H37" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I37" s="59">
+        <f t="shared" ref="I37" si="12">SUMIFS(F32:F46, C32:C46,H37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="62"/>
+      <c r="B38" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D38" s="59">
+        <v>0.65625</v>
+      </c>
+      <c r="E38" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F38" s="59">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H38" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I38" s="59">
+        <f t="shared" ref="I38" si="13">SUMIFS(F32:F46, C32:C46,H38)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="62"/>
+      <c r="B39" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D39" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E39" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F39" s="59">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H39" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I39" s="57">
+        <f t="shared" ref="I39" si="14">SUM(I33:I38)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="62"/>
+      <c r="B40" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D40" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E40" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="F40" s="59">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I40" s="61"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="62"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="61"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="62"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="62"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="62"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="62"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="62"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D47" s="59">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E47" s="59">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F47" s="59">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H47" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I47" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="62"/>
+      <c r="B48" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D48" s="59">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E48" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F48" s="59">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H48" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I48" s="59">
+        <f t="shared" ref="I48" si="15">SUMIFS(F47:F61, C47:C61,H48)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="62"/>
+      <c r="B49" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D49" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E49" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F49" s="59">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H49" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I49" s="59">
+        <f t="shared" ref="I49" si="16">SUMIFS(F47:F61, C47:C61,H49)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="62"/>
+      <c r="B50" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D50" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E50" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F50" s="59">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H50" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I50" s="59">
+        <f t="shared" ref="I50" si="17">SUMIFS(F47:F61, C47:C61,H50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="62"/>
+      <c r="B51" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D51" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E51" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F51" s="59">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H51" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I51" s="59">
+        <f t="shared" ref="I51" si="18">SUMIFS(F47:F61, C47:C61,H51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="62"/>
+      <c r="B52" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D52" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E52" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F52" s="59">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H52" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I52" s="59">
+        <f t="shared" ref="I52" si="19">SUMIFS(F47:F61, C47:C61,H52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="62"/>
+      <c r="B53" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D53" s="59">
+        <v>0.65625</v>
+      </c>
+      <c r="E53" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F53" s="59">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H53" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I53" s="59">
+        <f t="shared" ref="I53" si="20">SUMIFS(F47:F61, C47:C61,H53)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="62"/>
+      <c r="B54" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D54" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E54" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F54" s="59">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H54" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I54" s="57">
+        <f t="shared" ref="I54" si="21">SUM(I48:I53)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="62"/>
+      <c r="B55" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D55" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E55" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="F55" s="59">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I55" s="61"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="62"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="61"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="62"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="62"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="62"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="62"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="62"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D62" s="59">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E62" s="59">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F62" s="59">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H62" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I62" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="62"/>
+      <c r="B63" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D63" s="59">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E63" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F63" s="59">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H63" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I63" s="59">
+        <f t="shared" ref="I63" si="22">SUMIFS(F62:F76, C62:C76,H63)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="62"/>
+      <c r="B64" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D64" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E64" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F64" s="59">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H64" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I64" s="59">
+        <f t="shared" ref="I64" si="23">SUMIFS(F62:F76, C62:C76,H64)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="62"/>
+      <c r="B65" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D65" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E65" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F65" s="59">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H65" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I65" s="59">
+        <f t="shared" ref="I65" si="24">SUMIFS(F62:F76, C62:C76,H65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="62"/>
+      <c r="B66" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D66" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E66" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F66" s="59">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H66" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I66" s="59">
+        <f t="shared" ref="I66" si="25">SUMIFS(F62:F76, C62:C76,H66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="62"/>
+      <c r="B67" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D67" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E67" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F67" s="59">
+        <f t="shared" ref="F67:F130" si="26">E67-D67</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H67" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I67" s="59">
+        <f t="shared" ref="I67" si="27">SUMIFS(F62:F76, C62:C76,H67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="62"/>
+      <c r="B68" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D68" s="59">
+        <v>0.65625</v>
+      </c>
+      <c r="E68" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F68" s="59">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H68" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I68" s="59">
+        <f t="shared" ref="I68" si="28">SUMIFS(F62:F76, C62:C76,H68)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="62"/>
+      <c r="B69" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D69" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E69" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F69" s="59">
+        <f t="shared" si="26"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H69" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I69" s="57">
+        <f t="shared" ref="I69" si="29">SUM(I63:I68)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="62"/>
+      <c r="B70" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D70" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E70" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="F70" s="59">
+        <f t="shared" si="26"/>
+        <v>0.125</v>
+      </c>
+      <c r="I70" s="61"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="62"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="61"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="62"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="62"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="62"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="62"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="62"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D77" s="59">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E77" s="59">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F77" s="59">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H77" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I77" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="62"/>
+      <c r="B78" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D78" s="59">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E78" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F78" s="59">
+        <f t="shared" si="26"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H78" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I78" s="59">
+        <f t="shared" ref="I78" si="30">SUMIFS(F77:F91, C77:C91,H78)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="62"/>
+      <c r="B79" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D79" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E79" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F79" s="59">
+        <f t="shared" si="26"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H79" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I79" s="59">
+        <f t="shared" ref="I79" si="31">SUMIFS(F77:F91, C77:C91,H79)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="62"/>
+      <c r="B80" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C80" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D80" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E80" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F80" s="59">
+        <f t="shared" si="26"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H80" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I80" s="59">
+        <f t="shared" ref="I80" si="32">SUMIFS(F77:F91, C77:C91,H80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="62"/>
+      <c r="B81" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D81" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E81" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F81" s="59">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H81" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I81" s="59">
+        <f t="shared" ref="I81" si="33">SUMIFS(F77:F91, C77:C91,H81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="62"/>
+      <c r="B82" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D82" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E82" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F82" s="59">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H82" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I82" s="59">
+        <f t="shared" ref="I82" si="34">SUMIFS(F77:F91, C77:C91,H82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="62"/>
+      <c r="B83" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D83" s="59">
+        <v>0.65625</v>
+      </c>
+      <c r="E83" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F83" s="59">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H83" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I83" s="59">
+        <f t="shared" ref="I83" si="35">SUMIFS(F77:F91, C77:C91,H83)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="62"/>
+      <c r="B84" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D84" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E84" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F84" s="59">
+        <f t="shared" si="26"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H84" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I84" s="57">
+        <f t="shared" ref="I84" si="36">SUM(I78:I83)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="62"/>
+      <c r="B85" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D85" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E85" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="F85" s="59">
+        <f t="shared" si="26"/>
+        <v>0.125</v>
+      </c>
+      <c r="I85" s="61"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="62"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="61"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="62"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="62"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="62"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="62"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="62"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D92" s="59">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E92" s="59">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F92" s="59">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H92" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I92" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="62"/>
+      <c r="B93" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C93" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D93" s="59">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E93" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F93" s="59">
+        <f t="shared" si="26"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H93" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I93" s="59">
+        <f t="shared" ref="I93" si="37">SUMIFS(F92:F106, C92:C106,H93)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="62"/>
+      <c r="B94" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D94" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E94" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F94" s="59">
+        <f t="shared" si="26"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H94" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I94" s="59">
+        <f t="shared" ref="I94" si="38">SUMIFS(F92:F106, C92:C106,H94)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="62"/>
+      <c r="B95" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C95" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D95" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E95" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F95" s="59">
+        <f t="shared" si="26"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H95" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I95" s="59">
+        <f t="shared" ref="I95" si="39">SUMIFS(F92:F106, C92:C106,H95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="62"/>
+      <c r="B96" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="C96" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D96" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E96" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F96" s="59">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H96" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I96" s="59">
+        <f t="shared" ref="I96" si="40">SUMIFS(F92:F106, C92:C106,H96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="62"/>
+      <c r="B97" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D97" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E97" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F97" s="59">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H97" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I97" s="59">
+        <f t="shared" ref="I97" si="41">SUMIFS(F92:F106, C92:C106,H97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="62"/>
+      <c r="B98" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="C98" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D98" s="59">
+        <v>0.65625</v>
+      </c>
+      <c r="E98" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F98" s="59">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H98" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I98" s="59">
+        <f t="shared" ref="I98" si="42">SUMIFS(F92:F106, C92:C106,H98)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="62"/>
+      <c r="B99" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D99" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E99" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F99" s="59">
+        <f t="shared" si="26"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H99" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I99" s="57">
+        <f t="shared" ref="I99" si="43">SUM(I93:I98)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="62"/>
+      <c r="B100" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D100" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E100" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="F100" s="59">
+        <f t="shared" si="26"/>
+        <v>0.125</v>
+      </c>
+      <c r="I100" s="61"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="62"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="59"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="61"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="62"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="59"/>
+      <c r="E102" s="59"/>
+      <c r="F102" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="62"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="59"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="62"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="62"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="59"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="62"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C107" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D107" s="59">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E107" s="59">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F107" s="59">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H107" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I107" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="62"/>
+      <c r="B108" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C108" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D108" s="59">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E108" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F108" s="59">
+        <f t="shared" si="26"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H108" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I108" s="59">
+        <f t="shared" ref="I108" si="44">SUMIFS(F107:F121, C107:C121,H108)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="62"/>
+      <c r="B109" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="C109" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D109" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E109" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F109" s="59">
+        <f t="shared" si="26"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H109" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I109" s="59">
+        <f t="shared" ref="I109" si="45">SUMIFS(F107:F121, C107:C121,H109)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="62"/>
+      <c r="B110" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C110" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D110" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E110" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F110" s="59">
+        <f t="shared" si="26"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H110" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I110" s="59">
+        <f t="shared" ref="I110" si="46">SUMIFS(F107:F121, C107:C121,H110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="62"/>
+      <c r="B111" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="C111" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D111" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E111" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F111" s="59">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H111" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I111" s="59">
+        <f t="shared" ref="I111" si="47">SUMIFS(F107:F121, C107:C121,H111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="62"/>
+      <c r="B112" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="C112" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D112" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E112" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F112" s="59">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H112" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I112" s="59">
+        <f t="shared" ref="I112" si="48">SUMIFS(F107:F121, C107:C121,H112)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="62"/>
+      <c r="B113" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="C113" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D113" s="59">
+        <v>0.65625</v>
+      </c>
+      <c r="E113" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F113" s="59">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H113" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I113" s="59">
+        <f t="shared" ref="I113" si="49">SUMIFS(F107:F121, C107:C121,H113)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="62"/>
+      <c r="B114" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="C114" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D114" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E114" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F114" s="59">
+        <f t="shared" si="26"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H114" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I114" s="57">
+        <f t="shared" ref="I114" si="50">SUM(I108:I113)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="62"/>
+      <c r="B115" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="C115" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D115" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E115" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="F115" s="59">
+        <f t="shared" si="26"/>
+        <v>0.125</v>
+      </c>
+      <c r="I115" s="61"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="62"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="59"/>
+      <c r="E116" s="59"/>
+      <c r="F116" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="61"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="62"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="59"/>
+      <c r="E117" s="59"/>
+      <c r="F117" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="62"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="59"/>
+      <c r="E118" s="59"/>
+      <c r="F118" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="62"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="59"/>
+      <c r="E119" s="59"/>
+      <c r="F119" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="62"/>
+      <c r="B120" s="43"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="59"/>
+      <c r="E120" s="59"/>
+      <c r="F120" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="62"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="59"/>
+      <c r="E121" s="59"/>
+      <c r="F121" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C122" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D122" s="59">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E122" s="59">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F122" s="59">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H122" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I122" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="62"/>
+      <c r="B123" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C123" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D123" s="59">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E123" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F123" s="59">
+        <f t="shared" si="26"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H123" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I123" s="59">
+        <f t="shared" ref="I123" si="51">SUMIFS(F122:F136, C122:C136,H123)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="62"/>
+      <c r="B124" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="C124" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D124" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E124" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F124" s="59">
+        <f t="shared" si="26"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H124" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I124" s="59">
+        <f t="shared" ref="I124" si="52">SUMIFS(F122:F136, C122:C136,H124)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="62"/>
+      <c r="B125" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C125" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D125" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E125" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F125" s="59">
+        <f t="shared" si="26"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H125" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I125" s="59">
+        <f t="shared" ref="I125" si="53">SUMIFS(F122:F136, C122:C136,H125)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="62"/>
+      <c r="B126" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="C126" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D126" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E126" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F126" s="59">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H126" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I126" s="59">
+        <f t="shared" ref="I126" si="54">SUMIFS(F122:F136, C122:C136,H126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="62"/>
+      <c r="B127" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="C127" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D127" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E127" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F127" s="59">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H127" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I127" s="59">
+        <f t="shared" ref="I127" si="55">SUMIFS(F122:F136, C122:C136,H127)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="62"/>
+      <c r="B128" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="C128" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D128" s="59">
+        <v>0.65625</v>
+      </c>
+      <c r="E128" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F128" s="59">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H128" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I128" s="59">
+        <f t="shared" ref="I128" si="56">SUMIFS(F122:F136, C122:C136,H128)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="62"/>
+      <c r="B129" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="C129" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D129" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E129" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F129" s="59">
+        <f t="shared" si="26"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H129" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I129" s="57">
+        <f t="shared" ref="I129" si="57">SUM(I123:I128)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="62"/>
+      <c r="B130" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="C130" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D130" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E130" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="F130" s="59">
+        <f t="shared" si="26"/>
+        <v>0.125</v>
+      </c>
+      <c r="I130" s="61"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="62"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="59"/>
+      <c r="E131" s="59"/>
+      <c r="F131" s="59">
+        <f t="shared" ref="F131:F194" si="58">E131-D131</f>
+        <v>0</v>
+      </c>
+      <c r="I131" s="61"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="62"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="59"/>
+      <c r="E132" s="59"/>
+      <c r="F132" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="62"/>
+      <c r="B133" s="43"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="59"/>
+      <c r="E133" s="59"/>
+      <c r="F133" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="62"/>
+      <c r="B134" s="43"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="59"/>
+      <c r="E134" s="59"/>
+      <c r="F134" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="62"/>
+      <c r="B135" s="43"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="59"/>
+      <c r="E135" s="59"/>
+      <c r="F135" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="62"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="59"/>
+      <c r="E136" s="59"/>
+      <c r="F136" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C137" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D137" s="59">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E137" s="59">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F137" s="59">
+        <f t="shared" si="58"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H137" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I137" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="62"/>
+      <c r="B138" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C138" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D138" s="59">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E138" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F138" s="59">
+        <f t="shared" si="58"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H138" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I138" s="59">
+        <f t="shared" ref="I138" si="59">SUMIFS(F137:F151, C137:C151,H138)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="62"/>
+      <c r="B139" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="C139" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D139" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E139" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F139" s="59">
+        <f t="shared" si="58"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H139" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I139" s="59">
+        <f t="shared" ref="I139" si="60">SUMIFS(F137:F151, C137:C151,H139)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="62"/>
+      <c r="B140" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C140" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D140" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E140" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F140" s="59">
+        <f t="shared" si="58"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H140" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I140" s="59">
+        <f t="shared" ref="I140" si="61">SUMIFS(F137:F151, C137:C151,H140)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="62"/>
+      <c r="B141" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="C141" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D141" s="59">
+        <v>0</v>
+      </c>
+      <c r="E141" s="59">
+        <v>0</v>
+      </c>
+      <c r="F141" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="H141" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I141" s="59">
+        <f t="shared" ref="I141" si="62">SUMIFS(F137:F151, C137:C151,H141)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="62"/>
+      <c r="B142" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="C142" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D142" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E142" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F142" s="59">
+        <f t="shared" si="58"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H142" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I142" s="59">
+        <f t="shared" ref="I142" si="63">SUMIFS(F137:F151, C137:C151,H142)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="62"/>
+      <c r="B143" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="C143" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D143" s="59">
+        <v>0.65625</v>
+      </c>
+      <c r="E143" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F143" s="59">
+        <f t="shared" si="58"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H143" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I143" s="59">
+        <f t="shared" ref="I143" si="64">SUMIFS(F137:F151, C137:C151,H143)</f>
+        <v>1.7361111111111049E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="62"/>
+      <c r="B144" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="C144" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D144" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E144" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F144" s="59">
+        <f t="shared" si="58"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H144" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I144" s="57">
+        <f t="shared" ref="I144" si="65">SUM(I138:I143)</f>
+        <v>0.31944444444444448</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="62"/>
+      <c r="B145" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="C145" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D145" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E145" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="F145" s="59">
+        <f t="shared" si="58"/>
+        <v>0.125</v>
+      </c>
+      <c r="I145" s="61"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="62"/>
+      <c r="B146" s="43"/>
+      <c r="C146" s="43"/>
+      <c r="D146" s="59"/>
+      <c r="E146" s="59"/>
+      <c r="F146" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="I146" s="61"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="62"/>
+      <c r="B147" s="43"/>
+      <c r="C147" s="43"/>
+      <c r="D147" s="59"/>
+      <c r="E147" s="59"/>
+      <c r="F147" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="62"/>
+      <c r="B148" s="43"/>
+      <c r="C148" s="43"/>
+      <c r="D148" s="59"/>
+      <c r="E148" s="59"/>
+      <c r="F148" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="62"/>
+      <c r="B149" s="43"/>
+      <c r="C149" s="43"/>
+      <c r="D149" s="59"/>
+      <c r="E149" s="59"/>
+      <c r="F149" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="62"/>
+      <c r="B150" s="43"/>
+      <c r="C150" s="43"/>
+      <c r="D150" s="59"/>
+      <c r="E150" s="59"/>
+      <c r="F150" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="62"/>
+      <c r="B151" s="43"/>
+      <c r="C151" s="43"/>
+      <c r="D151" s="59"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="62" t="s">
+        <v>409</v>
+      </c>
+      <c r="B152" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C152" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D152" s="59">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E152" s="59">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F152" s="59">
+        <f t="shared" si="58"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H152" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I152" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="62"/>
+      <c r="B153" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C153" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D153" s="59">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E153" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F153" s="59">
+        <f t="shared" si="58"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H153" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I153" s="59">
+        <f t="shared" ref="I153" si="66">SUMIFS(F152:F166, C152:C166,H153)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="62"/>
+      <c r="B154" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="C154" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D154" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E154" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F154" s="59">
+        <f t="shared" si="58"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H154" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I154" s="59">
+        <f t="shared" ref="I154" si="67">SUMIFS(F152:F166, C152:C166,H154)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="62"/>
+      <c r="B155" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C155" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D155" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E155" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F155" s="59">
+        <f t="shared" si="58"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H155" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I155" s="59">
+        <f t="shared" ref="I155" si="68">SUMIFS(F152:F166, C152:C166,H155)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="62"/>
+      <c r="B156" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="C156" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D156" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E156" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F156" s="59">
+        <f t="shared" si="58"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H156" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I156" s="59">
+        <f t="shared" ref="I156" si="69">SUMIFS(F152:F166, C152:C166,H156)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="62"/>
+      <c r="B157" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="C157" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D157" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E157" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F157" s="59">
+        <f t="shared" si="58"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H157" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I157" s="59">
+        <f t="shared" ref="I157" si="70">SUMIFS(F152:F166, C152:C166,H157)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="62"/>
+      <c r="B158" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="C158" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D158" s="59">
+        <v>0.65625</v>
+      </c>
+      <c r="E158" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F158" s="59">
+        <f t="shared" si="58"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H158" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I158" s="59">
+        <f t="shared" ref="I158" si="71">SUMIFS(F152:F166, C152:C166,H158)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="62"/>
+      <c r="B159" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="C159" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D159" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E159" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F159" s="59">
+        <f t="shared" si="58"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H159" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I159" s="57">
+        <f t="shared" ref="I159" si="72">SUM(I153:I158)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="62"/>
+      <c r="B160" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="C160" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D160" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E160" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="F160" s="59">
+        <f t="shared" si="58"/>
+        <v>0.125</v>
+      </c>
+      <c r="I160" s="61"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="62"/>
+      <c r="B161" s="43"/>
+      <c r="C161" s="43"/>
+      <c r="D161" s="59"/>
+      <c r="E161" s="59"/>
+      <c r="F161" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="I161" s="61"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="62"/>
+      <c r="B162" s="43"/>
+      <c r="C162" s="43"/>
+      <c r="D162" s="59"/>
+      <c r="E162" s="59"/>
+      <c r="F162" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="62"/>
+      <c r="B163" s="43"/>
+      <c r="C163" s="43"/>
+      <c r="D163" s="59"/>
+      <c r="E163" s="59"/>
+      <c r="F163" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="62"/>
+      <c r="B164" s="43"/>
+      <c r="C164" s="43"/>
+      <c r="D164" s="59"/>
+      <c r="E164" s="59"/>
+      <c r="F164" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="62"/>
+      <c r="B165" s="43"/>
+      <c r="C165" s="43"/>
+      <c r="D165" s="59"/>
+      <c r="E165" s="59"/>
+      <c r="F165" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="62"/>
+      <c r="B166" s="43"/>
+      <c r="C166" s="43"/>
+      <c r="D166" s="59"/>
+      <c r="E166" s="59"/>
+      <c r="F166" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A77:A91"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 I19 I34 I49 I64 I79 I94 I109 I124 I139 I154">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5 I20 I35 I50 I65 I80 I95 I110 I125 I140 I155">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 I21 I36 I51 I66 I81 I96 I111 I126 I141 I156">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7 I22 I37 I52 I67 I82 I97 I112 I127 I142 I157">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8 I23 I38 I53 I68 I83 I98 I113 I128 I143 I158">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0.0625</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0.0625</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C166" xr:uid="{F75F330B-0F44-4F4F-9D1E-4C6367F0391C}">
+      <formula1>$Q$1:$Q$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32CEC4FB-5162-4BD9-9E8C-B4A1A5705BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E91B579-2BFD-4138-A63E-DC1F214D329B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="427">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1784,6 +1784,39 @@
     <t>Team Meeting</t>
   </si>
   <si>
+    <t>Created admin side (employee layout)</t>
+  </si>
+  <si>
+    <t>Explored on bootstrap</t>
+  </si>
+  <si>
+    <t>worked on estimation(admin side-employee,user verification)</t>
+  </si>
+  <si>
+    <t>Evening Break</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Topics&gt;</t>
+  </si>
+  <si>
+    <t>Working on HTML layout</t>
+  </si>
+  <si>
+    <t>Explored on CSS cards for Query</t>
+  </si>
+  <si>
+    <t>Explored on Github Gist for Displaying code</t>
+  </si>
+  <si>
+    <t>Morning Break</t>
+  </si>
+  <si>
+    <t>Started working with Query Css Card in Html page</t>
+  </si>
+  <si>
+    <t>Worked on the Estimation for Homepage,MyArticles,MyQueries</t>
+  </si>
+  <si>
     <t>Soft Skill</t>
   </si>
   <si>
@@ -1793,16 +1826,34 @@
     <t xml:space="preserve">Lunch </t>
   </si>
   <si>
-    <t>Morning Break</t>
-  </si>
-  <si>
-    <t>Evening Break</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Topics&gt;</t>
-  </si>
-  <si>
-    <t>Working on HTML layout</t>
+    <t>Brain Stroming with team</t>
+  </si>
+  <si>
+    <t>Worked on Trending Articles Layout page</t>
+  </si>
+  <si>
+    <t>Meeting on Estimation</t>
+  </si>
+  <si>
+    <t>Identified the services needed for Articles,Trending Articles,trending Queries and calculated Estimation Time</t>
+  </si>
+  <si>
+    <t>Review Meeting with Rafi</t>
+  </si>
+  <si>
+    <t>Team Meeting after Review</t>
+  </si>
+  <si>
+    <t>Worked on Responsiveness of Articles Page</t>
+  </si>
+  <si>
+    <t>Session By Training Department on Angular</t>
+  </si>
+  <si>
+    <t>Brainstroming with Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on Specific Query </t>
   </si>
   <si>
     <t>Resource Name 11</t>
@@ -5235,7 +5286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A440936E-3200-45BA-83DC-D1EB0B674CC3}">
   <dimension ref="E7:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
@@ -5576,8 +5627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C9DD7D-30C6-4A9E-B772-3BC050FE4627}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5979,17 +6030,17 @@
         <v>401</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D17" s="59">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E17" s="59">
-        <v>0.4236111111111111</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="F17" s="59">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H17" s="57" t="s">
         <v>380</v>
@@ -6004,121 +6055,121 @@
         <v>402</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D18" s="59">
-        <v>0.42708333333333331</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="E18" s="59">
-        <v>0.45833333333333331</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="F18" s="59">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>4.5138888888888895E-2</v>
       </c>
       <c r="H18" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I18" s="59">
         <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
-        <v>0.22916666666666674</v>
+        <v>0.24305555555555564</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="62"/>
       <c r="B19" s="43" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D19" s="59">
-        <v>0.45833333333333331</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="E19" s="59">
-        <v>0.47222222222222227</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F19" s="59">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H19" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I19" s="59">
         <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="62"/>
       <c r="B20" s="43" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D20" s="59">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E20" s="59">
         <v>0.47916666666666669</v>
-      </c>
-      <c r="E20" s="59">
-        <v>0.52083333333333337</v>
       </c>
       <c r="F20" s="59">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="H20" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I20" s="59">
         <f t="shared" ref="I20" si="3">SUMIFS(F17:F31, C17:C31,H20)</f>
-        <v>0</v>
+        <v>3.4722222222222265E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="62"/>
       <c r="B21" s="43" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D21" s="59">
-        <v>0.52083333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E21" s="59">
-        <v>0.54166666666666663</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="F21" s="59">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H21" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I21" s="59">
         <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="62"/>
       <c r="B22" s="43" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D22" s="59">
-        <v>0.47222222222222227</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="E22" s="59">
         <v>0.47916666666666669</v>
       </c>
       <c r="F22" s="59">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>-1.041666666666663E-2</v>
       </c>
       <c r="H22" s="60" t="s">
         <v>390</v>
@@ -6131,7 +6182,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="62"/>
       <c r="B23" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>386</v>
@@ -6151,13 +6202,13 @@
       </c>
       <c r="I23" s="59">
         <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>2.4305555555555469E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="62"/>
       <c r="B24" s="43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>382</v>
@@ -6177,13 +6228,13 @@
       </c>
       <c r="I24" s="57">
         <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
-        <v>0.34027777777777773</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="62"/>
       <c r="B25" s="43" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C25" s="43" t="s">
         <v>382</v>
@@ -6272,20 +6323,20 @@
         <v>11</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="C32" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D32" s="59">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E32" s="59">
-        <v>0.4236111111111111</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="F32" s="59">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H32" s="57" t="s">
         <v>380</v>
@@ -6297,16 +6348,16 @@
     <row r="33" spans="1:9">
       <c r="A33" s="62"/>
       <c r="B33" s="43" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C33" s="43" t="s">
         <v>384</v>
       </c>
       <c r="D33" s="59">
-        <v>0.42708333333333331</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="E33" s="59">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F33" s="59">
         <f t="shared" si="0"/>
@@ -6317,52 +6368,52 @@
       </c>
       <c r="I33" s="59">
         <f t="shared" ref="I33" si="8">SUMIFS(F32:F46, C32:C46,H33)</f>
-        <v>0.22916666666666674</v>
+        <v>0.41666666666666674</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="62"/>
       <c r="B34" s="43" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D34" s="59">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E34" s="59">
-        <v>0.47222222222222227</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F34" s="59">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H34" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I34" s="59">
         <f t="shared" ref="I34" si="9">SUMIFS(F32:F46, C32:C46,H34)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="62"/>
       <c r="B35" s="43" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D35" s="59">
-        <v>0.47916666666666669</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="E35" s="59">
-        <v>0.52083333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F35" s="59">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H35" s="60" t="s">
         <v>387</v>
@@ -6375,46 +6426,46 @@
     <row r="36" spans="1:9">
       <c r="A36" s="62"/>
       <c r="B36" s="43" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D36" s="59">
-        <v>0.52083333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E36" s="59">
-        <v>0.54166666666666663</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F36" s="59">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H36" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I36" s="59">
         <f t="shared" ref="I36" si="11">SUMIFS(F32:F46, C32:C46,H36)</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="62"/>
       <c r="B37" s="43" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D37" s="59">
-        <v>0.47222222222222227</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E37" s="59">
-        <v>0.47916666666666669</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="F37" s="59">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H37" s="60" t="s">
         <v>390</v>
@@ -6427,33 +6478,33 @@
     <row r="38" spans="1:9">
       <c r="A38" s="62"/>
       <c r="B38" s="43" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D38" s="59">
-        <v>0.65625</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="E38" s="59">
         <v>0.66666666666666663</v>
       </c>
       <c r="F38" s="59">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>0.17708333333333331</v>
       </c>
       <c r="H38" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I38" s="59">
         <f t="shared" ref="I38" si="13">SUMIFS(F32:F46, C32:C46,H38)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="62"/>
       <c r="B39" s="43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C39" s="43" t="s">
         <v>382</v>
@@ -6473,13 +6524,13 @@
       </c>
       <c r="I39" s="57">
         <f t="shared" ref="I39" si="14">SUM(I33:I38)</f>
-        <v>0.34027777777777773</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="62"/>
       <c r="B40" s="43" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C40" s="43" t="s">
         <v>382</v>
@@ -6574,14 +6625,14 @@
         <v>382</v>
       </c>
       <c r="D47" s="59">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E47" s="59">
-        <v>0.4236111111111111</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="F47" s="59">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H47" s="57" t="s">
         <v>380</v>
@@ -6593,7 +6644,7 @@
     <row r="48" spans="1:9">
       <c r="A48" s="62"/>
       <c r="B48" s="43" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C48" s="43" t="s">
         <v>384</v>
@@ -6613,13 +6664,13 @@
       </c>
       <c r="I48" s="59">
         <f t="shared" ref="I48" si="15">SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.22916666666666674</v>
+        <v>0.23263888888888901</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="62"/>
       <c r="B49" s="43" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="C49" s="43" t="s">
         <v>382</v>
@@ -6645,7 +6696,7 @@
     <row r="50" spans="1:9">
       <c r="A50" s="62"/>
       <c r="B50" s="43" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>384</v>
@@ -6671,7 +6722,7 @@
     <row r="51" spans="1:9">
       <c r="A51" s="62"/>
       <c r="B51" s="43" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C51" s="43" t="s">
         <v>386</v>
@@ -6697,7 +6748,7 @@
     <row r="52" spans="1:9">
       <c r="A52" s="62"/>
       <c r="B52" s="43" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C52" s="43" t="s">
         <v>386</v>
@@ -6723,7 +6774,7 @@
     <row r="53" spans="1:9">
       <c r="A53" s="62"/>
       <c r="B53" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C53" s="43" t="s">
         <v>386</v>
@@ -6749,7 +6800,7 @@
     <row r="54" spans="1:9">
       <c r="A54" s="62"/>
       <c r="B54" s="43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C54" s="43" t="s">
         <v>382</v>
@@ -6769,13 +6820,13 @@
       </c>
       <c r="I54" s="57">
         <f t="shared" ref="I54" si="21">SUM(I48:I53)</f>
-        <v>0.34027777777777773</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="62"/>
       <c r="B55" s="43" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C55" s="43" t="s">
         <v>382</v>
@@ -6889,7 +6940,7 @@
     <row r="63" spans="1:9">
       <c r="A63" s="62"/>
       <c r="B63" s="43" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C63" s="43" t="s">
         <v>384</v>
@@ -6915,7 +6966,7 @@
     <row r="64" spans="1:9">
       <c r="A64" s="62"/>
       <c r="B64" s="43" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="C64" s="43" t="s">
         <v>382</v>
@@ -6941,7 +6992,7 @@
     <row r="65" spans="1:9">
       <c r="A65" s="62"/>
       <c r="B65" s="43" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C65" s="43" t="s">
         <v>384</v>
@@ -6967,7 +7018,7 @@
     <row r="66" spans="1:9">
       <c r="A66" s="62"/>
       <c r="B66" s="43" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C66" s="43" t="s">
         <v>386</v>
@@ -6993,7 +7044,7 @@
     <row r="67" spans="1:9">
       <c r="A67" s="62"/>
       <c r="B67" s="43" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C67" s="43" t="s">
         <v>386</v>
@@ -7019,7 +7070,7 @@
     <row r="68" spans="1:9">
       <c r="A68" s="62"/>
       <c r="B68" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C68" s="43" t="s">
         <v>386</v>
@@ -7045,7 +7096,7 @@
     <row r="69" spans="1:9">
       <c r="A69" s="62"/>
       <c r="B69" s="43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C69" s="43" t="s">
         <v>382</v>
@@ -7071,7 +7122,7 @@
     <row r="70" spans="1:9">
       <c r="A70" s="62"/>
       <c r="B70" s="43" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C70" s="43" t="s">
         <v>382</v>
@@ -7160,20 +7211,20 @@
         <v>14</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D77" s="59">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E77" s="59">
-        <v>0.4236111111111111</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="F77" s="59">
         <f t="shared" si="26"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H77" s="57" t="s">
         <v>380</v>
@@ -7185,72 +7236,72 @@
     <row r="78" spans="1:9">
       <c r="A78" s="62"/>
       <c r="B78" s="43" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D78" s="59">
-        <v>0.42708333333333331</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="E78" s="59">
-        <v>0.45833333333333331</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F78" s="59">
         <f t="shared" si="26"/>
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H78" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I78" s="59">
         <f t="shared" ref="I78" si="30">SUMIFS(F77:F91, C77:C91,H78)</f>
-        <v>0.22916666666666674</v>
+        <v>0.10416666666666663</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="62"/>
       <c r="B79" s="43" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D79" s="59">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E79" s="59">
         <v>0.45833333333333331</v>
-      </c>
-      <c r="E79" s="59">
-        <v>0.47222222222222227</v>
       </c>
       <c r="F79" s="59">
         <f t="shared" si="26"/>
-        <v>1.3888888888888951E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H79" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I79" s="59">
         <f t="shared" ref="I79" si="31">SUMIFS(F77:F91, C77:C91,H79)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="62"/>
       <c r="B80" s="43" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D80" s="59">
         <v>0.47916666666666669</v>
       </c>
       <c r="E80" s="59">
-        <v>0.52083333333333337</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="F80" s="59">
         <f t="shared" si="26"/>
-        <v>4.1666666666666685E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H80" s="60" t="s">
         <v>387</v>
@@ -7263,148 +7314,164 @@
     <row r="81" spans="1:9">
       <c r="A81" s="62"/>
       <c r="B81" s="43" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D81" s="59">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E81" s="59">
         <v>0.52083333333333337</v>
-      </c>
-      <c r="E81" s="59">
-        <v>0.54166666666666663</v>
       </c>
       <c r="F81" s="59">
         <f t="shared" si="26"/>
-        <v>2.0833333333333259E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H81" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I81" s="59">
         <f t="shared" ref="I81" si="33">SUMIFS(F77:F91, C77:C91,H81)</f>
-        <v>0</v>
+        <v>3.6111111111111149E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="62"/>
       <c r="B82" s="43" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C82" s="43" t="s">
         <v>386</v>
       </c>
       <c r="D82" s="59">
-        <v>0.47222222222222227</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E82" s="59">
-        <v>0.47916666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="F82" s="59">
         <f t="shared" si="26"/>
-        <v>6.9444444444444198E-3</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H82" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I82" s="59">
         <f t="shared" ref="I82" si="34">SUMIFS(F77:F91, C77:C91,H82)</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="62"/>
       <c r="B83" s="43" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D83" s="59">
-        <v>0.65625</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E83" s="59">
-        <v>0.66666666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F83" s="59">
         <f t="shared" si="26"/>
-        <v>1.041666666666663E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H83" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I83" s="59">
         <f t="shared" ref="I83" si="35">SUMIFS(F77:F91, C77:C91,H83)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="62"/>
       <c r="B84" s="43" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D84" s="59">
-        <v>0.66666666666666663</v>
+        <v>0.60277777777777775</v>
       </c>
       <c r="E84" s="59">
-        <v>0.75</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="F84" s="59">
         <f t="shared" si="26"/>
-        <v>8.333333333333337E-2</v>
+        <v>1.5277777777777835E-2</v>
       </c>
       <c r="H84" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I84" s="57">
         <f t="shared" ref="I84" si="36">SUM(I78:I83)</f>
-        <v>0.34027777777777773</v>
+        <v>0.27569444444444452</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="62"/>
       <c r="B85" s="43" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="C85" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D85" s="59">
-        <v>0.75</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="E85" s="59">
-        <v>0.875</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="F85" s="59">
         <f t="shared" si="26"/>
-        <v>0.125</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="I85" s="61"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="62"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="59"/>
+      <c r="B86" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D86" s="59">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E86" s="59">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="F86" s="59">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1.0416666666666741E-2</v>
       </c>
       <c r="I86" s="61"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="62"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
+      <c r="B87" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D87" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E87" s="59">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F87" s="59">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -7481,7 +7548,7 @@
     <row r="93" spans="1:9">
       <c r="A93" s="62"/>
       <c r="B93" s="43" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C93" s="43" t="s">
         <v>384</v>
@@ -7507,7 +7574,7 @@
     <row r="94" spans="1:9">
       <c r="A94" s="62"/>
       <c r="B94" s="43" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="C94" s="43" t="s">
         <v>382</v>
@@ -7533,7 +7600,7 @@
     <row r="95" spans="1:9">
       <c r="A95" s="62"/>
       <c r="B95" s="43" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C95" s="43" t="s">
         <v>384</v>
@@ -7559,7 +7626,7 @@
     <row r="96" spans="1:9">
       <c r="A96" s="62"/>
       <c r="B96" s="43" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C96" s="43" t="s">
         <v>386</v>
@@ -7585,7 +7652,7 @@
     <row r="97" spans="1:9">
       <c r="A97" s="62"/>
       <c r="B97" s="43" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C97" s="43" t="s">
         <v>386</v>
@@ -7611,7 +7678,7 @@
     <row r="98" spans="1:9">
       <c r="A98" s="62"/>
       <c r="B98" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C98" s="43" t="s">
         <v>386</v>
@@ -7637,7 +7704,7 @@
     <row r="99" spans="1:9">
       <c r="A99" s="62"/>
       <c r="B99" s="43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C99" s="43" t="s">
         <v>382</v>
@@ -7663,7 +7730,7 @@
     <row r="100" spans="1:9">
       <c r="A100" s="62"/>
       <c r="B100" s="43" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C100" s="43" t="s">
         <v>382</v>
@@ -7752,20 +7819,20 @@
         <v>16</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="C107" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D107" s="59">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E107" s="59">
-        <v>0.4236111111111111</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="F107" s="59">
         <f t="shared" si="26"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H107" s="57" t="s">
         <v>380</v>
@@ -7777,59 +7844,59 @@
     <row r="108" spans="1:9">
       <c r="A108" s="62"/>
       <c r="B108" s="43" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="C108" s="43" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D108" s="59">
-        <v>0.42708333333333331</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="E108" s="59">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="F108" s="59">
         <f t="shared" si="26"/>
-        <v>3.125E-2</v>
+        <v>5.2083333333333315E-2</v>
       </c>
       <c r="H108" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I108" s="59">
         <f t="shared" ref="I108" si="44">SUMIFS(F107:F121, C107:C121,H108)</f>
-        <v>0.22916666666666674</v>
+        <v>0.27083333333333337</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="62"/>
       <c r="B109" s="43" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="C109" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D109" s="59">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="E109" s="59">
-        <v>0.47222222222222227</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F109" s="59">
         <f t="shared" si="26"/>
-        <v>1.3888888888888951E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H109" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I109" s="59">
         <f t="shared" ref="I109" si="45">SUMIFS(F107:F121, C107:C121,H109)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="62"/>
       <c r="B110" s="43" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C110" s="43" t="s">
         <v>384</v>
@@ -7855,7 +7922,7 @@
     <row r="111" spans="1:9">
       <c r="A111" s="62"/>
       <c r="B111" s="43" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C111" s="43" t="s">
         <v>386</v>
@@ -7881,7 +7948,7 @@
     <row r="112" spans="1:9">
       <c r="A112" s="62"/>
       <c r="B112" s="43" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C112" s="43" t="s">
         <v>386</v>
@@ -7907,7 +7974,7 @@
     <row r="113" spans="1:9">
       <c r="A113" s="62"/>
       <c r="B113" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C113" s="43" t="s">
         <v>386</v>
@@ -7927,13 +7994,13 @@
       </c>
       <c r="I113" s="59">
         <f t="shared" ref="I113" si="49">SUMIFS(F107:F121, C107:C121,H113)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>4.5138888888888729E-2</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="62"/>
       <c r="B114" s="43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C114" s="43" t="s">
         <v>382</v>
@@ -7953,13 +8020,13 @@
       </c>
       <c r="I114" s="57">
         <f t="shared" ref="I114" si="50">SUM(I108:I113)</f>
-        <v>0.34027777777777773</v>
+        <v>0.35763888888888878</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="62"/>
       <c r="B115" s="43" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C115" s="43" t="s">
         <v>382</v>
@@ -8073,7 +8140,7 @@
     <row r="123" spans="1:9">
       <c r="A123" s="62"/>
       <c r="B123" s="43" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C123" s="43" t="s">
         <v>384</v>
@@ -8099,7 +8166,7 @@
     <row r="124" spans="1:9">
       <c r="A124" s="62"/>
       <c r="B124" s="43" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="C124" s="43" t="s">
         <v>382</v>
@@ -8125,7 +8192,7 @@
     <row r="125" spans="1:9">
       <c r="A125" s="62"/>
       <c r="B125" s="43" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C125" s="43" t="s">
         <v>384</v>
@@ -8151,7 +8218,7 @@
     <row r="126" spans="1:9">
       <c r="A126" s="62"/>
       <c r="B126" s="43" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C126" s="43" t="s">
         <v>386</v>
@@ -8177,7 +8244,7 @@
     <row r="127" spans="1:9">
       <c r="A127" s="62"/>
       <c r="B127" s="43" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C127" s="43" t="s">
         <v>386</v>
@@ -8203,7 +8270,7 @@
     <row r="128" spans="1:9">
       <c r="A128" s="62"/>
       <c r="B128" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C128" s="43" t="s">
         <v>386</v>
@@ -8229,7 +8296,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="62"/>
       <c r="B129" s="43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C129" s="43" t="s">
         <v>382</v>
@@ -8255,7 +8322,7 @@
     <row r="130" spans="1:9">
       <c r="A130" s="62"/>
       <c r="B130" s="43" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C130" s="43" t="s">
         <v>382</v>
@@ -8369,7 +8436,7 @@
     <row r="138" spans="1:9">
       <c r="A138" s="62"/>
       <c r="B138" s="43" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C138" s="43" t="s">
         <v>384</v>
@@ -8395,7 +8462,7 @@
     <row r="139" spans="1:9">
       <c r="A139" s="62"/>
       <c r="B139" s="43" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="C139" s="43" t="s">
         <v>382</v>
@@ -8421,7 +8488,7 @@
     <row r="140" spans="1:9">
       <c r="A140" s="62"/>
       <c r="B140" s="43" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C140" s="43" t="s">
         <v>384</v>
@@ -8447,7 +8514,7 @@
     <row r="141" spans="1:9">
       <c r="A141" s="62"/>
       <c r="B141" s="43" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C141" s="43" t="s">
         <v>386</v>
@@ -8473,7 +8540,7 @@
     <row r="142" spans="1:9">
       <c r="A142" s="62"/>
       <c r="B142" s="43" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C142" s="43" t="s">
         <v>386</v>
@@ -8499,7 +8566,7 @@
     <row r="143" spans="1:9">
       <c r="A143" s="62"/>
       <c r="B143" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C143" s="43" t="s">
         <v>386</v>
@@ -8525,7 +8592,7 @@
     <row r="144" spans="1:9">
       <c r="A144" s="62"/>
       <c r="B144" s="43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C144" s="43" t="s">
         <v>382</v>
@@ -8551,7 +8618,7 @@
     <row r="145" spans="1:9">
       <c r="A145" s="62"/>
       <c r="B145" s="43" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C145" s="43" t="s">
         <v>382</v>
@@ -8637,7 +8704,7 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="62" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="B152" s="43" t="s">
         <v>401</v>
@@ -8665,7 +8732,7 @@
     <row r="153" spans="1:9">
       <c r="A153" s="62"/>
       <c r="B153" s="43" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C153" s="43" t="s">
         <v>384</v>
@@ -8691,7 +8758,7 @@
     <row r="154" spans="1:9">
       <c r="A154" s="62"/>
       <c r="B154" s="43" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="C154" s="43" t="s">
         <v>382</v>
@@ -8717,7 +8784,7 @@
     <row r="155" spans="1:9">
       <c r="A155" s="62"/>
       <c r="B155" s="43" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C155" s="43" t="s">
         <v>384</v>
@@ -8743,7 +8810,7 @@
     <row r="156" spans="1:9">
       <c r="A156" s="62"/>
       <c r="B156" s="43" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C156" s="43" t="s">
         <v>386</v>
@@ -8769,7 +8836,7 @@
     <row r="157" spans="1:9">
       <c r="A157" s="62"/>
       <c r="B157" s="43" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C157" s="43" t="s">
         <v>386</v>
@@ -8795,7 +8862,7 @@
     <row r="158" spans="1:9">
       <c r="A158" s="62"/>
       <c r="B158" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C158" s="43" t="s">
         <v>386</v>
@@ -8821,7 +8888,7 @@
     <row r="159" spans="1:9">
       <c r="A159" s="62"/>
       <c r="B159" s="43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C159" s="43" t="s">
         <v>382</v>
@@ -8847,7 +8914,7 @@
     <row r="160" spans="1:9">
       <c r="A160" s="62"/>
       <c r="B160" s="43" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C160" s="43" t="s">
         <v>382</v>
@@ -8933,17 +9000,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A3FF1A8-2EC6-4001-9D90-75A6CC528CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E2C3CA7-8945-402A-8E86-5BED19185C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="481">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1929,6 +1929,9 @@
   </si>
   <si>
     <t>Instruction about Timesheet with Rafi</t>
+  </si>
+  <si>
+    <t>Worked on the Layout resolution of Articles Page</t>
   </si>
   <si>
     <t>Working Article page</t>
@@ -5794,8 +5797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C9DD7D-30C6-4A9E-B772-3BC050FE4627}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7567,7 +7570,7 @@
       </c>
       <c r="I78" s="59">
         <f t="shared" ref="I78" si="30">SUMIFS(F77:F91, C77:C91,H78)</f>
-        <v>0.10972222222222228</v>
+        <v>0.17222222222222228</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -7723,7 +7726,7 @@
       </c>
       <c r="I84" s="57">
         <f t="shared" ref="I84" si="36">SUM(I78:I83)</f>
-        <v>0.28125000000000017</v>
+        <v>0.34375000000000017</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -7806,13 +7809,21 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="64"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="59"/>
+      <c r="B89" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="C89" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D89" s="59">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E89" s="59">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="F89" s="59">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -7829,7 +7840,7 @@
     <row r="91" spans="1:9">
       <c r="A91" s="64"/>
       <c r="B91" s="43" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C91" s="43"/>
       <c r="D91" s="59"/>
@@ -7869,7 +7880,7 @@
     <row r="93" spans="1:9">
       <c r="A93" s="64"/>
       <c r="B93" s="43" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C93" s="43" t="s">
         <v>384</v>
@@ -7895,7 +7906,7 @@
     <row r="94" spans="1:9">
       <c r="A94" s="64"/>
       <c r="B94" s="43" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C94" s="43" t="s">
         <v>382</v>
@@ -7921,7 +7932,7 @@
     <row r="95" spans="1:9">
       <c r="A95" s="64"/>
       <c r="B95" s="43" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C95" s="43" t="s">
         <v>384</v>
@@ -8051,7 +8062,7 @@
     <row r="100" spans="1:9">
       <c r="A100" s="64"/>
       <c r="B100" s="43" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C100" s="43" t="s">
         <v>382</v>
@@ -8140,7 +8151,7 @@
         <v>16</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C107" s="43" t="s">
         <v>379</v>
@@ -8165,7 +8176,7 @@
     <row r="108" spans="1:9">
       <c r="A108" s="64"/>
       <c r="B108" s="43" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C108" s="43" t="s">
         <v>382</v>
@@ -8217,7 +8228,7 @@
     <row r="110" spans="1:9">
       <c r="A110" s="64"/>
       <c r="B110" s="43" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C110" s="43" t="s">
         <v>382</v>
@@ -8269,7 +8280,7 @@
     <row r="112" spans="1:9">
       <c r="A112" s="64"/>
       <c r="B112" s="43" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C112" s="43" t="s">
         <v>382</v>
@@ -8295,7 +8306,7 @@
     <row r="113" spans="1:9">
       <c r="A113" s="64"/>
       <c r="B113" s="43" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C113" s="43" t="s">
         <v>387</v>
@@ -8347,7 +8358,7 @@
     <row r="115" spans="1:9">
       <c r="A115" s="64"/>
       <c r="B115" s="43" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C115" s="43" t="s">
         <v>390</v>
@@ -8387,7 +8398,7 @@
     <row r="117" spans="1:9">
       <c r="A117" s="64"/>
       <c r="B117" s="43" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C117" s="43" t="s">
         <v>382</v>
@@ -8406,7 +8417,7 @@
     <row r="118" spans="1:9">
       <c r="A118" s="64"/>
       <c r="B118" s="43" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C118" s="43" t="s">
         <v>387</v>
@@ -8425,7 +8436,7 @@
     <row r="119" spans="1:9">
       <c r="A119" s="64"/>
       <c r="B119" s="43" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C119" s="43" t="s">
         <v>387</v>
@@ -8455,7 +8466,7 @@
     <row r="121" spans="1:9">
       <c r="A121" s="64"/>
       <c r="B121" s="43" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C121" s="43"/>
       <c r="D121" s="59"/>
@@ -8470,7 +8481,7 @@
         <v>17</v>
       </c>
       <c r="B122" s="43" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C122" s="43" t="s">
         <v>379</v>
@@ -8495,7 +8506,7 @@
     <row r="123" spans="1:9">
       <c r="A123" s="64"/>
       <c r="B123" s="43" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C123" s="43" t="s">
         <v>382</v>
@@ -8547,7 +8558,7 @@
     <row r="125" spans="1:9">
       <c r="A125" s="64"/>
       <c r="B125" s="43" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C125" s="43" t="s">
         <v>382</v>
@@ -8599,7 +8610,7 @@
     <row r="127" spans="1:9">
       <c r="A127" s="64"/>
       <c r="B127" s="43" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C127" s="43" t="s">
         <v>382</v>
@@ -8625,7 +8636,7 @@
     <row r="128" spans="1:9">
       <c r="A128" s="64"/>
       <c r="B128" s="43" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C128" s="43" t="s">
         <v>382</v>
@@ -8651,7 +8662,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="64"/>
       <c r="B129" s="43" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C129" s="43" t="s">
         <v>382</v>
@@ -8697,7 +8708,7 @@
     <row r="131" spans="1:9">
       <c r="A131" s="64"/>
       <c r="B131" s="43" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C131" s="43" t="s">
         <v>390</v>
@@ -8736,7 +8747,7 @@
     <row r="133" spans="1:9">
       <c r="A133" s="64"/>
       <c r="B133" s="43" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C133" s="43" t="s">
         <v>382</v>
@@ -8755,7 +8766,7 @@
     <row r="134" spans="1:9">
       <c r="A134" s="64"/>
       <c r="B134" s="43" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C134" s="43" t="s">
         <v>387</v>
@@ -8774,7 +8785,7 @@
     <row r="135" spans="1:9">
       <c r="A135" s="64"/>
       <c r="B135" s="43" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C135" s="43" t="s">
         <v>384</v>
@@ -8793,7 +8804,7 @@
     <row r="136" spans="1:9">
       <c r="A136" s="64"/>
       <c r="B136" s="62" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C136" s="43" t="s">
         <v>382</v>
@@ -8814,7 +8825,7 @@
         <v>18</v>
       </c>
       <c r="B137" s="43" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C137" s="43" t="s">
         <v>379</v>
@@ -8839,7 +8850,7 @@
     <row r="138" spans="1:9">
       <c r="A138" s="64"/>
       <c r="B138" s="43" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C138" s="43" t="s">
         <v>382</v>
@@ -8917,7 +8928,7 @@
     <row r="141" spans="1:9">
       <c r="A141" s="64"/>
       <c r="B141" s="43" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C141" s="43" t="s">
         <v>379</v>
@@ -8943,7 +8954,7 @@
     <row r="142" spans="1:9">
       <c r="A142" s="64"/>
       <c r="B142" s="43" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C142" s="43" t="s">
         <v>387</v>
@@ -8969,7 +8980,7 @@
     <row r="143" spans="1:9">
       <c r="A143" s="64"/>
       <c r="B143" s="43" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C143" s="43" t="s">
         <v>390</v>
@@ -9021,7 +9032,7 @@
     <row r="145" spans="1:9">
       <c r="A145" s="64"/>
       <c r="B145" s="43" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C145" s="43" t="s">
         <v>387</v>
@@ -9061,7 +9072,7 @@
     <row r="147" spans="1:9">
       <c r="A147" s="64"/>
       <c r="B147" s="43" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C147" s="43" t="s">
         <v>382</v>
@@ -9102,7 +9113,7 @@
     <row r="150" spans="1:9">
       <c r="A150" s="64"/>
       <c r="B150" s="43" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C150" s="43"/>
       <c r="D150" s="59"/>
@@ -9125,7 +9136,7 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="64" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B152" s="43" t="s">
         <v>401</v>
@@ -9153,7 +9164,7 @@
     <row r="153" spans="1:9">
       <c r="A153" s="64"/>
       <c r="B153" s="43" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C153" s="43" t="s">
         <v>384</v>
@@ -9179,7 +9190,7 @@
     <row r="154" spans="1:9">
       <c r="A154" s="64"/>
       <c r="B154" s="43" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C154" s="43" t="s">
         <v>382</v>
@@ -9205,7 +9216,7 @@
     <row r="155" spans="1:9">
       <c r="A155" s="64"/>
       <c r="B155" s="43" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C155" s="43" t="s">
         <v>384</v>
@@ -9335,7 +9346,7 @@
     <row r="160" spans="1:9">
       <c r="A160" s="64"/>
       <c r="B160" s="43" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C160" s="43" t="s">
         <v>382</v>
@@ -9421,17 +9432,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E2C3CA7-8945-402A-8E86-5BED19185C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21BA2743-F692-40CF-83E1-9ADDE3AD3064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="25.04.2022" sheetId="58" r:id="rId16"/>
     <sheet name="26.04.2022" sheetId="59" r:id="rId17"/>
     <sheet name="27.04.2022" sheetId="60" r:id="rId18"/>
+    <sheet name="28.04.2022" sheetId="61" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="493">
   <si>
     <t>Resource Name</t>
   </si>
@@ -2019,6 +2020,42 @@
   </si>
   <si>
     <t>Resource Name 11</t>
+  </si>
+  <si>
+    <t>Working on the Update Article page</t>
+  </si>
+  <si>
+    <t>SoftSkill Session</t>
+  </si>
+  <si>
+    <t>Started Working on the Responsiveness in User Side</t>
+  </si>
+  <si>
+    <t>Worked on the Modal in spam Report page</t>
+  </si>
+  <si>
+    <t>Reviewed the Estimation and Worked on the Responsiveness in admin side</t>
+  </si>
+  <si>
+    <t>Meeting after the Review</t>
+  </si>
+  <si>
+    <t>Explored about the DataTable jquery plugin</t>
+  </si>
+  <si>
+    <t>Worked on responsiveness in the Admin and Reviewer Side</t>
+  </si>
+  <si>
+    <t>Worked on the navigatability of the application in the user side</t>
+  </si>
+  <si>
+    <t>Explored about the Sticky footer and  Data Table Plugin</t>
+  </si>
+  <si>
+    <t>Worked on the Data Table in the Employee page</t>
+  </si>
+  <si>
+    <t>Working on the Responsiveness in the Table</t>
   </si>
 </sst>
 </file>
@@ -2467,7 +2504,137 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5797,8 +5964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C9DD7D-30C6-4A9E-B772-3BC050FE4627}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9443,6 +9610,3485 @@
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="lessThan">
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 I19 I34 I49 I64 I79 I94 I109 I124 I139 I154">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5 I20 I35 I50 I65 I80 I95 I110 I125 I140 I155">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="lessThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="greaterThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 I21 I36 I51 I66 I81 I96 I111 I126 I141 I156">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7 I22 I37 I52 I67 I82 I97 I112 I127 I142 I157">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8 I23 I38 I53 I68 I83 I98 I113 I128 I143 I158">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+      <formula>0.0625</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+      <formula>0.0625</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C166" xr:uid="{F75F330B-0F44-4F4F-9D1E-4C6367F0391C}">
+      <formula1>$Q$1:$Q$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E3682D-F14F-4D28-8A78-318A919FB5C5}">
+  <dimension ref="A1:Q166"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1" s="58"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2" s="59">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E2" s="59">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="F2" s="59">
+        <f>E2-D2</f>
+        <v>4.3055555555555514E-2</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="64"/>
+      <c r="B3" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" s="59">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="E3" s="59">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="F3" s="59">
+        <f t="shared" ref="F3:F66" si="0">E3-D3</f>
+        <v>3.7500000000000033E-2</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I3" s="59">
+        <f>SUMIFS(F2:F16, C2:C16,H3)</f>
+        <v>0.26111111111111107</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="64"/>
+      <c r="B4" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" s="59">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="E4" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F4" s="59">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444453E-2</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I4" s="59">
+        <f>SUMIFS(F2:F16, C2:C16,H4)</f>
+        <v>3.7500000000000033E-2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="64"/>
+      <c r="B5" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E5" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="59">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I5" s="59">
+        <f>SUMIFS(F2:F16, C2:C16,H5)</f>
+        <v>8.3333333333333481E-2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="64"/>
+      <c r="B6" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="59">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F6" s="59">
+        <f t="shared" si="0"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I6" s="59">
+        <f>SUMIFS(F2:F16, C2:C16,H6)</f>
+        <v>2.3611111111111027E-2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="64"/>
+      <c r="B7" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" s="59">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E7" s="59">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="F7" s="59">
+        <f>E7-D7</f>
+        <v>2.2222222222222143E-2</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I7" s="59">
+        <f>SUMIFS(F2:F16, C2:C16,H7)</f>
+        <v>3.7500000000000089E-2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="64"/>
+      <c r="B8" s="43" t="s">
+        <v>416</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D8" s="59">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="E8" s="59">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="F8" s="59">
+        <f t="shared" si="0"/>
+        <v>3.7500000000000089E-2</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I8" s="59">
+        <f>SUMIFS(F2:F16, C2:C16,H8)</f>
+        <v>2.2222222222222143E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="64"/>
+      <c r="B9" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" s="59">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="E9" s="59">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F9" s="59">
+        <f t="shared" si="0"/>
+        <v>2.3611111111111027E-2</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I9" s="57">
+        <f>SUM(I3:I8)</f>
+        <v>0.46527777777777785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="64"/>
+      <c r="B10" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="59">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E10" s="59">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F10" s="59">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="I10" s="61"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="64"/>
+      <c r="B11" s="43" t="s">
+        <v>488</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11" s="59">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E11" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F11" s="59">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="I11" s="61"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="64"/>
+      <c r="B12" s="43" t="s">
+        <v>489</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E12" s="59">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F12" s="59">
+        <f t="shared" si="0"/>
+        <v>4.861111111111116E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="64"/>
+      <c r="B13" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D13" s="59">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="E13" s="59">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="F13" s="59">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="64"/>
+      <c r="B14" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D14" s="59">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="E14" s="59">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="F14" s="59">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="64"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="64"/>
+      <c r="B16" s="43" t="s">
+        <v>492</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17" s="59">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F17" s="59">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="64"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D18" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E18" s="59">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="F18" s="59">
+        <f t="shared" si="0"/>
+        <v>4.5138888888888895E-2</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I18" s="59">
+        <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
+        <v>0.11805555555555558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="64"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D19" s="59">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E19" s="59">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F19" s="59">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I19" s="59">
+        <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="64"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D20" s="59">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E20" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F20" s="59">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222265E-2</v>
+      </c>
+      <c r="H20" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I20" s="59">
+        <f t="shared" ref="I20" si="3">SUMIFS(F17:F31, C17:C31,H20)</f>
+        <v>9.7222222222222265E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="64"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D21" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E21" s="59">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F21" s="59">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H21" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I21" s="59">
+        <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
+        <v>3.6111111111111149E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="64"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D22" s="59">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E22" s="59">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="F22" s="59">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111105E-2</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I22" s="59">
+        <f t="shared" ref="I22" si="5">SUMIFS(F17:F31, C17:C31,H22)</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="64"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D23" s="59">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E23" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F23" s="59">
+        <f>E23-D23</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="H23" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I23" s="59">
+        <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
+        <v>4.8611111111111049E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="64"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D24" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E24" s="59">
+        <v>0.5625</v>
+      </c>
+      <c r="F24" s="59">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I24" s="57">
+        <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
+        <v>0.32430555555555562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="64"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D25" s="59">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E25" s="59">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F25" s="59">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="I25" s="61"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="64"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D26" s="59">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="E26" s="59">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F26" s="59">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
+      <c r="I26" s="61"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="64"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D27" s="59">
+        <v>0.625</v>
+      </c>
+      <c r="E27" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F27" s="59">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="64"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D28" s="63">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E28" s="63">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F28" s="59">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="64"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D29" s="59">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E29" s="59">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F29" s="59">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="64"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="64"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D32" s="59">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F32" s="59">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I32" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="64"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D33" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E33" s="59">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F33" s="59">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H33" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I33" s="59">
+        <f t="shared" ref="I33" si="8">SUMIFS(F32:F46, C32:C46,H33)</f>
+        <v>0.11458333333333343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="64"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D34" s="59">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E34" s="59">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F34" s="59">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H34" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I34" s="59">
+        <f t="shared" ref="I34" si="9">SUMIFS(F32:F46, C32:C46,H34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="64"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D35" s="59">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E35" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F35" s="59">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H35" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I35" s="59">
+        <f t="shared" ref="I35" si="10">SUMIFS(F32:F46, C32:C46,H35)</f>
+        <v>0.13888888888888895</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="64"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D36" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E36" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F36" s="59">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H36" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I36" s="59">
+        <f t="shared" ref="I36" si="11">SUMIFS(F32:F46, C32:C46,H36)</f>
+        <v>3.6111111111111149E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="64"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D37" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E37" s="59">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F37" s="59">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H37" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I37" s="59">
+        <f t="shared" ref="I37" si="12">SUMIFS(F32:F46, C32:C46,H37)</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="64"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D38" s="59">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E38" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F38" s="59">
+        <f t="shared" si="0"/>
+        <v>3.1250000000000056E-2</v>
+      </c>
+      <c r="H38" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I38" s="59">
+        <f t="shared" ref="I38" si="13">SUMIFS(F32:F46, C32:C46,H38)</f>
+        <v>2.4305555555555469E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="64"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D39" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E39" s="59">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F39" s="59">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H39" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I39" s="57">
+        <f t="shared" ref="I39" si="14">SUM(I33:I38)</f>
+        <v>0.33819444444444458</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="64"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D40" s="59">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E40" s="59">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="F40" s="59">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="I40" s="61"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="64"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D41" s="59">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E41" s="59">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F41" s="59">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="I41" s="61"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="64"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D42" s="59">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="E42" s="59">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F42" s="59">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="64"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D43" s="59">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E43" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F43" s="59">
+        <f t="shared" si="0"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="64"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D44" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E44" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F44" s="59">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="64"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D45" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E45" s="59">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="F45" s="59">
+        <f t="shared" si="0"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="64"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D47" s="59">
+        <v>0.375</v>
+      </c>
+      <c r="E47" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F47" s="59">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H47" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I47" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="64"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D48" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E48" s="59">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F48" s="59">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H48" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I48" s="59">
+        <f t="shared" ref="I48" si="15">SUMIFS(F47:F61, C47:C61,H48)</f>
+        <v>0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="64"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D49" s="59">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E49" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F49" s="59">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H49" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I49" s="59">
+        <f t="shared" ref="I49" si="16">SUMIFS(F47:F61, C47:C61,H49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="64"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D50" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E50" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F50" s="59">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H50" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I50" s="59">
+        <f t="shared" ref="I50" si="17">SUMIFS(F47:F61, C47:C61,H50)</f>
+        <v>9.027777777777779E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="64"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D51" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E51" s="59">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F51" s="59">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H51" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I51" s="59">
+        <f t="shared" ref="I51" si="18">SUMIFS(F47:F61, C47:C61,H51)</f>
+        <v>3.6111111111111149E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="64"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D52" s="59">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E52" s="59">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="F52" s="59">
+        <f t="shared" si="0"/>
+        <v>3.8194444444444475E-2</v>
+      </c>
+      <c r="H52" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I52" s="59">
+        <f t="shared" ref="I52" si="19">SUMIFS(F47:F61, C47:C61,H52)</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="64"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D53" s="59">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E53" s="59">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F53" s="59">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="H53" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I53" s="59">
+        <f t="shared" ref="I53" si="20">SUMIFS(F47:F61, C47:C61,H53)</f>
+        <v>4.5138888888888729E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="64"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D54" s="59">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E54" s="59">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F54" s="59">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H54" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I54" s="57">
+        <f t="shared" ref="I54" si="21">SUM(I48:I53)</f>
+        <v>0.36249999999999993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="64"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D55" s="59">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E55" s="59">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F55" s="59">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="I55" s="61"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="64"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D56" s="59">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="E56" s="59">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F56" s="59">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
+      <c r="I56" s="61"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="64"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D57" s="59">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E57" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F57" s="59">
+        <f t="shared" si="0"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="64"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D58" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E58" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F58" s="59">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="64"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D59" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E59" s="59">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F59" s="59">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="64"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D60" s="59">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E60" s="59">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="F60" s="59">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="64"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D62" s="59">
+        <v>0.375</v>
+      </c>
+      <c r="E62" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F62" s="59">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H62" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I62" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="64"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D63" s="59">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E63" s="59">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="F63" s="59">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222265E-2</v>
+      </c>
+      <c r="H63" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I63" s="59">
+        <f t="shared" ref="I63" si="22">SUMIFS(F62:F76, C62:C76,H63)</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="64"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D64" s="59">
+        <v>0.4375</v>
+      </c>
+      <c r="E64" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F64" s="59">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H64" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I64" s="59">
+        <f t="shared" ref="I64" si="23">SUMIFS(F62:F76, C62:C76,H64)</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="64"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D65" s="59">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E65" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F65" s="59">
+        <f t="shared" si="0"/>
+        <v>5.5555555555556468E-3</v>
+      </c>
+      <c r="H65" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I65" s="59">
+        <f t="shared" ref="I65" si="24">SUMIFS(F62:F76, C62:C76,H65)</f>
+        <v>0.11458333333333331</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="64"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D66" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E66" s="59">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F66" s="59">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H66" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I66" s="59">
+        <f t="shared" ref="I66" si="25">SUMIFS(F62:F76, C62:C76,H66)</f>
+        <v>3.6111111111111149E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="64"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D67" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="E67" s="59">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="F67" s="59">
+        <f t="shared" ref="F67:F130" si="26">E67-D67</f>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="H67" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I67" s="59">
+        <f t="shared" ref="I67" si="27">SUMIFS(F62:F76, C62:C76,H67)</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="64"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D68" s="59">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="E68" s="59">
+        <v>0.5625</v>
+      </c>
+      <c r="F68" s="59">
+        <f t="shared" si="26"/>
+        <v>1.1805555555555514E-2</v>
+      </c>
+      <c r="H68" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I68" s="59">
+        <f t="shared" ref="I68" si="28">SUMIFS(F62:F76, C62:C76,H68)</f>
+        <v>1.1805555555555514E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="64"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D69" s="59">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E69" s="59">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F69" s="59">
+        <f t="shared" si="26"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="H69" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I69" s="57">
+        <f t="shared" ref="I69" si="29">SUM(I63:I68)</f>
+        <v>0.28958333333333336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="64"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D70" s="59">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="E70" s="59">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F70" s="59">
+        <f t="shared" si="26"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
+      <c r="I70" s="61"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="64"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D71" s="59">
+        <v>0.625</v>
+      </c>
+      <c r="E71" s="59">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="F71" s="59">
+        <f t="shared" si="26"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="I71" s="61"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="64"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D72" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E72" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F72" s="59">
+        <f t="shared" si="26"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="64"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D73" s="59">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E73" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F73" s="59">
+        <f t="shared" si="26"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="64"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="64"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="64"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D77" s="59">
+        <v>0.375</v>
+      </c>
+      <c r="E77" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F77" s="59">
+        <f t="shared" si="26"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H77" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I77" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="64"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D78" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E78" s="59">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F78" s="59">
+        <f t="shared" si="26"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H78" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I78" s="59">
+        <f t="shared" ref="I78" si="30">SUMIFS(F77:F91, C77:C91,H78)</f>
+        <v>0.17222222222222228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="64"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D79" s="59">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E79" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F79" s="59">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H79" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I79" s="59">
+        <f t="shared" ref="I79" si="31">SUMIFS(F77:F91, C77:C91,H79)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="64"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D80" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E80" s="59">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F80" s="59">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H80" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I80" s="59">
+        <f t="shared" ref="I80" si="32">SUMIFS(F77:F91, C77:C91,H80)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="64"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D81" s="59">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E81" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F81" s="59">
+        <f t="shared" si="26"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H81" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I81" s="59">
+        <f t="shared" ref="I81" si="33">SUMIFS(F77:F91, C77:C91,H81)</f>
+        <v>3.6111111111111149E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="64"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D82" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E82" s="59">
+        <v>0.5625</v>
+      </c>
+      <c r="F82" s="59">
+        <f t="shared" si="26"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H82" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I82" s="59">
+        <f t="shared" ref="I82" si="34">SUMIFS(F77:F91, C77:C91,H82)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="64"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D83" s="59">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E83" s="59">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F83" s="59">
+        <f t="shared" si="26"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H83" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I83" s="59">
+        <f t="shared" ref="I83" si="35">SUMIFS(F77:F91, C77:C91,H83)</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="64"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D84" s="59">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="E84" s="59">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F84" s="59">
+        <f t="shared" si="26"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
+      <c r="H84" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I84" s="57">
+        <f t="shared" ref="I84" si="36">SUM(I78:I83)</f>
+        <v>0.34375000000000017</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="64"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D85" s="59">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E85" s="59">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="F85" s="59">
+        <f t="shared" si="26"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="I85" s="61"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="64"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D86" s="59">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E86" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F86" s="59">
+        <f t="shared" si="26"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="I86" s="61"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="64"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D87" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E87" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F87" s="59">
+        <f t="shared" si="26"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="64"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D88" s="59">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E88" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F88" s="59">
+        <f t="shared" si="26"/>
+        <v>5.5555555555556468E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="64"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D89" s="59">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E89" s="59">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F89" s="59">
+        <f t="shared" si="26"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="64"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="64"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D92" s="59">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E92" s="59">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F92" s="59">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H92" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I92" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="64"/>
+      <c r="B93" s="43" t="s">
+        <v>453</v>
+      </c>
+      <c r="C93" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D93" s="59">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E93" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F93" s="59">
+        <f t="shared" si="26"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H93" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I93" s="59">
+        <f t="shared" ref="I93" si="37">SUMIFS(F92:F106, C92:C106,H93)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="64"/>
+      <c r="B94" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D94" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E94" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F94" s="59">
+        <f t="shared" si="26"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H94" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I94" s="59">
+        <f t="shared" ref="I94" si="38">SUMIFS(F92:F106, C92:C106,H94)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="64"/>
+      <c r="B95" s="43" t="s">
+        <v>453</v>
+      </c>
+      <c r="C95" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D95" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E95" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F95" s="59">
+        <f t="shared" si="26"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H95" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I95" s="59">
+        <f t="shared" ref="I95" si="39">SUMIFS(F92:F106, C92:C106,H95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="64"/>
+      <c r="B96" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="C96" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D96" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E96" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F96" s="59">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H96" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I96" s="59">
+        <f t="shared" ref="I96" si="40">SUMIFS(F92:F106, C92:C106,H96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="64"/>
+      <c r="B97" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D97" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E97" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F97" s="59">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H97" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I97" s="59">
+        <f t="shared" ref="I97" si="41">SUMIFS(F92:F106, C92:C106,H97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="64"/>
+      <c r="B98" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="C98" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D98" s="59">
+        <v>0.65625</v>
+      </c>
+      <c r="E98" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F98" s="59">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H98" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I98" s="59">
+        <f t="shared" ref="I98" si="42">SUMIFS(F92:F106, C92:C106,H98)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="64"/>
+      <c r="B99" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D99" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E99" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F99" s="59">
+        <f t="shared" si="26"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H99" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I99" s="57">
+        <f t="shared" ref="I99" si="43">SUM(I93:I98)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="64"/>
+      <c r="B100" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D100" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E100" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="F100" s="59">
+        <f t="shared" si="26"/>
+        <v>0.125</v>
+      </c>
+      <c r="I100" s="61"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="64"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="59"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="61"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="64"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="59"/>
+      <c r="E102" s="59"/>
+      <c r="F102" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="64"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="59"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="64"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="64"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="59"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="64"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" s="43"/>
+      <c r="C107" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D107" s="59">
+        <v>0.375</v>
+      </c>
+      <c r="E107" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F107" s="59">
+        <f t="shared" si="26"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H107" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I107" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="64"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D108" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E108" s="59">
+        <v>0.4375</v>
+      </c>
+      <c r="F108" s="59">
+        <f t="shared" si="26"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="H108" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I108" s="59">
+        <f t="shared" ref="I108" si="44">SUMIFS(F107:F121, C107:C121,H108)</f>
+        <v>0.13194444444444453</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="64"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D109" s="59">
+        <v>0.4375</v>
+      </c>
+      <c r="E109" s="59">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F109" s="59">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H109" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I109" s="59">
+        <f t="shared" ref="I109" si="45">SUMIFS(F107:F121, C107:C121,H109)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="64"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D110" s="59">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E110" s="59">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="F110" s="59">
+        <f t="shared" si="26"/>
+        <v>2.2222222222222199E-2</v>
+      </c>
+      <c r="H110" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I110" s="59">
+        <f t="shared" ref="I110" si="46">SUMIFS(F107:F121, C107:C121,H110)</f>
+        <v>0.15624999999999994</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="64"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D111" s="59">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E111" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F111" s="59">
+        <f t="shared" si="26"/>
+        <v>5.5555555555556468E-3</v>
+      </c>
+      <c r="H111" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I111" s="59">
+        <f t="shared" ref="I111" si="47">SUMIFS(F107:F121, C107:C121,H111)</f>
+        <v>2.569444444444452E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="64"/>
+      <c r="B112" s="43"/>
+      <c r="C112" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D112" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E112" s="59">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F112" s="59">
+        <f t="shared" si="26"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="H112" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I112" s="59">
+        <f t="shared" ref="I112" si="48">SUMIFS(F107:F121, C107:C121,H112)</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="64"/>
+      <c r="B113" s="43"/>
+      <c r="C113" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D113" s="59">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E113" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F113" s="59">
+        <f t="shared" si="26"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="H113" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I113" s="59">
+        <f t="shared" ref="I113" si="49">SUMIFS(F107:F121, C107:C121,H113)</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="64"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D114" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E114" s="59">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F114" s="59">
+        <f t="shared" si="26"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H114" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I114" s="57">
+        <f t="shared" ref="I114" si="50">SUM(I108:I113)</f>
+        <v>0.37291666666666679</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="64"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D115" s="59">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E115" s="59">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F115" s="59">
+        <f t="shared" si="26"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="I115" s="61"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="64"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D116" s="59">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="E116" s="59">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F116" s="59">
+        <f t="shared" si="26"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
+      <c r="I116" s="61"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="64"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D117" s="59">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E117" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F117" s="59">
+        <f t="shared" si="26"/>
+        <v>3.4722222222222321E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="64"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D118" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E118" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F118" s="59">
+        <f t="shared" si="26"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="64"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D119" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E119" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F119" s="59">
+        <f t="shared" si="26"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="64"/>
+      <c r="B120" s="43"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="59"/>
+      <c r="E120" s="59"/>
+      <c r="F120" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="64"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="59"/>
+      <c r="E121" s="59"/>
+      <c r="F121" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" s="43"/>
+      <c r="C122" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D122" s="59">
+        <v>0.375</v>
+      </c>
+      <c r="E122" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F122" s="59">
+        <f t="shared" si="26"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H122" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I122" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="64"/>
+      <c r="B123" s="43"/>
+      <c r="C123" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D123" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E123" s="59">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F123" s="59">
+        <f t="shared" si="26"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H123" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I123" s="59">
+        <f t="shared" ref="I123" si="51">SUMIFS(F122:F136, C122:C136,H123)</f>
+        <v>0.22222222222222227</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="64"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D124" s="59">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E124" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F124" s="59">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H124" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I124" s="59">
+        <f t="shared" ref="I124" si="52">SUMIFS(F122:F136, C122:C136,H124)</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="64"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D125" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E125" s="59">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="F125" s="59">
+        <f t="shared" si="26"/>
+        <v>8.3333333333333037E-3</v>
+      </c>
+      <c r="H125" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I125" s="59">
+        <f t="shared" ref="I125" si="53">SUMIFS(F122:F136, C122:C136,H125)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="64"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D126" s="59">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E126" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F126" s="59">
+        <f t="shared" si="26"/>
+        <v>5.5555555555556468E-3</v>
+      </c>
+      <c r="H126" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I126" s="59">
+        <f t="shared" ref="I126" si="54">SUMIFS(F122:F136, C122:C136,H126)</f>
+        <v>2.569444444444452E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="64"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D127" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E127" s="59">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="F127" s="59">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H127" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I127" s="59">
+        <f t="shared" ref="I127" si="55">SUMIFS(F122:F136, C122:C136,H127)</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="64"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D128" s="59">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E128" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F128" s="59">
+        <f t="shared" si="26"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H128" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I128" s="59">
+        <f t="shared" ref="I128" si="56">SUMIFS(F122:F136, C122:C136,H128)</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="64"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D129" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E129" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F129" s="59">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H129" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I129" s="57">
+        <f t="shared" ref="I129" si="57">SUM(I123:I128)</f>
+        <v>0.4111111111111112</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="64"/>
+      <c r="B130" s="43"/>
+      <c r="C130" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D130" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E130" s="59">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="F130" s="59">
+        <f t="shared" si="26"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="I130" s="61"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="64"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D131" s="59">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E131" s="59">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F131" s="59">
+        <f t="shared" ref="F131:F194" si="58">E131-D131</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="I131" s="61"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="64"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D132" s="59">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="E132" s="59">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F132" s="59">
+        <f t="shared" si="58"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="64"/>
+      <c r="B133" s="43"/>
+      <c r="C133" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D133" s="59">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E133" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F133" s="59">
+        <f t="shared" si="58"/>
+        <v>3.4722222222222321E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="64"/>
+      <c r="B134" s="43"/>
+      <c r="C134" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D134" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E134" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F134" s="59">
+        <f t="shared" si="58"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="64"/>
+      <c r="B135" s="43"/>
+      <c r="C135" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D135" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E135" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F135" s="59">
+        <f t="shared" si="58"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="64"/>
+      <c r="B136" s="62"/>
+      <c r="C136" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D136" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E136" s="59">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F136" s="59">
+        <f t="shared" si="58"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" s="43"/>
+      <c r="C137" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D137" s="59">
+        <v>0.375</v>
+      </c>
+      <c r="E137" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F137" s="59">
+        <f t="shared" si="58"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H137" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I137" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="64"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D138" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E138" s="59">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F138" s="59">
+        <f t="shared" si="58"/>
+        <v>5.9027777777777735E-2</v>
+      </c>
+      <c r="H138" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I138" s="59">
+        <f t="shared" ref="I138" si="59">SUMIFS(F137:F151, C137:C151,H138)</f>
+        <v>8.5416666666666752E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="64"/>
+      <c r="B139" s="43"/>
+      <c r="C139" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D139" s="59">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E139" s="59">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="F139" s="59">
+        <f t="shared" si="58"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="H139" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I139" s="59">
+        <f t="shared" ref="I139" si="60">SUMIFS(F137:F151, C137:C151,H139)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="64"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D140" s="59">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E140" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F140" s="59">
+        <f t="shared" si="58"/>
+        <v>5.5555555555556468E-3</v>
+      </c>
+      <c r="H140" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I140" s="59">
+        <f t="shared" ref="I140" si="61">SUMIFS(F137:F151, C137:C151,H140)</f>
+        <v>0.11111111111111105</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="64"/>
+      <c r="B141" s="43"/>
+      <c r="C141" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D141" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E141" s="59">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F141" s="59">
+        <f t="shared" si="58"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H141" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I141" s="59">
+        <f t="shared" ref="I141" si="62">SUMIFS(F137:F151, C137:C151,H141)</f>
+        <v>2.9166666666666619E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="64"/>
+      <c r="B142" s="43"/>
+      <c r="C142" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D142" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="E142" s="59">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="F142" s="59">
+        <f t="shared" si="58"/>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="H142" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I142" s="59">
+        <f t="shared" ref="I142" si="63">SUMIFS(F137:F151, C137:C151,H142)</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="64"/>
+      <c r="B143" s="43"/>
+      <c r="C143" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D143" s="59">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E143" s="59">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F143" s="59">
+        <f t="shared" si="58"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="H143" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I143" s="59">
+        <f t="shared" ref="I143" si="64">SUMIFS(F137:F151, C137:C151,H143)</f>
+        <v>3.4722222222222099E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="64"/>
+      <c r="B144" s="43"/>
+      <c r="C144" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D144" s="59">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="E144" s="59">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="F144" s="59">
+        <f t="shared" si="58"/>
+        <v>8.3333333333333037E-3</v>
+      </c>
+      <c r="H144" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I144" s="57">
+        <f t="shared" ref="I144" si="65">SUM(I138:I143)</f>
+        <v>0.2847222222222221</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="64"/>
+      <c r="B145" s="43"/>
+      <c r="C145" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D145" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E145" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F145" s="59">
+        <f t="shared" si="58"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I145" s="61"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="64"/>
+      <c r="B146" s="43"/>
+      <c r="C146" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D146" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E146" s="59">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F146" s="59">
+        <f t="shared" si="58"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="I146" s="61"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="64"/>
+      <c r="B147" s="43"/>
+      <c r="C147" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D147" s="59">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E147" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F147" s="59">
+        <f t="shared" si="58"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="64"/>
+      <c r="B148" s="43"/>
+      <c r="C148" s="43"/>
+      <c r="D148" s="59"/>
+      <c r="E148" s="59"/>
+      <c r="F148" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="64"/>
+      <c r="B149" s="43"/>
+      <c r="C149" s="43"/>
+      <c r="D149" s="59"/>
+      <c r="E149" s="59"/>
+      <c r="F149" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="64"/>
+      <c r="B150" s="43"/>
+      <c r="C150" s="43"/>
+      <c r="D150" s="59"/>
+      <c r="E150" s="59"/>
+      <c r="F150" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="64"/>
+      <c r="B151" s="43"/>
+      <c r="C151" s="43"/>
+      <c r="D151" s="59"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="64" t="s">
+        <v>480</v>
+      </c>
+      <c r="B152" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C152" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D152" s="59">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E152" s="59">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="F152" s="59">
+        <f t="shared" si="58"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="H152" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I152" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="64"/>
+      <c r="B153" s="43" t="s">
+        <v>453</v>
+      </c>
+      <c r="C153" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D153" s="59">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E153" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F153" s="59">
+        <f t="shared" si="58"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H153" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I153" s="59">
+        <f t="shared" ref="I153" si="66">SUMIFS(F152:F166, C152:C166,H153)</f>
+        <v>0.25694444444444453</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="64"/>
+      <c r="B154" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="C154" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D154" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E154" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F154" s="59">
+        <f t="shared" si="58"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H154" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I154" s="59">
+        <f t="shared" ref="I154" si="67">SUMIFS(F152:F166, C152:C166,H154)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="64"/>
+      <c r="B155" s="43" t="s">
+        <v>453</v>
+      </c>
+      <c r="C155" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D155" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E155" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F155" s="59">
+        <f t="shared" si="58"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H155" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I155" s="59">
+        <f t="shared" ref="I155" si="68">SUMIFS(F152:F166, C152:C166,H155)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="64"/>
+      <c r="B156" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="C156" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D156" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E156" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F156" s="59">
+        <f t="shared" si="58"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H156" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I156" s="59">
+        <f t="shared" ref="I156" si="69">SUMIFS(F152:F166, C152:C166,H156)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="64"/>
+      <c r="B157" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="C157" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D157" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E157" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F157" s="59">
+        <f t="shared" si="58"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H157" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I157" s="59">
+        <f t="shared" ref="I157" si="70">SUMIFS(F152:F166, C152:C166,H157)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="64"/>
+      <c r="B158" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="C158" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D158" s="59">
+        <v>0.65625</v>
+      </c>
+      <c r="E158" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F158" s="59">
+        <f t="shared" si="58"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H158" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I158" s="59">
+        <f t="shared" ref="I158" si="71">SUMIFS(F152:F166, C152:C166,H158)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="64"/>
+      <c r="B159" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="C159" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D159" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E159" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F159" s="59">
+        <f t="shared" si="58"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H159" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I159" s="57">
+        <f t="shared" ref="I159" si="72">SUM(I153:I158)</f>
+        <v>0.36805555555555552</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="64"/>
+      <c r="B160" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="C160" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D160" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E160" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="F160" s="59">
+        <f t="shared" si="58"/>
+        <v>0.125</v>
+      </c>
+      <c r="I160" s="61"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="64"/>
+      <c r="B161" s="43"/>
+      <c r="C161" s="43"/>
+      <c r="D161" s="59"/>
+      <c r="E161" s="59"/>
+      <c r="F161" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="I161" s="61"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="64"/>
+      <c r="B162" s="43"/>
+      <c r="C162" s="43"/>
+      <c r="D162" s="59"/>
+      <c r="E162" s="59"/>
+      <c r="F162" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="64"/>
+      <c r="B163" s="43"/>
+      <c r="C163" s="43"/>
+      <c r="D163" s="59"/>
+      <c r="E163" s="59"/>
+      <c r="F163" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="64"/>
+      <c r="B164" s="43"/>
+      <c r="C164" s="43"/>
+      <c r="D164" s="59"/>
+      <c r="E164" s="59"/>
+      <c r="F164" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="64"/>
+      <c r="B165" s="43"/>
+      <c r="C165" s="43"/>
+      <c r="D165" s="59"/>
+      <c r="E165" s="59"/>
+      <c r="F165" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="64"/>
+      <c r="B166" s="43"/>
+      <c r="C166" s="43"/>
+      <c r="D166" s="59"/>
+      <c r="E166" s="59"/>
+      <c r="F166" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A77:A91"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
@@ -9496,7 +13142,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C166" xr:uid="{F75F330B-0F44-4F4F-9D1E-4C6367F0391C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C166" xr:uid="{86D1CC8C-9E76-4CA9-A7DE-2A4609E97D01}">
       <formula1>$Q$1:$Q$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21BA2743-F692-40CF-83E1-9ADDE3AD3064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00D1A3A4-540E-46EF-98DC-01AA49C44100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,7 @@
     <sheet name="26.04.2022" sheetId="59" r:id="rId17"/>
     <sheet name="27.04.2022" sheetId="60" r:id="rId18"/>
     <sheet name="28.04.2022" sheetId="61" r:id="rId19"/>
+    <sheet name="29.04.2022" sheetId="62" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="518">
   <si>
     <t>Resource Name</t>
   </si>
@@ -2056,6 +2057,81 @@
   </si>
   <si>
     <t>Working on the Responsiveness in the Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explored Angular API Integration </t>
+  </si>
+  <si>
+    <t>Brainstorming &amp; Timesheet of Previous day</t>
+  </si>
+  <si>
+    <t>Refined Web API - changed ActionResult return type and reolved some bugs.</t>
+  </si>
+  <si>
+    <t>Reviewed the Estimation and Html Pages</t>
+  </si>
+  <si>
+    <t>Started Refining Web API with Exceptions and Validation</t>
+  </si>
+  <si>
+    <t>Explored in codefirst Github Example</t>
+  </si>
+  <si>
+    <t>Explored angular materials concept.</t>
+  </si>
+  <si>
+    <t>Created Admin dashboard and include piechart in that.</t>
+  </si>
+  <si>
+    <t>Checked the responsiveness in Article page and Reviewed page.</t>
+  </si>
+  <si>
+    <t>Worked on  layouts for Queries , Trending Queries, Latest Queries and My Queries.</t>
+  </si>
+  <si>
+    <t>Softskill Session</t>
+  </si>
+  <si>
+    <t>Complaint System for Error(Buffering Screen) , Checked and temporarly resolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch Break </t>
+  </si>
+  <si>
+    <t>Meetting with Rafi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on Queries page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started to work on the refining of Latest and trending queries </t>
+  </si>
+  <si>
+    <t>Refined the Filters in the Articles and Queries page filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explored on how to make a pop up for invite users </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created the Create Group invite Popup </t>
+  </si>
+  <si>
+    <t>Checked the navigation and responsiveness of all pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explored on the scrolling content </t>
+  </si>
+  <si>
+    <t>Started to Worked on Spam View Page</t>
+  </si>
+  <si>
+    <t>Worked on Spam View Page</t>
+  </si>
+  <si>
+    <t>Identifying the Components for creating Angular components</t>
+  </si>
+  <si>
+    <t>Timesheet of Previous day</t>
   </si>
 </sst>
 </file>
@@ -2504,7 +2580,137 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5964,8 +6170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C9DD7D-30C6-4A9E-B772-3BC050FE4627}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9508,6 +9714,3565 @@
       <c r="I159" s="57">
         <f t="shared" ref="I159" si="72">SUM(I153:I158)</f>
         <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="64"/>
+      <c r="B160" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="C160" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D160" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E160" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="F160" s="59">
+        <f t="shared" si="58"/>
+        <v>0.125</v>
+      </c>
+      <c r="I160" s="61"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="64"/>
+      <c r="B161" s="43"/>
+      <c r="C161" s="43"/>
+      <c r="D161" s="59"/>
+      <c r="E161" s="59"/>
+      <c r="F161" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="I161" s="61"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="64"/>
+      <c r="B162" s="43"/>
+      <c r="C162" s="43"/>
+      <c r="D162" s="59"/>
+      <c r="E162" s="59"/>
+      <c r="F162" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="64"/>
+      <c r="B163" s="43"/>
+      <c r="C163" s="43"/>
+      <c r="D163" s="59"/>
+      <c r="E163" s="59"/>
+      <c r="F163" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="64"/>
+      <c r="B164" s="43"/>
+      <c r="C164" s="43"/>
+      <c r="D164" s="59"/>
+      <c r="E164" s="59"/>
+      <c r="F164" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="64"/>
+      <c r="B165" s="43"/>
+      <c r="C165" s="43"/>
+      <c r="D165" s="59"/>
+      <c r="E165" s="59"/>
+      <c r="F165" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="64"/>
+      <c r="B166" s="43"/>
+      <c r="C166" s="43"/>
+      <c r="D166" s="59"/>
+      <c r="E166" s="59"/>
+      <c r="F166" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A77:A91"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
+    <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="13" operator="lessThan">
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 I19 I34 I49 I64 I79 I94 I109 I124 I139 I154">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5 I20 I35 I50 I65 I80 I95 I110 I125 I140 I155">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="lessThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="greaterThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 I21 I36 I51 I66 I81 I96 I111 I126 I141 I156">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7 I22 I37 I52 I67 I82 I97 I112 I127 I142 I157">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8 I23 I38 I53 I68 I83 I98 I113 I128 I143 I158">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="lessThan">
+      <formula>0.0625</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
+      <formula>0.0625</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C166" xr:uid="{F75F330B-0F44-4F4F-9D1E-4C6367F0391C}">
+      <formula1>$Q$1:$Q$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E3682D-F14F-4D28-8A78-318A919FB5C5}">
+  <dimension ref="A1:Q166"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1" s="58"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2" s="59">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E2" s="59">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="F2" s="59">
+        <f>E2-D2</f>
+        <v>4.3055555555555514E-2</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="64"/>
+      <c r="B3" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" s="59">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="E3" s="59">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="F3" s="59">
+        <f t="shared" ref="F3:F66" si="0">E3-D3</f>
+        <v>3.7500000000000033E-2</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I3" s="59">
+        <f>SUMIFS(F2:F16, C2:C16,H3)</f>
+        <v>0.26111111111111107</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="64"/>
+      <c r="B4" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" s="59">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="E4" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F4" s="59">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444453E-2</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I4" s="59">
+        <f>SUMIFS(F2:F16, C2:C16,H4)</f>
+        <v>3.7500000000000033E-2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="64"/>
+      <c r="B5" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E5" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="59">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I5" s="59">
+        <f>SUMIFS(F2:F16, C2:C16,H5)</f>
+        <v>8.3333333333333481E-2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="64"/>
+      <c r="B6" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="59">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F6" s="59">
+        <f t="shared" si="0"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I6" s="59">
+        <f>SUMIFS(F2:F16, C2:C16,H6)</f>
+        <v>2.3611111111111027E-2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="64"/>
+      <c r="B7" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" s="59">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E7" s="59">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="F7" s="59">
+        <f>E7-D7</f>
+        <v>2.2222222222222143E-2</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I7" s="59">
+        <f>SUMIFS(F2:F16, C2:C16,H7)</f>
+        <v>3.7500000000000089E-2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="64"/>
+      <c r="B8" s="43" t="s">
+        <v>416</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D8" s="59">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="E8" s="59">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="F8" s="59">
+        <f t="shared" si="0"/>
+        <v>3.7500000000000089E-2</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I8" s="59">
+        <f>SUMIFS(F2:F16, C2:C16,H8)</f>
+        <v>2.2222222222222143E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="64"/>
+      <c r="B9" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" s="59">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="E9" s="59">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F9" s="59">
+        <f t="shared" si="0"/>
+        <v>2.3611111111111027E-2</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I9" s="57">
+        <f>SUM(I3:I8)</f>
+        <v>0.46527777777777785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="64"/>
+      <c r="B10" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="59">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E10" s="59">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F10" s="59">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="I10" s="61"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="64"/>
+      <c r="B11" s="43" t="s">
+        <v>488</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11" s="59">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E11" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F11" s="59">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="I11" s="61"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="64"/>
+      <c r="B12" s="43" t="s">
+        <v>489</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E12" s="59">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F12" s="59">
+        <f t="shared" si="0"/>
+        <v>4.861111111111116E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="64"/>
+      <c r="B13" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D13" s="59">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="E13" s="59">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="F13" s="59">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="64"/>
+      <c r="B14" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D14" s="59">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="E14" s="59">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="F14" s="59">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="64"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="64"/>
+      <c r="B16" s="43" t="s">
+        <v>492</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17" s="59">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F17" s="59">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="64"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D18" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E18" s="59">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="F18" s="59">
+        <f t="shared" si="0"/>
+        <v>4.5138888888888895E-2</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I18" s="59">
+        <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
+        <v>0.11805555555555558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="64"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D19" s="59">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E19" s="59">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F19" s="59">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I19" s="59">
+        <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="64"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D20" s="59">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E20" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F20" s="59">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222265E-2</v>
+      </c>
+      <c r="H20" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I20" s="59">
+        <f t="shared" ref="I20" si="3">SUMIFS(F17:F31, C17:C31,H20)</f>
+        <v>9.7222222222222265E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="64"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D21" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E21" s="59">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F21" s="59">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H21" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I21" s="59">
+        <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
+        <v>3.6111111111111149E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="64"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D22" s="59">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E22" s="59">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="F22" s="59">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111105E-2</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I22" s="59">
+        <f t="shared" ref="I22" si="5">SUMIFS(F17:F31, C17:C31,H22)</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="64"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D23" s="59">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E23" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F23" s="59">
+        <f>E23-D23</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="H23" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I23" s="59">
+        <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
+        <v>4.8611111111111049E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="64"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D24" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E24" s="59">
+        <v>0.5625</v>
+      </c>
+      <c r="F24" s="59">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I24" s="57">
+        <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
+        <v>0.32430555555555562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="64"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D25" s="59">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E25" s="59">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F25" s="59">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="I25" s="61"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="64"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D26" s="59">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="E26" s="59">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F26" s="59">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
+      <c r="I26" s="61"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="64"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D27" s="59">
+        <v>0.625</v>
+      </c>
+      <c r="E27" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F27" s="59">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="64"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D28" s="63">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E28" s="63">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F28" s="59">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="64"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D29" s="59">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E29" s="59">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F29" s="59">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="64"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="64"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D32" s="59">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E32" s="59">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="F32" s="59">
+        <f t="shared" si="0"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I32" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="64"/>
+      <c r="B33" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D33" s="59">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E33" s="59">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F33" s="59">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="H33" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I33" s="59">
+        <f t="shared" ref="I33" si="8">SUMIFS(F32:F46, C32:C46,H33)</f>
+        <v>0.15902777777777766</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="64"/>
+      <c r="B34" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D34" s="59">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="E34" s="59">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="F34" s="59">
+        <f t="shared" si="0"/>
+        <v>3.9583333333333304E-2</v>
+      </c>
+      <c r="H34" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I34" s="59">
+        <f t="shared" ref="I34" si="9">SUMIFS(F32:F46, C32:C46,H34)</f>
+        <v>3.9583333333333304E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="64"/>
+      <c r="B35" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D35" s="59">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="E35" s="59">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="F35" s="59">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000011E-2</v>
+      </c>
+      <c r="H35" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I35" s="59">
+        <f t="shared" ref="I35" si="10">SUMIFS(F32:F46, C32:C46,H35)</f>
+        <v>7.6388888888888951E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="64"/>
+      <c r="B36" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D36" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E36" s="59">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="F36" s="59">
+        <f t="shared" si="0"/>
+        <v>6.4583333333333381E-2</v>
+      </c>
+      <c r="H36" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I36" s="59">
+        <f t="shared" ref="I36" si="11">SUMIFS(F32:F46, C32:C46,H36)</f>
+        <v>2.1527777777777812E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="64"/>
+      <c r="B37" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D37" s="59">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="E37" s="59">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="F37" s="59">
+        <f t="shared" si="0"/>
+        <v>2.0138888888888817E-2</v>
+      </c>
+      <c r="H37" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I37" s="59">
+        <f t="shared" ref="I37" si="12">SUMIFS(F32:F46, C32:C46,H37)</f>
+        <v>3.7500000000000089E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="64"/>
+      <c r="B38" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D38" s="59">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="E38" s="59">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F38" s="59">
+        <f t="shared" si="0"/>
+        <v>2.6388888888888906E-2</v>
+      </c>
+      <c r="H38" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I38" s="59">
+        <f t="shared" ref="I38" si="13">SUMIFS(F32:F46, C32:C46,H38)</f>
+        <v>3.8888888888888917E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="64"/>
+      <c r="B39" s="43" t="s">
+        <v>416</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D39" s="59">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="E39" s="59">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="F39" s="59">
+        <f t="shared" si="0"/>
+        <v>3.7500000000000089E-2</v>
+      </c>
+      <c r="H39" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I39" s="57">
+        <f t="shared" ref="I39" si="14">SUM(I33:I38)</f>
+        <v>0.37291666666666673</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="64"/>
+      <c r="B40" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D40" s="59">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="E40" s="59">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F40" s="59">
+        <f t="shared" si="0"/>
+        <v>2.1527777777777812E-2</v>
+      </c>
+      <c r="I40" s="61"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="64"/>
+      <c r="B41" s="43" t="s">
+        <v>497</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D41" s="59">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="E41" s="59">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="F41" s="59">
+        <f t="shared" si="0"/>
+        <v>4.6527777777777724E-2</v>
+      </c>
+      <c r="I41" s="61"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="64"/>
+      <c r="B42" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D42" s="59">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="E42" s="59">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F42" s="59">
+        <f t="shared" si="0"/>
+        <v>-6.597222222222221E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="64"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D43" s="59">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E43" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F43" s="59">
+        <f t="shared" si="0"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="64"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D44" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E44" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F44" s="59">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="64"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D45" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E45" s="59">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="F45" s="59">
+        <f t="shared" si="0"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="64"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>499</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D47" s="59">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="E47" s="59">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F47" s="59">
+        <f t="shared" si="0"/>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="H47" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I47" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="64"/>
+      <c r="B48" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D48" s="59">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E48" s="59">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="F48" s="59">
+        <f t="shared" si="0"/>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="H48" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I48" s="59">
+        <f t="shared" ref="I48" si="15">SUMIFS(F47:F61, C47:C61,H48)</f>
+        <v>0.13194444444444448</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="64"/>
+      <c r="B49" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D49" s="59">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="E49" s="59">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F49" s="59">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H49" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I49" s="59">
+        <f t="shared" ref="I49" si="16">SUMIFS(F47:F61, C47:C61,H49)</f>
+        <v>3.819444444444442E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="64"/>
+      <c r="B50" s="43" t="s">
+        <v>500</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D50" s="59">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E50" s="59">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="F50" s="59">
+        <f t="shared" si="0"/>
+        <v>4.861111111111116E-2</v>
+      </c>
+      <c r="H50" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I50" s="59">
+        <f t="shared" ref="I50" si="17">SUMIFS(F47:F61, C47:C61,H50)</f>
+        <v>0.12847222222222221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="64"/>
+      <c r="B51" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D51" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E51" s="59">
+        <v>0.53125</v>
+      </c>
+      <c r="F51" s="59">
+        <f t="shared" si="0"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="H51" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I51" s="59">
+        <f t="shared" ref="I51" si="18">SUMIFS(F47:F61, C47:C61,H51)</f>
+        <v>6.7361111111111149E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="64"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D52" s="59">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E52" s="59">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="F52" s="59">
+        <f t="shared" si="0"/>
+        <v>3.8194444444444475E-2</v>
+      </c>
+      <c r="H52" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I52" s="59">
+        <f t="shared" ref="I52" si="19">SUMIFS(F47:F61, C47:C61,H52)</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="64"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D53" s="59">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E53" s="59">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F53" s="59">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="H53" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I53" s="59">
+        <f t="shared" ref="I53" si="20">SUMIFS(F47:F61, C47:C61,H53)</f>
+        <v>4.5138888888888784E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="64"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D54" s="59">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E54" s="59">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F54" s="59">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H54" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I54" s="57">
+        <f t="shared" ref="I54" si="21">SUM(I48:I53)</f>
+        <v>0.43541666666666662</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="64"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D55" s="59">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E55" s="59">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F55" s="59">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="I55" s="61"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="64"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D56" s="59">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="E56" s="59">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F56" s="59">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
+      <c r="I56" s="61"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="64"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D57" s="59">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E57" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F57" s="59">
+        <f t="shared" si="0"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="64"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D58" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E58" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F58" s="59">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="64"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D59" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E59" s="59">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F59" s="59">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="64"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D60" s="59">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E60" s="59">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="F60" s="59">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="64"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D62" s="59">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="E62" s="59">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F62" s="59">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="H62" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I62" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="64"/>
+      <c r="B63" s="43" t="s">
+        <v>503</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D63" s="59">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E63" s="59">
+        <v>0.4375</v>
+      </c>
+      <c r="F63" s="59">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H63" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I63" s="59">
+        <f t="shared" ref="I63" si="22">SUMIFS(F62:F76, C62:C76,H63)</f>
+        <v>6.1111111111111116E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="64"/>
+      <c r="B64" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D64" s="59">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="E64" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F64" s="59">
+        <f t="shared" si="0"/>
+        <v>1.8749999999999933E-2</v>
+      </c>
+      <c r="H64" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I64" s="59">
+        <f t="shared" ref="I64" si="23">SUMIFS(F62:F76, C62:C76,H64)</f>
+        <v>0.12291666666666667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="64"/>
+      <c r="B65" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D65" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E65" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F65" s="59">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000056E-2</v>
+      </c>
+      <c r="H65" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I65" s="59">
+        <f t="shared" ref="I65" si="24">SUMIFS(F62:F76, C62:C76,H65)</f>
+        <v>7.9861111111111049E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="64"/>
+      <c r="B66" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D66" s="59">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="E66" s="59">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F66" s="59">
+        <f t="shared" si="0"/>
+        <v>2.9861111111111116E-2</v>
+      </c>
+      <c r="H66" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I66" s="59">
+        <f t="shared" ref="I66" si="25">SUMIFS(F62:F76, C62:C76,H66)</f>
+        <v>6.9444444444444531E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="64"/>
+      <c r="B67" s="43" t="s">
+        <v>505</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D67" s="59">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E67" s="59">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F67" s="59">
+        <f t="shared" ref="F67:F130" si="26">E67-D67</f>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="H67" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I67" s="59">
+        <f t="shared" ref="I67" si="27">SUMIFS(F62:F76, C62:C76,H67)</f>
+        <v>3.7500000000000089E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="64"/>
+      <c r="B68" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D68" s="59">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="E68" s="59">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="F68" s="59">
+        <f t="shared" si="26"/>
+        <v>3.7500000000000089E-2</v>
+      </c>
+      <c r="H68" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I68" s="59">
+        <f t="shared" ref="I68" si="28">SUMIFS(F62:F76, C62:C76,H68)</f>
+        <v>1.7361111111111049E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="64"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D69" s="59">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E69" s="59">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F69" s="59">
+        <f t="shared" si="26"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="H69" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I69" s="57">
+        <f t="shared" ref="I69" si="29">SUM(I63:I68)</f>
+        <v>0.38819444444444451</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="64"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D70" s="59">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="E70" s="59">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F70" s="59">
+        <f t="shared" si="26"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
+      <c r="I70" s="61"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="64"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D71" s="59">
+        <v>0.625</v>
+      </c>
+      <c r="E71" s="59">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="F71" s="59">
+        <f t="shared" si="26"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="I71" s="61"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="64"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D72" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E72" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F72" s="59">
+        <f t="shared" si="26"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="64"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D73" s="59">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E73" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F73" s="59">
+        <f t="shared" si="26"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="64"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="64"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="64"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>507</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D77" s="59">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E77" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F77" s="59">
+        <f t="shared" si="26"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H77" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I77" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="64"/>
+      <c r="B78" s="43" t="s">
+        <v>453</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D78" s="59">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E78" s="59">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="F78" s="59">
+        <f t="shared" si="26"/>
+        <v>3.8888888888888917E-2</v>
+      </c>
+      <c r="H78" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I78" s="59">
+        <f t="shared" ref="I78" si="30">SUMIFS(F77:F91, C77:C91,H78)</f>
+        <v>0.29861111111111099</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="64"/>
+      <c r="B79" s="43" t="s">
+        <v>508</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D79" s="59">
+        <v>0.4375</v>
+      </c>
+      <c r="E79" s="59">
+        <v>0.46875</v>
+      </c>
+      <c r="F79" s="59">
+        <f t="shared" si="26"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H79" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I79" s="59">
+        <f t="shared" ref="I79" si="31">SUMIFS(F77:F91, C77:C91,H79)</f>
+        <v>3.8888888888888917E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="64"/>
+      <c r="B80" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="C80" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D80" s="59">
+        <v>0.46875</v>
+      </c>
+      <c r="E80" s="59">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="F80" s="59">
+        <f>E80-D80</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H80" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I80" s="59">
+        <f t="shared" ref="I80" si="32">SUMIFS(F77:F91, C77:C91,H80)</f>
+        <v>7.638888888888884E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="64"/>
+      <c r="B81" s="43" t="s">
+        <v>509</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D81" s="59">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="E81" s="59">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="F81" s="59">
+        <f>E81-D81</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H81" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I81" s="59">
+        <f t="shared" ref="I81" si="33">SUMIFS(F77:F91, C77:C91,H81)</f>
+        <v>2.3611111111111027E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="64"/>
+      <c r="B82" s="43" t="s">
+        <v>510</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D82" s="59">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E82" s="59">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="F82" s="59">
+        <f t="shared" si="26"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="H82" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I82" s="59">
+        <f t="shared" ref="I82" si="34">SUMIFS(F77:F91, C77:C91,H82)</f>
+        <v>3.7500000000000089E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="64"/>
+      <c r="B83" s="43" t="s">
+        <v>511</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D83" s="59">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E83" s="59">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="F83" s="59">
+        <f t="shared" si="26"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H83" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I83" s="59">
+        <f t="shared" ref="I83" si="35">SUMIFS(F77:F91, C77:C91,H83)</f>
+        <v>3.4722222222222265E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="64"/>
+      <c r="B84" s="43" t="s">
+        <v>512</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D84" s="59">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E84" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F84" s="59">
+        <f t="shared" si="26"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="H84" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I84" s="57">
+        <f t="shared" ref="I84" si="36">SUM(I78:I83)</f>
+        <v>0.50972222222222219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="64"/>
+      <c r="B85" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D85" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E85" s="59">
+        <v>0.5625</v>
+      </c>
+      <c r="F85" s="59">
+        <f t="shared" si="26"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I85" s="61"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="64"/>
+      <c r="B86" s="43" t="s">
+        <v>416</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D86" s="59">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="E86" s="59">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="F86" s="59">
+        <f t="shared" si="26"/>
+        <v>3.7500000000000089E-2</v>
+      </c>
+      <c r="I86" s="61"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="64"/>
+      <c r="B87" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D87" s="59">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="E87" s="59">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F87" s="59">
+        <f t="shared" si="26"/>
+        <v>2.3611111111111027E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="64"/>
+      <c r="B88" s="43" t="s">
+        <v>513</v>
+      </c>
+      <c r="C88" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D88" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E88" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F88" s="59">
+        <f t="shared" si="26"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="64"/>
+      <c r="B89" s="43" t="s">
+        <v>514</v>
+      </c>
+      <c r="C89" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D89" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E89" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F89" s="59">
+        <f t="shared" si="26"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="64"/>
+      <c r="B90" s="43" t="s">
+        <v>515</v>
+      </c>
+      <c r="C90" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D90" s="59">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E90" s="59">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="F90" s="59">
+        <f t="shared" si="26"/>
+        <v>0.1597222222222221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="64"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D92" s="59">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E92" s="59">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F92" s="59">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H92" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I92" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="64"/>
+      <c r="B93" s="43" t="s">
+        <v>453</v>
+      </c>
+      <c r="C93" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D93" s="59">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E93" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F93" s="59">
+        <f t="shared" si="26"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H93" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I93" s="59">
+        <f t="shared" ref="I93" si="37">SUMIFS(F92:F106, C92:C106,H93)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="64"/>
+      <c r="B94" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D94" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E94" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F94" s="59">
+        <f t="shared" si="26"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H94" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I94" s="59">
+        <f t="shared" ref="I94" si="38">SUMIFS(F92:F106, C92:C106,H94)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="64"/>
+      <c r="B95" s="43" t="s">
+        <v>453</v>
+      </c>
+      <c r="C95" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D95" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E95" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F95" s="59">
+        <f t="shared" si="26"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H95" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I95" s="59">
+        <f t="shared" ref="I95" si="39">SUMIFS(F92:F106, C92:C106,H95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="64"/>
+      <c r="B96" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="C96" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D96" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E96" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F96" s="59">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H96" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I96" s="59">
+        <f t="shared" ref="I96" si="40">SUMIFS(F92:F106, C92:C106,H96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="64"/>
+      <c r="B97" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D97" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E97" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F97" s="59">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H97" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I97" s="59">
+        <f t="shared" ref="I97" si="41">SUMIFS(F92:F106, C92:C106,H97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="64"/>
+      <c r="B98" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="C98" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D98" s="59">
+        <v>0.65625</v>
+      </c>
+      <c r="E98" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F98" s="59">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H98" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I98" s="59">
+        <f t="shared" ref="I98" si="42">SUMIFS(F92:F106, C92:C106,H98)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="64"/>
+      <c r="B99" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D99" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E99" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F99" s="59">
+        <f t="shared" si="26"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H99" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I99" s="57">
+        <f t="shared" ref="I99" si="43">SUM(I93:I98)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="64"/>
+      <c r="B100" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D100" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="E100" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="F100" s="59">
+        <f t="shared" si="26"/>
+        <v>0.125</v>
+      </c>
+      <c r="I100" s="61"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="64"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="59"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="61"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="64"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="59"/>
+      <c r="E102" s="59"/>
+      <c r="F102" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="64"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="59"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="64"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="64"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="59"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="64"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" s="43"/>
+      <c r="C107" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D107" s="59">
+        <v>0.375</v>
+      </c>
+      <c r="E107" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F107" s="59">
+        <f t="shared" si="26"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H107" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I107" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="64"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D108" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E108" s="59">
+        <v>0.4375</v>
+      </c>
+      <c r="F108" s="59">
+        <f t="shared" si="26"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="H108" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I108" s="59">
+        <f t="shared" ref="I108" si="44">SUMIFS(F107:F121, C107:C121,H108)</f>
+        <v>0.13194444444444453</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="64"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D109" s="59">
+        <v>0.4375</v>
+      </c>
+      <c r="E109" s="59">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F109" s="59">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H109" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I109" s="59">
+        <f t="shared" ref="I109" si="45">SUMIFS(F107:F121, C107:C121,H109)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="64"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D110" s="59">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E110" s="59">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="F110" s="59">
+        <f t="shared" si="26"/>
+        <v>2.2222222222222199E-2</v>
+      </c>
+      <c r="H110" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I110" s="59">
+        <f t="shared" ref="I110" si="46">SUMIFS(F107:F121, C107:C121,H110)</f>
+        <v>0.15624999999999994</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="64"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D111" s="59">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E111" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F111" s="59">
+        <f t="shared" si="26"/>
+        <v>5.5555555555556468E-3</v>
+      </c>
+      <c r="H111" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I111" s="59">
+        <f t="shared" ref="I111" si="47">SUMIFS(F107:F121, C107:C121,H111)</f>
+        <v>2.569444444444452E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="64"/>
+      <c r="B112" s="43"/>
+      <c r="C112" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D112" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E112" s="59">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F112" s="59">
+        <f t="shared" si="26"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="H112" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I112" s="59">
+        <f t="shared" ref="I112" si="48">SUMIFS(F107:F121, C107:C121,H112)</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="64"/>
+      <c r="B113" s="43"/>
+      <c r="C113" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D113" s="59">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E113" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F113" s="59">
+        <f t="shared" si="26"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="H113" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I113" s="59">
+        <f t="shared" ref="I113" si="49">SUMIFS(F107:F121, C107:C121,H113)</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="64"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D114" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E114" s="59">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F114" s="59">
+        <f t="shared" si="26"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H114" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I114" s="57">
+        <f t="shared" ref="I114" si="50">SUM(I108:I113)</f>
+        <v>0.37291666666666679</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="64"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D115" s="59">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E115" s="59">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F115" s="59">
+        <f t="shared" si="26"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="I115" s="61"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="64"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D116" s="59">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="E116" s="59">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F116" s="59">
+        <f t="shared" si="26"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
+      <c r="I116" s="61"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="64"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D117" s="59">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E117" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F117" s="59">
+        <f t="shared" si="26"/>
+        <v>3.4722222222222321E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="64"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D118" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E118" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F118" s="59">
+        <f t="shared" si="26"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="64"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D119" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E119" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F119" s="59">
+        <f t="shared" si="26"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="64"/>
+      <c r="B120" s="43"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="59"/>
+      <c r="E120" s="59"/>
+      <c r="F120" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="64"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="59"/>
+      <c r="E121" s="59"/>
+      <c r="F121" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" s="43"/>
+      <c r="C122" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D122" s="59">
+        <v>0.375</v>
+      </c>
+      <c r="E122" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F122" s="59">
+        <f t="shared" si="26"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H122" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I122" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="64"/>
+      <c r="B123" s="43"/>
+      <c r="C123" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D123" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E123" s="59">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F123" s="59">
+        <f t="shared" si="26"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H123" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I123" s="59">
+        <f t="shared" ref="I123" si="51">SUMIFS(F122:F136, C122:C136,H123)</f>
+        <v>0.22222222222222227</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="64"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D124" s="59">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E124" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F124" s="59">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H124" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I124" s="59">
+        <f t="shared" ref="I124" si="52">SUMIFS(F122:F136, C122:C136,H124)</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="64"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D125" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E125" s="59">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="F125" s="59">
+        <f t="shared" si="26"/>
+        <v>8.3333333333333037E-3</v>
+      </c>
+      <c r="H125" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I125" s="59">
+        <f t="shared" ref="I125" si="53">SUMIFS(F122:F136, C122:C136,H125)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="64"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D126" s="59">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E126" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F126" s="59">
+        <f t="shared" si="26"/>
+        <v>5.5555555555556468E-3</v>
+      </c>
+      <c r="H126" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I126" s="59">
+        <f t="shared" ref="I126" si="54">SUMIFS(F122:F136, C122:C136,H126)</f>
+        <v>2.569444444444452E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="64"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D127" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E127" s="59">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="F127" s="59">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H127" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I127" s="59">
+        <f t="shared" ref="I127" si="55">SUMIFS(F122:F136, C122:C136,H127)</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="64"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D128" s="59">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E128" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F128" s="59">
+        <f t="shared" si="26"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H128" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I128" s="59">
+        <f t="shared" ref="I128" si="56">SUMIFS(F122:F136, C122:C136,H128)</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="64"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D129" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E129" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F129" s="59">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H129" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I129" s="57">
+        <f t="shared" ref="I129" si="57">SUM(I123:I128)</f>
+        <v>0.4111111111111112</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="64"/>
+      <c r="B130" s="43"/>
+      <c r="C130" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D130" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E130" s="59">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="F130" s="59">
+        <f t="shared" si="26"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="I130" s="61"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="64"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D131" s="59">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E131" s="59">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F131" s="59">
+        <f t="shared" ref="F131:F194" si="58">E131-D131</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="I131" s="61"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="64"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D132" s="59">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="E132" s="59">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F132" s="59">
+        <f t="shared" si="58"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="64"/>
+      <c r="B133" s="43"/>
+      <c r="C133" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D133" s="59">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E133" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F133" s="59">
+        <f t="shared" si="58"/>
+        <v>3.4722222222222321E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="64"/>
+      <c r="B134" s="43"/>
+      <c r="C134" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D134" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E134" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F134" s="59">
+        <f t="shared" si="58"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="64"/>
+      <c r="B135" s="43"/>
+      <c r="C135" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D135" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E135" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F135" s="59">
+        <f t="shared" si="58"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="64"/>
+      <c r="B136" s="62"/>
+      <c r="C136" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D136" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E136" s="59">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F136" s="59">
+        <f t="shared" si="58"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" s="43"/>
+      <c r="C137" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D137" s="59">
+        <v>0.375</v>
+      </c>
+      <c r="E137" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F137" s="59">
+        <f t="shared" si="58"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H137" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I137" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="64"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D138" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E138" s="59">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F138" s="59">
+        <f t="shared" si="58"/>
+        <v>5.9027777777777735E-2</v>
+      </c>
+      <c r="H138" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I138" s="59">
+        <f t="shared" ref="I138" si="59">SUMIFS(F137:F151, C137:C151,H138)</f>
+        <v>8.5416666666666752E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="64"/>
+      <c r="B139" s="43"/>
+      <c r="C139" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D139" s="59">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E139" s="59">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="F139" s="59">
+        <f t="shared" si="58"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="H139" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I139" s="59">
+        <f t="shared" ref="I139" si="60">SUMIFS(F137:F151, C137:C151,H139)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="64"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D140" s="59">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E140" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F140" s="59">
+        <f t="shared" si="58"/>
+        <v>5.5555555555556468E-3</v>
+      </c>
+      <c r="H140" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I140" s="59">
+        <f t="shared" ref="I140" si="61">SUMIFS(F137:F151, C137:C151,H140)</f>
+        <v>0.11111111111111105</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="64"/>
+      <c r="B141" s="43"/>
+      <c r="C141" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D141" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E141" s="59">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F141" s="59">
+        <f t="shared" si="58"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H141" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I141" s="59">
+        <f t="shared" ref="I141" si="62">SUMIFS(F137:F151, C137:C151,H141)</f>
+        <v>2.9166666666666619E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="64"/>
+      <c r="B142" s="43"/>
+      <c r="C142" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D142" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="E142" s="59">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="F142" s="59">
+        <f t="shared" si="58"/>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="H142" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I142" s="59">
+        <f t="shared" ref="I142" si="63">SUMIFS(F137:F151, C137:C151,H142)</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="64"/>
+      <c r="B143" s="43"/>
+      <c r="C143" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D143" s="59">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E143" s="59">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F143" s="59">
+        <f t="shared" si="58"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="H143" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I143" s="59">
+        <f t="shared" ref="I143" si="64">SUMIFS(F137:F151, C137:C151,H143)</f>
+        <v>3.4722222222222099E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="64"/>
+      <c r="B144" s="43"/>
+      <c r="C144" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D144" s="59">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="E144" s="59">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="F144" s="59">
+        <f t="shared" si="58"/>
+        <v>8.3333333333333037E-3</v>
+      </c>
+      <c r="H144" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I144" s="57">
+        <f t="shared" ref="I144" si="65">SUM(I138:I143)</f>
+        <v>0.2847222222222221</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="64"/>
+      <c r="B145" s="43"/>
+      <c r="C145" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D145" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E145" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F145" s="59">
+        <f t="shared" si="58"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I145" s="61"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="64"/>
+      <c r="B146" s="43"/>
+      <c r="C146" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D146" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E146" s="59">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F146" s="59">
+        <f t="shared" si="58"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="I146" s="61"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="64"/>
+      <c r="B147" s="43"/>
+      <c r="C147" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D147" s="59">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E147" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F147" s="59">
+        <f t="shared" si="58"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="64"/>
+      <c r="B148" s="43"/>
+      <c r="C148" s="43"/>
+      <c r="D148" s="59"/>
+      <c r="E148" s="59"/>
+      <c r="F148" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="64"/>
+      <c r="B149" s="43"/>
+      <c r="C149" s="43"/>
+      <c r="D149" s="59"/>
+      <c r="E149" s="59"/>
+      <c r="F149" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="64"/>
+      <c r="B150" s="43"/>
+      <c r="C150" s="43"/>
+      <c r="D150" s="59"/>
+      <c r="E150" s="59"/>
+      <c r="F150" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="64"/>
+      <c r="B151" s="43"/>
+      <c r="C151" s="43"/>
+      <c r="D151" s="59"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="59">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="64" t="s">
+        <v>480</v>
+      </c>
+      <c r="B152" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C152" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D152" s="59">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E152" s="59">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="F152" s="59">
+        <f t="shared" si="58"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="H152" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I152" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="64"/>
+      <c r="B153" s="43" t="s">
+        <v>453</v>
+      </c>
+      <c r="C153" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D153" s="59">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E153" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F153" s="59">
+        <f t="shared" si="58"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H153" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="I153" s="59">
+        <f t="shared" ref="I153" si="66">SUMIFS(F152:F166, C152:C166,H153)</f>
+        <v>0.25694444444444453</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="64"/>
+      <c r="B154" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="C154" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D154" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E154" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F154" s="59">
+        <f t="shared" si="58"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H154" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I154" s="59">
+        <f t="shared" ref="I154" si="67">SUMIFS(F152:F166, C152:C166,H154)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="64"/>
+      <c r="B155" s="43" t="s">
+        <v>453</v>
+      </c>
+      <c r="C155" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D155" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E155" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F155" s="59">
+        <f t="shared" si="58"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H155" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I155" s="59">
+        <f t="shared" ref="I155" si="68">SUMIFS(F152:F166, C152:C166,H155)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="64"/>
+      <c r="B156" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="C156" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D156" s="59">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E156" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F156" s="59">
+        <f t="shared" si="58"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H156" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I156" s="59">
+        <f t="shared" ref="I156" si="69">SUMIFS(F152:F166, C152:C166,H156)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="64"/>
+      <c r="B157" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="C157" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D157" s="59">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E157" s="59">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F157" s="59">
+        <f t="shared" si="58"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H157" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I157" s="59">
+        <f t="shared" ref="I157" si="70">SUMIFS(F152:F166, C152:C166,H157)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="64"/>
+      <c r="B158" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="C158" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D158" s="59">
+        <v>0.65625</v>
+      </c>
+      <c r="E158" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F158" s="59">
+        <f t="shared" si="58"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H158" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I158" s="59">
+        <f t="shared" ref="I158" si="71">SUMIFS(F152:F166, C152:C166,H158)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="64"/>
+      <c r="B159" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="C159" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D159" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E159" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="F159" s="59">
+        <f t="shared" si="58"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H159" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="I159" s="57">
+        <f t="shared" ref="I159" si="72">SUM(I153:I158)</f>
+        <v>0.36805555555555552</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -9663,7 +13428,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C166" xr:uid="{F75F330B-0F44-4F4F-9D1E-4C6367F0391C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C166" xr:uid="{86D1CC8C-9E76-4CA9-A7DE-2A4609E97D01}">
       <formula1>$Q$1:$Q$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -9671,12 +13436,307 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E3682D-F14F-4D28-8A78-318A919FB5C5}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B4:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="7" width="29.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="45.75" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" ht="45.75" customHeight="1">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
+        <v>6</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="2:8" ht="39" customHeight="1">
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="2:8" ht="33" customHeight="1">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <v>6</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:8" ht="33" customHeight="1">
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>6</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:8" ht="35.25" customHeight="1">
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <v>6</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:8" ht="25.5">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="2:8" ht="25.5">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" ht="25.5">
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="2:8" ht="25.5">
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
+        <v>6</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="187" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9316CD-C86D-408F-BDDD-0E4083B59C71}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9687,9 +13747,12 @@
     <col min="4" max="4" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="61" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="13" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.5703125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9719,7 +13782,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>382</v>
@@ -9746,9 +13809,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="64"/>
-      <c r="B3" s="43" t="s">
-        <v>482</v>
-      </c>
+      <c r="B3" s="43"/>
       <c r="C3" s="43" t="s">
         <v>384</v>
       </c>
@@ -9759,7 +13820,7 @@
         <v>0.43472222222222223</v>
       </c>
       <c r="F3" s="59">
-        <f t="shared" ref="F3:F66" si="0">E3-D3</f>
+        <f>E3-D3</f>
         <v>3.7500000000000033E-2</v>
       </c>
       <c r="H3" s="60" t="s">
@@ -9775,9 +13836,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="64"/>
-      <c r="B4" s="43" t="s">
-        <v>483</v>
-      </c>
+      <c r="B4" s="43"/>
       <c r="C4" s="43" t="s">
         <v>382</v>
       </c>
@@ -9788,7 +13847,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F4" s="59">
-        <f t="shared" si="0"/>
+        <f>E4-D4</f>
         <v>4.4444444444444453E-2</v>
       </c>
       <c r="H4" s="60" t="s">
@@ -9804,9 +13863,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="64"/>
-      <c r="B5" s="43" t="s">
-        <v>484</v>
-      </c>
+      <c r="B5" s="43"/>
       <c r="C5" s="43" t="s">
         <v>382</v>
       </c>
@@ -9817,7 +13874,7 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="59">
-        <f t="shared" si="0"/>
+        <f>E5-D5</f>
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="H5" s="60" t="s">
@@ -9833,9 +13890,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="64"/>
-      <c r="B6" s="43" t="s">
-        <v>485</v>
-      </c>
+      <c r="B6" s="43"/>
       <c r="C6" s="43" t="s">
         <v>382</v>
       </c>
@@ -9846,7 +13901,7 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="F6" s="59">
-        <f t="shared" si="0"/>
+        <f>E6-D6</f>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="H6" s="60" t="s">
@@ -9862,9 +13917,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="64"/>
-      <c r="B7" s="43" t="s">
-        <v>393</v>
-      </c>
+      <c r="B7" s="43"/>
       <c r="C7" s="43" t="s">
         <v>386</v>
       </c>
@@ -9891,9 +13944,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="64"/>
-      <c r="B8" s="43" t="s">
-        <v>416</v>
-      </c>
+      <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
         <v>390</v>
       </c>
@@ -9904,7 +13955,7 @@
         <v>0.6118055555555556</v>
       </c>
       <c r="F8" s="59">
-        <f t="shared" si="0"/>
+        <f>E8-D8</f>
         <v>3.7500000000000089E-2</v>
       </c>
       <c r="H8" s="60" t="s">
@@ -9917,9 +13968,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="64"/>
-      <c r="B9" s="43" t="s">
-        <v>486</v>
-      </c>
+      <c r="B9" s="43"/>
       <c r="C9" s="43" t="s">
         <v>379</v>
       </c>
@@ -9930,7 +13979,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="F9" s="59">
-        <f t="shared" si="0"/>
+        <f>E9-D9</f>
         <v>2.3611111111111027E-2</v>
       </c>
       <c r="H9" s="56" t="s">
@@ -9943,9 +13992,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="64"/>
-      <c r="B10" s="43" t="s">
-        <v>487</v>
-      </c>
+      <c r="B10" s="43"/>
       <c r="C10" s="43" t="s">
         <v>387</v>
       </c>
@@ -9956,16 +14003,14 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="F10" s="59">
-        <f t="shared" si="0"/>
+        <f>E10-D10</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="I10" s="61"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="64"/>
-      <c r="B11" s="43" t="s">
-        <v>488</v>
-      </c>
+      <c r="B11" s="43"/>
       <c r="C11" s="43" t="s">
         <v>382</v>
       </c>
@@ -9976,16 +14021,14 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F11" s="59">
-        <f t="shared" si="0"/>
+        <f>E11-D11</f>
         <v>3.125E-2</v>
       </c>
       <c r="I11" s="61"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="64"/>
-      <c r="B12" s="43" t="s">
-        <v>489</v>
-      </c>
+      <c r="B12" s="43"/>
       <c r="C12" s="43" t="s">
         <v>382</v>
       </c>
@@ -9996,15 +14039,13 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="F12" s="59">
-        <f t="shared" si="0"/>
+        <f>E12-D12</f>
         <v>4.861111111111116E-2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="64"/>
-      <c r="B13" s="43" t="s">
-        <v>490</v>
-      </c>
+      <c r="B13" s="43"/>
       <c r="C13" s="43" t="s">
         <v>387</v>
       </c>
@@ -10015,15 +14056,13 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="F13" s="59">
-        <f t="shared" si="0"/>
+        <f>E13-D13</f>
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="64"/>
-      <c r="B14" s="43" t="s">
-        <v>491</v>
-      </c>
+      <c r="B14" s="43"/>
       <c r="C14" s="43" t="s">
         <v>382</v>
       </c>
@@ -10034,7 +14073,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F14" s="59">
-        <f t="shared" si="0"/>
+        <f>E14-D14</f>
         <v>2.0833333333333259E-2</v>
       </c>
     </row>
@@ -10045,20 +14084,18 @@
       <c r="D15" s="59"/>
       <c r="E15" s="59"/>
       <c r="F15" s="59">
-        <f t="shared" si="0"/>
+        <f>E15-D15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="64"/>
-      <c r="B16" s="43" t="s">
-        <v>492</v>
-      </c>
+      <c r="B16" s="43"/>
       <c r="C16" s="43"/>
       <c r="D16" s="59"/>
       <c r="E16" s="59"/>
       <c r="F16" s="59">
-        <f t="shared" si="0"/>
+        <f>E16-D16</f>
         <v>0</v>
       </c>
     </row>
@@ -10077,7 +14114,7 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="F17" s="59">
-        <f t="shared" si="0"/>
+        <f>E17-D17</f>
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="H17" s="57" t="s">
@@ -10100,14 +14137,14 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="F18" s="59">
-        <f t="shared" si="0"/>
+        <f>E18-D18</f>
         <v>4.5138888888888895E-2</v>
       </c>
       <c r="H18" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I18" s="59">
-        <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
+        <f>SUMIFS(F17:F31, C17:C31,H18)</f>
         <v>0.11805555555555558</v>
       </c>
     </row>
@@ -10124,14 +14161,14 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="F19" s="59">
-        <f t="shared" si="0"/>
+        <f>E19-D19</f>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="H19" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I19" s="59">
-        <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
+        <f>SUMIFS(F17:F31, C17:C31,H19)</f>
         <v>0</v>
       </c>
     </row>
@@ -10148,14 +14185,14 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F20" s="59">
-        <f t="shared" si="0"/>
+        <f>E20-D20</f>
         <v>3.4722222222222265E-2</v>
       </c>
       <c r="H20" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I20" s="59">
-        <f t="shared" ref="I20" si="3">SUMIFS(F17:F31, C17:C31,H20)</f>
+        <f>SUMIFS(F17:F31, C17:C31,H20)</f>
         <v>9.7222222222222265E-2</v>
       </c>
     </row>
@@ -10172,14 +14209,14 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="F21" s="59">
-        <f t="shared" si="0"/>
+        <f>E21-D21</f>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H21" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I21" s="59">
-        <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
+        <f>SUMIFS(F17:F31, C17:C31,H21)</f>
         <v>3.6111111111111149E-2</v>
       </c>
     </row>
@@ -10196,14 +14233,14 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="F22" s="59">
-        <f t="shared" si="0"/>
+        <f>E22-D22</f>
         <v>1.7361111111111105E-2</v>
       </c>
       <c r="H22" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I22" s="59">
-        <f t="shared" ref="I22" si="5">SUMIFS(F17:F31, C17:C31,H22)</f>
+        <f>SUMIFS(F17:F31, C17:C31,H22)</f>
         <v>2.430555555555558E-2</v>
       </c>
     </row>
@@ -10227,7 +14264,7 @@
         <v>386</v>
       </c>
       <c r="I23" s="59">
-        <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
+        <f>SUMIFS(F17:F31, C17:C31,H23)</f>
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
@@ -10244,14 +14281,14 @@
         <v>0.5625</v>
       </c>
       <c r="F24" s="59">
-        <f t="shared" si="0"/>
+        <f>E24-D24</f>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H24" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I24" s="57">
-        <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
+        <f>SUM(I18:I23)</f>
         <v>0.32430555555555562</v>
       </c>
     </row>
@@ -10268,7 +14305,7 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="F25" s="59">
-        <f t="shared" si="0"/>
+        <f>E25-D25</f>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="I25" s="61"/>
@@ -10286,7 +14323,7 @@
         <v>0.61805555555555558</v>
       </c>
       <c r="F26" s="59">
-        <f t="shared" si="0"/>
+        <f>E26-D26</f>
         <v>1.5277777777777835E-2</v>
       </c>
       <c r="I26" s="61"/>
@@ -10304,7 +14341,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F27" s="59">
-        <f t="shared" si="0"/>
+        <f>E27-D27</f>
         <v>2.083333333333337E-2</v>
       </c>
     </row>
@@ -10321,7 +14358,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F28" s="59">
-        <f t="shared" si="0"/>
+        <f>E28-D28</f>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -10338,7 +14375,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F29" s="59">
-        <f t="shared" si="0"/>
+        <f>E29-D29</f>
         <v>1.388888888888884E-2</v>
       </c>
     </row>
@@ -10349,7 +14386,7 @@
       <c r="D30" s="59"/>
       <c r="E30" s="59"/>
       <c r="F30" s="59">
-        <f t="shared" si="0"/>
+        <f>E30-D30</f>
         <v>0</v>
       </c>
     </row>
@@ -10360,7 +14397,7 @@
       <c r="D31" s="59"/>
       <c r="E31" s="59"/>
       <c r="F31" s="59">
-        <f t="shared" si="0"/>
+        <f>E31-D31</f>
         <v>0</v>
       </c>
     </row>
@@ -10368,19 +14405,21 @@
       <c r="A32" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="43"/>
+      <c r="B32" s="43" t="s">
+        <v>517</v>
+      </c>
       <c r="C32" s="43" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D32" s="59">
-        <v>0.375</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E32" s="59">
-        <v>0.38541666666666669</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="F32" s="59">
-        <f t="shared" si="0"/>
-        <v>1.0416666666666685E-2</v>
+        <f>E32-D32</f>
+        <v>-2.777777777777779E-2</v>
       </c>
       <c r="H32" s="57" t="s">
         <v>380</v>
@@ -10393,24 +14432,24 @@
       <c r="A33" s="64"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D33" s="59">
-        <v>0.38541666666666669</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="E33" s="59">
-        <v>0.41666666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F33" s="59">
-        <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <f>E33-D33</f>
+        <v>2.7777777777777735E-2</v>
       </c>
       <c r="H33" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I33" s="59">
-        <f t="shared" ref="I33" si="8">SUMIFS(F32:F46, C32:C46,H33)</f>
-        <v>0.11458333333333343</v>
+        <f>SUMIFS(F32:F46, C32:C46,H33)</f>
+        <v>0.10416666666666669</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -10420,20 +14459,20 @@
         <v>382</v>
       </c>
       <c r="D34" s="59">
-        <v>0.41666666666666669</v>
+        <v>0.37847222222222227</v>
       </c>
       <c r="E34" s="59">
-        <v>0.44791666666666669</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="F34" s="59">
-        <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <f>E34-D34</f>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H34" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I34" s="59">
-        <f t="shared" ref="I34" si="9">SUMIFS(F32:F46, C32:C46,H34)</f>
+        <f>SUMIFS(F32:F46, C32:C46,H34)</f>
         <v>0</v>
       </c>
     </row>
@@ -10450,15 +14489,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F35" s="59">
-        <f t="shared" si="0"/>
+        <f>E35-D35</f>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H35" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I35" s="59">
-        <f t="shared" ref="I35" si="10">SUMIFS(F32:F46, C32:C46,H35)</f>
-        <v>0.13888888888888895</v>
+        <f>SUMIFS(F32:F46, C32:C46,H35)</f>
+        <v>0.10763888888888895</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -10474,15 +14513,15 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F36" s="59">
-        <f t="shared" si="0"/>
+        <f>E36-D36</f>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H36" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I36" s="59">
-        <f t="shared" ref="I36" si="11">SUMIFS(F32:F46, C32:C46,H36)</f>
-        <v>3.6111111111111149E-2</v>
+        <f>SUMIFS(F32:F46, C32:C46,H36)</f>
+        <v>2.5694444444444464E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -10498,14 +14537,14 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="F37" s="59">
-        <f t="shared" si="0"/>
+        <f>E37-D37</f>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H37" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I37" s="59">
-        <f t="shared" ref="I37" si="12">SUMIFS(F32:F46, C32:C46,H37)</f>
+        <f>SUMIFS(F32:F46, C32:C46,H37)</f>
         <v>2.430555555555558E-2</v>
       </c>
     </row>
@@ -10522,14 +14561,14 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="F38" s="59">
-        <f t="shared" si="0"/>
+        <f>E38-D38</f>
         <v>3.1250000000000056E-2</v>
       </c>
       <c r="H38" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I38" s="59">
-        <f t="shared" ref="I38" si="13">SUMIFS(F32:F46, C32:C46,H38)</f>
+        <f>SUMIFS(F32:F46, C32:C46,H38)</f>
         <v>2.4305555555555469E-2</v>
       </c>
     </row>
@@ -10546,15 +14585,15 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="F39" s="59">
-        <f t="shared" si="0"/>
+        <f>E39-D39</f>
         <v>3.125E-2</v>
       </c>
       <c r="H39" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I39" s="57">
-        <f t="shared" ref="I39" si="14">SUM(I33:I38)</f>
-        <v>0.33819444444444458</v>
+        <f>SUM(I33:I38)</f>
+        <v>0.28611111111111115</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -10570,7 +14609,7 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="F40" s="59">
-        <f t="shared" si="0"/>
+        <f>E40-D40</f>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="I40" s="61"/>
@@ -10588,7 +14627,7 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="F41" s="59">
-        <f t="shared" si="0"/>
+        <f>E41-D41</f>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="I41" s="61"/>
@@ -10606,7 +14645,7 @@
         <v>0.61805555555555558</v>
       </c>
       <c r="F42" s="59">
-        <f t="shared" si="0"/>
+        <f>E42-D42</f>
         <v>1.5277777777777835E-2</v>
       </c>
     </row>
@@ -10623,7 +14662,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F43" s="59">
-        <f t="shared" si="0"/>
+        <f>E43-D43</f>
         <v>2.777777777777779E-2</v>
       </c>
     </row>
@@ -10640,7 +14679,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F44" s="59">
-        <f t="shared" si="0"/>
+        <f>E44-D44</f>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -10657,7 +14696,7 @@
         <v>0.72569444444444453</v>
       </c>
       <c r="F45" s="59">
-        <f t="shared" si="0"/>
+        <f>E45-D45</f>
         <v>1.736111111111116E-2</v>
       </c>
     </row>
@@ -10668,7 +14707,7 @@
       <c r="D46" s="59"/>
       <c r="E46" s="59"/>
       <c r="F46" s="59">
-        <f t="shared" si="0"/>
+        <f>E46-D46</f>
         <v>0</v>
       </c>
     </row>
@@ -10687,7 +14726,7 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="F47" s="59">
-        <f t="shared" si="0"/>
+        <f>E47-D47</f>
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="H47" s="57" t="s">
@@ -10710,14 +14749,14 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="F48" s="59">
-        <f t="shared" si="0"/>
+        <f>E48-D48</f>
         <v>6.25E-2</v>
       </c>
       <c r="H48" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I48" s="59">
-        <f t="shared" ref="I48" si="15">SUMIFS(F47:F61, C47:C61,H48)</f>
+        <f>SUMIFS(F47:F61, C47:C61,H48)</f>
         <v>0.16666666666666669</v>
       </c>
     </row>
@@ -10734,14 +14773,14 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F49" s="59">
-        <f t="shared" si="0"/>
+        <f>E49-D49</f>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H49" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I49" s="59">
-        <f t="shared" ref="I49" si="16">SUMIFS(F47:F61, C47:C61,H49)</f>
+        <f>SUMIFS(F47:F61, C47:C61,H49)</f>
         <v>0</v>
       </c>
     </row>
@@ -10758,14 +14797,14 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F50" s="59">
-        <f t="shared" si="0"/>
+        <f>E50-D50</f>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H50" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I50" s="59">
-        <f t="shared" ref="I50" si="17">SUMIFS(F47:F61, C47:C61,H50)</f>
+        <f>SUMIFS(F47:F61, C47:C61,H50)</f>
         <v>9.027777777777779E-2</v>
       </c>
     </row>
@@ -10782,14 +14821,14 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="F51" s="59">
-        <f t="shared" si="0"/>
+        <f>E51-D51</f>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H51" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I51" s="59">
-        <f t="shared" ref="I51" si="18">SUMIFS(F47:F61, C47:C61,H51)</f>
+        <f>SUMIFS(F47:F61, C47:C61,H51)</f>
         <v>3.6111111111111149E-2</v>
       </c>
     </row>
@@ -10806,14 +14845,14 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="F52" s="59">
-        <f t="shared" si="0"/>
+        <f>E52-D52</f>
         <v>3.8194444444444475E-2</v>
       </c>
       <c r="H52" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I52" s="59">
-        <f t="shared" ref="I52" si="19">SUMIFS(F47:F61, C47:C61,H52)</f>
+        <f>SUMIFS(F47:F61, C47:C61,H52)</f>
         <v>2.430555555555558E-2</v>
       </c>
     </row>
@@ -10830,14 +14869,14 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="F53" s="59">
-        <f t="shared" si="0"/>
+        <f>E53-D53</f>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="H53" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I53" s="59">
-        <f t="shared" ref="I53" si="20">SUMIFS(F47:F61, C47:C61,H53)</f>
+        <f>SUMIFS(F47:F61, C47:C61,H53)</f>
         <v>4.5138888888888729E-2</v>
       </c>
     </row>
@@ -10854,14 +14893,14 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="F54" s="59">
-        <f t="shared" si="0"/>
+        <f>E54-D54</f>
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="H54" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I54" s="57">
-        <f t="shared" ref="I54" si="21">SUM(I48:I53)</f>
+        <f>SUM(I48:I53)</f>
         <v>0.36249999999999993</v>
       </c>
     </row>
@@ -10878,7 +14917,7 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="F55" s="59">
-        <f t="shared" si="0"/>
+        <f>E55-D55</f>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="I55" s="61"/>
@@ -10896,7 +14935,7 @@
         <v>0.61805555555555558</v>
       </c>
       <c r="F56" s="59">
-        <f t="shared" si="0"/>
+        <f>E56-D56</f>
         <v>1.5277777777777835E-2</v>
       </c>
       <c r="I56" s="61"/>
@@ -10914,7 +14953,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F57" s="59">
-        <f t="shared" si="0"/>
+        <f>E57-D57</f>
         <v>2.777777777777779E-2</v>
       </c>
     </row>
@@ -10931,7 +14970,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F58" s="59">
-        <f t="shared" si="0"/>
+        <f>E58-D58</f>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -10948,7 +14987,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="F59" s="59">
-        <f t="shared" si="0"/>
+        <f>E59-D59</f>
         <v>1.388888888888884E-2</v>
       </c>
     </row>
@@ -10965,7 +15004,7 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="F60" s="59">
-        <f t="shared" si="0"/>
+        <f>E60-D60</f>
         <v>2.0833333333333259E-2</v>
       </c>
     </row>
@@ -10976,7 +15015,7 @@
       <c r="D61" s="59"/>
       <c r="E61" s="59"/>
       <c r="F61" s="59">
-        <f t="shared" si="0"/>
+        <f>E61-D61</f>
         <v>0</v>
       </c>
     </row>
@@ -10989,14 +15028,14 @@
         <v>379</v>
       </c>
       <c r="D62" s="59">
-        <v>0.375</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="E62" s="59">
         <v>0.38541666666666669</v>
       </c>
       <c r="F62" s="59">
-        <f t="shared" si="0"/>
-        <v>1.0416666666666685E-2</v>
+        <f>E62-D62</f>
+        <v>2.2916666666666696E-2</v>
       </c>
       <c r="H62" s="57" t="s">
         <v>380</v>
@@ -11018,14 +15057,14 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="F63" s="59">
-        <f t="shared" si="0"/>
+        <f>E63-D63</f>
         <v>3.4722222222222265E-2</v>
       </c>
       <c r="H63" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I63" s="59">
-        <f t="shared" ref="I63" si="22">SUMIFS(F62:F76, C62:C76,H63)</f>
+        <f>SUMIFS(F62:F76, C62:C76,H63)</f>
         <v>7.5000000000000011E-2</v>
       </c>
     </row>
@@ -11042,14 +15081,14 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F64" s="59">
-        <f t="shared" si="0"/>
+        <f>E64-D64</f>
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="H64" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I64" s="59">
-        <f t="shared" ref="I64" si="23">SUMIFS(F62:F76, C62:C76,H64)</f>
+        <f>SUMIFS(F62:F76, C62:C76,H64)</f>
         <v>2.777777777777779E-2</v>
       </c>
     </row>
@@ -11066,14 +15105,14 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="F65" s="59">
-        <f t="shared" si="0"/>
+        <f>E65-D65</f>
         <v>5.5555555555556468E-3</v>
       </c>
       <c r="H65" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I65" s="59">
-        <f t="shared" ref="I65" si="24">SUMIFS(F62:F76, C62:C76,H65)</f>
+        <f>SUMIFS(F62:F76, C62:C76,H65)</f>
         <v>0.11458333333333331</v>
       </c>
     </row>
@@ -11090,15 +15129,15 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="F66" s="59">
-        <f t="shared" si="0"/>
+        <f>E66-D66</f>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H66" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I66" s="59">
-        <f t="shared" ref="I66" si="25">SUMIFS(F62:F76, C62:C76,H66)</f>
-        <v>3.6111111111111149E-2</v>
+        <f>SUMIFS(F62:F76, C62:C76,H66)</f>
+        <v>4.861111111111116E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -11114,14 +15153,14 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="F67" s="59">
-        <f t="shared" ref="F67:F130" si="26">E67-D67</f>
+        <f>E67-D67</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="H67" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I67" s="59">
-        <f t="shared" ref="I67" si="27">SUMIFS(F62:F76, C62:C76,H67)</f>
+        <f>SUMIFS(F62:F76, C62:C76,H67)</f>
         <v>2.430555555555558E-2</v>
       </c>
     </row>
@@ -11138,14 +15177,14 @@
         <v>0.5625</v>
       </c>
       <c r="F68" s="59">
-        <f t="shared" si="26"/>
+        <f>E68-D68</f>
         <v>1.1805555555555514E-2</v>
       </c>
       <c r="H68" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I68" s="59">
-        <f t="shared" ref="I68" si="28">SUMIFS(F62:F76, C62:C76,H68)</f>
+        <f>SUMIFS(F62:F76, C62:C76,H68)</f>
         <v>1.1805555555555514E-2</v>
       </c>
     </row>
@@ -11162,15 +15201,15 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="F69" s="59">
-        <f t="shared" si="26"/>
+        <f>E69-D69</f>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="H69" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I69" s="57">
-        <f t="shared" ref="I69" si="29">SUM(I63:I68)</f>
-        <v>0.28958333333333336</v>
+        <f>SUM(I63:I68)</f>
+        <v>0.30208333333333337</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -11186,7 +15225,7 @@
         <v>0.61805555555555558</v>
       </c>
       <c r="F70" s="59">
-        <f t="shared" si="26"/>
+        <f>E70-D70</f>
         <v>1.5277777777777835E-2</v>
       </c>
       <c r="I70" s="61"/>
@@ -11204,7 +15243,7 @@
         <v>0.64236111111111105</v>
       </c>
       <c r="F71" s="59">
-        <f t="shared" si="26"/>
+        <f>E71-D71</f>
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="I71" s="61"/>
@@ -11222,7 +15261,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F72" s="59">
-        <f t="shared" si="26"/>
+        <f>E72-D72</f>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -11239,7 +15278,7 @@
         <v>0.75</v>
       </c>
       <c r="F73" s="59">
-        <f t="shared" si="26"/>
+        <f>E73-D73</f>
         <v>2.777777777777779E-2</v>
       </c>
     </row>
@@ -11250,7 +15289,7 @@
       <c r="D74" s="59"/>
       <c r="E74" s="59"/>
       <c r="F74" s="59">
-        <f t="shared" si="26"/>
+        <f>E74-D74</f>
         <v>0</v>
       </c>
     </row>
@@ -11261,7 +15300,7 @@
       <c r="D75" s="59"/>
       <c r="E75" s="59"/>
       <c r="F75" s="59">
-        <f t="shared" si="26"/>
+        <f>E75-D75</f>
         <v>0</v>
       </c>
     </row>
@@ -11272,7 +15311,7 @@
       <c r="D76" s="59"/>
       <c r="E76" s="59"/>
       <c r="F76" s="59">
-        <f t="shared" si="26"/>
+        <f>E76-D76</f>
         <v>0</v>
       </c>
     </row>
@@ -11282,17 +15321,17 @@
       </c>
       <c r="B77" s="43"/>
       <c r="C77" s="43" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D77" s="59">
-        <v>0.375</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="E77" s="59">
         <v>0.38541666666666669</v>
       </c>
       <c r="F77" s="59">
-        <f t="shared" si="26"/>
-        <v>1.0416666666666685E-2</v>
+        <f>E77-D77</f>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H77" s="57" t="s">
         <v>380</v>
@@ -11305,71 +15344,71 @@
       <c r="A78" s="64"/>
       <c r="B78" s="43"/>
       <c r="C78" s="43" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D78" s="59">
-        <v>0.38541666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E78" s="59">
-        <v>0.44791666666666669</v>
+        <v>0.43472222222222223</v>
       </c>
       <c r="F78" s="59">
-        <f t="shared" si="26"/>
-        <v>6.25E-2</v>
+        <f>E78-D78</f>
+        <v>3.8888888888888917E-2</v>
       </c>
       <c r="H78" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I78" s="59">
-        <f t="shared" ref="I78" si="30">SUMIFS(F77:F91, C77:C91,H78)</f>
-        <v>0.17222222222222228</v>
+        <f>SUMIFS(F77:F91, C77:C91,H78)</f>
+        <v>0.16180555555555565</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="64"/>
       <c r="B79" s="43"/>
       <c r="C79" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D79" s="59">
-        <v>0.44791666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="E79" s="59">
-        <v>0.45833333333333331</v>
+        <v>0.46875</v>
       </c>
       <c r="F79" s="59">
-        <f t="shared" si="26"/>
-        <v>1.041666666666663E-2</v>
+        <f>E79-D79</f>
+        <v>3.125E-2</v>
       </c>
       <c r="H79" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I79" s="59">
-        <f t="shared" ref="I79" si="31">SUMIFS(F77:F91, C77:C91,H79)</f>
-        <v>0</v>
+        <f>SUMIFS(F77:F91, C77:C91,H79)</f>
+        <v>3.8888888888888917E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="64"/>
       <c r="B80" s="43"/>
       <c r="C80" s="43" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D80" s="59">
-        <v>0.47916666666666669</v>
+        <v>0.46875</v>
       </c>
       <c r="E80" s="59">
-        <v>0.48958333333333331</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="F80" s="59">
-        <f t="shared" si="26"/>
-        <v>1.041666666666663E-2</v>
+        <f>E80-D80</f>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="H80" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I80" s="59">
-        <f t="shared" ref="I80" si="32">SUMIFS(F77:F91, C77:C91,H80)</f>
+        <f>SUMIFS(F77:F91, C77:C91,H80)</f>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -11386,15 +15425,15 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="F81" s="59">
-        <f t="shared" si="26"/>
+        <f>E81-D81</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="H81" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I81" s="59">
-        <f t="shared" ref="I81" si="33">SUMIFS(F77:F91, C77:C91,H81)</f>
-        <v>3.6111111111111149E-2</v>
+        <f>SUMIFS(F77:F91, C77:C91,H81)</f>
+        <v>1.5277777777777835E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -11410,14 +15449,14 @@
         <v>0.5625</v>
       </c>
       <c r="F82" s="59">
-        <f t="shared" si="26"/>
+        <f>E82-D82</f>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H82" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I82" s="59">
-        <f t="shared" ref="I82" si="34">SUMIFS(F77:F91, C77:C91,H82)</f>
+        <f>SUMIFS(F77:F91, C77:C91,H82)</f>
         <v>3.125E-2</v>
       </c>
     </row>
@@ -11434,15 +15473,15 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F83" s="59">
-        <f t="shared" si="26"/>
+        <f>E83-D83</f>
         <v>3.125E-2</v>
       </c>
       <c r="H83" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I83" s="59">
-        <f t="shared" ref="I83" si="35">SUMIFS(F77:F91, C77:C91,H83)</f>
-        <v>4.1666666666666741E-2</v>
+        <f>SUMIFS(F77:F91, C77:C91,H83)</f>
+        <v>4.5138888888889006E-2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -11458,15 +15497,15 @@
         <v>0.61805555555555558</v>
       </c>
       <c r="F84" s="59">
-        <f t="shared" si="26"/>
+        <f>E84-D84</f>
         <v>1.5277777777777835E-2</v>
       </c>
       <c r="H84" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I84" s="57">
-        <f t="shared" ref="I84" si="36">SUM(I78:I83)</f>
-        <v>0.34375000000000017</v>
+        <f>SUM(I78:I83)</f>
+        <v>0.3548611111111114</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -11482,7 +15521,7 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="F85" s="59">
-        <f t="shared" si="26"/>
+        <f>E85-D85</f>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="I85" s="61"/>
@@ -11500,7 +15539,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F86" s="59">
-        <f t="shared" si="26"/>
+        <f>E86-D86</f>
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="I86" s="61"/>
@@ -11518,7 +15557,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F87" s="59">
-        <f t="shared" si="26"/>
+        <f>E87-D87</f>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -11535,7 +15574,7 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="F88" s="59">
-        <f t="shared" si="26"/>
+        <f>E88-D88</f>
         <v>5.5555555555556468E-3</v>
       </c>
     </row>
@@ -11552,7 +15591,7 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="F89" s="59">
-        <f t="shared" si="26"/>
+        <f>E89-D89</f>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -11563,7 +15602,7 @@
       <c r="D90" s="59"/>
       <c r="E90" s="59"/>
       <c r="F90" s="59">
-        <f t="shared" si="26"/>
+        <f>E90-D90</f>
         <v>0</v>
       </c>
     </row>
@@ -11574,7 +15613,7 @@
       <c r="D91" s="59"/>
       <c r="E91" s="59"/>
       <c r="F91" s="59">
-        <f t="shared" si="26"/>
+        <f>E91-D91</f>
         <v>0</v>
       </c>
     </row>
@@ -11582,9 +15621,7 @@
       <c r="A92" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B92" s="43" t="s">
-        <v>401</v>
-      </c>
+      <c r="B92" s="43"/>
       <c r="C92" s="43" t="s">
         <v>382</v>
       </c>
@@ -11595,7 +15632,7 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="F92" s="59">
-        <f t="shared" si="26"/>
+        <f>E92-D92</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H92" s="57" t="s">
@@ -11607,9 +15644,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="64"/>
-      <c r="B93" s="43" t="s">
-        <v>453</v>
-      </c>
+      <c r="B93" s="43"/>
       <c r="C93" s="43" t="s">
         <v>384</v>
       </c>
@@ -11620,22 +15655,20 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F93" s="59">
-        <f t="shared" si="26"/>
+        <f>E93-D93</f>
         <v>3.125E-2</v>
       </c>
       <c r="H93" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I93" s="59">
-        <f t="shared" ref="I93" si="37">SUMIFS(F92:F106, C92:C106,H93)</f>
+        <f>SUMIFS(F92:F106, C92:C106,H93)</f>
         <v>0.22916666666666674</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="64"/>
-      <c r="B94" s="43" t="s">
-        <v>454</v>
-      </c>
+      <c r="B94" s="43"/>
       <c r="C94" s="43" t="s">
         <v>382</v>
       </c>
@@ -11646,22 +15679,20 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="F94" s="59">
-        <f t="shared" si="26"/>
+        <f>E94-D94</f>
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="H94" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I94" s="59">
-        <f t="shared" ref="I94" si="38">SUMIFS(F92:F106, C92:C106,H94)</f>
+        <f>SUMIFS(F92:F106, C92:C106,H94)</f>
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="64"/>
-      <c r="B95" s="43" t="s">
-        <v>453</v>
-      </c>
+      <c r="B95" s="43"/>
       <c r="C95" s="43" t="s">
         <v>384</v>
       </c>
@@ -11672,22 +15703,20 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="F95" s="59">
-        <f t="shared" si="26"/>
+        <f>E95-D95</f>
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="H95" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I95" s="59">
-        <f t="shared" ref="I95" si="39">SUMIFS(F92:F106, C92:C106,H95)</f>
+        <f>SUMIFS(F92:F106, C92:C106,H95)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="64"/>
-      <c r="B96" s="43" t="s">
-        <v>406</v>
-      </c>
+      <c r="B96" s="43"/>
       <c r="C96" s="43" t="s">
         <v>386</v>
       </c>
@@ -11698,22 +15727,20 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F96" s="59">
-        <f t="shared" si="26"/>
+        <f>E96-D96</f>
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="H96" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I96" s="59">
-        <f t="shared" ref="I96" si="40">SUMIFS(F92:F106, C92:C106,H96)</f>
+        <f>SUMIFS(F92:F106, C92:C106,H96)</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="64"/>
-      <c r="B97" s="43" t="s">
-        <v>412</v>
-      </c>
+      <c r="B97" s="43"/>
       <c r="C97" s="43" t="s">
         <v>386</v>
       </c>
@@ -11724,22 +15751,20 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F97" s="59">
-        <f t="shared" si="26"/>
+        <f>E97-D97</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H97" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I97" s="59">
-        <f t="shared" ref="I97" si="41">SUMIFS(F92:F106, C92:C106,H97)</f>
+        <f>SUMIFS(F92:F106, C92:C106,H97)</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="64"/>
-      <c r="B98" s="43" t="s">
-        <v>435</v>
-      </c>
+      <c r="B98" s="43"/>
       <c r="C98" s="43" t="s">
         <v>386</v>
       </c>
@@ -11750,22 +15775,20 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F98" s="59">
-        <f t="shared" si="26"/>
+        <f>E98-D98</f>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H98" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I98" s="59">
-        <f t="shared" ref="I98" si="42">SUMIFS(F92:F106, C92:C106,H98)</f>
+        <f>SUMIFS(F92:F106, C92:C106,H98)</f>
         <v>3.8194444444444309E-2</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="64"/>
-      <c r="B99" s="43" t="s">
-        <v>436</v>
-      </c>
+      <c r="B99" s="43"/>
       <c r="C99" s="43" t="s">
         <v>382</v>
       </c>
@@ -11776,22 +15799,20 @@
         <v>0.75</v>
       </c>
       <c r="F99" s="59">
-        <f t="shared" si="26"/>
+        <f>E99-D99</f>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="H99" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I99" s="57">
-        <f t="shared" ref="I99" si="43">SUM(I93:I98)</f>
+        <f>SUM(I93:I98)</f>
         <v>0.34027777777777773</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="64"/>
-      <c r="B100" s="43" t="s">
-        <v>455</v>
-      </c>
+      <c r="B100" s="43"/>
       <c r="C100" s="43" t="s">
         <v>382</v>
       </c>
@@ -11802,7 +15823,7 @@
         <v>0.875</v>
       </c>
       <c r="F100" s="59">
-        <f t="shared" si="26"/>
+        <f>E100-D100</f>
         <v>0.125</v>
       </c>
       <c r="I100" s="61"/>
@@ -11814,7 +15835,7 @@
       <c r="D101" s="59"/>
       <c r="E101" s="59"/>
       <c r="F101" s="59">
-        <f t="shared" si="26"/>
+        <f>E101-D101</f>
         <v>0</v>
       </c>
       <c r="I101" s="61"/>
@@ -11826,7 +15847,7 @@
       <c r="D102" s="59"/>
       <c r="E102" s="59"/>
       <c r="F102" s="59">
-        <f t="shared" si="26"/>
+        <f>E102-D102</f>
         <v>0</v>
       </c>
     </row>
@@ -11837,7 +15858,7 @@
       <c r="D103" s="59"/>
       <c r="E103" s="59"/>
       <c r="F103" s="59">
-        <f t="shared" si="26"/>
+        <f>E103-D103</f>
         <v>0</v>
       </c>
     </row>
@@ -11848,7 +15869,7 @@
       <c r="D104" s="59"/>
       <c r="E104" s="59"/>
       <c r="F104" s="59">
-        <f t="shared" si="26"/>
+        <f>E104-D104</f>
         <v>0</v>
       </c>
     </row>
@@ -11859,7 +15880,7 @@
       <c r="D105" s="59"/>
       <c r="E105" s="59"/>
       <c r="F105" s="59">
-        <f t="shared" si="26"/>
+        <f>E105-D105</f>
         <v>0</v>
       </c>
     </row>
@@ -11870,7 +15891,7 @@
       <c r="D106" s="59"/>
       <c r="E106" s="59"/>
       <c r="F106" s="59">
-        <f t="shared" si="26"/>
+        <f>E106-D106</f>
         <v>0</v>
       </c>
     </row>
@@ -11889,7 +15910,7 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="F107" s="59">
-        <f t="shared" si="26"/>
+        <f>E107-D107</f>
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="H107" s="57" t="s">
@@ -11912,14 +15933,14 @@
         <v>0.4375</v>
       </c>
       <c r="F108" s="59">
-        <f t="shared" si="26"/>
+        <f>E108-D108</f>
         <v>5.2083333333333315E-2</v>
       </c>
       <c r="H108" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I108" s="59">
-        <f t="shared" ref="I108" si="44">SUMIFS(F107:F121, C107:C121,H108)</f>
+        <f>SUMIFS(F107:F121, C107:C121,H108)</f>
         <v>0.13194444444444453</v>
       </c>
     </row>
@@ -11936,14 +15957,14 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="F109" s="59">
-        <f t="shared" si="26"/>
+        <f>E109-D109</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H109" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I109" s="59">
-        <f t="shared" ref="I109" si="45">SUMIFS(F107:F121, C107:C121,H109)</f>
+        <f>SUMIFS(F107:F121, C107:C121,H109)</f>
         <v>0</v>
       </c>
     </row>
@@ -11960,14 +15981,14 @@
         <v>0.46666666666666662</v>
       </c>
       <c r="F110" s="59">
-        <f t="shared" si="26"/>
+        <f>E110-D110</f>
         <v>2.2222222222222199E-2</v>
       </c>
       <c r="H110" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I110" s="59">
-        <f t="shared" ref="I110" si="46">SUMIFS(F107:F121, C107:C121,H110)</f>
+        <f>SUMIFS(F107:F121, C107:C121,H110)</f>
         <v>0.15624999999999994</v>
       </c>
     </row>
@@ -11984,14 +16005,14 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="F111" s="59">
-        <f t="shared" si="26"/>
+        <f>E111-D111</f>
         <v>5.5555555555556468E-3</v>
       </c>
       <c r="H111" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I111" s="59">
-        <f t="shared" ref="I111" si="47">SUMIFS(F107:F121, C107:C121,H111)</f>
+        <f>SUMIFS(F107:F121, C107:C121,H111)</f>
         <v>2.569444444444452E-2</v>
       </c>
     </row>
@@ -12008,14 +16029,14 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="F112" s="59">
-        <f t="shared" si="26"/>
+        <f>E112-D112</f>
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="H112" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I112" s="59">
-        <f t="shared" ref="I112" si="48">SUMIFS(F107:F121, C107:C121,H112)</f>
+        <f>SUMIFS(F107:F121, C107:C121,H112)</f>
         <v>2.430555555555558E-2</v>
       </c>
     </row>
@@ -12032,14 +16053,14 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F113" s="59">
-        <f t="shared" si="26"/>
+        <f>E113-D113</f>
         <v>5.2083333333333315E-2</v>
       </c>
       <c r="H113" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I113" s="59">
-        <f t="shared" ref="I113" si="49">SUMIFS(F107:F121, C107:C121,H113)</f>
+        <f>SUMIFS(F107:F121, C107:C121,H113)</f>
         <v>3.472222222222221E-2</v>
       </c>
     </row>
@@ -12056,14 +16077,14 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="F114" s="59">
-        <f t="shared" si="26"/>
+        <f>E114-D114</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="H114" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I114" s="57">
-        <f t="shared" ref="I114" si="50">SUM(I108:I113)</f>
+        <f>SUM(I108:I113)</f>
         <v>0.37291666666666679</v>
       </c>
     </row>
@@ -12080,7 +16101,7 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="F115" s="59">
-        <f t="shared" si="26"/>
+        <f>E115-D115</f>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="I115" s="61"/>
@@ -12098,7 +16119,7 @@
         <v>0.61805555555555558</v>
       </c>
       <c r="F116" s="59">
-        <f t="shared" si="26"/>
+        <f>E116-D116</f>
         <v>1.5277777777777835E-2</v>
       </c>
       <c r="I116" s="61"/>
@@ -12116,7 +16137,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F117" s="59">
-        <f t="shared" si="26"/>
+        <f>E117-D117</f>
         <v>3.4722222222222321E-2</v>
       </c>
     </row>
@@ -12133,7 +16154,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F118" s="59">
-        <f t="shared" si="26"/>
+        <f>E118-D118</f>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -12150,7 +16171,7 @@
         <v>0.75</v>
       </c>
       <c r="F119" s="59">
-        <f t="shared" si="26"/>
+        <f>E119-D119</f>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
@@ -12161,7 +16182,7 @@
       <c r="D120" s="59"/>
       <c r="E120" s="59"/>
       <c r="F120" s="59">
-        <f t="shared" si="26"/>
+        <f>E120-D120</f>
         <v>0</v>
       </c>
     </row>
@@ -12172,7 +16193,7 @@
       <c r="D121" s="59"/>
       <c r="E121" s="59"/>
       <c r="F121" s="59">
-        <f t="shared" si="26"/>
+        <f>E121-D121</f>
         <v>0</v>
       </c>
     </row>
@@ -12191,7 +16212,7 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="F122" s="59">
-        <f t="shared" si="26"/>
+        <f>E122-D122</f>
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="H122" s="57" t="s">
@@ -12214,14 +16235,14 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="F123" s="59">
-        <f t="shared" si="26"/>
+        <f>E123-D123</f>
         <v>6.25E-2</v>
       </c>
       <c r="H123" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I123" s="59">
-        <f t="shared" ref="I123" si="51">SUMIFS(F122:F136, C122:C136,H123)</f>
+        <f>SUMIFS(F122:F136, C122:C136,H123)</f>
         <v>0.22222222222222227</v>
       </c>
     </row>
@@ -12238,14 +16259,14 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F124" s="59">
-        <f t="shared" si="26"/>
+        <f>E124-D124</f>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H124" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I124" s="59">
-        <f t="shared" ref="I124" si="52">SUMIFS(F122:F136, C122:C136,H124)</f>
+        <f>SUMIFS(F122:F136, C122:C136,H124)</f>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
@@ -12262,14 +16283,14 @@
         <v>0.46666666666666662</v>
       </c>
       <c r="F125" s="59">
-        <f t="shared" si="26"/>
+        <f>E125-D125</f>
         <v>8.3333333333333037E-3</v>
       </c>
       <c r="H125" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I125" s="59">
-        <f t="shared" ref="I125" si="53">SUMIFS(F122:F136, C122:C136,H125)</f>
+        <f>SUMIFS(F122:F136, C122:C136,H125)</f>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -12286,14 +16307,14 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="F126" s="59">
-        <f t="shared" si="26"/>
+        <f>E126-D126</f>
         <v>5.5555555555556468E-3</v>
       </c>
       <c r="H126" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I126" s="59">
-        <f t="shared" ref="I126" si="54">SUMIFS(F122:F136, C122:C136,H126)</f>
+        <f>SUMIFS(F122:F136, C122:C136,H126)</f>
         <v>2.569444444444452E-2</v>
       </c>
     </row>
@@ -12310,14 +16331,14 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="F127" s="59">
-        <f t="shared" si="26"/>
+        <f>E127-D127</f>
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="H127" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I127" s="59">
-        <f t="shared" ref="I127" si="55">SUMIFS(F122:F136, C122:C136,H127)</f>
+        <f>SUMIFS(F122:F136, C122:C136,H127)</f>
         <v>2.430555555555558E-2</v>
       </c>
     </row>
@@ -12334,14 +16355,14 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="F128" s="59">
-        <f t="shared" si="26"/>
+        <f>E128-D128</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="H128" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I128" s="59">
-        <f t="shared" ref="I128" si="56">SUMIFS(F122:F136, C122:C136,H128)</f>
+        <f>SUMIFS(F122:F136, C122:C136,H128)</f>
         <v>3.472222222222221E-2</v>
       </c>
     </row>
@@ -12358,14 +16379,14 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F129" s="59">
-        <f t="shared" si="26"/>
+        <f>E129-D129</f>
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="H129" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I129" s="57">
-        <f t="shared" ref="I129" si="57">SUM(I123:I128)</f>
+        <f>SUM(I123:I128)</f>
         <v>0.4111111111111112</v>
       </c>
     </row>
@@ -12382,7 +16403,7 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="F130" s="59">
-        <f t="shared" si="26"/>
+        <f>E130-D130</f>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="I130" s="61"/>
@@ -12400,7 +16421,7 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="F131" s="59">
-        <f t="shared" ref="F131:F194" si="58">E131-D131</f>
+        <f>E131-D131</f>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="I131" s="61"/>
@@ -12418,7 +16439,7 @@
         <v>0.61805555555555558</v>
       </c>
       <c r="F132" s="59">
-        <f t="shared" si="58"/>
+        <f>E132-D132</f>
         <v>1.5277777777777835E-2</v>
       </c>
     </row>
@@ -12435,7 +16456,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F133" s="59">
-        <f t="shared" si="58"/>
+        <f>E133-D133</f>
         <v>3.4722222222222321E-2</v>
       </c>
     </row>
@@ -12452,7 +16473,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F134" s="59">
-        <f t="shared" si="58"/>
+        <f>E134-D134</f>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -12469,7 +16490,7 @@
         <v>0.75</v>
       </c>
       <c r="F135" s="59">
-        <f t="shared" si="58"/>
+        <f>E135-D135</f>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
@@ -12486,7 +16507,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F136" s="59">
-        <f t="shared" si="58"/>
+        <f>E136-D136</f>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
@@ -12505,7 +16526,7 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="F137" s="59">
-        <f t="shared" si="58"/>
+        <f>E137-D137</f>
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="H137" s="57" t="s">
@@ -12528,14 +16549,14 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="F138" s="59">
-        <f t="shared" si="58"/>
+        <f>E138-D138</f>
         <v>5.9027777777777735E-2</v>
       </c>
       <c r="H138" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I138" s="59">
-        <f t="shared" ref="I138" si="59">SUMIFS(F137:F151, C137:C151,H138)</f>
+        <f>SUMIFS(F137:F151, C137:C151,H138)</f>
         <v>8.5416666666666752E-2</v>
       </c>
     </row>
@@ -12552,14 +16573,14 @@
         <v>0.46527777777777773</v>
       </c>
       <c r="F139" s="59">
-        <f t="shared" si="58"/>
+        <f>E139-D139</f>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="H139" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I139" s="59">
-        <f t="shared" ref="I139" si="60">SUMIFS(F137:F151, C137:C151,H139)</f>
+        <f>SUMIFS(F137:F151, C137:C151,H139)</f>
         <v>0</v>
       </c>
     </row>
@@ -12576,14 +16597,14 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="F140" s="59">
-        <f t="shared" si="58"/>
+        <f>E140-D140</f>
         <v>5.5555555555556468E-3</v>
       </c>
       <c r="H140" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I140" s="59">
-        <f t="shared" ref="I140" si="61">SUMIFS(F137:F151, C137:C151,H140)</f>
+        <f>SUMIFS(F137:F151, C137:C151,H140)</f>
         <v>0.11111111111111105</v>
       </c>
     </row>
@@ -12600,14 +16621,14 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="F141" s="59">
-        <f t="shared" si="58"/>
+        <f>E141-D141</f>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H141" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I141" s="59">
-        <f t="shared" ref="I141" si="62">SUMIFS(F137:F151, C137:C151,H141)</f>
+        <f>SUMIFS(F137:F151, C137:C151,H141)</f>
         <v>2.9166666666666619E-2</v>
       </c>
     </row>
@@ -12624,14 +16645,14 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="F142" s="59">
-        <f t="shared" si="58"/>
+        <f>E142-D142</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="H142" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I142" s="59">
-        <f t="shared" ref="I142" si="63">SUMIFS(F137:F151, C137:C151,H142)</f>
+        <f>SUMIFS(F137:F151, C137:C151,H142)</f>
         <v>2.430555555555558E-2</v>
       </c>
     </row>
@@ -12648,14 +16669,14 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="F143" s="59">
-        <f t="shared" si="58"/>
+        <f>E143-D143</f>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="H143" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I143" s="59">
-        <f t="shared" ref="I143" si="64">SUMIFS(F137:F151, C137:C151,H143)</f>
+        <f>SUMIFS(F137:F151, C137:C151,H143)</f>
         <v>3.4722222222222099E-2</v>
       </c>
     </row>
@@ -12672,14 +16693,14 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="F144" s="59">
-        <f t="shared" si="58"/>
+        <f>E144-D144</f>
         <v>8.3333333333333037E-3</v>
       </c>
       <c r="H144" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I144" s="57">
-        <f t="shared" ref="I144" si="65">SUM(I138:I143)</f>
+        <f>SUM(I138:I143)</f>
         <v>0.2847222222222221</v>
       </c>
     </row>
@@ -12696,7 +16717,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F145" s="59">
-        <f t="shared" si="58"/>
+        <f>E145-D145</f>
         <v>6.25E-2</v>
       </c>
       <c r="I145" s="61"/>
@@ -12714,7 +16735,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F146" s="59">
-        <f t="shared" si="58"/>
+        <f>E146-D146</f>
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="I146" s="61"/>
@@ -12732,7 +16753,7 @@
         <v>0.75</v>
       </c>
       <c r="F147" s="59">
-        <f t="shared" si="58"/>
+        <f>E147-D147</f>
         <v>2.083333333333337E-2</v>
       </c>
     </row>
@@ -12743,7 +16764,7 @@
       <c r="D148" s="59"/>
       <c r="E148" s="59"/>
       <c r="F148" s="59">
-        <f t="shared" si="58"/>
+        <f>E148-D148</f>
         <v>0</v>
       </c>
     </row>
@@ -12754,7 +16775,7 @@
       <c r="D149" s="59"/>
       <c r="E149" s="59"/>
       <c r="F149" s="59">
-        <f t="shared" si="58"/>
+        <f>E149-D149</f>
         <v>0</v>
       </c>
     </row>
@@ -12765,7 +16786,7 @@
       <c r="D150" s="59"/>
       <c r="E150" s="59"/>
       <c r="F150" s="59">
-        <f t="shared" si="58"/>
+        <f>E150-D150</f>
         <v>0</v>
       </c>
     </row>
@@ -12776,7 +16797,7 @@
       <c r="D151" s="59"/>
       <c r="E151" s="59"/>
       <c r="F151" s="59">
-        <f t="shared" si="58"/>
+        <f>E151-D151</f>
         <v>0</v>
       </c>
     </row>
@@ -12797,7 +16818,7 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="F152" s="59">
-        <f t="shared" si="58"/>
+        <f>E152-D152</f>
         <v>3.472222222222221E-2</v>
       </c>
       <c r="H152" s="57" t="s">
@@ -12822,14 +16843,14 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F153" s="59">
-        <f t="shared" si="58"/>
+        <f>E153-D153</f>
         <v>3.125E-2</v>
       </c>
       <c r="H153" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I153" s="59">
-        <f t="shared" ref="I153" si="66">SUMIFS(F152:F166, C152:C166,H153)</f>
+        <f>SUMIFS(F152:F166, C152:C166,H153)</f>
         <v>0.25694444444444453</v>
       </c>
     </row>
@@ -12848,14 +16869,14 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="F154" s="59">
-        <f t="shared" si="58"/>
+        <f>E154-D154</f>
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="H154" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I154" s="59">
-        <f t="shared" ref="I154" si="67">SUMIFS(F152:F166, C152:C166,H154)</f>
+        <f>SUMIFS(F152:F166, C152:C166,H154)</f>
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
@@ -12874,14 +16895,14 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="F155" s="59">
-        <f t="shared" si="58"/>
+        <f>E155-D155</f>
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="H155" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I155" s="59">
-        <f t="shared" ref="I155" si="68">SUMIFS(F152:F166, C152:C166,H155)</f>
+        <f>SUMIFS(F152:F166, C152:C166,H155)</f>
         <v>0</v>
       </c>
     </row>
@@ -12900,14 +16921,14 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F156" s="59">
-        <f t="shared" si="58"/>
+        <f>E156-D156</f>
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="H156" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I156" s="59">
-        <f t="shared" ref="I156" si="69">SUMIFS(F152:F166, C152:C166,H156)</f>
+        <f>SUMIFS(F152:F166, C152:C166,H156)</f>
         <v>0</v>
       </c>
     </row>
@@ -12926,14 +16947,14 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F157" s="59">
-        <f t="shared" si="58"/>
+        <f>E157-D157</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H157" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I157" s="59">
-        <f t="shared" ref="I157" si="70">SUMIFS(F152:F166, C152:C166,H157)</f>
+        <f>SUMIFS(F152:F166, C152:C166,H157)</f>
         <v>0</v>
       </c>
     </row>
@@ -12952,14 +16973,14 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F158" s="59">
-        <f t="shared" si="58"/>
+        <f>E158-D158</f>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H158" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I158" s="59">
-        <f t="shared" ref="I158" si="71">SUMIFS(F152:F166, C152:C166,H158)</f>
+        <f>SUMIFS(F152:F166, C152:C166,H158)</f>
         <v>3.8194444444444309E-2</v>
       </c>
     </row>
@@ -12978,14 +16999,14 @@
         <v>0.75</v>
       </c>
       <c r="F159" s="59">
-        <f t="shared" si="58"/>
+        <f>E159-D159</f>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="H159" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I159" s="57">
-        <f t="shared" ref="I159" si="72">SUM(I153:I158)</f>
+        <f>SUM(I153:I158)</f>
         <v>0.36805555555555552</v>
       </c>
     </row>
@@ -13004,7 +17025,7 @@
         <v>0.875</v>
       </c>
       <c r="F160" s="59">
-        <f t="shared" si="58"/>
+        <f>E160-D160</f>
         <v>0.125</v>
       </c>
       <c r="I160" s="61"/>
@@ -13016,7 +17037,7 @@
       <c r="D161" s="59"/>
       <c r="E161" s="59"/>
       <c r="F161" s="59">
-        <f t="shared" si="58"/>
+        <f>E161-D161</f>
         <v>0</v>
       </c>
       <c r="I161" s="61"/>
@@ -13028,7 +17049,7 @@
       <c r="D162" s="59"/>
       <c r="E162" s="59"/>
       <c r="F162" s="59">
-        <f t="shared" si="58"/>
+        <f>E162-D162</f>
         <v>0</v>
       </c>
     </row>
@@ -13039,7 +17060,7 @@
       <c r="D163" s="59"/>
       <c r="E163" s="59"/>
       <c r="F163" s="59">
-        <f t="shared" si="58"/>
+        <f>E163-D163</f>
         <v>0</v>
       </c>
     </row>
@@ -13050,7 +17071,7 @@
       <c r="D164" s="59"/>
       <c r="E164" s="59"/>
       <c r="F164" s="59">
-        <f t="shared" si="58"/>
+        <f>E164-D164</f>
         <v>0</v>
       </c>
     </row>
@@ -13061,7 +17082,7 @@
       <c r="D165" s="59"/>
       <c r="E165" s="59"/>
       <c r="F165" s="59">
-        <f t="shared" si="58"/>
+        <f>E165-D165</f>
         <v>0</v>
       </c>
     </row>
@@ -13072,23 +17093,23 @@
       <c r="D166" s="59"/>
       <c r="E166" s="59"/>
       <c r="F166" s="59">
-        <f t="shared" si="58"/>
+        <f>E166-D166</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
@@ -13142,306 +17163,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C166" xr:uid="{86D1CC8C-9E76-4CA9-A7DE-2A4609E97D01}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C166" xr:uid="{7DB2D99D-57F0-4B09-9934-9E108CDEF729}">
       <formula1>$Q$1:$Q$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B4:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="7" width="29.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:8">
-      <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="7"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="6"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="45.75" customHeight="1">
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
-        <v>6</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="2:8" ht="45.75" customHeight="1">
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
-        <v>6</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="2:8" ht="39" customHeight="1">
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5">
-        <v>6</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="2:8" ht="33" customHeight="1">
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5">
-        <v>6</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:8" ht="33" customHeight="1">
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5">
-        <v>6</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="2:8" ht="35.25" customHeight="1">
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5">
-        <v>6</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="2:8" ht="25.5">
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="2:8" ht="25.5">
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:8" ht="25.5">
-      <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="2:8" ht="25.5">
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5">
-        <v>6</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="187" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
 </worksheet>
 </file>
 

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00D1A3A4-540E-46EF-98DC-01AA49C44100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CBCF1FF-9282-4523-9E57-FCA0E18308FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="526">
   <si>
     <t>Resource Name</t>
   </si>
@@ -2077,6 +2077,12 @@
     <t>Explored in codefirst Github Example</t>
   </si>
   <si>
+    <t>Refining Web API by separated context,interfaces and factory in different folders</t>
+  </si>
+  <si>
+    <t>Explored github samples for WebAPI Service Implementaion</t>
+  </si>
+  <si>
     <t>Explored angular materials concept.</t>
   </si>
   <si>
@@ -2086,6 +2092,18 @@
     <t>Checked the responsiveness in Article page and Reviewed page.</t>
   </si>
   <si>
+    <t>Meeting with Rafi</t>
+  </si>
+  <si>
+    <t>Team meeting</t>
+  </si>
+  <si>
+    <t>Created Home page layout .</t>
+  </si>
+  <si>
+    <t>Added Trending Articles,Queries and Latest Articles,Queries in Home page.</t>
+  </si>
+  <si>
     <t>Worked on  layouts for Queries , Trending Queries, Latest Queries and My Queries.</t>
   </si>
   <si>
@@ -2126,6 +2144,12 @@
   </si>
   <si>
     <t>Worked on Spam View Page</t>
+  </si>
+  <si>
+    <t>Worked on Responsive for Query side Project</t>
+  </si>
+  <si>
+    <t>Soft skill</t>
   </si>
   <si>
     <t>Identifying the Components for creating Angular components</t>
@@ -6170,8 +6194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C9DD7D-30C6-4A9E-B772-3BC050FE4627}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9881,8 +9905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E3682D-F14F-4D28-8A78-318A919FB5C5}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10620,7 +10644,7 @@
       </c>
       <c r="I33" s="59">
         <f t="shared" ref="I33" si="8">SUMIFS(F32:F46, C32:C46,H33)</f>
-        <v>0.15902777777777766</v>
+        <v>0.2027777777777775</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -10672,7 +10696,7 @@
       </c>
       <c r="I35" s="59">
         <f t="shared" ref="I35" si="10">SUMIFS(F32:F46, C32:C46,H35)</f>
-        <v>7.6388888888888951E-2</v>
+        <v>8.1944444444444597E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -10776,7 +10800,7 @@
       </c>
       <c r="I39" s="57">
         <f t="shared" ref="I39" si="14">SUM(I33:I38)</f>
-        <v>0.37291666666666673</v>
+        <v>0.42222222222222222</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -10831,63 +10855,58 @@
         <v>0.68402777777777779</v>
       </c>
       <c r="E42" s="59">
-        <v>0.61805555555555558</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="F42" s="59">
         <f t="shared" si="0"/>
-        <v>-6.597222222222221E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="64"/>
-      <c r="B43" s="43"/>
+      <c r="B43" s="43" t="s">
+        <v>499</v>
+      </c>
       <c r="C43" s="43" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D43" s="59">
-        <v>0.61805555555555558</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="E43" s="59">
-        <v>0.64583333333333337</v>
+        <v>0.74861111111111101</v>
       </c>
       <c r="F43" s="59">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
+        <v>4.3749999999999845E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="64"/>
-      <c r="B44" s="43"/>
+      <c r="B44" s="43" t="s">
+        <v>500</v>
+      </c>
       <c r="C44" s="43" t="s">
         <v>387</v>
       </c>
       <c r="D44" s="59">
-        <v>0.64583333333333337</v>
+        <v>0.79027777777777775</v>
       </c>
       <c r="E44" s="59">
-        <v>0.70833333333333337</v>
+        <v>0.81666666666666676</v>
       </c>
       <c r="F44" s="59">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <f>E44-D44</f>
+        <v>2.6388888888889017E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="64"/>
       <c r="B45" s="43"/>
-      <c r="C45" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="D45" s="59">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E45" s="59">
-        <v>0.72569444444444453</v>
-      </c>
-      <c r="F45" s="59">
-        <f t="shared" si="0"/>
-        <v>1.736111111111116E-2</v>
-      </c>
+      <c r="C45" s="43"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="64"/>
@@ -10905,7 +10924,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C47" s="43" t="s">
         <v>387</v>
@@ -10950,7 +10969,7 @@
       </c>
       <c r="I48" s="59">
         <f t="shared" ref="I48" si="15">SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.13194444444444448</v>
+        <v>0.22569444444444442</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -10982,7 +11001,7 @@
     <row r="50" spans="1:9">
       <c r="A50" s="64"/>
       <c r="B50" s="43" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>382</v>
@@ -11002,148 +11021,160 @@
       </c>
       <c r="I50" s="59">
         <f t="shared" ref="I50" si="17">SUMIFS(F47:F61, C47:C61,H50)</f>
-        <v>0.12847222222222221</v>
+        <v>0.10069444444444442</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="64"/>
       <c r="B51" s="43" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D51" s="59">
-        <v>0.47916666666666669</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="E51" s="59">
-        <v>0.53125</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F51" s="59">
         <f t="shared" si="0"/>
-        <v>5.2083333333333315E-2</v>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="H51" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I51" s="59">
         <f t="shared" ref="I51" si="18">SUMIFS(F47:F61, C47:C61,H51)</f>
-        <v>6.7361111111111149E-2</v>
+        <v>2.1527777777777812E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="64"/>
-      <c r="B52" s="43"/>
+      <c r="B52" s="43" t="s">
+        <v>385</v>
+      </c>
       <c r="C52" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D52" s="59">
-        <v>0.48958333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E52" s="59">
-        <v>0.52777777777777779</v>
+        <v>0.56597222222222221</v>
       </c>
       <c r="F52" s="59">
         <f t="shared" si="0"/>
-        <v>3.8194444444444475E-2</v>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="H52" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I52" s="59">
         <f t="shared" ref="I52" si="19">SUMIFS(F47:F61, C47:C61,H52)</f>
-        <v>2.430555555555558E-2</v>
+        <v>4.5833333333333393E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="64"/>
-      <c r="B53" s="43"/>
+      <c r="B53" s="43" t="s">
+        <v>504</v>
+      </c>
       <c r="C53" s="43" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D53" s="59">
-        <v>0.52777777777777779</v>
+        <v>0.56597222222222221</v>
       </c>
       <c r="E53" s="59">
-        <v>0.55208333333333337</v>
+        <v>0.6118055555555556</v>
       </c>
       <c r="F53" s="59">
         <f t="shared" si="0"/>
-        <v>2.430555555555558E-2</v>
+        <v>4.5833333333333393E-2</v>
       </c>
       <c r="H53" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I53" s="59">
         <f t="shared" ref="I53" si="20">SUMIFS(F47:F61, C47:C61,H53)</f>
-        <v>4.5138888888888784E-2</v>
+        <v>3.4722222222222154E-2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="64"/>
-      <c r="B54" s="43"/>
+      <c r="B54" s="43" t="s">
+        <v>505</v>
+      </c>
       <c r="C54" s="43" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D54" s="59">
-        <v>0.55208333333333337</v>
+        <v>0.61388888888888882</v>
       </c>
       <c r="E54" s="59">
-        <v>0.57291666666666663</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F54" s="59">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>2.1527777777777812E-2</v>
       </c>
       <c r="H54" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I54" s="57">
         <f t="shared" ref="I54" si="21">SUM(I48:I53)</f>
-        <v>0.43541666666666662</v>
+        <v>0.46666666666666662</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="64"/>
-      <c r="B55" s="43"/>
+      <c r="B55" s="43" t="s">
+        <v>506</v>
+      </c>
       <c r="C55" s="43" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D55" s="59">
-        <v>0.57291666666666663</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="E55" s="59">
-        <v>0.59722222222222221</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="F55" s="59">
         <f t="shared" si="0"/>
-        <v>2.430555555555558E-2</v>
+        <v>5.555555555555558E-2</v>
       </c>
       <c r="I55" s="61"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="64"/>
-      <c r="B56" s="43"/>
+      <c r="B56" s="43" t="s">
+        <v>385</v>
+      </c>
       <c r="C56" s="43" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D56" s="59">
-        <v>0.60277777777777775</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="E56" s="59">
-        <v>0.61805555555555558</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="F56" s="59">
         <f t="shared" si="0"/>
-        <v>1.5277777777777835E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="I56" s="61"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="64"/>
-      <c r="B57" s="43"/>
+      <c r="B57" s="43" t="s">
+        <v>507</v>
+      </c>
       <c r="C57" s="43" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D57" s="59">
         <v>0.61805555555555558</v>
@@ -11223,7 +11254,7 @@
         <v>13</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C62" s="43" t="s">
         <v>382</v>
@@ -11248,7 +11279,7 @@
     <row r="63" spans="1:9">
       <c r="A63" s="64"/>
       <c r="B63" s="43" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C63" s="43" t="s">
         <v>384</v>
@@ -11268,7 +11299,7 @@
       </c>
       <c r="I63" s="59">
         <f t="shared" ref="I63" si="22">SUMIFS(F62:F76, C62:C76,H63)</f>
-        <v>6.1111111111111116E-2</v>
+        <v>9.0972222222222232E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -11300,7 +11331,7 @@
     <row r="65" spans="1:9">
       <c r="A65" s="64"/>
       <c r="B65" s="43" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C65" s="43" t="s">
         <v>384</v>
@@ -11329,7 +11360,7 @@
         <v>441</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D66" s="59">
         <v>0.52222222222222225</v>
@@ -11346,13 +11377,13 @@
       </c>
       <c r="I66" s="59">
         <f t="shared" ref="I66" si="25">SUMIFS(F62:F76, C62:C76,H66)</f>
-        <v>6.9444444444444531E-2</v>
+        <v>3.6805555555555647E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="64"/>
       <c r="B67" s="43" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C67" s="43" t="s">
         <v>386</v>
@@ -11378,7 +11409,7 @@
     <row r="68" spans="1:9">
       <c r="A68" s="64"/>
       <c r="B68" s="43" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C68" s="43" t="s">
         <v>390</v>
@@ -11403,26 +11434,28 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="64"/>
-      <c r="B69" s="43"/>
+      <c r="B69" s="43" t="s">
+        <v>486</v>
+      </c>
       <c r="C69" s="43" t="s">
         <v>379</v>
       </c>
       <c r="D69" s="59">
-        <v>0.57291666666666663</v>
+        <v>0.61388888888888882</v>
       </c>
       <c r="E69" s="59">
-        <v>0.59722222222222221</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F69" s="59">
         <f t="shared" si="26"/>
-        <v>2.430555555555558E-2</v>
+        <v>2.1527777777777812E-2</v>
       </c>
       <c r="H69" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I69" s="57">
         <f t="shared" ref="I69" si="29">SUM(I63:I68)</f>
-        <v>0.38819444444444451</v>
+        <v>0.38541666666666674</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -11533,7 +11566,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C77" s="43" t="s">
         <v>382</v>
@@ -11584,7 +11617,7 @@
     <row r="79" spans="1:9">
       <c r="A79" s="64"/>
       <c r="B79" s="43" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C79" s="43" t="s">
         <v>382</v>
@@ -11636,7 +11669,7 @@
     <row r="81" spans="1:9">
       <c r="A81" s="64"/>
       <c r="B81" s="43" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C81" s="43" t="s">
         <v>382</v>
@@ -11662,7 +11695,7 @@
     <row r="82" spans="1:9">
       <c r="A82" s="64"/>
       <c r="B82" s="43" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C82" s="43" t="s">
         <v>387</v>
@@ -11688,7 +11721,7 @@
     <row r="83" spans="1:9">
       <c r="A83" s="64"/>
       <c r="B83" s="43" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C83" s="43" t="s">
         <v>382</v>
@@ -11714,7 +11747,7 @@
     <row r="84" spans="1:9">
       <c r="A84" s="64"/>
       <c r="B84" s="43" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C84" s="43" t="s">
         <v>382</v>
@@ -11799,7 +11832,7 @@
     <row r="88" spans="1:9">
       <c r="A88" s="64"/>
       <c r="B88" s="43" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C88" s="43" t="s">
         <v>387</v>
@@ -11818,7 +11851,7 @@
     <row r="89" spans="1:9">
       <c r="A89" s="64"/>
       <c r="B89" s="43" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C89" s="43" t="s">
         <v>382</v>
@@ -11837,7 +11870,7 @@
     <row r="90" spans="1:9">
       <c r="A90" s="64"/>
       <c r="B90" s="43" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C90" s="43" t="s">
         <v>382</v>
@@ -12164,19 +12197,21 @@
       <c r="A107" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B107" s="43"/>
+      <c r="B107" s="43" t="s">
+        <v>522</v>
+      </c>
       <c r="C107" s="43" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D107" s="59">
-        <v>0.375</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E107" s="59">
-        <v>0.38541666666666669</v>
+        <v>0.3972222222222222</v>
       </c>
       <c r="F107" s="59">
         <f t="shared" si="26"/>
-        <v>1.0416666666666685E-2</v>
+        <v>4.3055555555555514E-2</v>
       </c>
       <c r="H107" s="57" t="s">
         <v>380</v>
@@ -12187,26 +12222,28 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="64"/>
-      <c r="B108" s="43"/>
+      <c r="B108" s="43" t="s">
+        <v>523</v>
+      </c>
       <c r="C108" s="43" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D108" s="59">
-        <v>0.38541666666666669</v>
+        <v>0.3972222222222222</v>
       </c>
       <c r="E108" s="59">
-        <v>0.4375</v>
+        <v>0.43472222222222223</v>
       </c>
       <c r="F108" s="59">
         <f t="shared" si="26"/>
-        <v>5.2083333333333315E-2</v>
+        <v>3.7500000000000033E-2</v>
       </c>
       <c r="H108" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I108" s="59">
         <f t="shared" ref="I108" si="44">SUMIFS(F107:F121, C107:C121,H108)</f>
-        <v>0.13194444444444453</v>
+        <v>0.12291666666666673</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -12230,7 +12267,7 @@
       </c>
       <c r="I109" s="59">
         <f t="shared" ref="I109" si="45">SUMIFS(F107:F121, C107:C121,H109)</f>
-        <v>0</v>
+        <v>3.7500000000000033E-2</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -12278,7 +12315,7 @@
       </c>
       <c r="I111" s="59">
         <f t="shared" ref="I111" si="47">SUMIFS(F107:F121, C107:C121,H111)</f>
-        <v>2.569444444444452E-2</v>
+        <v>1.5277777777777835E-2</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -12350,7 +12387,7 @@
       </c>
       <c r="I114" s="57">
         <f t="shared" ref="I114" si="50">SUM(I108:I113)</f>
-        <v>0.37291666666666679</v>
+        <v>0.39097222222222233</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -13735,8 +13772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9316CD-C86D-408F-BDDD-0E4083B59C71}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13782,7 +13819,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>382</v>
@@ -14406,7 +14443,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C32" s="43" t="s">
         <v>382</v>
@@ -17104,12 +17141,12 @@
     <mergeCell ref="A122:A136"/>
     <mergeCell ref="A137:A151"/>
     <mergeCell ref="A152:A166"/>
-    <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A77:A91"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CBCF1FF-9282-4523-9E57-FCA0E18308FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29EC4EEF-4B3E-46D7-B8D6-EF316D779562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="540">
   <si>
     <t>Resource Name</t>
   </si>
@@ -2083,7 +2083,7 @@
     <t>Explored github samples for WebAPI Service Implementaion</t>
   </si>
   <si>
-    <t>Explored angular materials concept.</t>
+    <t>Explored  Angular material concept(Api reference).</t>
   </si>
   <si>
     <t>Created Admin dashboard and include piechart in that.</t>
@@ -2104,6 +2104,9 @@
     <t>Added Trending Articles,Queries and Latest Articles,Queries in Home page.</t>
   </si>
   <si>
+    <t>Explored Stepper,Collapse concept in Angular material.</t>
+  </si>
+  <si>
     <t>Worked on  layouts for Queries , Trending Queries, Latest Queries and My Queries.</t>
   </si>
   <si>
@@ -2119,6 +2122,15 @@
     <t>Meetting with Rafi</t>
   </si>
   <si>
+    <t>Explored about the article services for webapi</t>
+  </si>
+  <si>
+    <t>Worked on WebApi for Article Services</t>
+  </si>
+  <si>
+    <t>Explored about Implementation of webapi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Worked on Queries page </t>
   </si>
   <si>
@@ -2150,6 +2162,36 @@
   </si>
   <si>
     <t>Soft skill</t>
+  </si>
+  <si>
+    <t>Worked on Code tag and view more in Query side</t>
+  </si>
+  <si>
+    <t>Updated timesheet and estimation</t>
+  </si>
+  <si>
+    <t>Refined the Raise query</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>Review with Rafi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with team </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explored on Codefirst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">started to work on Article side webapi  </t>
+  </si>
+  <si>
+    <t>Worked on navigability for userside</t>
+  </si>
+  <si>
+    <t>Explored on WebApi crud and return type</t>
   </si>
   <si>
     <t>Identifying the Components for creating Angular components</t>
@@ -6194,8 +6236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C9DD7D-30C6-4A9E-B772-3BC050FE4627}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9829,17 +9871,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
@@ -9905,8 +9947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E3682D-F14F-4D28-8A78-318A919FB5C5}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10877,7 +10919,7 @@
         <v>0.74861111111111101</v>
       </c>
       <c r="F43" s="59">
-        <f t="shared" si="0"/>
+        <f>E43-D43</f>
         <v>4.3749999999999845E-2</v>
       </c>
     </row>
@@ -10969,7 +11011,7 @@
       </c>
       <c r="I48" s="59">
         <f t="shared" ref="I48" si="15">SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.22569444444444442</v>
+        <v>0.18750000000000011</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -11021,7 +11063,7 @@
       </c>
       <c r="I50" s="59">
         <f t="shared" ref="I50" si="17">SUMIFS(F47:F61, C47:C61,H50)</f>
-        <v>0.10069444444444442</v>
+        <v>5.902777777777779E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -11099,7 +11141,7 @@
       </c>
       <c r="I53" s="59">
         <f t="shared" ref="I53" si="20">SUMIFS(F47:F61, C47:C61,H53)</f>
-        <v>3.4722222222222154E-2</v>
+        <v>2.4305555555555525E-2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -11125,7 +11167,7 @@
       </c>
       <c r="I54" s="57">
         <f t="shared" ref="I54" si="21">SUM(I48:I53)</f>
-        <v>0.46666666666666662</v>
+        <v>0.37638888888888905</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -11140,11 +11182,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="E55" s="59">
-        <v>0.69097222222222221</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F55" s="59">
         <f t="shared" si="0"/>
-        <v>5.555555555555558E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="I55" s="61"/>
     </row>
@@ -11157,14 +11199,14 @@
         <v>386</v>
       </c>
       <c r="D56" s="59">
-        <v>0.69097222222222221</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E56" s="59">
-        <v>0.70138888888888884</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="F56" s="59">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="I56" s="61"/>
     </row>
@@ -11177,48 +11219,50 @@
         <v>382</v>
       </c>
       <c r="D57" s="59">
-        <v>0.61805555555555558</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="E57" s="59">
-        <v>0.64583333333333337</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="F57" s="59">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
+        <v>3.4722222222222321E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="64"/>
-      <c r="B58" s="43"/>
+      <c r="B58" s="43" t="s">
+        <v>508</v>
+      </c>
       <c r="C58" s="43" t="s">
         <v>387</v>
       </c>
       <c r="D58" s="59">
-        <v>0.64583333333333337</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="E58" s="59">
-        <v>0.70833333333333337</v>
+        <v>0.73611111111111116</v>
       </c>
       <c r="F58" s="59">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="64"/>
       <c r="B59" s="43"/>
       <c r="C59" s="43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D59" s="59">
-        <v>0.70833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E59" s="59">
-        <v>0.72222222222222221</v>
+        <v>0</v>
       </c>
       <c r="F59" s="59">
         <f t="shared" si="0"/>
-        <v>1.388888888888884E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -11228,14 +11272,14 @@
         <v>382</v>
       </c>
       <c r="D60" s="59">
-        <v>0.72222222222222221</v>
+        <v>0</v>
       </c>
       <c r="E60" s="59">
-        <v>0.74305555555555547</v>
+        <v>0</v>
       </c>
       <c r="F60" s="59">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -11254,7 +11298,7 @@
         <v>13</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C62" s="43" t="s">
         <v>382</v>
@@ -11279,7 +11323,7 @@
     <row r="63" spans="1:9">
       <c r="A63" s="64"/>
       <c r="B63" s="43" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C63" s="43" t="s">
         <v>384</v>
@@ -11299,7 +11343,7 @@
       </c>
       <c r="I63" s="59">
         <f t="shared" ref="I63" si="22">SUMIFS(F62:F76, C62:C76,H63)</f>
-        <v>9.0972222222222232E-2</v>
+        <v>0.12708333333333344</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -11331,7 +11375,7 @@
     <row r="65" spans="1:9">
       <c r="A65" s="64"/>
       <c r="B65" s="43" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C65" s="43" t="s">
         <v>384</v>
@@ -11351,7 +11395,7 @@
       </c>
       <c r="I65" s="59">
         <f t="shared" ref="I65" si="24">SUMIFS(F62:F76, C62:C76,H65)</f>
-        <v>7.9861111111111049E-2</v>
+        <v>6.2499999999999889E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -11377,13 +11421,13 @@
       </c>
       <c r="I66" s="59">
         <f t="shared" ref="I66" si="25">SUMIFS(F62:F76, C62:C76,H66)</f>
-        <v>3.6805555555555647E-2</v>
+        <v>2.1527777777777812E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="64"/>
       <c r="B67" s="43" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C67" s="43" t="s">
         <v>386</v>
@@ -11409,7 +11453,7 @@
     <row r="68" spans="1:9">
       <c r="A68" s="64"/>
       <c r="B68" s="43" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C68" s="43" t="s">
         <v>390</v>
@@ -11429,7 +11473,7 @@
       </c>
       <c r="I68" s="59">
         <f t="shared" ref="I68" si="28">SUMIFS(F62:F76, C62:C76,H68)</f>
-        <v>1.7361111111111049E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -11455,77 +11499,85 @@
       </c>
       <c r="I69" s="57">
         <f t="shared" ref="I69" si="29">SUM(I63:I68)</f>
-        <v>0.38541666666666674</v>
+        <v>0.40625000000000011</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="64"/>
-      <c r="B70" s="43"/>
+      <c r="B70" s="43" t="s">
+        <v>514</v>
+      </c>
       <c r="C70" s="43" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="D70" s="59">
-        <v>0.60277777777777775</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="E70" s="59">
-        <v>0.61805555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F70" s="59">
         <f t="shared" si="26"/>
-        <v>1.5277777777777835E-2</v>
+        <v>2.7777777777777679E-2</v>
       </c>
       <c r="I70" s="61"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="64"/>
-      <c r="B71" s="43"/>
+      <c r="B71" s="43" t="s">
+        <v>385</v>
+      </c>
       <c r="C71" s="43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D71" s="59">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E71" s="59">
-        <v>0.64236111111111105</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="F71" s="59">
         <f t="shared" si="26"/>
-        <v>1.7361111111111049E-2</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="I71" s="61"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="64"/>
-      <c r="B72" s="43"/>
+      <c r="B72" s="43" t="s">
+        <v>515</v>
+      </c>
       <c r="C72" s="43" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D72" s="59">
-        <v>0.64583333333333337</v>
+        <v>0.68611111111111101</v>
       </c>
       <c r="E72" s="59">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F72" s="59">
         <f t="shared" si="26"/>
-        <v>6.25E-2</v>
+        <v>6.3888888888888995E-2</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="64"/>
-      <c r="B73" s="43"/>
+      <c r="B73" s="43" t="s">
+        <v>516</v>
+      </c>
       <c r="C73" s="43" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D73" s="59">
-        <v>0.72222222222222221</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="E73" s="59">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F73" s="59">
         <f t="shared" si="26"/>
-        <v>2.777777777777779E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -11566,7 +11618,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C77" s="43" t="s">
         <v>382</v>
@@ -11617,7 +11669,7 @@
     <row r="79" spans="1:9">
       <c r="A79" s="64"/>
       <c r="B79" s="43" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C79" s="43" t="s">
         <v>382</v>
@@ -11669,7 +11721,7 @@
     <row r="81" spans="1:9">
       <c r="A81" s="64"/>
       <c r="B81" s="43" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C81" s="43" t="s">
         <v>382</v>
@@ -11695,7 +11747,7 @@
     <row r="82" spans="1:9">
       <c r="A82" s="64"/>
       <c r="B82" s="43" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C82" s="43" t="s">
         <v>387</v>
@@ -11721,7 +11773,7 @@
     <row r="83" spans="1:9">
       <c r="A83" s="64"/>
       <c r="B83" s="43" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C83" s="43" t="s">
         <v>382</v>
@@ -11747,7 +11799,7 @@
     <row r="84" spans="1:9">
       <c r="A84" s="64"/>
       <c r="B84" s="43" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C84" s="43" t="s">
         <v>382</v>
@@ -11832,7 +11884,7 @@
     <row r="88" spans="1:9">
       <c r="A88" s="64"/>
       <c r="B88" s="43" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C88" s="43" t="s">
         <v>387</v>
@@ -11851,7 +11903,7 @@
     <row r="89" spans="1:9">
       <c r="A89" s="64"/>
       <c r="B89" s="43" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C89" s="43" t="s">
         <v>382</v>
@@ -11870,7 +11922,7 @@
     <row r="90" spans="1:9">
       <c r="A90" s="64"/>
       <c r="B90" s="43" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C90" s="43" t="s">
         <v>382</v>
@@ -12198,7 +12250,7 @@
         <v>16</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C107" s="43" t="s">
         <v>382</v>
@@ -12223,7 +12275,7 @@
     <row r="108" spans="1:9">
       <c r="A108" s="64"/>
       <c r="B108" s="43" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C108" s="43" t="s">
         <v>384</v>
@@ -12243,228 +12295,250 @@
       </c>
       <c r="I108" s="59">
         <f t="shared" ref="I108" si="44">SUMIFS(F107:F121, C107:C121,H108)</f>
-        <v>0.12291666666666673</v>
+        <v>0.22291666666666665</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="64"/>
-      <c r="B109" s="43"/>
+      <c r="B109" s="43" t="s">
+        <v>528</v>
+      </c>
       <c r="C109" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D109" s="59">
-        <v>0.4375</v>
+        <v>0.43472222222222223</v>
       </c>
       <c r="E109" s="59">
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="F109" s="59">
         <f t="shared" si="26"/>
-        <v>6.9444444444444198E-3</v>
+        <v>6.5277777777777768E-2</v>
       </c>
       <c r="H109" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I109" s="59">
         <f t="shared" ref="I109" si="45">SUMIFS(F107:F121, C107:C121,H109)</f>
-        <v>3.7500000000000033E-2</v>
+        <v>0.10000000000000003</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="64"/>
-      <c r="B110" s="43"/>
+      <c r="B110" s="43" t="s">
+        <v>385</v>
+      </c>
       <c r="C110" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D110" s="59">
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="E110" s="59">
-        <v>0.46666666666666662</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="F110" s="59">
         <f t="shared" si="26"/>
-        <v>2.2222222222222199E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H110" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I110" s="59">
         <f t="shared" ref="I110" si="46">SUMIFS(F107:F121, C107:C121,H110)</f>
-        <v>0.15624999999999994</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="64"/>
-      <c r="B111" s="43"/>
+      <c r="B111" s="43" t="s">
+        <v>529</v>
+      </c>
       <c r="C111" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D111" s="59">
-        <v>0.46666666666666662</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="E111" s="59">
-        <v>0.47222222222222227</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="F111" s="59">
         <f t="shared" si="26"/>
-        <v>5.5555555555556468E-3</v>
+        <v>6.9444444444445308E-3</v>
       </c>
       <c r="H111" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I111" s="59">
         <f t="shared" ref="I111" si="47">SUMIFS(F107:F121, C107:C121,H111)</f>
-        <v>1.5277777777777835E-2</v>
+        <v>2.3611111111111027E-2</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="64"/>
-      <c r="B112" s="43"/>
+      <c r="B112" s="43" t="s">
+        <v>530</v>
+      </c>
       <c r="C112" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D112" s="59">
-        <v>0.47222222222222227</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E112" s="59">
-        <v>0.48958333333333331</v>
+        <v>0.54513888888888895</v>
       </c>
       <c r="F112" s="59">
         <f t="shared" si="26"/>
-        <v>1.7361111111111049E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H112" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I112" s="59">
         <f t="shared" ref="I112" si="48">SUMIFS(F107:F121, C107:C121,H112)</f>
-        <v>2.430555555555558E-2</v>
+        <v>3.7500000000000089E-2</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="64"/>
-      <c r="B113" s="43"/>
+      <c r="B113" s="43" t="s">
+        <v>531</v>
+      </c>
       <c r="C113" s="43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D113" s="59">
-        <v>0.48958333333333331</v>
+        <v>0.54513888888888895</v>
       </c>
       <c r="E113" s="59">
-        <v>0.54166666666666663</v>
+        <v>0.57430555555555551</v>
       </c>
       <c r="F113" s="59">
         <f t="shared" si="26"/>
-        <v>5.2083333333333315E-2</v>
+        <v>2.9166666666666563E-2</v>
       </c>
       <c r="H113" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I113" s="59">
         <f t="shared" ref="I113" si="49">SUMIFS(F107:F121, C107:C121,H113)</f>
-        <v>3.472222222222221E-2</v>
+        <v>4.3055555555555514E-2</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="64"/>
-      <c r="B114" s="43"/>
+      <c r="B114" s="43" t="s">
+        <v>532</v>
+      </c>
       <c r="C114" s="43" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D114" s="59">
-        <v>0.54166666666666663</v>
+        <v>0.57430555555555551</v>
       </c>
       <c r="E114" s="59">
-        <v>0.56944444444444442</v>
+        <v>0.6118055555555556</v>
       </c>
       <c r="F114" s="59">
         <f t="shared" si="26"/>
-        <v>2.777777777777779E-2</v>
+        <v>3.7500000000000089E-2</v>
       </c>
       <c r="H114" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I114" s="57">
         <f t="shared" ref="I114" si="50">SUM(I108:I113)</f>
-        <v>0.39097222222222233</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="64"/>
-      <c r="B115" s="43"/>
+      <c r="B115" s="43" t="s">
+        <v>533</v>
+      </c>
       <c r="C115" s="43" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D115" s="59">
-        <v>0.57291666666666663</v>
+        <v>0.6118055555555556</v>
       </c>
       <c r="E115" s="59">
-        <v>0.59722222222222221</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F115" s="59">
         <f t="shared" si="26"/>
-        <v>2.430555555555558E-2</v>
+        <v>2.3611111111111027E-2</v>
       </c>
       <c r="I115" s="61"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="64"/>
-      <c r="B116" s="43"/>
+      <c r="B116" s="43" t="s">
+        <v>534</v>
+      </c>
       <c r="C116" s="43" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="D116" s="59">
-        <v>0.60277777777777775</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="E116" s="59">
-        <v>0.61805555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F116" s="59">
         <f t="shared" si="26"/>
-        <v>1.5277777777777835E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="I116" s="61"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="64"/>
-      <c r="B117" s="43"/>
+      <c r="B117" s="43" t="s">
+        <v>385</v>
+      </c>
       <c r="C117" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D117" s="59">
-        <v>0.61111111111111105</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E117" s="59">
-        <v>0.64583333333333337</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="F117" s="59">
         <f t="shared" si="26"/>
-        <v>3.4722222222222321E-2</v>
+        <v>6.9444444444445308E-3</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="64"/>
-      <c r="B118" s="43"/>
+      <c r="B118" s="43" t="s">
+        <v>535</v>
+      </c>
       <c r="C118" s="43" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D118" s="59">
-        <v>0.64583333333333337</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="E118" s="59">
         <v>0.70833333333333337</v>
       </c>
       <c r="F118" s="59">
         <f t="shared" si="26"/>
-        <v>6.25E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="64"/>
-      <c r="B119" s="43"/>
+      <c r="B119" s="43" t="s">
+        <v>536</v>
+      </c>
       <c r="C119" s="43" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D119" s="59">
         <v>0.70833333333333337</v>
@@ -12479,13 +12553,21 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="64"/>
-      <c r="B120" s="43"/>
-      <c r="C120" s="43"/>
-      <c r="D120" s="59"/>
-      <c r="E120" s="59"/>
+      <c r="B120" s="43" t="s">
+        <v>537</v>
+      </c>
+      <c r="C120" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D120" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E120" s="59">
+        <v>0.9375</v>
+      </c>
       <c r="F120" s="59">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -13401,17 +13483,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -13772,8 +13854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9316CD-C86D-408F-BDDD-0E4083B59C71}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13819,7 +13901,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>382</v>
@@ -14443,7 +14525,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="C32" s="43" t="s">
         <v>382</v>
@@ -17136,17 +17218,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A77:A91"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A62:A76"/>
     <mergeCell ref="A92:A106"/>
     <mergeCell ref="A107:A121"/>
     <mergeCell ref="A122:A136"/>
     <mergeCell ref="A137:A151"/>
     <mergeCell ref="A152:A166"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A31"/>
-    <mergeCell ref="A32:A46"/>
-    <mergeCell ref="A47:A61"/>
-    <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A77:A91"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B94FD56F-ACEE-427D-9EDA-9CA9FD1B6F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{022786CE-CB7E-4B88-8DBA-35096F57FF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="23" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="22" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3549" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3549" uniqueCount="810">
   <si>
     <t>Resource Name</t>
   </si>
@@ -2849,7 +2849,7 @@
     <t>Worked on queryside angular</t>
   </si>
   <si>
-    <t xml:space="preserve">Worked on Raisequery </t>
+    <t>Worked on Raisequery and view query</t>
   </si>
   <si>
     <t>Started working on the login page component</t>
@@ -3006,6 +3006,12 @@
   </si>
   <si>
     <t>Working on the spesific query</t>
+  </si>
+  <si>
+    <t>BrainStroming</t>
+  </si>
+  <si>
+    <t>Worked on Sample Integration</t>
   </si>
 </sst>
 </file>
@@ -7567,7 +7573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C9DD7D-30C6-4A9E-B772-3BC050FE4627}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
@@ -11202,17 +11208,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
@@ -14926,17 +14932,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="77" priority="12" operator="greaterThan">
@@ -15297,8 +15303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9316CD-C86D-408F-BDDD-0E4083B59C71}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="I138" sqref="I138"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18942,17 +18948,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="64" priority="12" operator="greaterThan">
@@ -19018,8 +19024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5026E2-220E-495D-A9CA-AEC9ACA625B9}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="K114" sqref="K114"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22047,17 +22053,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="12" operator="greaterThan">
@@ -22123,8 +22129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA84684F-4850-4B18-9709-3998E0BD28E1}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25256,17 +25262,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
@@ -25332,8 +25338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37A00BB-952F-446B-A35E-D9F84AF65BAA}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:F45"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27378,7 +27384,7 @@
       </c>
       <c r="I108" s="59">
         <f>SUMIFS(F107:F121, C107:C121,H108)</f>
-        <v>7.9861111111111216E-2</v>
+        <v>0.22569444444444448</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -27430,7 +27436,7 @@
       </c>
       <c r="I110" s="59">
         <f>SUMIFS(F107:F121, C107:C121,H110)</f>
-        <v>0.19444444444444448</v>
+        <v>9.0277777777777846E-2</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -27456,7 +27462,7 @@
       </c>
       <c r="I111" s="59">
         <f>SUMIFS(F107:F121, C107:C121,H111)</f>
-        <v>1.5277777777777835E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -27534,7 +27540,7 @@
       </c>
       <c r="I114" s="57">
         <f>SUM(I108:I113)</f>
-        <v>0.36250000000000016</v>
+        <v>0.38888888888888895</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -27549,82 +27555,46 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="E115" s="59">
-        <v>0.59722222222222221</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F115" s="59">
         <f>E115-D115</f>
-        <v>-0.11805555555555558</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I115" s="61"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="65"/>
       <c r="B116" s="43"/>
-      <c r="C116" s="43" t="s">
-        <v>379</v>
-      </c>
-      <c r="D116" s="59">
-        <v>0.60277777777777775</v>
-      </c>
-      <c r="E116" s="59">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="F116" s="59">
-        <f>E116-D116</f>
-        <v>1.5277777777777835E-2</v>
-      </c>
+      <c r="C116" s="43"/>
+      <c r="D116" s="59"/>
+      <c r="E116" s="59"/>
+      <c r="F116" s="59"/>
       <c r="I116" s="61"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="65"/>
       <c r="B117" s="43"/>
-      <c r="C117" s="43" t="s">
-        <v>382</v>
-      </c>
-      <c r="D117" s="59">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="E117" s="59">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F117" s="59">
-        <f>E117-D117</f>
-        <v>3.4722222222222321E-2</v>
-      </c>
+      <c r="C117" s="43"/>
+      <c r="D117" s="59"/>
+      <c r="E117" s="59"/>
+      <c r="F117" s="59"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="65"/>
       <c r="B118" s="43"/>
-      <c r="C118" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="D118" s="59">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E118" s="59">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F118" s="59">
-        <f>E118-D118</f>
-        <v>6.25E-2</v>
-      </c>
+      <c r="C118" s="43"/>
+      <c r="D118" s="59"/>
+      <c r="E118" s="59"/>
+      <c r="F118" s="59"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="65"/>
       <c r="B119" s="43"/>
-      <c r="C119" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="D119" s="59">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E119" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="F119" s="59">
-        <f>E119-D119</f>
-        <v>4.166666666666663E-2</v>
-      </c>
+      <c r="C119" s="43"/>
+      <c r="D119" s="59"/>
+      <c r="E119" s="59"/>
+      <c r="F119" s="59"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="65"/>
@@ -28026,7 +27996,7 @@
       </c>
       <c r="I138" s="59">
         <f>SUMIFS(F137:F151, C137:C151,H138)</f>
-        <v>0.23611111111111105</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -28182,7 +28152,7 @@
       </c>
       <c r="I144" s="57">
         <f>SUM(I138:I143)</f>
-        <v>0.3923611111111111</v>
+        <v>0.40972222222222227</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -28252,11 +28222,15 @@
       <c r="C148" s="43" t="s">
         <v>382</v>
       </c>
-      <c r="D148" s="59"/>
-      <c r="E148" s="59"/>
+      <c r="D148" s="59">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="E148" s="59">
+        <v>0.77777777777777779</v>
+      </c>
       <c r="F148" s="59">
         <f>E148-D148</f>
-        <v>0</v>
+        <v>1.736111111111116E-2</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -28590,17 +28564,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -28666,8 +28640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3868AB83-A499-4590-B3A8-94C5552BFC32}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31432,19 +31406,21 @@
       <c r="A137" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B137" s="43"/>
+      <c r="B137" s="43" t="s">
+        <v>808</v>
+      </c>
       <c r="C137" s="43" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D137" s="59">
-        <v>0.375</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E137" s="59">
-        <v>0.38541666666666669</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="F137" s="59">
         <f>E137-D137</f>
-        <v>1.0416666666666685E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H137" s="57" t="s">
         <v>380</v>
@@ -31455,43 +31431,47 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="65"/>
-      <c r="B138" s="43"/>
+      <c r="B138" s="43" t="s">
+        <v>809</v>
+      </c>
       <c r="C138" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D138" s="59">
-        <v>0.38541666666666669</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="E138" s="59">
-        <v>0.44444444444444442</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="F138" s="59">
         <f>E138-D138</f>
-        <v>5.9027777777777735E-2</v>
+        <v>3.819444444444442E-2</v>
       </c>
       <c r="H138" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I138" s="59">
         <f>SUMIFS(F137:F151, C137:C151,H138)</f>
-        <v>8.5416666666666752E-2</v>
+        <v>9.7222222222222265E-2</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="65"/>
-      <c r="B139" s="43"/>
+      <c r="B139" s="43" t="s">
+        <v>782</v>
+      </c>
       <c r="C139" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D139" s="59">
-        <v>0.4513888888888889</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="E139" s="59">
-        <v>0.46527777777777773</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="F139" s="59">
         <f>E139-D139</f>
-        <v>1.388888888888884E-2</v>
+        <v>2.7777777777777846E-2</v>
       </c>
       <c r="H139" s="60" t="s">
         <v>384</v>
@@ -31503,19 +31483,21 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="65"/>
-      <c r="B140" s="43"/>
+      <c r="B140" s="43" t="s">
+        <v>385</v>
+      </c>
       <c r="C140" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D140" s="59">
-        <v>0.46666666666666662</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="E140" s="59">
-        <v>0.47222222222222227</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F140" s="59">
         <f>E140-D140</f>
-        <v>5.5555555555556468E-3</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H140" s="60" t="s">
         <v>387</v>
@@ -31546,7 +31528,7 @@
       </c>
       <c r="I141" s="59">
         <f>SUMIFS(F137:F151, C137:C151,H141)</f>
-        <v>2.9166666666666619E-2</v>
+        <v>1.8749999999999933E-2</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -31618,7 +31600,7 @@
       </c>
       <c r="I144" s="57">
         <f>SUM(I138:I143)</f>
-        <v>0.2847222222222221</v>
+        <v>0.28611111111111093</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -32016,17 +31998,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{022786CE-CB7E-4B88-8DBA-35096F57FF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5210" documentId="11_1247F60BE6C2AA1B97E2F28F91B8B58A572C5BD9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DCA5CD2-CCE1-4FAF-B5FA-1FCAE5A8FCD5}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="22" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1381AAE-5319-4AAD-819C-61610579F1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2ECE4FC-1F14-4737-9C7B-62B7D939BB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="23" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19063,8 +19063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5026E2-220E-495D-A9CA-AEC9ACA625B9}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22144,8 +22144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA84684F-4850-4B18-9709-3998E0BD28E1}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25330,8 +25330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37A00BB-952F-446B-A35E-D9F84AF65BAA}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28620,8 +28620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3868AB83-A499-4590-B3A8-94C5552BFC32}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45:S45"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FBBF730-343F-4A09-B4EA-04BAF8F1D774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C0E5AB8-BEA5-4815-A3FF-40418C87CF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="23" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="24" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="854">
   <si>
     <t>Resource Name</t>
   </si>
@@ -3090,10 +3090,61 @@
     <t>Worked on the datatable component</t>
   </si>
   <si>
+    <t xml:space="preserve">expolred on table(angular)&amp;how to pass data through(typescript) </t>
+  </si>
+  <si>
+    <t>worked on table component</t>
+  </si>
+  <si>
+    <t>Worked on navigation bar(Both Admin and Reviewer side)</t>
+  </si>
+  <si>
+    <t>Project Review(College)</t>
+  </si>
+  <si>
+    <t>Explored Angular material component (Table,Toolbar)</t>
+  </si>
+  <si>
+    <t>Worked on Toolbar(Admin side)</t>
+  </si>
+  <si>
+    <t>Worked on Maticons nad sidenav.</t>
+  </si>
+  <si>
+    <t>Team meeting.</t>
+  </si>
+  <si>
+    <t>Worked on Reviewerside navigation</t>
+  </si>
+  <si>
+    <t>Worked on table component.</t>
+  </si>
+  <si>
+    <t>Worked on sidenav in Adminside.</t>
+  </si>
+  <si>
     <t>Brain Stroming and TimeSheet filling</t>
   </si>
   <si>
     <t>Refined the Piechart Component</t>
+  </si>
+  <si>
+    <t>Worked on NavBar and admin Page</t>
+  </si>
+  <si>
+    <t>College Review</t>
+  </si>
+  <si>
+    <t>Worked on Components Merged</t>
+  </si>
+  <si>
+    <t>Created the profile Page</t>
+  </si>
+  <si>
+    <t>working on Dashboard (side Nav)</t>
+  </si>
+  <si>
+    <t>working on Dashboard (Top Nav)</t>
   </si>
 </sst>
 </file>
@@ -11420,17 +11471,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="103" priority="12" operator="greaterThan">
@@ -15144,17 +15195,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
@@ -19160,17 +19211,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="77" priority="12" operator="greaterThan">
@@ -22241,17 +22292,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="64" priority="12" operator="greaterThan">
@@ -25427,17 +25478,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="12" operator="greaterThan">
@@ -28717,17 +28768,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
@@ -28793,7 +28844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3868AB83-A499-4590-B3A8-94C5552BFC32}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="R45" sqref="R45:S45"/>
     </sheetView>
   </sheetViews>
@@ -32185,17 +32236,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -32261,8 +32312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF4DB1F-9A56-49A9-9060-524143544D1B}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32653,7 +32704,9 @@
       <c r="A17" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="43" t="s">
+        <v>835</v>
+      </c>
       <c r="C17" s="43" t="s">
         <v>387</v>
       </c>
@@ -32661,11 +32714,11 @@
         <v>0.375</v>
       </c>
       <c r="E17" s="59">
-        <v>0.4375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F17" s="59">
         <f>E17-D17</f>
-        <v>6.25E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H17" s="57" t="s">
         <v>380</v>
@@ -32676,43 +32729,47 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="65"/>
-      <c r="B18" s="43"/>
+      <c r="B18" s="43" t="s">
+        <v>836</v>
+      </c>
       <c r="C18" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D18" s="59">
-        <v>0.4375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E18" s="59">
-        <v>0.44791666666666669</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="F18" s="59">
         <f>E18-D18</f>
-        <v>1.0416666666666685E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="H18" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I18" s="59">
         <f>SUMIFS(F17:F31, C17:C31,H18)</f>
-        <v>0.17708333333333326</v>
+        <v>0.18055555555555547</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="65"/>
-      <c r="B19" s="43"/>
+      <c r="B19" s="43" t="s">
+        <v>502</v>
+      </c>
       <c r="C19" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D19" s="59">
-        <v>0.44791666666666669</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="E19" s="59">
-        <v>0.47916666666666669</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="F19" s="59">
         <f>E19-D19</f>
-        <v>3.125E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H19" s="60" t="s">
         <v>384</v>
@@ -32743,7 +32800,7 @@
       </c>
       <c r="I20" s="59">
         <f>SUMIFS(F17:F31, C17:C31,H20)</f>
-        <v>0.13194444444444436</v>
+        <v>0.11111111111111105</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -32839,7 +32896,7 @@
       </c>
       <c r="I24" s="57">
         <f>SUM(I18:I23)</f>
-        <v>0.36805555555555547</v>
+        <v>0.35069444444444436</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -33223,7 +33280,9 @@
       <c r="A47" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="43"/>
+      <c r="B47" s="43" t="s">
+        <v>837</v>
+      </c>
       <c r="C47" s="43" t="s">
         <v>382</v>
       </c>
@@ -33231,11 +33290,11 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="E47" s="59">
-        <v>0.47916666666666669</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="F47" s="59">
         <f>E47-D47</f>
-        <v>0.11458333333333337</v>
+        <v>4.5138888888888951E-2</v>
       </c>
       <c r="H47" s="57" t="s">
         <v>380</v>
@@ -33246,222 +33305,282 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="65"/>
-      <c r="B48" s="43"/>
+      <c r="B48" s="43" t="s">
+        <v>838</v>
+      </c>
       <c r="C48" s="43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D48" s="59">
-        <v>0.47916666666666669</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="E48" s="59">
-        <v>0.49305555555555558</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="F48" s="59">
         <f>E48-D48</f>
-        <v>1.3888888888888895E-2</v>
+        <v>5.5555555555555469E-2</v>
       </c>
       <c r="H48" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I48" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.29513888888888873</v>
+        <v>0.30208333333333359</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="65"/>
-      <c r="B49" s="43"/>
+      <c r="B49" s="43" t="s">
+        <v>385</v>
+      </c>
       <c r="C49" s="43" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D49" s="59">
-        <v>0.49305555555555558</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="E49" s="59">
-        <v>0.52083333333333337</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="F49" s="59">
         <f>E49-D49</f>
-        <v>2.777777777777779E-2</v>
+        <v>6.9444444444445308E-3</v>
       </c>
       <c r="H49" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I49" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H49)</f>
-        <v>0</v>
+        <v>5.5555555555555469E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="65"/>
-      <c r="B50" s="43"/>
+      <c r="B50" s="43" t="s">
+        <v>839</v>
+      </c>
       <c r="C50" s="43" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D50" s="59">
-        <v>0.52083333333333337</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="E50" s="59">
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="F50" s="59">
         <f>E50-D50</f>
-        <v>2.0833333333333259E-2</v>
+        <v>2.7777777777777735E-2</v>
       </c>
       <c r="H50" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I50" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H50)</f>
-        <v>2.777777777777779E-2</v>
+        <v>2.7777777777777735E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="65"/>
-      <c r="B51" s="43"/>
+      <c r="B51" s="43" t="s">
+        <v>840</v>
+      </c>
       <c r="C51" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D51" s="59">
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="E51" s="59">
-        <v>0.58333333333333337</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="F51" s="59">
         <f>E51-D51</f>
-        <v>4.1666666666666741E-2</v>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="H51" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I51" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H51)</f>
-        <v>0</v>
+        <v>2.4305555555555691E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="65"/>
-      <c r="B52" s="43"/>
+      <c r="B52" s="43" t="s">
+        <v>393</v>
+      </c>
       <c r="C52" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D52" s="59">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E52" s="59">
         <v>0.58333333333333337</v>
-      </c>
-      <c r="E52" s="59">
-        <v>0.68055555555555547</v>
       </c>
       <c r="F52" s="59">
         <f>E52-D52</f>
-        <v>9.7222222222222099E-2</v>
+        <v>3.4722222222222321E-2</v>
       </c>
       <c r="H52" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I52" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H52)</f>
-        <v>0</v>
+        <v>6.1111111111111005E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="65"/>
-      <c r="B53" s="43"/>
+      <c r="B53" s="43" t="s">
+        <v>841</v>
+      </c>
       <c r="C53" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D53" s="59">
-        <v>0.68055555555555547</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E53" s="59">
-        <v>0.69444444444444453</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F53" s="59">
         <f>E53-D53</f>
-        <v>1.3888888888889062E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H53" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I53" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H53)</f>
-        <v>6.9444444444444697E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="65"/>
-      <c r="B54" s="43"/>
+      <c r="B54" s="43" t="s">
+        <v>416</v>
+      </c>
       <c r="C54" s="43" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D54" s="59">
-        <v>0.69444444444444453</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E54" s="59">
-        <v>0.73611111111111116</v>
+        <v>0.70694444444444438</v>
       </c>
       <c r="F54" s="59">
         <f>E54-D54</f>
-        <v>4.166666666666663E-2</v>
+        <v>6.1111111111111005E-2</v>
       </c>
       <c r="H54" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I54" s="57">
         <f>SUM(I48:I53)</f>
-        <v>0.39236111111111122</v>
+        <v>0.51250000000000018</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="65"/>
-      <c r="B55" s="43"/>
+      <c r="B55" s="43" t="s">
+        <v>842</v>
+      </c>
       <c r="C55" s="43" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D55" s="59">
-        <v>0.73611111111111116</v>
+        <v>0.71180555555555547</v>
       </c>
       <c r="E55" s="59">
-        <v>0.75694444444444453</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="F55" s="59">
         <f>E55-D55</f>
-        <v>2.083333333333337E-2</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="I55" s="61"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="65"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
+      <c r="B56" s="43" t="s">
+        <v>843</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D56" s="59">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E56" s="59">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="F56" s="59">
+        <f>E56-D56</f>
+        <v>3.472222222222221E-2</v>
+      </c>
       <c r="I56" s="61"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="65"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
+      <c r="B57" s="43" t="s">
+        <v>844</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D57" s="59">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="E57" s="59">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="F57" s="59">
+        <f>E57-D57</f>
+        <v>5.5555555555555691E-2</v>
+      </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="65"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
+      <c r="B58" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D58" s="59">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="E58" s="59">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="F58" s="59">
+        <f>E58-D58</f>
+        <v>6.9444444444443088E-3</v>
+      </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="65"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
+      <c r="B59" s="43" t="s">
+        <v>845</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D59" s="59">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="E59" s="59">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F59" s="59">
+        <f>E59-D59</f>
+        <v>5.5555555555555691E-2</v>
+      </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="65"/>
@@ -33469,7 +33588,10 @@
       <c r="C60" s="43"/>
       <c r="D60" s="59"/>
       <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
+      <c r="F60" s="59">
+        <f>E60-D60</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="65"/>
@@ -33765,7 +33887,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>835</v>
+        <v>846</v>
       </c>
       <c r="C77" s="43" t="s">
         <v>382</v>
@@ -33790,7 +33912,7 @@
     <row r="78" spans="1:9">
       <c r="A78" s="65"/>
       <c r="B78" s="43" t="s">
-        <v>836</v>
+        <v>847</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>382</v>
@@ -33810,7 +33932,7 @@
       </c>
       <c r="I78" s="59">
         <f>SUMIFS(F77:F91, C77:C91,H78)</f>
-        <v>0.28819444444444448</v>
+        <v>0.25694444444444442</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -33836,7 +33958,7 @@
       </c>
       <c r="I79" s="59">
         <f>SUMIFS(F77:F91, C77:C91,H79)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>7.6388888888888951E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -33862,173 +33984,189 @@
       </c>
       <c r="I80" s="59">
         <f>SUMIFS(F77:F91, C77:C91,H80)</f>
-        <v>2.0833333333333259E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="65"/>
-      <c r="B81" s="43"/>
+      <c r="B81" s="43" t="s">
+        <v>848</v>
+      </c>
       <c r="C81" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D81" s="59">
-        <v>0.4513888888888889</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E81" s="59">
-        <v>0.46527777777777773</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="F81" s="59">
         <f>E81-D81</f>
-        <v>1.388888888888884E-2</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="H81" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I81" s="59">
         <f>SUMIFS(F77:F91, C77:C91,H81)</f>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="65"/>
-      <c r="B82" s="43"/>
+      <c r="B82" s="43" t="s">
+        <v>393</v>
+      </c>
       <c r="C82" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D82" s="59">
-        <v>0.46527777777777773</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="E82" s="59">
-        <v>0.47916666666666669</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F82" s="59">
         <f>E82-D82</f>
-        <v>1.3888888888888951E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H82" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I82" s="59">
         <f>SUMIFS(F77:F91, C77:C91,H82)</f>
-        <v>0</v>
+        <v>5.4166666666666585E-2</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="65"/>
-      <c r="B83" s="43"/>
+      <c r="B83" s="43" t="s">
+        <v>849</v>
+      </c>
       <c r="C83" s="43" t="s">
         <v>384</v>
       </c>
       <c r="D83" s="59">
-        <v>0.47916666666666669</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="E83" s="59">
-        <v>0.52083333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F83" s="59">
         <f>E83-D83</f>
-        <v>4.1666666666666685E-2</v>
+        <v>7.6388888888888951E-2</v>
       </c>
       <c r="H83" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I83" s="59">
         <f>SUMIFS(F77:F91, C77:C91,H83)</f>
-        <v>5.5555555555555525E-2</v>
+        <v>3.1250000000000056E-2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="65"/>
-      <c r="B84" s="43"/>
+      <c r="B84" s="43" t="s">
+        <v>416</v>
+      </c>
       <c r="C84" s="43" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D84" s="59">
-        <v>0.52083333333333337</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="E84" s="59">
-        <v>0.54166666666666663</v>
+        <v>0.70694444444444438</v>
       </c>
       <c r="F84" s="59">
         <f>E84-D84</f>
-        <v>2.0833333333333259E-2</v>
+        <v>5.4166666666666585E-2</v>
       </c>
       <c r="H84" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I84" s="57">
         <f>SUM(I78:I83)</f>
-        <v>0.40624999999999994</v>
+        <v>0.43263888888888885</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="65"/>
-      <c r="B85" s="43"/>
+      <c r="B85" s="43" t="s">
+        <v>831</v>
+      </c>
       <c r="C85" s="43" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D85" s="59">
-        <v>0.54166666666666663</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="E85" s="59">
-        <v>0.57291666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="F85" s="59">
         <f>E85-D85</f>
-        <v>3.125E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="I85" s="61"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="65"/>
-      <c r="B86" s="43"/>
+      <c r="B86" s="43" t="s">
+        <v>832</v>
+      </c>
       <c r="C86" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D86" s="59">
-        <v>0.58333333333333337</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="E86" s="59">
-        <v>0.6875</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="F86" s="59">
         <f>E86-D86</f>
-        <v>0.10416666666666663</v>
+        <v>4.513888888888884E-2</v>
       </c>
       <c r="I86" s="61"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="65"/>
-      <c r="B87" s="43"/>
+      <c r="B87" s="43" t="s">
+        <v>850</v>
+      </c>
       <c r="C87" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D87" s="59">
-        <v>0.70833333333333337</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="E87" s="59">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="F87" s="59">
         <f>E87-D87</f>
-        <v>4.166666666666663E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="65"/>
-      <c r="B88" s="43"/>
+      <c r="B88" s="43" t="s">
+        <v>851</v>
+      </c>
       <c r="C88" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D88" s="59">
-        <v>0.83333333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="E88" s="59">
-        <v>0.89583333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="F88" s="59">
         <f>E88-D88</f>
-        <v>6.25E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -34068,7 +34206,9 @@
       <c r="A92" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B92" s="43"/>
+      <c r="B92" s="43" t="s">
+        <v>846</v>
+      </c>
       <c r="C92" s="43" t="s">
         <v>382</v>
       </c>
@@ -34091,43 +34231,47 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="65"/>
-      <c r="B93" s="43"/>
+      <c r="B93" s="43" t="s">
+        <v>852</v>
+      </c>
       <c r="C93" s="43" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D93" s="59">
-        <v>0.4375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E93" s="59">
-        <v>0.47916666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F93" s="59">
         <f>E93-D93</f>
-        <v>4.1666666666666685E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H93" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I93" s="59">
         <f>SUMIFS(F92:F106, C92:C106,H93)</f>
-        <v>0.26041666666666669</v>
+        <v>0.29166666666666674</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="65"/>
-      <c r="B94" s="43"/>
+      <c r="B94" s="43" t="s">
+        <v>502</v>
+      </c>
       <c r="C94" s="43" t="s">
         <v>386</v>
       </c>
       <c r="D94" s="59">
-        <v>0.4861111111111111</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E94" s="59">
-        <v>0.49652777777777773</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="F94" s="59">
         <f>E94-D94</f>
-        <v>1.041666666666663E-2</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="H94" s="60" t="s">
         <v>384</v>
@@ -34139,139 +34283,171 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="65"/>
-      <c r="B95" s="43"/>
+      <c r="B95" s="43" t="s">
+        <v>852</v>
+      </c>
       <c r="C95" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D95" s="59">
-        <v>0.5</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E95" s="59">
-        <v>0.57291666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F95" s="59">
         <f>E95-D95</f>
-        <v>7.291666666666663E-2</v>
+        <v>6.2499999999999944E-2</v>
       </c>
       <c r="H95" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I95" s="59">
         <f>SUMIFS(F92:F106, C92:C106,H95)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="65"/>
-      <c r="B96" s="43"/>
+      <c r="B96" s="43" t="s">
+        <v>393</v>
+      </c>
       <c r="C96" s="43" t="s">
         <v>386</v>
       </c>
       <c r="D96" s="59">
-        <v>0.57291666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E96" s="59">
-        <v>0.59722222222222221</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="F96" s="59">
         <f>E96-D96</f>
-        <v>2.430555555555558E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H96" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I96" s="59">
         <f>SUMIFS(F92:F106, C92:C106,H96)</f>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="65"/>
-      <c r="B97" s="43"/>
+      <c r="B97" s="43" t="s">
+        <v>853</v>
+      </c>
       <c r="C97" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D97" s="59">
-        <v>0.60416666666666663</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="E97" s="59">
-        <v>0.6875</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F97" s="59">
         <f>E97-D97</f>
-        <v>8.333333333333337E-2</v>
+        <v>7.6388888888888951E-2</v>
       </c>
       <c r="H97" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I97" s="59">
         <f>SUMIFS(F92:F106, C92:C106,H97)</f>
-        <v>0</v>
+        <v>6.1111111111111005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="65"/>
-      <c r="B98" s="43"/>
+      <c r="B98" s="43" t="s">
+        <v>416</v>
+      </c>
       <c r="C98" s="43" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D98" s="59">
-        <v>0.6875</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E98" s="59">
-        <v>0.77083333333333337</v>
+        <v>0.70694444444444438</v>
       </c>
       <c r="F98" s="59">
         <f>E98-D98</f>
-        <v>8.333333333333337E-2</v>
+        <v>6.1111111111111005E-2</v>
       </c>
       <c r="H98" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I98" s="59">
         <f>SUMIFS(F92:F106, C92:C106,H98)</f>
-        <v>3.472222222222221E-2</v>
+        <v>5.2083333333333481E-2</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="65"/>
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="59"/>
+      <c r="B99" s="43" t="s">
+        <v>831</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D99" s="59">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E99" s="59">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="F99" s="59">
         <f>E99-D99</f>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H99" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I99" s="57">
         <f>SUM(I93:I98)</f>
-        <v>0.33680555555555558</v>
+        <v>0.41875000000000007</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="65"/>
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="59"/>
-      <c r="E100" s="59"/>
+      <c r="B100" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D100" s="59">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E100" s="59">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F100" s="59">
         <f>E100-D100</f>
-        <v>0</v>
+        <v>1.0416666666666741E-2</v>
       </c>
       <c r="I100" s="61"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="65"/>
-      <c r="B101" s="43"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="59"/>
-      <c r="E101" s="59"/>
+      <c r="B101" s="43" t="s">
+        <v>853</v>
+      </c>
+      <c r="C101" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D101" s="59">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="E101" s="59">
+        <v>0.8125</v>
+      </c>
       <c r="F101" s="59">
         <f>E101-D101</f>
-        <v>0</v>
+        <v>6.9444444444444531E-2</v>
       </c>
       <c r="I101" s="61"/>
     </row>
@@ -35506,17 +35682,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A77:A91"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A62:A76"/>
     <mergeCell ref="A92:A106"/>
     <mergeCell ref="A107:A121"/>
     <mergeCell ref="A122:A136"/>
     <mergeCell ref="A137:A151"/>
     <mergeCell ref="A152:A166"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A31"/>
-    <mergeCell ref="A32:A46"/>
-    <mergeCell ref="A47:A61"/>
-    <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A77:A91"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C0E5AB8-BEA5-4815-A3FF-40418C87CF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C10DA620-8085-42CC-80D6-1B25FDDC68C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="24" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="874">
   <si>
     <t>Resource Name</t>
   </si>
@@ -3096,6 +3096,30 @@
     <t>worked on table component</t>
   </si>
   <si>
+    <t>testing the query api service(swagger)</t>
+  </si>
+  <si>
+    <t>Meeting with rafi</t>
+  </si>
+  <si>
+    <t>created home page component</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exploring about API Integration</t>
+  </si>
+  <si>
+    <t>Worked with API Integration for Query Page</t>
+  </si>
+  <si>
+    <t>Explored and worked with  Passing data from one component to another via selector tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refined Web API </t>
+  </si>
+  <si>
+    <t>Worked on Article component and Displaying base64 image</t>
+  </si>
+  <si>
     <t>Worked on navigation bar(Both Admin and Reviewer side)</t>
   </si>
   <si>
@@ -3123,6 +3147,18 @@
     <t>Worked on sidenav in Adminside.</t>
   </si>
   <si>
+    <t>Worked on Articles for Web APi</t>
+  </si>
+  <si>
+    <t>Explored on Integration for angular and api</t>
+  </si>
+  <si>
+    <t>Worked on Integration</t>
+  </si>
+  <si>
+    <t>Worked on api</t>
+  </si>
+  <si>
     <t>Brain Stroming and TimeSheet filling</t>
   </si>
   <si>
@@ -3144,7 +3180,31 @@
     <t>working on Dashboard (side Nav)</t>
   </si>
   <si>
+    <t>working on Dashboard (side Nav) in angular</t>
+  </si>
+  <si>
     <t>working on Dashboard (Top Nav)</t>
+  </si>
+  <si>
+    <t>working on Dashboard (Top Nav) in angular</t>
+  </si>
+  <si>
+    <t>Worked on view query in angular</t>
+  </si>
+  <si>
+    <t>Worked on raisequery in angular</t>
+  </si>
+  <si>
+    <t>Refining the specific article page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Explored how to form binding</t>
+  </si>
+  <si>
+    <t>Exploration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on the login and register page </t>
   </si>
 </sst>
 </file>
@@ -11471,17 +11531,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="103" priority="12" operator="greaterThan">
@@ -15195,17 +15255,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
@@ -19211,17 +19271,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="77" priority="12" operator="greaterThan">
@@ -22292,17 +22352,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="64" priority="12" operator="greaterThan">
@@ -25478,17 +25538,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="12" operator="greaterThan">
@@ -28768,17 +28828,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
@@ -32236,17 +32296,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -32312,8 +32372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF4DB1F-9A56-49A9-9060-524143544D1B}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32750,7 +32810,7 @@
       </c>
       <c r="I18" s="59">
         <f>SUMIFS(F17:F31, C17:C31,H18)</f>
-        <v>0.18055555555555547</v>
+        <v>0.15972222222222238</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -32781,74 +32841,80 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="65"/>
-      <c r="B20" s="43"/>
+      <c r="B20" s="43" t="s">
+        <v>836</v>
+      </c>
       <c r="C20" s="43" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D20" s="59">
-        <v>0.47916666666666669</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="E20" s="59">
-        <v>0.52083333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="F20" s="59">
         <f>E20-D20</f>
-        <v>4.1666666666666685E-2</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="H20" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I20" s="59">
         <f>SUMIFS(F17:F31, C17:C31,H20)</f>
-        <v>0.11111111111111105</v>
+        <v>7.6388888888888895E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="65"/>
-      <c r="B21" s="43"/>
+      <c r="B21" s="43" t="s">
+        <v>837</v>
+      </c>
       <c r="C21" s="43" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D21" s="59">
-        <v>0.52083333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="59">
-        <v>0.54861111111111105</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="F21" s="59">
         <f>E21-D21</f>
-        <v>2.7777777777777679E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="H21" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I21" s="59">
         <f>SUMIFS(F17:F31, C17:C31,H21)</f>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="65"/>
-      <c r="B22" s="43"/>
+      <c r="B22" s="43" t="s">
+        <v>393</v>
+      </c>
       <c r="C22" s="43" t="s">
         <v>386</v>
       </c>
       <c r="D22" s="59">
-        <v>0.54861111111111105</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E22" s="59">
         <v>0.58333333333333337</v>
       </c>
       <c r="F22" s="59">
         <f>E22-D22</f>
-        <v>3.4722222222222321E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="H22" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I22" s="59">
         <f>SUMIFS(F17:F31, C17:C31,H22)</f>
-        <v>0</v>
+        <v>6.1111111111111005E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -32872,66 +32938,72 @@
       </c>
       <c r="I23" s="59">
         <f>SUMIFS(F17:F31, C17:C31,H23)</f>
-        <v>5.9027777777777846E-2</v>
+        <v>5.2083333333333426E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="65"/>
-      <c r="B24" s="43"/>
+      <c r="B24" s="43" t="s">
+        <v>838</v>
+      </c>
       <c r="C24" s="43" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D24" s="59">
         <v>0.64583333333333337</v>
       </c>
       <c r="E24" s="59">
-        <v>0.65972222222222221</v>
+        <v>0.70694444444444438</v>
       </c>
       <c r="F24" s="59">
         <f>E24-D24</f>
-        <v>1.388888888888884E-2</v>
+        <v>6.1111111111111005E-2</v>
       </c>
       <c r="H24" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I24" s="57">
         <f>SUM(I18:I23)</f>
-        <v>0.35069444444444436</v>
+        <v>0.36319444444444454</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="65"/>
-      <c r="B25" s="43"/>
+      <c r="B25" s="43" t="s">
+        <v>831</v>
+      </c>
       <c r="C25" s="43" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D25" s="59">
-        <v>0.65972222222222221</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="E25" s="59">
-        <v>0.71527777777777779</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="F25" s="59">
         <f>E25-D25</f>
-        <v>5.555555555555558E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="I25" s="61"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="65"/>
-      <c r="B26" s="43"/>
+      <c r="B26" s="43" t="s">
+        <v>839</v>
+      </c>
       <c r="C26" s="43" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D26" s="59">
-        <v>0.71527777777777779</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E26" s="59">
-        <v>0.74305555555555547</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="F26" s="59">
         <f>E26-D26</f>
-        <v>2.7777777777777679E-2</v>
+        <v>2.7777777777777901E-2</v>
       </c>
       <c r="I26" s="61"/>
     </row>
@@ -32994,19 +33066,21 @@
       <c r="A32" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="43"/>
+      <c r="B32" s="43" t="s">
+        <v>840</v>
+      </c>
       <c r="C32" s="43" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D32" s="59">
         <v>0.37152777777777773</v>
       </c>
       <c r="E32" s="59">
-        <v>0.44444444444444442</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="F32" s="59">
         <f>E32-D32</f>
-        <v>7.2916666666666685E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H32" s="57" t="s">
         <v>380</v>
@@ -33017,43 +33091,47 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="65"/>
-      <c r="B33" s="43"/>
+      <c r="B33" s="43" t="s">
+        <v>841</v>
+      </c>
       <c r="C33" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D33" s="59">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="E33" s="59">
         <v>0.44444444444444442</v>
-      </c>
-      <c r="E33" s="59">
-        <v>0.45833333333333331</v>
       </c>
       <c r="F33" s="59">
         <f>E33-D33</f>
-        <v>1.3888888888888895E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H33" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I33" s="59">
         <f>SUMIFS(F32:F46, C32:C46,H33)</f>
-        <v>0.30972222222222229</v>
+        <v>0.37569444444444444</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="65"/>
-      <c r="B34" s="43"/>
+      <c r="B34" s="43" t="s">
+        <v>842</v>
+      </c>
       <c r="C34" s="43" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D34" s="59">
-        <v>0.45833333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="E34" s="59">
-        <v>0.4826388888888889</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="F34" s="59">
         <f>E34-D34</f>
-        <v>2.430555555555558E-2</v>
+        <v>4.5138888888888895E-2</v>
       </c>
       <c r="H34" s="60" t="s">
         <v>384</v>
@@ -33065,42 +33143,47 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="65"/>
+      <c r="B35" t="s">
+        <v>843</v>
+      </c>
       <c r="C35" s="43" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D35" s="59">
-        <v>0.47916666666666669</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="E35" s="59">
-        <v>0.52083333333333337</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="F35" s="59">
         <f>E35-D35</f>
-        <v>4.1666666666666685E-2</v>
+        <v>4.8611111111111105E-2</v>
       </c>
       <c r="H35" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I35" s="59">
         <f>SUMIFS(F32:F46, C32:C46,H35)</f>
-        <v>9.3750000000000056E-2</v>
+        <v>3.8194444444444475E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="65"/>
-      <c r="B36" s="43"/>
+      <c r="B36" s="43" t="s">
+        <v>393</v>
+      </c>
       <c r="C36" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D36" s="59">
-        <v>0.52430555555555558</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="E36" s="59">
         <v>0.55555555555555558</v>
       </c>
       <c r="F36" s="59">
         <f>E36-D36</f>
-        <v>3.125E-2</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="H36" s="60" t="s">
         <v>379</v>
@@ -33112,9 +33195,11 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="65"/>
-      <c r="B37" s="43"/>
+      <c r="B37" s="43" t="s">
+        <v>844</v>
+      </c>
       <c r="C37" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D37" s="59">
         <v>0.55555555555555558</v>
@@ -33155,7 +33240,7 @@
       </c>
       <c r="I38" s="59">
         <f>SUMIFS(F32:F46, C32:C46,H38)</f>
-        <v>2.7777777777777735E-2</v>
+        <v>1.736111111111116E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -33281,7 +33366,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="C47" s="43" t="s">
         <v>382</v>
@@ -33306,7 +33391,7 @@
     <row r="48" spans="1:9">
       <c r="A48" s="65"/>
       <c r="B48" s="43" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="C48" s="43" t="s">
         <v>384</v>
@@ -33358,7 +33443,7 @@
     <row r="50" spans="1:9">
       <c r="A50" s="65"/>
       <c r="B50" s="43" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>387</v>
@@ -33384,7 +33469,7 @@
     <row r="51" spans="1:9">
       <c r="A51" s="65"/>
       <c r="B51" s="43" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="C51" s="43" t="s">
         <v>382</v>
@@ -33436,7 +33521,7 @@
     <row r="53" spans="1:9">
       <c r="A53" s="65"/>
       <c r="B53" s="43" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="C53" s="43" t="s">
         <v>382</v>
@@ -33488,7 +33573,7 @@
     <row r="55" spans="1:9">
       <c r="A55" s="65"/>
       <c r="B55" s="43" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="C55" s="43" t="s">
         <v>379</v>
@@ -33508,7 +33593,7 @@
     <row r="56" spans="1:9">
       <c r="A56" s="65"/>
       <c r="B56" s="43" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="C56" s="43" t="s">
         <v>382</v>
@@ -33528,7 +33613,7 @@
     <row r="57" spans="1:9">
       <c r="A57" s="65"/>
       <c r="B57" s="43" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>382</v>
@@ -33566,7 +33651,7 @@
     <row r="59" spans="1:9">
       <c r="A59" s="65"/>
       <c r="B59" s="43" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>382</v>
@@ -33608,19 +33693,21 @@
       <c r="A62" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="64"/>
+      <c r="B62" s="64" t="s">
+        <v>854</v>
+      </c>
       <c r="C62" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D62" s="59">
-        <v>0.36458333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="E62" s="59">
-        <v>0.47916666666666669</v>
+        <v>38.416666666666664</v>
       </c>
       <c r="F62" s="59">
         <f>E62-D62</f>
-        <v>0.11458333333333337</v>
+        <v>38.041666666666664</v>
       </c>
       <c r="H62" s="57" t="s">
         <v>380</v>
@@ -33631,43 +33718,47 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="65"/>
-      <c r="B63" s="43"/>
+      <c r="B63" s="43" t="s">
+        <v>855</v>
+      </c>
       <c r="C63" s="43" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D63" s="59">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E63" s="59">
         <v>0.4375</v>
-      </c>
-      <c r="E63" s="59">
-        <v>0.44791666666666669</v>
       </c>
       <c r="F63" s="59">
         <f>E63-D63</f>
-        <v>1.0416666666666685E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H63" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I63" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H63)</f>
-        <v>0.30555555555555558</v>
+        <v>38.309722222222227</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="65"/>
-      <c r="B64" s="43"/>
+      <c r="B64" s="43" t="s">
+        <v>385</v>
+      </c>
       <c r="C64" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D64" s="59">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="E64" s="59">
         <v>0.4513888888888889</v>
-      </c>
-      <c r="E64" s="59">
-        <v>0.47916666666666669</v>
       </c>
       <c r="F64" s="59">
         <f>E64-D64</f>
-        <v>2.777777777777779E-2</v>
+        <v>1.3194444444444398E-2</v>
       </c>
       <c r="H64" s="60" t="s">
         <v>384</v>
@@ -33679,151 +33770,171 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="65"/>
-      <c r="B65" s="43"/>
+      <c r="B65" s="43" t="s">
+        <v>856</v>
+      </c>
       <c r="C65" s="43" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D65" s="59">
-        <v>0.47916666666666669</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="E65" s="59">
-        <v>0.52083333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="F65" s="59">
         <f>E65-D65</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H65" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I65" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H65)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="65"/>
-      <c r="B66" s="43"/>
+      <c r="B66" s="43" t="s">
+        <v>393</v>
+      </c>
       <c r="C66" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D66" s="59">
-        <v>0.52083333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="E66" s="59">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F66" s="59">
         <f>E66-D66</f>
-        <v>2.0833333333333259E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H66" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I66" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H66)</f>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="65"/>
-      <c r="B67" s="43"/>
+      <c r="B67" s="43" t="s">
+        <v>857</v>
+      </c>
       <c r="C67" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D67" s="59">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E67" s="59">
-        <v>0.57291666666666663</v>
+        <v>0.64236111111111105</v>
       </c>
       <c r="F67" s="59">
         <f>E67-D67</f>
-        <v>3.125E-2</v>
+        <v>5.9027777777777679E-2</v>
       </c>
       <c r="H67" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I67" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H67)</f>
-        <v>0</v>
+        <v>6.1111111111111005E-2</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="65"/>
-      <c r="B68" s="43"/>
+      <c r="B68" s="43" t="s">
+        <v>546</v>
+      </c>
       <c r="C68" s="43" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D68" s="59">
-        <v>0.58333333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E68" s="59">
-        <v>0.66666666666666663</v>
+        <v>0.70694444444444438</v>
       </c>
       <c r="F68" s="59">
         <f>E68-D68</f>
-        <v>8.3333333333333259E-2</v>
+        <v>6.1111111111111005E-2</v>
       </c>
       <c r="H68" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I68" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H68)</f>
-        <v>5.2083333333333426E-2</v>
+        <v>5.4861111111111138E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="65"/>
-      <c r="B69" s="43"/>
+      <c r="B69" s="43" t="s">
+        <v>499</v>
+      </c>
       <c r="C69" s="43" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D69" s="59">
-        <v>0.66666666666666663</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="E69" s="59">
-        <v>0.67708333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="F69" s="59">
         <f>E69-D69</f>
-        <v>1.0416666666666741E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H69" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I69" s="57">
         <f>SUM(I63:I68)</f>
-        <v>0.39930555555555569</v>
+        <v>38.460416666666667</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="65"/>
-      <c r="B70" s="43"/>
+      <c r="B70" s="43" t="s">
+        <v>385</v>
+      </c>
       <c r="C70" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D70" s="59">
-        <v>0.68055555555555547</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E70" s="59">
-        <v>0.73958333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F70" s="59">
         <f>E70-D70</f>
-        <v>5.9027777777777901E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="I70" s="61"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="65"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
+      <c r="B71" s="43" t="s">
+        <v>857</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D71" s="59">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="E71" s="59">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="F71" s="59">
         <f>E71-D71</f>
-        <v>0</v>
+        <v>9.7916666666666652E-2</v>
       </c>
       <c r="I71" s="61"/>
     </row>
@@ -33887,7 +33998,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="C77" s="43" t="s">
         <v>382</v>
@@ -33912,7 +34023,7 @@
     <row r="78" spans="1:9">
       <c r="A78" s="65"/>
       <c r="B78" s="43" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>382</v>
@@ -33990,7 +34101,7 @@
     <row r="81" spans="1:9">
       <c r="A81" s="65"/>
       <c r="B81" s="43" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="C81" s="43" t="s">
         <v>382</v>
@@ -34042,7 +34153,7 @@
     <row r="83" spans="1:9">
       <c r="A83" s="65"/>
       <c r="B83" s="43" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="C83" s="43" t="s">
         <v>384</v>
@@ -34134,7 +34245,7 @@
     <row r="87" spans="1:9">
       <c r="A87" s="65"/>
       <c r="B87" s="43" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="C87" s="43" t="s">
         <v>382</v>
@@ -34153,7 +34264,7 @@
     <row r="88" spans="1:9">
       <c r="A88" s="65"/>
       <c r="B88" s="43" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="C88" s="43" t="s">
         <v>382</v>
@@ -34207,7 +34318,7 @@
         <v>15</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="C92" s="43" t="s">
         <v>382</v>
@@ -34232,7 +34343,7 @@
     <row r="93" spans="1:9">
       <c r="A93" s="65"/>
       <c r="B93" s="43" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="C93" s="43" t="s">
         <v>382</v>
@@ -34284,7 +34395,7 @@
     <row r="95" spans="1:9">
       <c r="A95" s="65"/>
       <c r="B95" s="43" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
       <c r="C95" s="43" t="s">
         <v>382</v>
@@ -34336,7 +34447,7 @@
     <row r="97" spans="1:9">
       <c r="A97" s="65"/>
       <c r="B97" s="43" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c r="C97" s="43" t="s">
         <v>382</v>
@@ -34434,7 +34545,7 @@
     <row r="101" spans="1:9">
       <c r="A101" s="65"/>
       <c r="B101" s="43" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
       <c r="C101" s="43" t="s">
         <v>382</v>
@@ -34510,7 +34621,9 @@
       <c r="A107" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B107" s="43"/>
+      <c r="B107" s="43" t="s">
+        <v>868</v>
+      </c>
       <c r="C107" s="43" t="s">
         <v>382</v>
       </c>
@@ -34518,11 +34631,11 @@
         <v>0.375</v>
       </c>
       <c r="E107" s="59">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="F107" s="59">
         <f>E107-D107</f>
-        <v>8.3333333333333315E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H107" s="57" t="s">
         <v>380</v>
@@ -34533,39 +34646,43 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="65"/>
-      <c r="B108" s="43"/>
+      <c r="B108" s="43" t="s">
+        <v>869</v>
+      </c>
       <c r="C108" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D108" s="59">
+        <v>0.4375</v>
+      </c>
+      <c r="E108" s="59">
         <v>0.45833333333333331</v>
-      </c>
-      <c r="E108" s="59">
-        <v>0.46875</v>
       </c>
       <c r="F108" s="59">
         <f>E108-D108</f>
-        <v>1.0416666666666685E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H108" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I108" s="59">
         <f>SUMIFS(F107:F121, C107:C121,H108)</f>
-        <v>21.312499999999996</v>
+        <v>21.302083333333332</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="65"/>
-      <c r="B109" s="43"/>
+      <c r="B109" s="43" t="s">
+        <v>385</v>
+      </c>
       <c r="C109" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D109" s="59">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E109" s="59">
         <v>0.46875</v>
-      </c>
-      <c r="E109" s="59">
-        <v>0.47916666666666669</v>
       </c>
       <c r="F109" s="59">
         <f>E109-D109</f>
@@ -34696,7 +34813,7 @@
       </c>
       <c r="I114" s="57">
         <f>SUM(I108:I113)</f>
-        <v>21.437499999999996</v>
+        <v>21.427083333333332</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -34794,7 +34911,9 @@
       <c r="A122" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B122" s="43"/>
+      <c r="B122" s="43" t="s">
+        <v>870</v>
+      </c>
       <c r="C122" s="43" t="s">
         <v>382</v>
       </c>
@@ -34817,9 +34936,11 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="65"/>
-      <c r="B123" s="43"/>
+      <c r="B123" s="43" t="s">
+        <v>871</v>
+      </c>
       <c r="C123" s="43" t="s">
-        <v>382</v>
+        <v>872</v>
       </c>
       <c r="D123" s="59">
         <v>0.4375</v>
@@ -34836,12 +34957,14 @@
       </c>
       <c r="I123" s="59">
         <f>SUMIFS(F122:F136, C122:C136,H123)</f>
-        <v>0.26388888888888878</v>
+        <v>0.23611111111111105</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="65"/>
-      <c r="B124" s="43"/>
+      <c r="B124" s="43" t="s">
+        <v>502</v>
+      </c>
       <c r="C124" s="43" t="s">
         <v>386</v>
       </c>
@@ -34865,7 +34988,9 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="65"/>
-      <c r="B125" s="43"/>
+      <c r="B125" s="43" t="s">
+        <v>873</v>
+      </c>
       <c r="C125" s="43" t="s">
         <v>387</v>
       </c>
@@ -34980,7 +35105,7 @@
       </c>
       <c r="I129" s="57">
         <f>SUM(I123:I128)</f>
-        <v>0.375</v>
+        <v>0.34722222222222227</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -35682,17 +35807,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9E0A1D0-F2FE-4709-B23B-D2BCCB8D6EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34DC76D4-B4A4-4417-838B-92159E9A6468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="24" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11573,17 +11573,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="103" priority="12" operator="greaterThan">
@@ -15297,17 +15297,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
@@ -19313,17 +19313,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="77" priority="12" operator="greaterThan">
@@ -22394,17 +22394,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="64" priority="12" operator="greaterThan">
@@ -25580,17 +25580,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="12" operator="greaterThan">
@@ -28870,17 +28870,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
@@ -28946,7 +28946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3868AB83-A499-4590-B3A8-94C5552BFC32}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
+    <sheetView topLeftCell="A129" workbookViewId="0">
       <selection activeCell="R45" sqref="R45:S45"/>
     </sheetView>
   </sheetViews>
@@ -32338,17 +32338,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -32414,8 +32414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF4DB1F-9A56-49A9-9060-524143544D1B}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35897,17 +35897,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34DC76D4-B4A4-4417-838B-92159E9A6468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C6095D0-0278-4C07-869F-36B60FD47037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="24" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3918" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3927" uniqueCount="894">
   <si>
     <t>Resource Name</t>
   </si>
@@ -3247,6 +3247,24 @@
   </si>
   <si>
     <t>Set Routing path and pushing the work on git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brainstroming </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on </t>
+  </si>
+  <si>
+    <t>Working On Integration (Query Page)</t>
+  </si>
+  <si>
+    <t>Working On Integration (Article Page)</t>
+  </si>
+  <si>
+    <t>Timesheet Updated for (04-05-2022)</t>
+  </si>
+  <si>
+    <t>Updating the integration side for latest query</t>
   </si>
 </sst>
 </file>
@@ -32414,8 +32432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF4DB1F-9A56-49A9-9060-524143544D1B}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33463,7 +33481,7 @@
       </c>
       <c r="I48" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.30208333333333359</v>
+        <v>0.29513888888888906</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -33619,7 +33637,7 @@
       </c>
       <c r="I54" s="57">
         <f>SUM(I48:I53)</f>
-        <v>0.51250000000000018</v>
+        <v>0.50555555555555554</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -33712,11 +33730,11 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="E59" s="59">
-        <v>0.88194444444444453</v>
+        <v>0.875</v>
       </c>
       <c r="F59" s="59">
         <f>E59-D59</f>
-        <v>5.5555555555555691E-2</v>
+        <v>4.861111111111116E-2</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -35313,7 +35331,9 @@
       <c r="A137" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B137" s="43"/>
+      <c r="B137" s="43" t="s">
+        <v>888</v>
+      </c>
       <c r="C137" s="43" t="s">
         <v>382</v>
       </c>
@@ -35336,7 +35356,9 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="65"/>
-      <c r="B138" s="43"/>
+      <c r="B138" s="43" t="s">
+        <v>889</v>
+      </c>
       <c r="C138" s="43" t="s">
         <v>382</v>
       </c>
@@ -35360,7 +35382,9 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="65"/>
-      <c r="B139" s="43"/>
+      <c r="B139" s="43" t="s">
+        <v>385</v>
+      </c>
       <c r="C139" s="43" t="s">
         <v>382</v>
       </c>
@@ -35384,7 +35408,9 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="65"/>
-      <c r="B140" s="43"/>
+      <c r="B140" s="43" t="s">
+        <v>890</v>
+      </c>
       <c r="C140" s="43" t="s">
         <v>386</v>
       </c>
@@ -35408,7 +35434,9 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="65"/>
-      <c r="B141" s="43"/>
+      <c r="B141" s="43" t="s">
+        <v>891</v>
+      </c>
       <c r="C141" s="43" t="s">
         <v>387</v>
       </c>
@@ -35432,7 +35460,9 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="65"/>
-      <c r="B142" s="43"/>
+      <c r="B142" s="43" t="s">
+        <v>406</v>
+      </c>
       <c r="C142" s="43" t="s">
         <v>387</v>
       </c>
@@ -35456,7 +35486,9 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="65"/>
-      <c r="B143" s="43"/>
+      <c r="B143" s="43" t="s">
+        <v>892</v>
+      </c>
       <c r="C143" s="43" t="s">
         <v>386</v>
       </c>
@@ -35480,7 +35512,9 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="65"/>
-      <c r="B144" s="43"/>
+      <c r="B144" s="43" t="s">
+        <v>893</v>
+      </c>
       <c r="C144" s="43" t="s">
         <v>382</v>
       </c>
@@ -35504,7 +35538,9 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="65"/>
-      <c r="B145" s="43"/>
+      <c r="B145" s="43" t="s">
+        <v>498</v>
+      </c>
       <c r="C145" s="43" t="s">
         <v>382</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6593" documentId="11_1247F60BE6C2AA1B97E2F28F91B8B58A572C5BD9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6004F7E2-E916-458B-BA0B-1AEEF08155CA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{202C99B8-4289-453B-A271-2A62B90E890A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="26" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4524" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="959">
   <si>
     <t>Resource Name</t>
   </si>
@@ -3437,7 +3437,7 @@
     <t>Refined anonymous objects</t>
   </si>
   <si>
-    <t xml:space="preserve">Rectify the </t>
+    <t>Rectify publish and Reject button in Article publish page.</t>
   </si>
   <si>
     <t>Worked on services (Query Report).</t>
@@ -3462,9 +3462,6 @@
   </si>
   <si>
     <t>worked on buttons (same button)</t>
-  </si>
-  <si>
-    <t>me</t>
   </si>
 </sst>
 </file>
@@ -12051,17 +12048,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="129" priority="12" operator="greaterThan">
@@ -15775,17 +15772,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="116" priority="12" operator="greaterThan">
@@ -19791,17 +19788,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="103" priority="12" operator="greaterThan">
@@ -22872,17 +22869,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
@@ -26058,17 +26055,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="77" priority="12" operator="greaterThan">
@@ -29348,17 +29345,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="64" priority="12" operator="greaterThan">
@@ -32816,17 +32813,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="12" operator="greaterThan">
@@ -36447,17 +36444,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
@@ -39973,17 +39970,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -40049,8 +40046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA1F7AD-8C67-4E9B-9EA9-26C42CBBA840}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40963,14 +40960,14 @@
         <v>382</v>
       </c>
       <c r="D47" s="59">
-        <v>0.375</v>
+        <v>0.35069444444444442</v>
       </c>
       <c r="E47" s="59">
-        <v>0.4375</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="F47" s="59">
         <f>E47-D47</f>
-        <v>6.25E-2</v>
+        <v>7.2916666666666685E-2</v>
       </c>
       <c r="H47" s="57" t="s">
         <v>380</v>
@@ -40988,21 +40985,21 @@
         <v>384</v>
       </c>
       <c r="D48" s="59">
-        <v>0.4375</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="E48" s="59">
-        <v>0.4513888888888889</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="F48" s="59">
         <f>E48-D48</f>
-        <v>1.3888888888888895E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H48" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I48" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.13541666666666669</v>
+        <v>0.18958333333333344</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -41014,21 +41011,21 @@
         <v>382</v>
       </c>
       <c r="D49" s="59">
-        <v>0.4513888888888889</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="E49" s="59">
         <v>0.52430555555555558</v>
       </c>
       <c r="F49" s="59">
         <f>E49-D49</f>
-        <v>7.2916666666666685E-2</v>
+        <v>9.0277777777777846E-2</v>
       </c>
       <c r="H49" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I49" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H49)</f>
-        <v>1.3888888888888895E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -41059,11 +41056,22 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="65"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
+      <c r="B51" s="43" t="s">
+        <v>951</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D51" s="59">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="E51" s="59">
+        <v>0.5625</v>
+      </c>
+      <c r="F51" s="59">
+        <f>E51-D51</f>
+        <v>2.6388888888888906E-2</v>
+      </c>
       <c r="H51" s="60" t="s">
         <v>379</v>
       </c>
@@ -41117,7 +41125,7 @@
       </c>
       <c r="I54" s="57">
         <f>SUM(I48:I53)</f>
-        <v>0.16111111111111109</v>
+        <v>0.21180555555555558</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -41870,7 +41878,7 @@
     <row r="96" spans="1:9">
       <c r="A96" s="65"/>
       <c r="B96" s="43" t="s">
-        <v>959</v>
+        <v>601</v>
       </c>
       <c r="C96" s="43" t="s">
         <v>379</v>
@@ -43221,17 +43229,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{202C99B8-4289-453B-A271-2A62B90E890A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A63F0B45-20CE-494F-8723-73AAC5FD280B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="26" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="25" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4532" uniqueCount="970">
   <si>
     <t>Resource Name</t>
   </si>
@@ -3380,7 +3380,7 @@
     <t>Explored Angular materials.</t>
   </si>
   <si>
-    <t>Brain Stroming and TimeSheet Filled</t>
+    <t>Brain Storming and TimeSheet Filled</t>
   </si>
   <si>
     <t>Explored on Routing in angular</t>
@@ -3404,6 +3404,9 @@
     <t>Understanding the validations done for all services</t>
   </si>
   <si>
+    <t>Brain Storming and TimeSheet filling</t>
+  </si>
+  <si>
     <t>Worked on Reviewer side Toreview(Angular).</t>
   </si>
   <si>
@@ -3416,6 +3419,24 @@
     <t>Worked on Responsiveness in Reviewer page</t>
   </si>
   <si>
+    <t>Worked on view Query in angular</t>
+  </si>
+  <si>
+    <t>Worked on Raise query and report spam</t>
+  </si>
+  <si>
+    <t>Data integrating for query page</t>
+  </si>
+  <si>
+    <t>Dataintegration for query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refining  the Specific article page for comment box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brain Storming </t>
+  </si>
+  <si>
     <t>Worked on the Integration of web API and Angular</t>
   </si>
   <si>
@@ -3428,6 +3449,18 @@
     <t>Started integrating Toreview and article reviewed Specific page</t>
   </si>
   <si>
+    <t>change some alignment &amp; check the responsive for login page</t>
+  </si>
+  <si>
+    <t>change css in article card</t>
+  </si>
+  <si>
+    <t>Explored on JWT token Authentication</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
     <t>Explored about creating and passing of anonymous objects</t>
   </si>
   <si>
@@ -3446,9 +3479,6 @@
     <t>Understanding the Services in API</t>
   </si>
   <si>
-    <t>Explored on JWT token Authentication</t>
-  </si>
-  <si>
     <t>Learned about Integration of webapi and Angular</t>
   </si>
   <si>
@@ -3462,6 +3492,9 @@
   </si>
   <si>
     <t>worked on buttons (same button)</t>
+  </si>
+  <si>
+    <t>Explored on services in our project</t>
   </si>
 </sst>
 </file>
@@ -12048,17 +12081,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="129" priority="12" operator="greaterThan">
@@ -15772,17 +15805,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="116" priority="12" operator="greaterThan">
@@ -19788,17 +19821,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="103" priority="12" operator="greaterThan">
@@ -22869,17 +22902,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
@@ -26055,17 +26088,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="77" priority="12" operator="greaterThan">
@@ -29345,17 +29378,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="64" priority="12" operator="greaterThan">
@@ -32813,17 +32846,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="12" operator="greaterThan">
@@ -36444,17 +36477,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
@@ -36520,8 +36553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61C16C3-0977-49CD-B2B2-96C4E051AB76}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37864,18 +37897,16 @@
         <v>13</v>
       </c>
       <c r="B62" s="64"/>
-      <c r="C62" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C62" s="43"/>
       <c r="D62" s="59">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="E62" s="59">
         <v>38.416666666666664</v>
       </c>
       <c r="F62" s="59">
         <f>E62-D62</f>
-        <v>38.041666666666664</v>
+        <v>38.416666666666664</v>
       </c>
       <c r="H62" s="57" t="s">
         <v>380</v>
@@ -37887,42 +37918,38 @@
     <row r="63" spans="1:9">
       <c r="A63" s="65"/>
       <c r="B63" s="43"/>
-      <c r="C63" s="43" t="s">
-        <v>387</v>
-      </c>
+      <c r="C63" s="43"/>
       <c r="D63" s="59">
-        <v>0.41666666666666669</v>
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="E63" s="59">
         <v>0.4375</v>
       </c>
       <c r="F63" s="59">
         <f>E63-D63</f>
-        <v>2.0833333333333315E-2</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="H63" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I63" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H63)</f>
-        <v>38.309722222222227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="65"/>
       <c r="B64" s="43"/>
-      <c r="C64" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C64" s="43"/>
       <c r="D64" s="59">
-        <v>0.4381944444444445</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="E64" s="59">
         <v>0.4513888888888889</v>
       </c>
       <c r="F64" s="59">
         <f>E64-D64</f>
-        <v>1.3194444444444398E-2</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="H64" s="60" t="s">
         <v>384</v>
@@ -37935,156 +37962,142 @@
     <row r="65" spans="1:9">
       <c r="A65" s="65"/>
       <c r="B65" s="43"/>
-      <c r="C65" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C65" s="43"/>
       <c r="D65" s="59">
-        <v>0.4513888888888889</v>
+        <v>0.125</v>
       </c>
       <c r="E65" s="59">
         <v>0.5625</v>
       </c>
       <c r="F65" s="59">
         <f>E65-D65</f>
-        <v>0.1111111111111111</v>
+        <v>0.4375</v>
       </c>
       <c r="H65" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I65" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H65)</f>
-        <v>2.0833333333333315E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="65"/>
       <c r="B66" s="43"/>
-      <c r="C66" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C66" s="43"/>
       <c r="D66" s="59">
-        <v>0.5625</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="E66" s="59">
         <v>0.58333333333333337</v>
       </c>
       <c r="F66" s="59">
         <f>E66-D66</f>
-        <v>2.083333333333337E-2</v>
+        <v>0.41666666666666641</v>
       </c>
       <c r="H66" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I66" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H66)</f>
-        <v>1.388888888888884E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="65"/>
       <c r="B67" s="43"/>
-      <c r="C67" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C67" s="43"/>
       <c r="D67" s="59">
-        <v>0.58333333333333337</v>
+        <v>0.20833333333333301</v>
       </c>
       <c r="E67" s="59">
         <v>0.64236111111111105</v>
       </c>
       <c r="F67" s="59">
         <f>E67-D67</f>
-        <v>5.9027777777777679E-2</v>
+        <v>0.43402777777777801</v>
       </c>
       <c r="H67" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I67" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H67)</f>
-        <v>6.1111111111111005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="65"/>
       <c r="B68" s="43"/>
-      <c r="C68" s="43" t="s">
-        <v>390</v>
-      </c>
+      <c r="C68" s="43"/>
       <c r="D68" s="59">
-        <v>0.64583333333333337</v>
+        <v>0.25</v>
       </c>
       <c r="E68" s="59">
         <v>0.70694444444444438</v>
       </c>
       <c r="F68" s="59">
         <f>E68-D68</f>
-        <v>6.1111111111111005E-2</v>
+        <v>0.45694444444444438</v>
       </c>
       <c r="H68" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I68" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H68)</f>
-        <v>5.4861111111111138E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="65"/>
       <c r="B69" s="43"/>
-      <c r="C69" s="43" t="s">
-        <v>379</v>
-      </c>
+      <c r="C69" s="43"/>
       <c r="D69" s="59">
-        <v>0.71527777777777779</v>
+        <v>0.29166666666666702</v>
       </c>
       <c r="E69" s="59">
         <v>0.72916666666666663</v>
       </c>
       <c r="F69" s="59">
         <f>E69-D69</f>
-        <v>1.388888888888884E-2</v>
+        <v>0.43749999999999961</v>
       </c>
       <c r="H69" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I69" s="57">
         <f>SUM(I63:I68)</f>
-        <v>38.460416666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="65"/>
       <c r="B70" s="43"/>
-      <c r="C70" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C70" s="43"/>
       <c r="D70" s="59">
-        <v>0.72916666666666663</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E70" s="59">
         <v>0.75</v>
       </c>
       <c r="F70" s="59">
         <f>E70-D70</f>
-        <v>2.083333333333337E-2</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="I70" s="61"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="65"/>
       <c r="B71" s="43"/>
-      <c r="C71" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C71" s="43"/>
       <c r="D71" s="59">
-        <v>0.75624999999999998</v>
+        <v>0.375</v>
       </c>
       <c r="E71" s="59">
         <v>0.85416666666666663</v>
       </c>
       <c r="F71" s="59">
         <f>E71-D71</f>
-        <v>9.7916666666666652E-2</v>
+        <v>0.47916666666666663</v>
       </c>
       <c r="I71" s="61"/>
     </row>
@@ -38476,7 +38489,7 @@
         <v>15</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>863</v>
+        <v>939</v>
       </c>
       <c r="C92" s="43" t="s">
         <v>382</v>
@@ -38501,7 +38514,7 @@
     <row r="93" spans="1:9">
       <c r="A93" s="65"/>
       <c r="B93" s="43" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C93" s="43" t="s">
         <v>382</v>
@@ -38553,7 +38566,7 @@
     <row r="95" spans="1:9">
       <c r="A95" s="65"/>
       <c r="B95" s="43" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C95" s="43" t="s">
         <v>382</v>
@@ -38605,7 +38618,7 @@
     <row r="97" spans="1:9">
       <c r="A97" s="65"/>
       <c r="B97" s="43" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C97" s="43" t="s">
         <v>382</v>
@@ -38703,7 +38716,7 @@
     <row r="101" spans="1:9">
       <c r="A101" s="65"/>
       <c r="B101" s="43" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C101" s="43" t="s">
         <v>382</v>
@@ -38776,7 +38789,9 @@
       <c r="A107" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B107" s="43"/>
+      <c r="B107" s="43" t="s">
+        <v>944</v>
+      </c>
       <c r="C107" s="43" t="s">
         <v>382</v>
       </c>
@@ -38799,7 +38814,9 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="65"/>
-      <c r="B108" s="43"/>
+      <c r="B108" s="43" t="s">
+        <v>945</v>
+      </c>
       <c r="C108" s="43" t="s">
         <v>382</v>
       </c>
@@ -38807,35 +38824,37 @@
         <v>0.4375</v>
       </c>
       <c r="E108" s="59">
-        <v>0.45833333333333331</v>
+        <v>0.46875</v>
       </c>
       <c r="F108" s="59">
         <f>E108-D108</f>
-        <v>2.0833333333333315E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H108" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I108" s="59">
         <f>SUMIFS(F107:F121, C107:C121,H108)</f>
-        <v>21.3</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="65"/>
-      <c r="B109" s="43"/>
+      <c r="B109" s="43" t="s">
+        <v>599</v>
+      </c>
       <c r="C109" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D109" s="59">
-        <v>0.45833333333333331</v>
+        <v>0.46875</v>
       </c>
       <c r="E109" s="59">
         <v>0.47916666666666669</v>
       </c>
       <c r="F109" s="59">
         <f>E109-D109</f>
-        <v>2.083333333333337E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H109" s="60" t="s">
         <v>384</v>
@@ -38847,39 +38866,43 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="65"/>
-      <c r="B110" s="43"/>
+      <c r="B110" s="62" t="s">
+        <v>946</v>
+      </c>
       <c r="C110" s="43" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D110" s="59">
         <v>0.47916666666666669</v>
       </c>
       <c r="E110" s="59">
-        <v>0.52083333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F110" s="59">
         <f>E110-D110</f>
-        <v>4.1666666666666685E-2</v>
+        <v>6.2499999999999944E-2</v>
       </c>
       <c r="H110" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I110" s="59">
         <f>SUMIFS(F107:F121, C107:C121,H110)</f>
-        <v>5.2083333333333426E-2</v>
+        <v>1.0416666666666741E-2</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="65"/>
-      <c r="B111" s="43"/>
+      <c r="B111" s="43" t="s">
+        <v>393</v>
+      </c>
       <c r="C111" s="43" t="s">
         <v>386</v>
       </c>
       <c r="D111" s="59">
-        <v>0.52083333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E111" s="59">
-        <v>0.55208333333333337</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="F111" s="59">
         <f>E111-D111</f>
@@ -38895,74 +38918,80 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="65"/>
-      <c r="B112" s="43"/>
+      <c r="B112" s="43" t="s">
+        <v>947</v>
+      </c>
       <c r="C112" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D112" s="59">
-        <v>0.55208333333333337</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E112" s="59">
-        <v>0.64583333333333337</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="F112" s="59">
         <f>E112-D112</f>
-        <v>9.375E-2</v>
+        <v>7.986111111111116E-2</v>
       </c>
       <c r="H112" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I112" s="59">
         <f>SUMIFS(F107:F121, C107:C121,H112)</f>
-        <v>6.1111111111111005E-2</v>
+        <v>2.5694444444444353E-2</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="65"/>
-      <c r="B113" s="43"/>
+      <c r="B113" s="43" t="s">
+        <v>546</v>
+      </c>
       <c r="C113" s="43" t="s">
         <v>390</v>
       </c>
       <c r="D113" s="59">
-        <v>0.64583333333333337</v>
+        <v>0.65486111111111112</v>
       </c>
       <c r="E113" s="59">
-        <v>0.70694444444444438</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="F113" s="59">
         <f>E113-D113</f>
-        <v>6.1111111111111005E-2</v>
+        <v>2.5694444444444353E-2</v>
       </c>
       <c r="H113" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I113" s="59">
         <f>SUMIFS(F107:F121, C107:C121,H113)</f>
-        <v>4.166666666666663E-2</v>
+        <v>21.039583333333333</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="65"/>
-      <c r="B114" s="43"/>
+      <c r="B114" s="43" t="s">
+        <v>385</v>
+      </c>
       <c r="C114" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D114" s="59">
         <v>1.7069444444444444</v>
       </c>
       <c r="E114" s="59">
-        <v>22.715277777777779</v>
+        <v>22.704861111111111</v>
       </c>
       <c r="F114" s="59">
         <f>E114-D114</f>
-        <v>21.008333333333333</v>
+        <v>20.997916666666665</v>
       </c>
       <c r="H114" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I114" s="57">
         <f>SUM(I108:I113)</f>
-        <v>21.46875</v>
+        <v>21.429861111111112</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -39078,7 +39107,9 @@
       <c r="A122" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B122" s="43"/>
+      <c r="B122" s="43" t="s">
+        <v>948</v>
+      </c>
       <c r="C122" s="43" t="s">
         <v>382</v>
       </c>
@@ -39086,11 +39117,11 @@
         <v>0.375</v>
       </c>
       <c r="E122" s="59">
-        <v>0.4375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F122" s="59">
         <f>E122-D122</f>
-        <v>6.25E-2</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="H122" s="57" t="s">
         <v>380</v>
@@ -39120,7 +39151,7 @@
       </c>
       <c r="I123" s="59">
         <f>SUMIFS(F122:F136, C122:C136,H123)</f>
-        <v>0.31250000000000006</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -39264,7 +39295,7 @@
       </c>
       <c r="I129" s="57">
         <f>SUM(I123:I128)</f>
-        <v>0.42222222222222222</v>
+        <v>0.44305555555555554</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -39362,7 +39393,9 @@
       <c r="A137" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B137" s="43"/>
+      <c r="B137" s="43" t="s">
+        <v>949</v>
+      </c>
       <c r="C137" s="43" t="s">
         <v>382</v>
       </c>
@@ -39970,17 +40003,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -40046,8 +40079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA1F7AD-8C67-4E9B-9EA9-26C42CBBA840}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40093,7 +40126,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>382</v>
@@ -40150,7 +40183,7 @@
     <row r="4" spans="1:17">
       <c r="A4" s="65"/>
       <c r="B4" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>382</v>
@@ -40179,7 +40212,7 @@
     <row r="5" spans="1:17">
       <c r="A5" s="65"/>
       <c r="B5" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>382</v>
@@ -40208,7 +40241,7 @@
     <row r="6" spans="1:17">
       <c r="A6" s="65"/>
       <c r="B6" s="43" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>382</v>
@@ -40406,7 +40439,9 @@
       <c r="A17" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="43" t="s">
+        <v>954</v>
+      </c>
       <c r="C17" s="43" t="s">
         <v>382</v>
       </c>
@@ -40429,7 +40464,9 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="65"/>
-      <c r="B18" s="43"/>
+      <c r="B18" s="43" t="s">
+        <v>955</v>
+      </c>
       <c r="C18" s="43" t="s">
         <v>382</v>
       </c>
@@ -40437,35 +40474,37 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E18" s="59">
-        <v>0.4513888888888889</v>
+        <v>0.4375</v>
       </c>
       <c r="F18" s="59">
         <f>E18-D18</f>
-        <v>3.472222222222221E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H18" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I18" s="59">
         <f>SUMIFS(F17:F31, C17:C31,H18)</f>
-        <v>0.19444444444444436</v>
+        <v>9.7222222222222265E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="65"/>
-      <c r="B19" s="43"/>
+      <c r="B19" s="43" t="s">
+        <v>956</v>
+      </c>
       <c r="C19" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D19" s="59">
-        <v>0.4513888888888889</v>
+        <v>0.4375</v>
       </c>
       <c r="E19" s="59">
-        <v>0.49652777777777773</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="F19" s="59">
         <f>E19-D19</f>
-        <v>4.513888888888884E-2</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="H19" s="60" t="s">
         <v>384</v>
@@ -40482,36 +40521,36 @@
         <v>386</v>
       </c>
       <c r="D20" s="59">
-        <v>0.49652777777777773</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="E20" s="59">
         <v>0.50694444444444442</v>
       </c>
       <c r="F20" s="59">
         <f>E20-D20</f>
-        <v>1.0416666666666685E-2</v>
+        <v>3.4722222222222154E-2</v>
       </c>
       <c r="H20" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I20" s="59">
         <f>SUMIFS(F17:F31, C17:C31,H20)</f>
-        <v>5.7638888888888906E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="65"/>
       <c r="B21" s="43" t="s">
-        <v>385</v>
+        <v>502</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D21" s="59">
-        <v>0.52569444444444446</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="59">
-        <v>0.53611111111111109</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F21" s="59">
         <f>E21-D21</f>
@@ -40522,31 +40561,33 @@
       </c>
       <c r="I21" s="59">
         <f>SUMIFS(F17:F31, C17:C31,H21)</f>
-        <v>2.2222222222222143E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="65"/>
-      <c r="B22" s="43"/>
+      <c r="B22" s="62" t="s">
+        <v>957</v>
+      </c>
       <c r="C22" s="43" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D22" s="59">
-        <v>0.54166666666666663</v>
+        <v>0.52569444444444446</v>
       </c>
       <c r="E22" s="59">
-        <v>0.58333333333333337</v>
+        <v>0.53611111111111109</v>
       </c>
       <c r="F22" s="59">
         <f>E22-D22</f>
-        <v>4.1666666666666741E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H22" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I22" s="59">
         <f>SUMIFS(F17:F31, C17:C31,H22)</f>
-        <v>2.5694444444444353E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -40555,22 +40596,18 @@
       <c r="C23" s="43" t="s">
         <v>382</v>
       </c>
-      <c r="D23" s="59">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E23" s="59">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="59">
         <f>E23-D23</f>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I23" s="59">
         <f>SUMIFS(F17:F31, C17:C31,H23)</f>
-        <v>5.9027777777777957E-2</v>
+        <v>4.5138888888888784E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -40579,22 +40616,18 @@
       <c r="C24" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="D24" s="59">
-        <v>0.65486111111111112</v>
-      </c>
-      <c r="E24" s="59">
-        <v>0.68055555555555547</v>
-      </c>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="59">
         <f>E24-D24</f>
-        <v>2.5694444444444353E-2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I24" s="57">
         <f>SUM(I18:I23)</f>
-        <v>0.35902777777777772</v>
+        <v>0.15277777777777768</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -40603,15 +40636,11 @@
       <c r="C25" s="43" t="s">
         <v>386</v>
       </c>
-      <c r="D25" s="59">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="E25" s="59">
-        <v>0.6875</v>
-      </c>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="59">
         <f>E25-D25</f>
-        <v>6.9444444444445308E-3</v>
+        <v>0</v>
       </c>
       <c r="I25" s="61"/>
     </row>
@@ -40621,15 +40650,11 @@
       <c r="C26" s="43" t="s">
         <v>379</v>
       </c>
-      <c r="D26" s="59">
-        <v>0.70486111111111116</v>
-      </c>
-      <c r="E26" s="59">
-        <v>0.7270833333333333</v>
-      </c>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="59">
         <f>E26-D26</f>
-        <v>2.2222222222222143E-2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="61"/>
     </row>
@@ -40639,15 +40664,11 @@
       <c r="C27" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="D27" s="59">
-        <v>0.7270833333333333</v>
-      </c>
-      <c r="E27" s="59">
-        <v>0.78472222222222221</v>
-      </c>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="59">
         <f>E27-D27</f>
-        <v>5.7638888888888906E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -40701,7 +40722,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>947</v>
+        <v>958</v>
       </c>
       <c r="C32" s="43" t="s">
         <v>387</v>
@@ -40726,7 +40747,7 @@
     <row r="33" spans="1:9">
       <c r="A33" s="65"/>
       <c r="B33" s="43" t="s">
-        <v>948</v>
+        <v>959</v>
       </c>
       <c r="C33" s="43" t="s">
         <v>382</v>
@@ -40778,7 +40799,7 @@
     <row r="35" spans="1:9">
       <c r="A35" s="65"/>
       <c r="B35" t="s">
-        <v>949</v>
+        <v>960</v>
       </c>
       <c r="C35" s="43" t="s">
         <v>382</v>
@@ -40954,7 +40975,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>950</v>
+        <v>961</v>
       </c>
       <c r="C47" s="43" t="s">
         <v>382</v>
@@ -41005,7 +41026,7 @@
     <row r="49" spans="1:9">
       <c r="A49" s="65"/>
       <c r="B49" s="43" t="s">
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="C49" s="43" t="s">
         <v>382</v>
@@ -41034,7 +41055,7 @@
         <v>499</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D50" s="59">
         <v>0.52430555555555558</v>
@@ -41057,7 +41078,7 @@
     <row r="51" spans="1:9">
       <c r="A51" s="65"/>
       <c r="B51" s="43" t="s">
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="C51" s="43" t="s">
         <v>382</v>
@@ -41077,7 +41098,7 @@
       </c>
       <c r="I51" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H51)</f>
-        <v>0</v>
+        <v>1.1805555555555514E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -41095,7 +41116,7 @@
       </c>
       <c r="I52" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H52)</f>
-        <v>1.1805555555555514E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -41475,7 +41496,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>952</v>
+        <v>963</v>
       </c>
       <c r="C77" s="43" t="s">
         <v>382</v>
@@ -41500,7 +41521,7 @@
     <row r="78" spans="1:9">
       <c r="A78" s="65"/>
       <c r="B78" s="43" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>382</v>
@@ -41552,7 +41573,7 @@
     <row r="80" spans="1:9">
       <c r="A80" s="65"/>
       <c r="B80" s="43" t="s">
-        <v>952</v>
+        <v>963</v>
       </c>
       <c r="C80" s="43" t="s">
         <v>382</v>
@@ -41578,7 +41599,7 @@
     <row r="81" spans="1:9">
       <c r="A81" s="65"/>
       <c r="B81" s="43" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="C81" s="43" t="s">
         <v>382</v>
@@ -41604,7 +41625,7 @@
     <row r="82" spans="1:9">
       <c r="A82" s="65"/>
       <c r="B82" s="43" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
       <c r="C82" s="43" t="s">
         <v>382</v>
@@ -41630,7 +41651,7 @@
     <row r="83" spans="1:9">
       <c r="A83" s="65"/>
       <c r="B83" s="43" t="s">
-        <v>956</v>
+        <v>966</v>
       </c>
       <c r="C83" s="43" t="s">
         <v>382</v>
@@ -41800,7 +41821,7 @@
     <row r="93" spans="1:9">
       <c r="A93" s="65"/>
       <c r="B93" s="43" t="s">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="C93" s="43" t="s">
         <v>382</v>
@@ -41820,7 +41841,7 @@
       </c>
       <c r="I93" s="59">
         <f>SUMIFS(F92:F106, C92:C106,H93)</f>
-        <v>0.11458333333333326</v>
+        <v>0.15624999999999989</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -41852,7 +41873,7 @@
     <row r="95" spans="1:9">
       <c r="A95" s="65"/>
       <c r="B95" s="43" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="C95" s="43" t="s">
         <v>382</v>
@@ -41903,13 +41924,21 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="65"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="59"/>
+      <c r="B97" s="43" t="s">
+        <v>969</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D97" s="59">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="E97" s="59">
+        <v>0.57986111111111105</v>
+      </c>
       <c r="F97" s="59">
         <f>E97-D97</f>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H97" s="60" t="s">
         <v>390</v>
@@ -41952,7 +41981,7 @@
       </c>
       <c r="I99" s="57">
         <f>SUM(I93:I98)</f>
-        <v>0.13541666666666657</v>
+        <v>0.1770833333333332</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -43229,17 +43258,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5E999A0-5625-46CA-89D5-E8750354046A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{177557FF-3786-40A4-9E3F-5AC6DF082D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="26" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4541" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="997">
   <si>
     <t>Resource Name</t>
   </si>
@@ -3473,6 +3473,15 @@
     <t>Working  on Web Api Integration (Specific Queries)</t>
   </si>
   <si>
+    <t>Working on sample Image to base 64 converter</t>
+  </si>
+  <si>
+    <t>Working On specific Ouery integration</t>
+  </si>
+  <si>
+    <t>Started Working on Homepage Integration</t>
+  </si>
+  <si>
     <t>Worked on the Integration of web API and Angular</t>
   </si>
   <si>
@@ -3552,6 +3561,21 @@
   </si>
   <si>
     <t>Working on validation for the register page</t>
+  </si>
+  <si>
+    <t>Working on Trending Query integration</t>
+  </si>
+  <si>
+    <t>Testing Article Like Web API(Swagger)</t>
+  </si>
+  <si>
+    <t>Made Correction in trending query page</t>
+  </si>
+  <si>
+    <t>Working On ToReview Page Integration</t>
+  </si>
+  <si>
+    <t>Working on Article Reviewed Page</t>
   </si>
 </sst>
 </file>
@@ -32980,7 +33004,7 @@
   <dimension ref="A1:Q166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36610,8 +36634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61C16C3-0977-49CD-B2B2-96C4E051AB76}">
   <dimension ref="A1:S166"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="H130" sqref="H130"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39503,7 +39527,7 @@
       </c>
       <c r="I138" s="59">
         <f>SUMIFS(F137:F151, C137:C151,H138)</f>
-        <v>0.33333333333333337</v>
+        <v>0.35416666666666674</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -39555,7 +39579,7 @@
       </c>
       <c r="I140" s="59">
         <f>SUMIFS(F137:F151, C137:C151,H140)</f>
-        <v>6.3020833333333304E-2</v>
+        <v>5.8159722222222099E-2</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -39581,7 +39605,7 @@
       </c>
       <c r="I141" s="59">
         <f>SUMIFS(F137:F151, C137:C151,H141)</f>
-        <v>4.513888888888884E-2</v>
+        <v>2.2222222222222143E-2</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -39659,7 +39683,7 @@
       </c>
       <c r="I144" s="57">
         <f>SUM(I138:I143)</f>
-        <v>0.52482638888888888</v>
+        <v>0.51788194444444435</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -39708,67 +39732,74 @@
         <v>831</v>
       </c>
       <c r="C147" s="43" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D147" s="59">
-        <v>0.70138888888888884</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="E147" s="59">
-        <v>0.72222222222222221</v>
+        <v>0.7270833333333333</v>
       </c>
       <c r="F147" s="59">
         <f>E147-D147</f>
-        <v>2.083333333333337E-2</v>
+        <v>2.2222222222222143E-2</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="65"/>
+      <c r="B148" t="s">
+        <v>962</v>
+      </c>
       <c r="C148" s="43" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="D148" s="59">
-        <v>0.73958333333333337</v>
+        <v>0.7270833333333333</v>
       </c>
       <c r="E148" s="59">
-        <v>0.78472222222222221</v>
+        <v>0.74305555555555547</v>
       </c>
       <c r="F148" s="59">
         <f>E148-D148</f>
-        <v>4.513888888888884E-2</v>
+        <v>1.5972222222222165E-2</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="65"/>
-      <c r="B149" s="43"/>
+      <c r="B149" s="43" t="s">
+        <v>963</v>
+      </c>
       <c r="C149" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D149" s="59">
-        <v>0.78472222222222221</v>
+        <v>0.74305555555555547</v>
       </c>
       <c r="E149" s="59">
         <v>0.80902777777777779</v>
       </c>
       <c r="F149" s="59">
         <f>E149-D149</f>
-        <v>2.430555555555558E-2</v>
+        <v>6.5972222222222321E-2</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="65"/>
-      <c r="B150" s="43"/>
+      <c r="B150" s="43" t="s">
+        <v>964</v>
+      </c>
       <c r="C150" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D150" s="59">
-        <v>0.91666666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="E150" s="59">
-        <v>0.95833333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F150" s="59">
         <f>E150-D150</f>
-        <v>4.1666666666666741E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -40162,8 +40193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA1F7AD-8C67-4E9B-9EA9-26C42CBBA840}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40209,7 +40240,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>382</v>
@@ -40257,7 +40288,7 @@
       </c>
       <c r="I3" s="59">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>0.19791666666666663</v>
+        <v>0.19791666666666652</v>
       </c>
       <c r="Q3" t="s">
         <v>384</v>
@@ -40266,7 +40297,7 @@
     <row r="4" spans="1:17">
       <c r="A4" s="65"/>
       <c r="B4" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>382</v>
@@ -40295,7 +40326,7 @@
     <row r="5" spans="1:17">
       <c r="A5" s="65"/>
       <c r="B5" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>382</v>
@@ -40323,28 +40354,28 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="65"/>
-      <c r="B6" s="43" t="s">
-        <v>965</v>
+      <c r="B6" s="62" t="s">
+        <v>601</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D6" s="59">
-        <v>0.51041666666666663</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="E6" s="59">
-        <v>0.5625</v>
+        <v>0.5395833333333333</v>
       </c>
       <c r="F6" s="59">
         <f>E6-D6</f>
-        <v>5.208333333333337E-2</v>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="H6" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I6" s="59">
         <f>SUMIFS(F2:F16, C2:C16,H6)</f>
-        <v>0</v>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="Q6" t="s">
         <v>390</v>
@@ -40352,8 +40383,12 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="65"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="43" t="s">
+        <v>968</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>382</v>
+      </c>
       <c r="D7" s="59">
         <v>0.55208333333333337</v>
       </c>
@@ -40377,7 +40412,6 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="65"/>
-      <c r="B8" s="43"/>
       <c r="C8" s="43"/>
       <c r="D8" s="59">
         <v>0.60416666666666663</v>
@@ -40416,7 +40450,7 @@
       </c>
       <c r="I9" s="57">
         <f>SUM(I3:I8)</f>
-        <v>0.20833333333333331</v>
+        <v>0.22569444444444425</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -40523,7 +40557,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="C17" s="43" t="s">
         <v>382</v>
@@ -40548,7 +40582,7 @@
     <row r="18" spans="1:9">
       <c r="A18" s="65"/>
       <c r="B18" s="43" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C18" s="43" t="s">
         <v>382</v>
@@ -40574,7 +40608,7 @@
     <row r="19" spans="1:9">
       <c r="A19" s="65"/>
       <c r="B19" s="43" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>382</v>
@@ -40600,7 +40634,7 @@
     <row r="20" spans="1:9">
       <c r="A20" s="65"/>
       <c r="B20" s="43" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>387</v>
@@ -40652,7 +40686,7 @@
     <row r="22" spans="1:9">
       <c r="A22" s="65"/>
       <c r="B22" s="62" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>379</v>
@@ -40807,7 +40841,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="C32" s="43" t="s">
         <v>387</v>
@@ -40832,7 +40866,7 @@
     <row r="33" spans="1:9">
       <c r="A33" s="65"/>
       <c r="B33" s="43" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="C33" s="43" t="s">
         <v>382</v>
@@ -40884,7 +40918,7 @@
     <row r="35" spans="1:9">
       <c r="A35" s="65"/>
       <c r="B35" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="C35" s="43" t="s">
         <v>382</v>
@@ -41060,7 +41094,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="C47" s="43" t="s">
         <v>382</v>
@@ -41111,7 +41145,7 @@
     <row r="49" spans="1:9">
       <c r="A49" s="65"/>
       <c r="B49" s="43" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="C49" s="43" t="s">
         <v>382</v>
@@ -41163,7 +41197,7 @@
     <row r="51" spans="1:9">
       <c r="A51" s="65"/>
       <c r="B51" s="43" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="C51" s="43" t="s">
         <v>382</v>
@@ -41561,7 +41595,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="C77" s="43" t="s">
         <v>382</v>
@@ -41586,7 +41620,7 @@
     <row r="78" spans="1:9">
       <c r="A78" s="65"/>
       <c r="B78" s="43" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>382</v>
@@ -41638,7 +41672,7 @@
     <row r="80" spans="1:9">
       <c r="A80" s="65"/>
       <c r="B80" s="43" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="C80" s="43" t="s">
         <v>382</v>
@@ -41664,7 +41698,7 @@
     <row r="81" spans="1:9">
       <c r="A81" s="65"/>
       <c r="B81" s="43" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="C81" s="43" t="s">
         <v>382</v>
@@ -41690,7 +41724,7 @@
     <row r="82" spans="1:9">
       <c r="A82" s="65"/>
       <c r="B82" s="43" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="C82" s="43" t="s">
         <v>382</v>
@@ -41716,7 +41750,7 @@
     <row r="83" spans="1:9">
       <c r="A83" s="65"/>
       <c r="B83" s="43" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="C83" s="43" t="s">
         <v>382</v>
@@ -41886,7 +41920,7 @@
     <row r="93" spans="1:9">
       <c r="A93" s="65"/>
       <c r="B93" s="43" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="C93" s="43" t="s">
         <v>382</v>
@@ -41938,7 +41972,7 @@
     <row r="95" spans="1:9">
       <c r="A95" s="65"/>
       <c r="B95" s="43" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="C95" s="43" t="s">
         <v>382</v>
@@ -41990,7 +42024,7 @@
     <row r="97" spans="1:9">
       <c r="A97" s="65"/>
       <c r="B97" s="43" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="C97" s="43" t="s">
         <v>382</v>
@@ -42130,7 +42164,7 @@
         <v>16</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="C107" s="43" t="s">
         <v>382</v>
@@ -42181,7 +42215,7 @@
     <row r="109" spans="1:9">
       <c r="A109" s="65"/>
       <c r="B109" s="43" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="C109" s="43" t="s">
         <v>382</v>
@@ -42233,7 +42267,7 @@
     <row r="111" spans="1:9">
       <c r="A111" s="65"/>
       <c r="B111" s="43" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="C111" s="43" t="s">
         <v>382</v>
@@ -42259,7 +42293,7 @@
     <row r="112" spans="1:9">
       <c r="A112" s="65"/>
       <c r="B112" s="43" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="C112" s="43" t="s">
         <v>382</v>
@@ -42402,7 +42436,7 @@
         <v>17</v>
       </c>
       <c r="B122" s="43" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="C122" s="43" t="s">
         <v>382</v>
@@ -42453,7 +42487,7 @@
     <row r="124" spans="1:9">
       <c r="A124" s="65"/>
       <c r="B124" s="43" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="C124" s="43" t="s">
         <v>382</v>
@@ -42505,7 +42539,7 @@
     <row r="126" spans="1:9">
       <c r="A126" s="65"/>
       <c r="B126" s="43" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="C126" s="43" t="s">
         <v>382</v>
@@ -42665,7 +42699,9 @@
       <c r="A137" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B137" s="43"/>
+      <c r="B137" s="43" t="s">
+        <v>762</v>
+      </c>
       <c r="C137" s="43" t="s">
         <v>382</v>
       </c>
@@ -42688,7 +42724,9 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="65"/>
-      <c r="B138" s="43"/>
+      <c r="B138" s="43" t="s">
+        <v>992</v>
+      </c>
       <c r="C138" s="43" t="s">
         <v>382</v>
       </c>
@@ -42696,206 +42734,220 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="E138" s="59">
-        <v>0.40277777777777773</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="F138" s="59">
         <f>E138-D138</f>
-        <v>3.819444444444442E-2</v>
+        <v>5.902777777777779E-2</v>
       </c>
       <c r="H138" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I138" s="59">
         <f>SUMIFS(F137:F151, C137:C151,H138)</f>
-        <v>0.33541666666666659</v>
+        <v>0.3333333333333332</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="65"/>
-      <c r="B139" s="43"/>
+      <c r="B139" s="43" t="s">
+        <v>385</v>
+      </c>
       <c r="C139" s="43" t="s">
         <v>386</v>
       </c>
       <c r="D139" s="59">
-        <v>0.40277777777777773</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="E139" s="59">
-        <v>0.41666666666666669</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F139" s="59">
         <f>E139-D139</f>
-        <v>1.3888888888888951E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H139" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I139" s="59">
         <f>SUMIFS(F137:F151, C137:C151,H139)</f>
-        <v>1.3888888888888951E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="65"/>
-      <c r="B140" s="43"/>
+      <c r="B140" s="43" t="s">
+        <v>993</v>
+      </c>
       <c r="C140" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D140" s="59">
-        <v>0.41666666666666669</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="E140" s="59">
-        <v>0.5</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F140" s="59">
         <f>E140-D140</f>
-        <v>8.3333333333333315E-2</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="H140" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I140" s="59">
         <f>SUMIFS(F137:F151, C137:C151,H140)</f>
-        <v>4.2187499999999933E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="65"/>
-      <c r="B141" s="43"/>
+      <c r="B141" t="s">
+        <v>967</v>
+      </c>
       <c r="C141" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D141" s="59">
-        <v>0.5</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E141" s="59">
-        <v>0.54166666666666663</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F141" s="59">
         <f>E141-D141</f>
-        <v>4.166666666666663E-2</v>
+        <v>3.1249999999999944E-2</v>
       </c>
       <c r="H141" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I141" s="59">
         <f>SUMIFS(F137:F151, C137:C151,H141)</f>
-        <v>1.388888888888884E-2</v>
+        <v>1.7361111111111049E-2</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="65"/>
-      <c r="B142" s="43"/>
+      <c r="B142" s="43" t="s">
+        <v>401</v>
+      </c>
       <c r="C142" s="43" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D142" s="59">
-        <v>0.54166666666666663</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="E142" s="59">
-        <v>0.56944444444444442</v>
+        <v>0.5395833333333333</v>
       </c>
       <c r="F142" s="59">
         <f>E142-D142</f>
-        <v>2.777777777777779E-2</v>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="H142" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I142" s="59">
         <f>SUMIFS(F137:F151, C137:C151,H142)</f>
-        <v>6.1111111111111005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="65"/>
-      <c r="B143" s="43"/>
+      <c r="B143" s="43" t="s">
+        <v>994</v>
+      </c>
       <c r="C143" s="43" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D143" s="59">
-        <v>0.56944444444444442</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E143" s="59">
         <v>0.58333333333333337</v>
       </c>
       <c r="F143" s="59">
         <f>E143-D143</f>
-        <v>1.3888888888888951E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="H143" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I143" s="59">
         <f>SUMIFS(F137:F151, C137:C151,H143)</f>
-        <v>5.2083333333333481E-2</v>
+        <v>6.805555555555548E-2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="65"/>
-      <c r="B144" s="43"/>
+      <c r="B144" s="43" t="s">
+        <v>406</v>
+      </c>
       <c r="C144" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D144" s="59">
         <v>0.58472222222222225</v>
       </c>
       <c r="E144" s="59">
-        <v>0.625</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="F144" s="59">
         <f>E144-D144</f>
-        <v>4.0277777777777746E-2</v>
+        <v>4.7222222222222165E-2</v>
       </c>
       <c r="H144" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I144" s="57">
         <f>SUM(I138:I143)</f>
-        <v>0.5185763888888888</v>
+        <v>0.41874999999999973</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="65"/>
-      <c r="B145" s="43"/>
+      <c r="B145" s="43" t="s">
+        <v>995</v>
+      </c>
       <c r="C145" s="43" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D145" s="59">
-        <v>0.64583333333333337</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="E145" s="59">
-        <v>0.70694444444444438</v>
+        <v>0.8125</v>
       </c>
       <c r="F145" s="59">
         <f>E145-D145</f>
-        <v>6.1111111111111005E-2</v>
+        <v>9.722222222222221E-2</v>
       </c>
       <c r="I145" s="61"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="65"/>
-      <c r="B146" s="43"/>
+      <c r="B146" s="43" t="s">
+        <v>996</v>
+      </c>
       <c r="C146" s="43" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D146" s="59">
-        <v>0.71527777777777779</v>
+        <v>0.88194444444444453</v>
       </c>
       <c r="E146" s="59">
-        <v>0.72916666666666663</v>
+        <v>0.93055555555555547</v>
       </c>
       <c r="F146" s="59">
         <f>E146-D146</f>
-        <v>1.388888888888884E-2</v>
+        <v>4.8611111111110938E-2</v>
       </c>
       <c r="I146" s="61"/>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="65"/>
       <c r="B147" s="43"/>
-      <c r="C147" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C147" s="43"/>
       <c r="D147" s="59">
         <v>0.72916666666666663</v>
       </c>
@@ -42910,9 +42962,7 @@
     <row r="148" spans="1:9">
       <c r="A148" s="65"/>
       <c r="B148" s="43"/>
-      <c r="C148" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C148" s="43"/>
       <c r="D148" s="59">
         <v>0.73958333333333337</v>
       </c>
@@ -42927,9 +42977,7 @@
     <row r="149" spans="1:9">
       <c r="A149" s="65"/>
       <c r="B149" s="43"/>
-      <c r="C149" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C149" s="43"/>
       <c r="D149" s="59">
         <v>0.78472222222222221</v>
       </c>
@@ -42944,9 +42992,7 @@
     <row r="150" spans="1:9">
       <c r="A150" s="65"/>
       <c r="B150" s="43"/>
-      <c r="C150" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C150" s="43"/>
       <c r="D150" s="59">
         <v>0.91666666666666663</v>
       </c>
@@ -42961,9 +43007,7 @@
     <row r="151" spans="1:9">
       <c r="A151" s="65"/>
       <c r="B151" s="43"/>
-      <c r="C151" s="43" t="s">
-        <v>387</v>
-      </c>
+      <c r="C151" s="43"/>
       <c r="D151" s="59">
         <v>0.95833333333333337</v>
       </c>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{177557FF-3786-40A4-9E3F-5AC6DF082D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17DF9F01-B51F-40CF-9227-2C1EFF86DBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="26" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="26" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4549" uniqueCount="997">
   <si>
     <t>Resource Name</t>
   </si>
@@ -3533,7 +3533,7 @@
     <t>In my laptop,Rectified the errorr which occured while building API</t>
   </si>
   <si>
-    <t>Created  datas for master table and User table</t>
+    <t>Created  datas for master table and table values</t>
   </si>
   <si>
     <t>worked on responsive reviewer side</t>
@@ -36634,8 +36634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61C16C3-0977-49CD-B2B2-96C4E051AB76}">
   <dimension ref="A1:S166"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37293,9 +37293,7 @@
     <row r="28" spans="1:9">
       <c r="A28" s="65"/>
       <c r="B28" s="43"/>
-      <c r="C28" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C28" s="43"/>
       <c r="D28" s="63"/>
       <c r="E28" s="63"/>
       <c r="F28" s="59">
@@ -38618,7 +38616,7 @@
       </c>
       <c r="I93" s="59">
         <f>SUMIFS(F92:F106, C92:C106,H93)</f>
-        <v>0.25902777777777786</v>
+        <v>0.30069444444444449</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -38748,7 +38746,7 @@
       </c>
       <c r="I98" s="59">
         <f>SUMIFS(F92:F106, C92:C106,H98)</f>
-        <v>5.2083333333333481E-2</v>
+        <v>5.555555555555558E-2</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -38760,21 +38758,21 @@
         <v>386</v>
       </c>
       <c r="D99" s="59">
-        <v>0.71180555555555547</v>
+        <v>0.6875</v>
       </c>
       <c r="E99" s="59">
-        <v>0.72222222222222221</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="F99" s="59">
         <f>E99-D99</f>
-        <v>1.0416666666666741E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H99" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I99" s="57">
         <f>SUM(I93:I98)</f>
-        <v>0.36111111111111127</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -38786,10 +38784,10 @@
         <v>379</v>
       </c>
       <c r="D100" s="59">
-        <v>0.74652777777777779</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="E100" s="59">
-        <v>0.76874999999999993</v>
+        <v>0.7270833333333333</v>
       </c>
       <c r="F100" s="59">
         <f>E100-D100</f>
@@ -38806,14 +38804,14 @@
         <v>382</v>
       </c>
       <c r="D101" s="59">
-        <v>0.76874999999999993</v>
+        <v>0.7270833333333333</v>
       </c>
       <c r="E101" s="59">
         <v>0.8125</v>
       </c>
       <c r="F101" s="59">
         <f>E101-D101</f>
-        <v>4.3750000000000067E-2</v>
+        <v>8.5416666666666696E-2</v>
       </c>
       <c r="I101" s="61"/>
     </row>
@@ -39579,7 +39577,7 @@
       </c>
       <c r="I140" s="59">
         <f>SUMIFS(F137:F151, C137:C151,H140)</f>
-        <v>5.8159722222222099E-2</v>
+        <v>1.5972222222222165E-2</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -39683,7 +39681,7 @@
       </c>
       <c r="I144" s="57">
         <f>SUM(I138:I143)</f>
-        <v>0.51788194444444435</v>
+        <v>0.47569444444444442</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -39805,9 +39803,7 @@
     <row r="151" spans="1:9">
       <c r="A151" s="65"/>
       <c r="B151" s="43"/>
-      <c r="C151" s="43" t="s">
-        <v>387</v>
-      </c>
+      <c r="C151" s="43"/>
       <c r="D151" s="59">
         <v>0.95833333333333337</v>
       </c>
@@ -40193,7 +40189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA1F7AD-8C67-4E9B-9EA9-26C42CBBA840}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+    <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B61CE30C-85FE-4E1E-B3BC-16C2CDD46E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A7CBBAB-F16F-4AD0-BAE1-02803B8EB53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="29" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="28" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5750" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5788" uniqueCount="1132">
   <si>
     <t>Resource Name</t>
   </si>
@@ -3738,6 +3738,18 @@
     <t>Shown the Integrated pages to Raffi</t>
   </si>
   <si>
+    <t>Sequence diagram for login page</t>
+  </si>
+  <si>
+    <t>Changes in web api</t>
+  </si>
+  <si>
+    <t>Team Meet</t>
+  </si>
+  <si>
+    <t>Spams in webapi</t>
+  </si>
+  <si>
     <t>Brain Stroming and Time Sheet Filling</t>
   </si>
   <si>
@@ -3834,6 +3846,9 @@
     <t>Explored on the Filter in angular</t>
   </si>
   <si>
+    <t>Checked the responsive for each pages</t>
+  </si>
+  <si>
     <t>Brainstroming and TimeSheet Filled</t>
   </si>
   <si>
@@ -3858,6 +3873,27 @@
     <t>Explored on Sessions in Angular</t>
   </si>
   <si>
+    <t>Explored about sequence diagram</t>
+  </si>
+  <si>
+    <t>Viewed the services.</t>
+  </si>
+  <si>
+    <t>Started working on Sequence diagram</t>
+  </si>
+  <si>
+    <t>Sequence diagram for Register page</t>
+  </si>
+  <si>
+    <t>Sequence diagram for Trending Articles,Trending Queries,Latest Articles,Latest Queries</t>
+  </si>
+  <si>
+    <t>Sequence diagram</t>
+  </si>
+  <si>
+    <t>Worked on webapi changes</t>
+  </si>
+  <si>
     <t>Explored on Post Method integration</t>
   </si>
   <si>
@@ -3913,6 +3949,27 @@
   </si>
   <si>
     <t>Working on token storage</t>
+  </si>
+  <si>
+    <t>Worked on the Path for specific article</t>
+  </si>
+  <si>
+    <t>Worked on the path for specifc Query</t>
+  </si>
+  <si>
+    <t>Started Working on the Routing</t>
+  </si>
+  <si>
+    <t>Worked on the Filter in Query card</t>
+  </si>
+  <si>
+    <t>Started Working on the Filter in Article card</t>
+  </si>
+  <si>
+    <t>Worked on the search filter in the article card</t>
+  </si>
+  <si>
+    <t>Explored on date Filter in the search and radio filter</t>
   </si>
   <si>
     <t>Explored on Filter</t>
@@ -44269,7 +44326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7CED04-2484-4354-8DC0-B3972936AF79}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
@@ -47681,8 +47738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE3EB6B-9D29-4F93-B7EA-2956F94B4F8B}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -48073,7 +48130,9 @@
       <c r="A17" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="C17" s="43" t="s">
         <v>382</v>
       </c>
@@ -48670,11 +48729,11 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="E47" s="59">
-        <v>0.43402777777777773</v>
+        <v>0.3923611111111111</v>
       </c>
       <c r="F47" s="59">
         <f>E47-D47</f>
-        <v>7.9861111111111049E-2</v>
+        <v>3.819444444444442E-2</v>
       </c>
       <c r="H47" s="57" t="s">
         <v>380</v>
@@ -48704,7 +48763,7 @@
       </c>
       <c r="I48" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.29513888888888878</v>
+        <v>0.25347222222222215</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -48846,7 +48905,7 @@
       </c>
       <c r="I54" s="57">
         <f>SUM(I48:I53)</f>
-        <v>0.4722222222222221</v>
+        <v>0.43055555555555547</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -48938,17 +48997,21 @@
       <c r="A62" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="64"/>
-      <c r="C62" s="43"/>
+      <c r="B62" s="64" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>382</v>
+      </c>
       <c r="D62" s="59">
         <v>0.375</v>
       </c>
       <c r="E62" s="59">
-        <v>38.416666666666664</v>
+        <v>38.395833333333336</v>
       </c>
       <c r="F62" s="59">
         <f>E62-D62</f>
-        <v>38.041666666666664</v>
+        <v>38.020833333333336</v>
       </c>
       <c r="H62" s="57" t="s">
         <v>380</v>
@@ -48959,39 +49022,47 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="66"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
+      <c r="B63" s="43" t="s">
+        <v>771</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>387</v>
+      </c>
       <c r="D63" s="59">
-        <v>0.41666666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E63" s="59">
-        <v>0.4375</v>
+        <v>0.44097222222222227</v>
       </c>
       <c r="F63" s="59">
         <f>E63-D63</f>
-        <v>2.0833333333333315E-2</v>
+        <v>4.5138888888888951E-2</v>
       </c>
       <c r="H63" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I63" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H63)</f>
-        <v>0</v>
+        <v>38.296527777777776</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="66"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
+      <c r="B64" s="43" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>382</v>
+      </c>
       <c r="D64" s="59">
-        <v>0.4381944444444445</v>
+        <v>0.44166666666666665</v>
       </c>
       <c r="E64" s="59">
-        <v>0.4513888888888889</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F64" s="59">
         <f>E64-D64</f>
-        <v>1.3194444444444398E-2</v>
+        <v>1.6666666666666663E-2</v>
       </c>
       <c r="H64" s="60" t="s">
         <v>384</v>
@@ -49003,39 +49074,47 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="66"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
+      <c r="B65" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>386</v>
+      </c>
       <c r="D65" s="59">
-        <v>0.4513888888888889</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E65" s="59">
-        <v>0.5625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F65" s="59">
         <f>E65-D65</f>
-        <v>0.1111111111111111</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H65" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I65" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H65)</f>
-        <v>0</v>
+        <v>4.5138888888888951E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="66"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
+      <c r="B66" s="43" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>382</v>
+      </c>
       <c r="D66" s="59">
-        <v>0.5625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E66" s="59">
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F66" s="59">
         <f>E66-D66</f>
-        <v>2.083333333333337E-2</v>
+        <v>6.2499999999999944E-2</v>
       </c>
       <c r="H66" s="60" t="s">
         <v>379</v>
@@ -49047,111 +49126,139 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="66"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
+      <c r="B67" s="43" t="s">
+        <v>545</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>386</v>
+      </c>
       <c r="D67" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E67" s="59">
         <v>0.58333333333333337</v>
-      </c>
-      <c r="E67" s="59">
-        <v>0.64236111111111105</v>
       </c>
       <c r="F67" s="59">
         <f>E67-D67</f>
-        <v>5.9027777777777679E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="H67" s="60" t="s">
         <v>390</v>
       </c>
       <c r="I67" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H67)</f>
-        <v>0</v>
+        <v>2.3611111111111027E-2</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="66"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
+      <c r="B68" s="43" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>382</v>
+      </c>
       <c r="D68" s="59">
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="E68" s="59">
         <v>0.64583333333333337</v>
-      </c>
-      <c r="E68" s="59">
-        <v>0.70694444444444438</v>
       </c>
       <c r="F68" s="59">
         <f>E68-D68</f>
-        <v>6.1111111111111005E-2</v>
+        <v>6.1111111111111116E-2</v>
       </c>
       <c r="H68" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I68" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H68)</f>
-        <v>0</v>
+        <v>7.6388888888888951E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="66"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
+      <c r="B69" s="43" t="s">
+        <v>839</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>390</v>
+      </c>
       <c r="D69" s="59">
-        <v>0.71527777777777779</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="E69" s="59">
-        <v>0.72916666666666663</v>
+        <v>0.67291666666666661</v>
       </c>
       <c r="F69" s="59">
         <f>E69-D69</f>
-        <v>1.388888888888884E-2</v>
+        <v>2.3611111111111027E-2</v>
       </c>
       <c r="H69" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I69" s="57">
         <f>SUM(I63:I68)</f>
-        <v>0</v>
+        <v>38.441666666666656</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="66"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
+      <c r="B70" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>386</v>
+      </c>
       <c r="D70" s="59">
-        <v>0.72916666666666663</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="E70" s="59">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="F70" s="59">
         <f>E70-D70</f>
-        <v>2.083333333333337E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="I70" s="61"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="66"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
+      <c r="B71" s="43" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>382</v>
+      </c>
       <c r="D71" s="59">
-        <v>0.75624999999999998</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="E71" s="59">
-        <v>0.85416666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F71" s="59">
         <f>E71-D71</f>
-        <v>9.7916666666666652E-2</v>
+        <v>1.0416666666666741E-2</v>
       </c>
       <c r="I71" s="61"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="66"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
+      <c r="B72" s="43" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D72" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E72" s="59">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F72" s="59">
         <f>E72-D72</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -49203,7 +49310,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="C77" s="43" t="s">
         <v>382</v>
@@ -49228,7 +49335,7 @@
     <row r="78" spans="1:9">
       <c r="A78" s="66"/>
       <c r="B78" s="43" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>382</v>
@@ -49280,7 +49387,7 @@
     <row r="80" spans="1:9">
       <c r="A80" s="66"/>
       <c r="B80" s="43" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="C80" s="43" t="s">
         <v>382</v>
@@ -49306,7 +49413,7 @@
     <row r="81" spans="1:9">
       <c r="A81" s="66"/>
       <c r="B81" s="43" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="C81" s="43" t="s">
         <v>382</v>
@@ -49358,7 +49465,7 @@
     <row r="83" spans="1:9">
       <c r="A83" s="66"/>
       <c r="B83" s="43" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="C83" s="43" t="s">
         <v>382</v>
@@ -49450,7 +49557,7 @@
     <row r="87" spans="1:9">
       <c r="A87" s="66"/>
       <c r="B87" s="43" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="C87" s="43" t="s">
         <v>382</v>
@@ -49812,7 +49919,7 @@
         <v>16</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="C107" s="43" t="s">
         <v>382</v>
@@ -49863,7 +49970,7 @@
     <row r="109" spans="1:9">
       <c r="A109" s="66"/>
       <c r="B109" s="43" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="C109" s="43" t="s">
         <v>382</v>
@@ -49889,7 +49996,7 @@
     <row r="110" spans="1:9">
       <c r="A110" s="66"/>
       <c r="B110" s="43" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="C110" s="43" t="s">
         <v>382</v>
@@ -49915,7 +50022,7 @@
     <row r="111" spans="1:9">
       <c r="A111" s="66"/>
       <c r="B111" s="43" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="C111" s="43" t="s">
         <v>387</v>
@@ -49967,7 +50074,7 @@
     <row r="113" spans="1:9">
       <c r="A113" s="66"/>
       <c r="B113" s="43" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="C113" s="43" t="s">
         <v>382</v>
@@ -49993,7 +50100,7 @@
     <row r="114" spans="1:9">
       <c r="A114" s="66"/>
       <c r="B114" s="43" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="C114" s="43" t="s">
         <v>382</v>
@@ -50019,7 +50126,7 @@
     <row r="115" spans="1:9">
       <c r="A115" s="66"/>
       <c r="B115" s="43" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="C115" s="43" t="s">
         <v>390</v>
@@ -50078,7 +50185,7 @@
     <row r="118" spans="1:9">
       <c r="A118" s="66"/>
       <c r="B118" s="43" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="C118" s="43" t="s">
         <v>382</v>
@@ -50097,7 +50204,7 @@
     <row r="119" spans="1:9">
       <c r="A119" s="66"/>
       <c r="B119" s="43" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="C119" s="43" t="s">
         <v>390</v>
@@ -50430,7 +50537,7 @@
         <v>18</v>
       </c>
       <c r="B137" s="43" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="C137" s="43" t="s">
         <v>382</v>
@@ -50455,7 +50562,7 @@
     <row r="138" spans="1:9">
       <c r="A138" s="66"/>
       <c r="B138" s="43" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="C138" s="43" t="s">
         <v>382</v>
@@ -50507,7 +50614,7 @@
     <row r="140" spans="1:9">
       <c r="A140" s="66"/>
       <c r="B140" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="C140" s="43" t="s">
         <v>382</v>
@@ -50533,7 +50640,7 @@
     <row r="141" spans="1:9">
       <c r="A141" s="66"/>
       <c r="B141" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="C141" s="43" t="s">
         <v>382</v>
@@ -50585,7 +50692,7 @@
     <row r="143" spans="1:9">
       <c r="A143" s="66"/>
       <c r="B143" s="62" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="C143" s="43" t="s">
         <v>382</v>
@@ -50611,7 +50718,7 @@
     <row r="144" spans="1:9">
       <c r="A144" s="66"/>
       <c r="B144" s="43" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="C144" s="43" t="s">
         <v>390</v>
@@ -50677,7 +50784,7 @@
     <row r="147" spans="1:9">
       <c r="A147" s="66"/>
       <c r="B147" s="43" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="C147" s="43" t="s">
         <v>382</v>
@@ -50696,7 +50803,7 @@
     <row r="148" spans="1:9">
       <c r="A148" s="66"/>
       <c r="B148" s="43" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="C148" s="43" t="s">
         <v>382</v>
@@ -50734,7 +50841,7 @@
     <row r="150" spans="1:9">
       <c r="A150" s="66"/>
       <c r="B150" s="43" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="C150" s="43" t="s">
         <v>387</v>
@@ -51433,7 +51540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97616241-17FF-4000-AB9F-2895704B6EF5}">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -51480,7 +51587,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>382</v>
@@ -51537,7 +51644,7 @@
     <row r="4" spans="1:17">
       <c r="A4" s="66"/>
       <c r="B4" s="43" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>382</v>
@@ -51624,7 +51731,7 @@
     <row r="7" spans="1:17">
       <c r="A7" s="66"/>
       <c r="B7" s="62" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>382</v>
@@ -51679,7 +51786,7 @@
     <row r="9" spans="1:17">
       <c r="A9" s="66"/>
       <c r="B9" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>382</v>
@@ -51705,7 +51812,7 @@
     <row r="10" spans="1:17">
       <c r="A10" s="66"/>
       <c r="B10" s="43" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>382</v>
@@ -51745,7 +51852,7 @@
     <row r="12" spans="1:17">
       <c r="A12" s="66"/>
       <c r="B12" s="43" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>382</v>
@@ -51764,7 +51871,7 @@
     <row r="13" spans="1:17">
       <c r="A13" s="66"/>
       <c r="B13" s="43" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>382</v>
@@ -51783,7 +51890,7 @@
     <row r="14" spans="1:17">
       <c r="A14" s="66"/>
       <c r="B14" s="43" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="C14" s="43" t="s">
         <v>387</v>
@@ -51825,19 +51932,21 @@
       <c r="A17" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="43" t="s">
+        <v>499</v>
+      </c>
       <c r="C17" s="43" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D17" s="59">
         <v>0.375</v>
       </c>
       <c r="E17" s="59">
-        <v>0.41666666666666669</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="F17" s="59">
         <f>E17-D17</f>
-        <v>4.1666666666666685E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H17" s="57" t="s">
         <v>380</v>
@@ -51848,43 +51957,47 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="66"/>
-      <c r="B18" s="43"/>
+      <c r="B18" s="43" t="s">
+        <v>1085</v>
+      </c>
       <c r="C18" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D18" s="59">
-        <v>0.41666666666666669</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="E18" s="59">
-        <v>0.4375</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="F18" s="59">
         <f>E18-D18</f>
-        <v>2.0833333333333315E-2</v>
+        <v>7.9861111111111049E-2</v>
       </c>
       <c r="H18" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I18" s="59">
         <f>SUMIFS(F17:F31, C17:C31,H18)</f>
-        <v>9.7222222222222265E-2</v>
+        <v>-0.38888888888888901</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="66"/>
-      <c r="B19" s="43"/>
+      <c r="B19" s="43" t="s">
+        <v>502</v>
+      </c>
       <c r="C19" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D19" s="59">
-        <v>0.4375</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="E19" s="59">
-        <v>0.47222222222222227</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F19" s="59">
         <f>E19-D19</f>
-        <v>3.4722222222222265E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H19" s="60" t="s">
         <v>384</v>
@@ -51896,50 +52009,54 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="66"/>
-      <c r="B20" s="43"/>
+      <c r="B20" s="43" t="s">
+        <v>463</v>
+      </c>
       <c r="C20" s="43" t="s">
         <v>387</v>
       </c>
       <c r="D20" s="59">
-        <v>0.47222222222222227</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E20" s="59">
-        <v>0.50694444444444442</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F20" s="59">
         <f>E20-D20</f>
-        <v>3.4722222222222154E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H20" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I20" s="59">
         <f>SUMIFS(F17:F31, C17:C31,H20)</f>
-        <v>3.4722222222222154E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="66"/>
-      <c r="B21" s="43"/>
+      <c r="B21" s="43" t="s">
+        <v>1085</v>
+      </c>
       <c r="C21" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D21" s="59">
-        <v>0.5</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E21" s="59">
-        <v>0.51041666666666663</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="F21" s="59">
         <f>E21-D21</f>
-        <v>1.041666666666663E-2</v>
+        <v>-0.46875000000000006</v>
       </c>
       <c r="H21" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I21" s="59">
         <f>SUMIFS(F17:F31, C17:C31,H21)</f>
-        <v>1.041666666666663E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -51983,7 +52100,7 @@
       </c>
       <c r="I23" s="59">
         <f>SUMIFS(F17:F31, C17:C31,H23)</f>
-        <v>1.041666666666663E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -52003,7 +52120,7 @@
       </c>
       <c r="I24" s="57">
         <f>SUM(I18:I23)</f>
-        <v>0.15277777777777768</v>
+        <v>-0.31944444444444459</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -52098,7 +52215,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="C32" s="43" t="s">
         <v>382</v>
@@ -52149,7 +52266,7 @@
     <row r="34" spans="1:9">
       <c r="A34" s="66"/>
       <c r="B34" s="43" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="C34" s="43" t="s">
         <v>382</v>
@@ -52175,7 +52292,7 @@
     <row r="35" spans="1:9">
       <c r="A35" s="66"/>
       <c r="B35" s="43" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="C35" s="43" t="s">
         <v>382</v>
@@ -52227,7 +52344,7 @@
     <row r="37" spans="1:9">
       <c r="A37" s="66"/>
       <c r="B37" s="43" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="C37" s="43" t="s">
         <v>387</v>
@@ -52279,7 +52396,7 @@
     <row r="39" spans="1:9">
       <c r="A39" s="66"/>
       <c r="B39" s="43" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="C39" s="43" t="s">
         <v>382</v>
@@ -52305,7 +52422,7 @@
     <row r="40" spans="1:9">
       <c r="A40" s="66"/>
       <c r="B40" s="43" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="C40" s="43" t="s">
         <v>382</v>
@@ -52345,7 +52462,7 @@
     <row r="42" spans="1:9">
       <c r="A42" s="66"/>
       <c r="B42" s="43" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>382</v>
@@ -52364,7 +52481,7 @@
     <row r="43" spans="1:9">
       <c r="A43" s="66"/>
       <c r="B43" s="43" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="C43" s="43" t="s">
         <v>387</v>
@@ -52383,7 +52500,7 @@
     <row r="44" spans="1:9">
       <c r="A44" s="66"/>
       <c r="B44" s="43" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="C44" s="43" t="s">
         <v>387</v>
@@ -52422,7 +52539,9 @@
       <c r="A47" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="43"/>
+      <c r="B47" s="43" t="s">
+        <v>1094</v>
+      </c>
       <c r="C47" s="43" t="s">
         <v>382</v>
       </c>
@@ -52445,7 +52564,9 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="66"/>
-      <c r="B48" s="43"/>
+      <c r="B48" s="43" t="s">
+        <v>1095</v>
+      </c>
       <c r="C48" s="43" t="s">
         <v>382</v>
       </c>
@@ -52469,7 +52590,9 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="66"/>
-      <c r="B49" s="43"/>
+      <c r="B49" s="43" t="s">
+        <v>1096</v>
+      </c>
       <c r="C49" s="43" t="s">
         <v>382</v>
       </c>
@@ -52493,7 +52616,9 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="66"/>
-      <c r="B50" s="43"/>
+      <c r="B50" s="43" t="s">
+        <v>1097</v>
+      </c>
       <c r="C50" s="43" t="s">
         <v>386</v>
       </c>
@@ -52541,7 +52666,9 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="66"/>
-      <c r="B52" s="43"/>
+      <c r="B52" s="43" t="s">
+        <v>1098</v>
+      </c>
       <c r="C52" s="43" t="s">
         <v>387</v>
       </c>
@@ -52698,17 +52825,21 @@
       <c r="A62" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
+      <c r="B62" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>379</v>
+      </c>
       <c r="D62" s="59">
         <v>0.375</v>
       </c>
       <c r="E62" s="59">
-        <v>38.416666666666664</v>
+        <v>38.385416666666664</v>
       </c>
       <c r="F62" s="59">
         <f>E62-D62</f>
-        <v>38.041666666666664</v>
+        <v>38.010416666666664</v>
       </c>
       <c r="H62" s="57" t="s">
         <v>380</v>
@@ -52719,30 +52850,38 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="66"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="43"/>
+      <c r="B63" s="64" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>382</v>
+      </c>
       <c r="D63" s="59">
-        <v>0.41666666666666669</v>
+        <v>0.38680555555555557</v>
       </c>
       <c r="E63" s="59">
-        <v>0.4375</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F63" s="59">
         <f>E63-D63</f>
-        <v>2.0833333333333315E-2</v>
+        <v>9.2361111111111116E-2</v>
       </c>
       <c r="H63" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I63" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H63)</f>
-        <v>0</v>
+        <v>0.10555555555555551</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="66"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
+      <c r="B64" s="43" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>382</v>
+      </c>
       <c r="D64" s="59">
         <v>0.4381944444444445</v>
       </c>
@@ -52802,7 +52941,7 @@
       </c>
       <c r="I66" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H66)</f>
-        <v>0</v>
+        <v>38.010416666666664</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -52868,7 +53007,7 @@
       </c>
       <c r="I69" s="57">
         <f>SUM(I63:I68)</f>
-        <v>0</v>
+        <v>38.115972222222219</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -52963,7 +53102,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="C77" s="43" t="s">
         <v>382</v>
@@ -53014,7 +53153,7 @@
     <row r="79" spans="1:9">
       <c r="A79" s="66"/>
       <c r="B79" s="43" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="C79" s="43" t="s">
         <v>387</v>
@@ -53066,7 +53205,7 @@
     <row r="81" spans="1:9">
       <c r="A81" s="66"/>
       <c r="B81" s="43" t="s">
-        <v>1090</v>
+        <v>1102</v>
       </c>
       <c r="C81" s="43" t="s">
         <v>382</v>
@@ -53092,7 +53231,7 @@
     <row r="82" spans="1:9">
       <c r="A82" s="66"/>
       <c r="B82" s="43" t="s">
-        <v>1091</v>
+        <v>1103</v>
       </c>
       <c r="C82" s="43" t="s">
         <v>382</v>
@@ -53144,7 +53283,7 @@
     <row r="84" spans="1:9">
       <c r="A84" s="66"/>
       <c r="B84" s="43" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="C84" s="43" t="s">
         <v>382</v>
@@ -53170,7 +53309,7 @@
     <row r="85" spans="1:9">
       <c r="A85" s="66"/>
       <c r="B85" s="43" t="s">
-        <v>1093</v>
+        <v>1105</v>
       </c>
       <c r="C85" s="43" t="s">
         <v>382</v>
@@ -53210,7 +53349,7 @@
     <row r="87" spans="1:9">
       <c r="A87" s="66"/>
       <c r="B87" s="43" t="s">
-        <v>1094</v>
+        <v>1106</v>
       </c>
       <c r="C87" s="43" t="s">
         <v>382</v>
@@ -53619,7 +53758,7 @@
     <row r="109" spans="1:9">
       <c r="A109" s="66"/>
       <c r="B109" s="43" t="s">
-        <v>1095</v>
+        <v>1107</v>
       </c>
       <c r="C109" s="43" t="s">
         <v>387</v>
@@ -53671,7 +53810,7 @@
     <row r="111" spans="1:9">
       <c r="A111" s="66"/>
       <c r="B111" s="43" t="s">
-        <v>1096</v>
+        <v>1108</v>
       </c>
       <c r="C111" s="43" t="s">
         <v>382</v>
@@ -53723,7 +53862,7 @@
     <row r="113" spans="1:9">
       <c r="A113" s="66"/>
       <c r="B113" s="43" t="s">
-        <v>1097</v>
+        <v>1109</v>
       </c>
       <c r="C113" s="43" t="s">
         <v>382</v>
@@ -53775,7 +53914,7 @@
     <row r="115" spans="1:9">
       <c r="A115" s="66"/>
       <c r="B115" s="43" t="s">
-        <v>1098</v>
+        <v>1110</v>
       </c>
       <c r="C115" s="43" t="s">
         <v>382</v>
@@ -53795,7 +53934,7 @@
     <row r="116" spans="1:9">
       <c r="A116" s="66"/>
       <c r="B116" s="43" t="s">
-        <v>1099</v>
+        <v>1111</v>
       </c>
       <c r="C116" s="43" t="s">
         <v>387</v>
@@ -53815,7 +53954,7 @@
     <row r="117" spans="1:9">
       <c r="A117" s="66"/>
       <c r="B117" s="43" t="s">
-        <v>1100</v>
+        <v>1112</v>
       </c>
       <c r="C117" s="43" t="s">
         <v>382</v>
@@ -53834,7 +53973,7 @@
     <row r="118" spans="1:9">
       <c r="A118" s="66"/>
       <c r="B118" s="43" t="s">
-        <v>1101</v>
+        <v>1113</v>
       </c>
       <c r="C118" s="43" t="s">
         <v>382</v>
@@ -54178,7 +54317,7 @@
         <v>18</v>
       </c>
       <c r="B137" s="62" t="s">
-        <v>1102</v>
+        <v>1114</v>
       </c>
       <c r="C137" s="43" t="s">
         <v>382</v>
@@ -54229,7 +54368,7 @@
     <row r="139" spans="1:9">
       <c r="A139" s="66"/>
       <c r="B139" s="43" t="s">
-        <v>1103</v>
+        <v>1115</v>
       </c>
       <c r="C139" s="43" t="s">
         <v>387</v>
@@ -54281,7 +54420,7 @@
     <row r="141" spans="1:9">
       <c r="A141" s="66"/>
       <c r="B141" s="62" t="s">
-        <v>1104</v>
+        <v>1116</v>
       </c>
       <c r="C141" s="43" t="s">
         <v>387</v>
@@ -54333,7 +54472,7 @@
     <row r="143" spans="1:9">
       <c r="A143" s="66"/>
       <c r="B143" s="43" t="s">
-        <v>1104</v>
+        <v>1116</v>
       </c>
       <c r="C143" s="43" t="s">
         <v>387</v>
@@ -54385,7 +54524,7 @@
     <row r="145" spans="1:9">
       <c r="A145" s="66"/>
       <c r="B145" t="s">
-        <v>1105</v>
+        <v>1117</v>
       </c>
       <c r="C145" s="43" t="s">
         <v>382</v>
@@ -54425,7 +54564,7 @@
     <row r="147" spans="1:9">
       <c r="A147" s="66"/>
       <c r="B147" s="43" t="s">
-        <v>1106</v>
+        <v>1118</v>
       </c>
       <c r="C147" s="43" t="s">
         <v>382</v>
@@ -54444,7 +54583,7 @@
     <row r="148" spans="1:9">
       <c r="A148" s="66"/>
       <c r="B148" s="43" t="s">
-        <v>1107</v>
+        <v>1119</v>
       </c>
       <c r="C148" s="43" t="s">
         <v>382</v>
@@ -54861,8 +55000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1029F88-7704-4831-9C59-A2E70E129CB2}">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -54907,19 +55046,21 @@
       <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="43" t="s">
+        <v>656</v>
+      </c>
       <c r="C2" s="43" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D2" s="59">
         <v>0.35416666666666669</v>
       </c>
       <c r="E2" s="59">
-        <v>0.375</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="F2" s="59">
         <f>E2-D2</f>
-        <v>2.0833333333333315E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H2" s="57" t="s">
         <v>380</v>
@@ -54933,15 +55074,17 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="66"/>
-      <c r="B3" s="43"/>
+      <c r="B3" s="43" t="s">
+        <v>499</v>
+      </c>
       <c r="C3" s="43" t="s">
         <v>379</v>
       </c>
       <c r="D3" s="59">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E3" s="59">
         <v>0.375</v>
-      </c>
-      <c r="E3" s="59">
-        <v>0.38541666666666669</v>
       </c>
       <c r="F3" s="59">
         <f>E3-D3</f>
@@ -54952,7 +55095,7 @@
       </c>
       <c r="I3" s="59">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>0.3020833333333332</v>
+        <v>0.28124999999999989</v>
       </c>
       <c r="Q3" t="s">
         <v>384</v>
@@ -54960,26 +55103,28 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="66"/>
-      <c r="B4" s="43"/>
+      <c r="B4" s="43" t="s">
+        <v>1120</v>
+      </c>
       <c r="C4" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D4" s="59">
-        <v>0.38541666666666669</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E4" s="59">
         <v>0.45833333333333331</v>
       </c>
       <c r="F4" s="59">
         <f>E4-D4</f>
-        <v>7.291666666666663E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H4" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I4" s="59">
         <f>SUMIFS(F2:F16, C2:C16,H4)</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="Q4" t="s">
         <v>387</v>
@@ -54987,6 +55132,9 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="66"/>
+      <c r="B5" t="s">
+        <v>385</v>
+      </c>
       <c r="C5" s="43" t="s">
         <v>386</v>
       </c>
@@ -54994,18 +55142,18 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E5" s="59">
-        <v>0.47916666666666669</v>
+        <v>0.46875</v>
       </c>
       <c r="F5" s="59">
         <f>E5-D5</f>
-        <v>2.083333333333337E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H5" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I5" s="59">
         <f>SUMIFS(F2:F16, C2:C16,H5)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>7.638888888888884E-2</v>
       </c>
       <c r="Q5" t="s">
         <v>379</v>
@@ -55013,18 +55161,21 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="66"/>
+      <c r="B6" t="s">
+        <v>1121</v>
+      </c>
       <c r="C6" s="43" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D6" s="59">
-        <v>0.47916666666666669</v>
+        <v>0.46875</v>
       </c>
       <c r="E6" s="59">
         <v>0.52083333333333337</v>
       </c>
       <c r="F6" s="59">
         <f>E6-D6</f>
-        <v>4.1666666666666685E-2</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="H6" s="60" t="s">
         <v>379</v>
@@ -55039,7 +55190,9 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="66"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="62" t="s">
+        <v>1122</v>
+      </c>
       <c r="C7" s="43" t="s">
         <v>382</v>
       </c>
@@ -55066,7 +55219,9 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="66"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="43" t="s">
+        <v>393</v>
+      </c>
       <c r="C8" s="43" t="s">
         <v>386</v>
       </c>
@@ -55085,11 +55240,14 @@
       </c>
       <c r="I8" s="59">
         <f>SUMIFS(F2:F16, C2:C16,H8)</f>
-        <v>6.2500000000000111E-2</v>
+        <v>4.1666666666666796E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="66"/>
+      <c r="B9" t="s">
+        <v>1123</v>
+      </c>
       <c r="C9" s="43" t="s">
         <v>382</v>
       </c>
@@ -55108,12 +55266,14 @@
       </c>
       <c r="I9" s="57">
         <f>SUM(I3:I8)</f>
-        <v>0.45833333333333331</v>
+        <v>0.42013888888888884</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="66"/>
-      <c r="B10" s="43"/>
+      <c r="B10" s="43" t="s">
+        <v>1124</v>
+      </c>
       <c r="C10" s="43" t="s">
         <v>382</v>
       </c>
@@ -55131,7 +55291,9 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="66"/>
-      <c r="B11" s="43"/>
+      <c r="B11" s="43" t="s">
+        <v>385</v>
+      </c>
       <c r="C11" s="43" t="s">
         <v>386</v>
       </c>
@@ -55139,17 +55301,19 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E11" s="59">
-        <v>0.6875</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="F11" s="59">
         <f>E11-D11</f>
-        <v>2.083333333333337E-2</v>
+        <v>1.0416666666666741E-2</v>
       </c>
       <c r="I11" s="61"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="66"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="43" t="s">
+        <v>1125</v>
+      </c>
       <c r="C12" s="43" t="s">
         <v>382</v>
       </c>
@@ -55166,36 +55330,32 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="66"/>
-      <c r="B13" s="43"/>
+      <c r="B13" s="43" t="s">
+        <v>1126</v>
+      </c>
       <c r="C13" s="43" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D13" s="59">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="E13" s="59">
-        <v>0.77083333333333337</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F13" s="59">
         <f>E13-D13</f>
-        <v>2.083333333333337E-2</v>
+        <v>7.638888888888884E-2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="66"/>
       <c r="B14" s="43"/>
-      <c r="C14" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="D14" s="59">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E14" s="59">
-        <v>0.875</v>
-      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="59">
         <f>E14-D14</f>
-        <v>4.166666666666663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -56969,7 +57129,7 @@
     <row r="109" spans="1:9">
       <c r="A109" s="66"/>
       <c r="B109" s="43" t="s">
-        <v>1108</v>
+        <v>1127</v>
       </c>
       <c r="C109" s="43" t="s">
         <v>387</v>
@@ -56995,7 +57155,7 @@
     <row r="110" spans="1:9">
       <c r="A110" s="66"/>
       <c r="B110" s="43" t="s">
-        <v>1109</v>
+        <v>1128</v>
       </c>
       <c r="C110" s="43" t="s">
         <v>382</v>
@@ -57047,7 +57207,7 @@
     <row r="112" spans="1:9">
       <c r="A112" s="66"/>
       <c r="B112" s="43" t="s">
-        <v>1110</v>
+        <v>1129</v>
       </c>
       <c r="C112" s="43" t="s">
         <v>382</v>
@@ -57099,7 +57259,7 @@
     <row r="114" spans="1:9">
       <c r="A114" s="66"/>
       <c r="B114" s="43" t="s">
-        <v>1109</v>
+        <v>1128</v>
       </c>
       <c r="C114" s="43" t="s">
         <v>382</v>
@@ -57145,7 +57305,7 @@
     <row r="116" spans="1:9">
       <c r="A116" s="66"/>
       <c r="B116" s="43" t="s">
-        <v>1101</v>
+        <v>1113</v>
       </c>
       <c r="C116" s="43" t="s">
         <v>382</v>
@@ -57165,7 +57325,7 @@
     <row r="117" spans="1:9">
       <c r="A117" s="66"/>
       <c r="B117" s="43" t="s">
-        <v>1111</v>
+        <v>1130</v>
       </c>
       <c r="C117" s="43" t="s">
         <v>382</v>
@@ -57184,7 +57344,7 @@
     <row r="118" spans="1:9">
       <c r="A118" s="66"/>
       <c r="B118" s="43" t="s">
-        <v>1112</v>
+        <v>1131</v>
       </c>
       <c r="C118" s="43" t="s">
         <v>387</v>
@@ -57527,9 +57687,7 @@
       <c r="A137" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B137" s="62" t="s">
-        <v>1102</v>
-      </c>
+      <c r="B137" s="62"/>
       <c r="C137" s="43" t="s">
         <v>382</v>
       </c>
@@ -57552,9 +57710,7 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="66"/>
-      <c r="B138" s="43" t="s">
-        <v>499</v>
-      </c>
+      <c r="B138" s="43"/>
       <c r="C138" s="43" t="s">
         <v>379</v>
       </c>
@@ -57578,9 +57734,7 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="66"/>
-      <c r="B139" s="43" t="s">
-        <v>1103</v>
-      </c>
+      <c r="B139" s="43"/>
       <c r="C139" s="43" t="s">
         <v>387</v>
       </c>
@@ -57604,9 +57758,7 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="66"/>
-      <c r="B140" s="43" t="s">
-        <v>385</v>
-      </c>
+      <c r="B140" s="43"/>
       <c r="C140" s="43" t="s">
         <v>386</v>
       </c>
@@ -57630,9 +57782,7 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="66"/>
-      <c r="B141" s="62" t="s">
-        <v>1104</v>
-      </c>
+      <c r="B141" s="62"/>
       <c r="C141" s="43" t="s">
         <v>387</v>
       </c>
@@ -57656,9 +57806,6 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="66"/>
-      <c r="B142" t="s">
-        <v>771</v>
-      </c>
       <c r="C142" s="43" t="s">
         <v>387</v>
       </c>
@@ -57682,9 +57829,7 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="66"/>
-      <c r="B143" s="43" t="s">
-        <v>1104</v>
-      </c>
+      <c r="B143" s="43"/>
       <c r="C143" s="43" t="s">
         <v>387</v>
       </c>
@@ -57708,9 +57853,7 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="66"/>
-      <c r="B144" s="62" t="s">
-        <v>406</v>
-      </c>
+      <c r="B144" s="62"/>
       <c r="C144" s="43" t="s">
         <v>386</v>
       </c>
@@ -57734,9 +57877,6 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="66"/>
-      <c r="B145" t="s">
-        <v>1105</v>
-      </c>
       <c r="C145" s="43" t="s">
         <v>382</v>
       </c>
@@ -57754,9 +57894,7 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="66"/>
-      <c r="B146" s="43" t="s">
-        <v>385</v>
-      </c>
+      <c r="B146" s="43"/>
       <c r="C146" s="43" t="s">
         <v>386</v>
       </c>
@@ -57774,9 +57912,7 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="66"/>
-      <c r="B147" s="43" t="s">
-        <v>1106</v>
-      </c>
+      <c r="B147" s="43"/>
       <c r="C147" s="43" t="s">
         <v>382</v>
       </c>
@@ -57793,9 +57929,7 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="66"/>
-      <c r="B148" s="43" t="s">
-        <v>1107</v>
-      </c>
+      <c r="B148" s="43"/>
       <c r="C148" s="43" t="s">
         <v>382</v>
       </c>
@@ -58140,12 +58274,12 @@
     <mergeCell ref="A122:A136"/>
     <mergeCell ref="A137:A151"/>
     <mergeCell ref="A152:A166"/>
+    <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A77:A91"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9687" documentId="11_1247F60BE6C2AA1B97E2F28F91B8B58A572C5BD9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7298A5D-5179-45B3-B1A1-76FBDA80629A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{362D8D9A-C309-4E7F-8FA3-C32B41046EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="33" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="35" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7005" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7017" uniqueCount="1260">
   <si>
     <t>Resource Name</t>
   </si>
@@ -4332,6 +4332,24 @@
   </si>
   <si>
     <t>Absent (Went to College for Review)</t>
+  </si>
+  <si>
+    <t>Worked on Angular Assignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General catchUp call with Savitha </t>
+  </si>
+  <si>
+    <t>Worked on Refining Token Services</t>
+  </si>
+  <si>
+    <t>wriiten method for getting current User</t>
+  </si>
+  <si>
+    <t>Worked on Interceptors in Sample Angular App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helped Girish with API Integration </t>
   </si>
   <si>
     <t>Absent (Went to College for project)</t>
@@ -14156,17 +14174,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="246" priority="12" operator="greaterThan">
@@ -17880,17 +17898,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="233" priority="12" operator="greaterThan">
@@ -21896,17 +21914,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="220" priority="12" operator="greaterThan">
@@ -24977,17 +24995,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="207" priority="12" operator="greaterThan">
@@ -28163,17 +28181,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="194" priority="12" operator="greaterThan">
@@ -31453,17 +31471,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="181" priority="12" operator="greaterThan">
@@ -34921,17 +34939,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="168" priority="12" operator="greaterThan">
@@ -38552,17 +38570,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="155" priority="12" operator="greaterThan">
@@ -42107,17 +42125,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="142" priority="12" operator="greaterThan">
@@ -45307,17 +45325,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="129" priority="12" operator="greaterThan">
@@ -48719,17 +48737,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="116" priority="12" operator="greaterThan">
@@ -52227,17 +52245,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="103" priority="12" operator="greaterThan">
@@ -56077,17 +56095,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
@@ -59492,17 +59510,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="77" priority="12" operator="greaterThan">
@@ -62726,17 +62744,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="64" priority="12" operator="greaterThan">
@@ -65813,17 +65831,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="12" operator="greaterThan">
@@ -69041,17 +69059,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
@@ -72188,17 +72206,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -72264,8 +72282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C25F95E-7D9C-41FC-BD7E-5804D726B4D4}">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="I147" sqref="I147"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -72921,19 +72939,21 @@
       <c r="A32" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="43"/>
+      <c r="B32" s="43" t="s">
+        <v>1246</v>
+      </c>
       <c r="C32" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D32" s="59">
-        <v>0.34166666666666662</v>
+        <v>0.32777777777777778</v>
       </c>
       <c r="E32" s="59">
         <v>0.39583333333333331</v>
       </c>
       <c r="F32" s="59">
         <f>E32-D32</f>
-        <v>5.4166666666666696E-2</v>
+        <v>6.8055555555555536E-2</v>
       </c>
       <c r="H32" s="57" t="s">
         <v>380</v>
@@ -72944,114 +72964,125 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="73"/>
-      <c r="B33" s="43"/>
+      <c r="B33" s="43" t="s">
+        <v>771</v>
+      </c>
       <c r="C33" s="43" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="D33" s="59">
         <v>0.39583333333333331</v>
       </c>
       <c r="E33" s="59">
-        <v>0.44097222222222227</v>
+        <v>0.4375</v>
       </c>
       <c r="F33" s="59">
         <f>E33-D33</f>
-        <v>4.5138888888888951E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H33" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I33" s="59">
         <f>SUMIFS(F32:F46, C32:C46,H33)</f>
-        <v>0.28611111111111115</v>
+        <v>0.32986111111111099</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="73"/>
-      <c r="B34" s="43"/>
+      <c r="B34" s="43" t="s">
+        <v>499</v>
+      </c>
       <c r="C34" s="43" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D34" s="59">
-        <v>0.44375000000000003</v>
+        <v>0.4375</v>
       </c>
       <c r="E34" s="59">
-        <v>0.60069444444444442</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="F34" s="59">
         <f>E34-D34</f>
-        <v>0.15694444444444439</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="H34" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I34" s="59">
         <f>SUMIFS(F32:F46, C32:C46,H34)</f>
-        <v>0</v>
+        <v>1.7361111111111105E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="73"/>
-      <c r="B35" s="43"/>
+      <c r="B35" s="43" t="s">
+        <v>385</v>
+      </c>
       <c r="C35" s="43" t="s">
         <v>386</v>
       </c>
       <c r="D35" s="59">
-        <v>0.60069444444444442</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="E35" s="59">
-        <v>0.63888888888888895</v>
+        <v>0.46875</v>
       </c>
       <c r="F35" s="59">
         <f>E35-D35</f>
-        <v>3.8194444444444531E-2</v>
+        <v>1.7361111111111105E-2</v>
       </c>
       <c r="H35" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I35" s="59">
         <f>SUMIFS(F32:F46, C32:C46,H35)</f>
-        <v>6.2499999999999889E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="73"/>
+      <c r="B36" t="s">
+        <v>1247</v>
+      </c>
       <c r="C36" s="43" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D36" s="59">
-        <v>0.63888888888888895</v>
+        <v>0.46875</v>
       </c>
       <c r="E36" s="59">
-        <v>0.70138888888888884</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="F36" s="59">
         <f>E36-D36</f>
-        <v>6.2499999999999889E-2</v>
+        <v>1.7361111111111105E-2</v>
       </c>
       <c r="H36" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I36" s="59">
         <f>SUMIFS(F32:F46, C32:C46,H36)</f>
-        <v>4.5138888888888951E-2</v>
+        <v>1.3888888888888895E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="73"/>
-      <c r="B37" s="43"/>
+      <c r="B37" s="43" t="s">
+        <v>1248</v>
+      </c>
       <c r="C37" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D37" s="59">
-        <v>0.70138888888888884</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="E37" s="59">
-        <v>0.72569444444444453</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="F37" s="59">
         <f>E37-D37</f>
-        <v>2.4305555555555691E-2</v>
+        <v>6.5972222222222265E-2</v>
       </c>
       <c r="H37" s="60" t="s">
         <v>390</v>
@@ -73063,73 +73094,93 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="73"/>
-      <c r="B38" s="43"/>
+      <c r="B38" s="43" t="s">
+        <v>1249</v>
+      </c>
       <c r="C38" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D38" s="59">
-        <v>0.72569444444444453</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E38" s="59">
-        <v>0.75694444444444453</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="F38" s="59">
         <f>E38-D38</f>
-        <v>3.125E-2</v>
+        <v>4.513888888888884E-2</v>
       </c>
       <c r="H38" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I38" s="59">
         <f>SUMIFS(F32:F46, C32:C46,H38)</f>
-        <v>6.9444444444444531E-2</v>
+        <v>4.3750000000000011E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="73"/>
-      <c r="B39" s="62"/>
+      <c r="B39" s="62" t="s">
+        <v>393</v>
+      </c>
       <c r="C39" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D39" s="59">
-        <v>0.76041666666666663</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="E39" s="59">
-        <v>0.81111111111111101</v>
+        <v>0.62361111111111112</v>
       </c>
       <c r="F39" s="59">
         <f>E39-D39</f>
-        <v>5.0694444444444375E-2</v>
+        <v>2.6388888888888906E-2</v>
       </c>
       <c r="H39" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I39" s="57">
         <f>SUM(I33:I38)</f>
-        <v>0.46319444444444452</v>
+        <v>0.44652777777777769</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="73"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
+      <c r="B40" s="62" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D40" s="59">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="E40" s="59">
+        <v>0.71875</v>
+      </c>
       <c r="F40" s="59">
         <f>E40-D40</f>
-        <v>0</v>
+        <v>9.5138888888888884E-2</v>
       </c>
       <c r="I40" s="61"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="73"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
+      <c r="B41" s="43" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D41" s="59">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E41" s="59">
+        <v>0.82638888888888884</v>
+      </c>
       <c r="F41" s="59">
         <f>E41-D41</f>
-        <v>0</v>
+        <v>5.5555555555555469E-2</v>
       </c>
       <c r="I41" s="61"/>
     </row>
@@ -73190,7 +73241,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>1246</v>
+        <v>1252</v>
       </c>
       <c r="C47" s="43" t="s">
         <v>382</v>
@@ -73779,7 +73830,7 @@
     <row r="79" spans="1:9">
       <c r="A79" s="73"/>
       <c r="B79" s="43" t="s">
-        <v>1246</v>
+        <v>1252</v>
       </c>
       <c r="C79" s="43"/>
       <c r="D79" s="59">
@@ -74299,7 +74350,7 @@
         <v>16</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>1247</v>
+        <v>1253</v>
       </c>
       <c r="C107" s="43" t="s">
         <v>382</v>
@@ -74591,7 +74642,7 @@
         <v>17</v>
       </c>
       <c r="B122" s="43" t="s">
-        <v>1247</v>
+        <v>1253</v>
       </c>
       <c r="C122" s="43" t="s">
         <v>382</v>
@@ -74940,7 +74991,7 @@
     <row r="139" spans="1:9">
       <c r="A139" s="73"/>
       <c r="B139" s="43" t="s">
-        <v>1248</v>
+        <v>1254</v>
       </c>
       <c r="C139" s="43" t="s">
         <v>386</v>
@@ -74992,7 +75043,7 @@
     <row r="141" spans="1:9">
       <c r="A141" s="73"/>
       <c r="B141" s="62" t="s">
-        <v>1249</v>
+        <v>1255</v>
       </c>
       <c r="C141" s="43" t="s">
         <v>387</v>
@@ -75044,7 +75095,7 @@
     <row r="143" spans="1:9">
       <c r="A143" s="73"/>
       <c r="B143" s="43" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="C143" s="43" t="s">
         <v>382</v>
@@ -75070,7 +75121,7 @@
     <row r="144" spans="1:9">
       <c r="A144" s="73"/>
       <c r="B144" s="62" t="s">
-        <v>1251</v>
+        <v>1257</v>
       </c>
       <c r="C144" s="43" t="s">
         <v>386</v>
@@ -75096,7 +75147,7 @@
     <row r="145" spans="1:9">
       <c r="A145" s="73"/>
       <c r="B145" s="43" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="C145" s="43" t="s">
         <v>382</v>
@@ -75116,7 +75167,7 @@
     <row r="146" spans="1:9">
       <c r="A146" s="73"/>
       <c r="B146" s="43" t="s">
-        <v>1252</v>
+        <v>1258</v>
       </c>
       <c r="C146" s="43" t="s">
         <v>386</v>
@@ -75136,7 +75187,7 @@
     <row r="147" spans="1:9">
       <c r="A147" s="73"/>
       <c r="B147" s="43" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
       <c r="C147" s="43" t="s">
         <v>382</v>
@@ -75155,7 +75206,7 @@
     <row r="148" spans="1:9">
       <c r="A148" s="73"/>
       <c r="B148" s="43" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="C148" s="43" t="s">
         <v>382</v>
@@ -75496,17 +75547,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A77:A91"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A62:A76"/>
     <mergeCell ref="A92:A106"/>
     <mergeCell ref="A107:A121"/>
     <mergeCell ref="A122:A136"/>
     <mergeCell ref="A137:A151"/>
     <mergeCell ref="A152:A166"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A31"/>
-    <mergeCell ref="A32:A46"/>
-    <mergeCell ref="A47:A61"/>
-    <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A77:A91"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C0EBB04-05B1-4D00-9653-A516BA39DBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9878" documentId="11_1247F60BE6C2AA1B97E2F28F91B8B58A572C5BD9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8906DB6C-89C3-48DE-A2AF-B4415CB49AC0}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="35" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="35" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7269" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7283" uniqueCount="1271">
   <si>
     <t>Resource Name</t>
   </si>
@@ -4393,6 +4393,21 @@
   </si>
   <si>
     <t>Worked on the Spam view page</t>
+  </si>
+  <si>
+    <t>Working on Unit test case writing</t>
+  </si>
+  <si>
+    <t>Exploring on AWS pipeline  and EC2</t>
+  </si>
+  <si>
+    <t>Testing Mail Services in create article and comments</t>
+  </si>
+  <si>
+    <t>Discussion with some teammate via phone call</t>
+  </si>
+  <si>
+    <t>Doctor Consultation Regarding my Health Problems</t>
   </si>
 </sst>
 </file>
@@ -14323,17 +14338,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="259" priority="12" operator="greaterThan">
@@ -18047,17 +18062,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="246" priority="12" operator="greaterThan">
@@ -22063,17 +22078,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="233" priority="12" operator="greaterThan">
@@ -25144,17 +25159,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="220" priority="12" operator="greaterThan">
@@ -28330,17 +28345,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="207" priority="12" operator="greaterThan">
@@ -31620,17 +31635,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="194" priority="12" operator="greaterThan">
@@ -35088,17 +35103,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="181" priority="12" operator="greaterThan">
@@ -38719,17 +38734,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="168" priority="12" operator="greaterThan">
@@ -42274,17 +42289,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="155" priority="12" operator="greaterThan">
@@ -45474,17 +45489,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="142" priority="12" operator="greaterThan">
@@ -48886,17 +48901,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="129" priority="12" operator="greaterThan">
@@ -52394,17 +52409,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="116" priority="12" operator="greaterThan">
@@ -56244,17 +56259,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="103" priority="12" operator="greaterThan">
@@ -59659,17 +59674,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
@@ -62893,17 +62908,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="77" priority="12" operator="greaterThan">
@@ -65980,17 +65995,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="64" priority="12" operator="greaterThan">
@@ -69208,17 +69223,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="12" operator="greaterThan">
@@ -72355,17 +72370,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
@@ -75696,17 +75711,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -75772,8 +75787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3CC296-A9A3-4B52-83D1-B6696271AFA8}">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -78394,7 +78409,9 @@
       <c r="A137" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B137" s="43"/>
+      <c r="B137" s="43" t="s">
+        <v>771</v>
+      </c>
       <c r="C137" s="43" t="s">
         <v>387</v>
       </c>
@@ -78402,11 +78419,11 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E137" s="59">
-        <v>0.4375</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F137" s="59">
         <f>E137-D137</f>
-        <v>4.1666666666666685E-2</v>
+        <v>4.8611111111111105E-2</v>
       </c>
       <c r="H137" s="57" t="s">
         <v>380</v>
@@ -78417,15 +78434,17 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="73"/>
-      <c r="B138" s="43"/>
+      <c r="B138" s="43" t="s">
+        <v>499</v>
+      </c>
       <c r="C138" s="43" t="s">
         <v>379</v>
       </c>
       <c r="D138" s="59">
-        <v>0.4375</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="E138" s="59">
-        <v>0.4513888888888889</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F138" s="59">
         <f>E138-D138</f>
@@ -78436,94 +78455,104 @@
       </c>
       <c r="I138" s="59">
         <f>SUMIFS(F137:F151, C137:C151,H138)</f>
-        <v>0.25208333333333344</v>
+        <v>0.26916666666666661</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="73"/>
-      <c r="B139" s="43"/>
+      <c r="B139" s="43" t="s">
+        <v>385</v>
+      </c>
       <c r="C139" s="43" t="s">
         <v>386</v>
       </c>
       <c r="D139" s="59">
-        <v>0.4513888888888889</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E139" s="59">
         <v>0.46875</v>
       </c>
       <c r="F139" s="59">
         <f>E139-D139</f>
-        <v>1.7361111111111105E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H139" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I139" s="59">
         <f>SUMIFS(F137:F151, C137:C151,H139)</f>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="73"/>
+      <c r="B140" t="s">
+        <v>1266</v>
+      </c>
       <c r="C140" s="43" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D140" s="59">
-        <v>0.46875</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="E140" s="59">
-        <v>0.4861111111111111</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="F140" s="59">
         <f>E140-D140</f>
-        <v>1.7361111111111105E-2</v>
+        <v>9.7222222222222154E-2</v>
       </c>
       <c r="H140" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I140" s="59">
         <f>SUMIFS(F137:F151, C137:C151,H140)</f>
-        <v>9.027777777777779E-2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="73"/>
-      <c r="B141" s="62"/>
+      <c r="B141" s="62" t="s">
+        <v>406</v>
+      </c>
       <c r="C141" s="43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D141" s="59">
-        <v>0.4861111111111111</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="E141" s="59">
-        <v>0.53472222222222221</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F141" s="59">
         <f>E141-D141</f>
-        <v>4.8611111111111105E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="H141" s="60" t="s">
         <v>379</v>
       </c>
       <c r="I141" s="59">
         <f>SUMIFS(F137:F151, C137:C151,H141)</f>
-        <v>3.125E-2</v>
+        <v>3.6111111111111149E-2</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="73"/>
+      <c r="B142" t="s">
+        <v>1267</v>
+      </c>
       <c r="C142" s="43" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D142" s="59">
-        <v>0.53472222222222221</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E142" s="59">
-        <v>0.57638888888888895</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F142" s="59">
         <f>E142-D142</f>
-        <v>4.1666666666666741E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H142" s="60" t="s">
         <v>390</v>
@@ -78535,129 +78564,152 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="73"/>
-      <c r="B143" s="43"/>
+      <c r="B143" s="43" t="s">
+        <v>1266</v>
+      </c>
       <c r="C143" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D143" s="59">
-        <v>0.58333333333333337</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="E143" s="59">
-        <v>0.67361111111111116</v>
+        <v>0.74652777777777779</v>
       </c>
       <c r="F143" s="59">
         <f>E143-D143</f>
-        <v>9.027777777777779E-2</v>
+        <v>7.291666666666663E-2</v>
       </c>
       <c r="H143" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I143" s="59">
         <f>SUMIFS(F137:F151, C137:C151,H143)</f>
-        <v>0.13541666666666669</v>
+        <v>6.5972222222222265E-2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="73"/>
-      <c r="B144" s="62"/>
+      <c r="B144" s="62" t="s">
+        <v>385</v>
+      </c>
       <c r="C144" s="43" t="s">
         <v>386</v>
       </c>
       <c r="D144" s="59">
-        <v>0.67361111111111116</v>
+        <v>0.74652777777777779</v>
       </c>
       <c r="E144" s="59">
-        <v>0.71527777777777779</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="F144" s="59">
         <f>E144-D144</f>
-        <v>4.166666666666663E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H144" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I144" s="57">
         <f>SUM(I138:I143)</f>
-        <v>0.50902777777777786</v>
+        <v>0.51013888888888892</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="73"/>
-      <c r="B145" s="43"/>
+      <c r="B145" s="43" t="s">
+        <v>1268</v>
+      </c>
       <c r="C145" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D145" s="59">
-        <v>0.71666666666666667</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="E145" s="59">
-        <v>0.77777777777777779</v>
+        <v>0.8125</v>
       </c>
       <c r="F145" s="59">
         <f>E145-D145</f>
-        <v>6.1111111111111116E-2</v>
+        <v>4.861111111111116E-2</v>
       </c>
       <c r="I145" s="61"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="73"/>
-      <c r="B146" s="43"/>
+      <c r="B146" s="43" t="s">
+        <v>1269</v>
+      </c>
       <c r="C146" s="43" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D146" s="59">
-        <v>0.79166666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="E146" s="59">
-        <v>0.82638888888888884</v>
+        <v>0.83472222222222225</v>
       </c>
       <c r="F146" s="59">
         <f>E146-D146</f>
-        <v>3.472222222222221E-2</v>
+        <v>2.2222222222222254E-2</v>
       </c>
       <c r="I146" s="61"/>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="73"/>
-      <c r="B147" s="43"/>
+      <c r="B147" s="43" t="s">
+        <v>1258</v>
+      </c>
       <c r="C147" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D147" s="59">
-        <v>0.82638888888888884</v>
+        <v>0.83680555555555547</v>
       </c>
       <c r="E147" s="59">
-        <v>0.84027777777777779</v>
+        <v>0.84375</v>
       </c>
       <c r="F147" s="59">
         <f>E147-D147</f>
-        <v>1.3888888888888951E-2</v>
+        <v>6.9444444444445308E-3</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="73"/>
-      <c r="B148" s="43"/>
+      <c r="B148" s="43" t="s">
+        <v>1270</v>
+      </c>
       <c r="C148" s="43" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D148" s="59">
-        <v>0.84027777777777779</v>
+        <v>0.84375</v>
       </c>
       <c r="E148" s="59">
-        <v>0.92708333333333337</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="F148" s="59">
         <f>E148-D148</f>
-        <v>8.680555555555558E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="73"/>
-      <c r="B149" s="43"/>
-      <c r="C149" s="43"/>
-      <c r="D149" s="59"/>
-      <c r="E149" s="59"/>
-      <c r="F149" s="59"/>
+      <c r="B149" s="43" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C149" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D149" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="E149" s="59">
+        <v>0.92541666666666667</v>
+      </c>
+      <c r="F149" s="59">
+        <f>E149-D149</f>
+        <v>5.0416666666666665E-2</v>
+      </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="73"/>
@@ -78976,17 +79028,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A77:A91"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A62:A76"/>
     <mergeCell ref="A92:A106"/>
     <mergeCell ref="A107:A121"/>
     <mergeCell ref="A122:A136"/>
     <mergeCell ref="A137:A151"/>
     <mergeCell ref="A152:A166"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A31"/>
-    <mergeCell ref="A32:A46"/>
-    <mergeCell ref="A47:A61"/>
-    <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A77:A91"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9878" documentId="11_1247F60BE6C2AA1B97E2F28F91B8B58A572C5BD9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8906DB6C-89C3-48DE-A2AF-B4415CB49AC0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BEE999A-2E20-41B8-BE15-FAF9196DE318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="35" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="36" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7283" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7229" uniqueCount="1278">
   <si>
     <t>Resource Name</t>
   </si>
@@ -4393,6 +4393,27 @@
   </si>
   <si>
     <t>Worked on the Spam view page</t>
+  </si>
+  <si>
+    <t>Worked on Angular parameter routing</t>
+  </si>
+  <si>
+    <t>Working on Auth Service in Angular</t>
+  </si>
+  <si>
+    <t>Worked on navigating to home page or admin dashboard page based on User role in Angular</t>
+  </si>
+  <si>
+    <t>Helped Girish for implemented Disable functions and fixed bugs while integration</t>
+  </si>
+  <si>
+    <t>Explored Angular cli test</t>
+  </si>
+  <si>
+    <t>Angular session with saraswathi</t>
+  </si>
+  <si>
+    <t>College Work</t>
   </si>
   <si>
     <t>Working on Unit test case writing</t>
@@ -14338,17 +14359,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="259" priority="12" operator="greaterThan">
@@ -18062,17 +18083,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="246" priority="12" operator="greaterThan">
@@ -22078,17 +22099,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="233" priority="12" operator="greaterThan">
@@ -25159,17 +25180,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="220" priority="12" operator="greaterThan">
@@ -28345,17 +28366,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="207" priority="12" operator="greaterThan">
@@ -31635,17 +31656,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="194" priority="12" operator="greaterThan">
@@ -35103,17 +35124,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="181" priority="12" operator="greaterThan">
@@ -38734,17 +38755,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="168" priority="12" operator="greaterThan">
@@ -42289,17 +42310,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="155" priority="12" operator="greaterThan">
@@ -45489,17 +45510,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="142" priority="12" operator="greaterThan">
@@ -48901,17 +48922,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="129" priority="12" operator="greaterThan">
@@ -52409,17 +52430,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="116" priority="12" operator="greaterThan">
@@ -56259,17 +56280,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="103" priority="12" operator="greaterThan">
@@ -59674,17 +59695,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
@@ -62908,17 +62929,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="77" priority="12" operator="greaterThan">
@@ -62984,7 +63005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D6A686-89B3-4D0D-B503-B64ECA3FAD34}">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A129" workbookViewId="0">
       <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
@@ -65995,17 +66016,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="64" priority="12" operator="greaterThan">
@@ -69223,17 +69244,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="12" operator="greaterThan">
@@ -69300,7 +69321,7 @@
   <dimension ref="A1:Q167"/>
   <sheetViews>
     <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -72370,17 +72391,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
@@ -72446,8 +72467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C25F95E-7D9C-41FC-BD7E-5804D726B4D4}">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B45:B46"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -72833,9 +72854,7 @@
       <c r="B17" s="43" t="s">
         <v>1245</v>
       </c>
-      <c r="C17" s="43" t="s">
-        <v>387</v>
-      </c>
+      <c r="C17" s="43"/>
       <c r="D17" s="59">
         <v>0.47916666666666669</v>
       </c>
@@ -72856,9 +72875,7 @@
     <row r="18" spans="1:9">
       <c r="A18" s="73"/>
       <c r="B18" s="43"/>
-      <c r="C18" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C18" s="43"/>
       <c r="D18" s="59">
         <v>0.52083333333333337</v>
       </c>
@@ -72874,15 +72891,13 @@
       </c>
       <c r="I18" s="59">
         <f>SUMIFS(F17:F31, C17:C31,H18)</f>
-        <v>4.166666666666663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="73"/>
       <c r="B19" s="43"/>
-      <c r="C19" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C19" s="43"/>
       <c r="D19" s="59">
         <v>0.5625</v>
       </c>
@@ -72903,9 +72918,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="73"/>
-      <c r="C20" s="43" t="s">
-        <v>387</v>
-      </c>
+      <c r="C20" s="43"/>
       <c r="D20" s="59">
         <v>0.47222222222222227</v>
       </c>
@@ -72921,15 +72934,13 @@
       </c>
       <c r="I20" s="59">
         <f>SUMIFS(F17:F31, C17:C31,H20)</f>
-        <v>7.638888888888884E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="73"/>
       <c r="B21" s="43"/>
-      <c r="C21" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C21" s="43"/>
       <c r="D21" s="59">
         <v>0.5</v>
       </c>
@@ -72945,15 +72956,13 @@
       </c>
       <c r="I21" s="59">
         <f>SUMIFS(F17:F31, C17:C31,H21)</f>
-        <v>1.041666666666663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="73"/>
       <c r="B22" s="43"/>
-      <c r="C22" s="43" t="s">
-        <v>379</v>
-      </c>
+      <c r="C22" s="43"/>
       <c r="D22" s="59">
         <v>0.52569444444444446</v>
       </c>
@@ -72975,9 +72984,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="73"/>
       <c r="B23" s="62"/>
-      <c r="C23" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C23" s="43"/>
       <c r="D23" s="59"/>
       <c r="E23" s="59"/>
       <c r="F23" s="59">
@@ -72989,15 +72996,13 @@
       </c>
       <c r="I23" s="59">
         <f>SUMIFS(F17:F31, C17:C31,H23)</f>
-        <v>5.2083333333333259E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="73"/>
       <c r="B24" s="43"/>
-      <c r="C24" s="43" t="s">
-        <v>390</v>
-      </c>
+      <c r="C24" s="43"/>
       <c r="D24" s="59"/>
       <c r="E24" s="59"/>
       <c r="F24" s="59">
@@ -73009,15 +73014,13 @@
       </c>
       <c r="I24" s="57">
         <f>SUM(I18:I23)</f>
-        <v>0.18055555555555536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="73"/>
       <c r="B25" s="43"/>
-      <c r="C25" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C25" s="43"/>
       <c r="D25" s="59"/>
       <c r="E25" s="59"/>
       <c r="F25" s="59">
@@ -73029,9 +73032,7 @@
     <row r="26" spans="1:9">
       <c r="A26" s="73"/>
       <c r="B26" s="43"/>
-      <c r="C26" s="43" t="s">
-        <v>379</v>
-      </c>
+      <c r="C26" s="43"/>
       <c r="D26" s="59"/>
       <c r="E26" s="59"/>
       <c r="F26" s="59">
@@ -73043,9 +73044,7 @@
     <row r="27" spans="1:9">
       <c r="A27" s="73"/>
       <c r="B27" s="43"/>
-      <c r="C27" s="43" t="s">
-        <v>387</v>
-      </c>
+      <c r="C27" s="43"/>
       <c r="D27" s="59"/>
       <c r="E27" s="59"/>
       <c r="F27" s="59">
@@ -73056,9 +73055,7 @@
     <row r="28" spans="1:9">
       <c r="A28" s="73"/>
       <c r="B28" s="43"/>
-      <c r="C28" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C28" s="43"/>
       <c r="D28" s="63"/>
       <c r="E28" s="63"/>
       <c r="F28" s="59">
@@ -73408,7 +73405,7 @@
         <v>1252</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D47" s="59">
         <v>0.3576388888888889</v>
@@ -73429,58 +73426,60 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="73"/>
-      <c r="B48" s="62"/>
+      <c r="B48" s="62" t="s">
+        <v>1227</v>
+      </c>
       <c r="C48" s="43" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="D48" s="59">
-        <v>0.36458333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E48" s="59">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="F48" s="59">
         <f>E48-D48</f>
-        <v>1.0416666666666685E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H48" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I48" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.33333333333333304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="73"/>
-      <c r="B49" s="43"/>
+      <c r="B49" s="43" t="s">
+        <v>499</v>
+      </c>
       <c r="C49" s="43" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D49" s="59">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="E49" s="59">
-        <v>0.46527777777777773</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="F49" s="59">
         <f>E49-D49</f>
-        <v>9.0277777777777735E-2</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="H49" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I49" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H49)</f>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="73"/>
       <c r="B50" s="43"/>
-      <c r="C50" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C50" s="43"/>
       <c r="D50" s="59">
         <v>0.46527777777777773</v>
       </c>
@@ -73496,15 +73495,13 @@
       </c>
       <c r="I50" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H50)</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="73"/>
       <c r="B51" s="43"/>
-      <c r="C51" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C51" s="43"/>
       <c r="D51" s="59">
         <v>0.47916666666666669</v>
       </c>
@@ -73520,15 +73517,13 @@
       </c>
       <c r="I51" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H51)</f>
-        <v>1.0416666666666685E-2</v>
+        <v>1.3888888888888895E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="73"/>
       <c r="B52" s="43"/>
-      <c r="C52" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C52" s="43"/>
       <c r="D52" s="65">
         <v>0.53819444444444442</v>
       </c>
@@ -73550,9 +73545,7 @@
     <row r="53" spans="1:9">
       <c r="A53" s="73"/>
       <c r="B53" s="62"/>
-      <c r="C53" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C53" s="43"/>
       <c r="D53" s="59">
         <v>0.56597222222222221</v>
       </c>
@@ -73567,15 +73560,13 @@
       </c>
       <c r="I53" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H53)</f>
-        <v>5.2083333333333481E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="73"/>
       <c r="B54" s="43"/>
-      <c r="C54" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C54" s="43"/>
       <c r="D54" s="59">
         <v>0.63194444444444442</v>
       </c>
@@ -73590,15 +73581,13 @@
       </c>
       <c r="I54" s="57">
         <f>SUM(I48:I53)</f>
-        <v>0.3958333333333332</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="73"/>
       <c r="B55" s="43"/>
-      <c r="C55" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C55" s="43"/>
       <c r="D55" s="59">
         <v>0.68402777777777779</v>
       </c>
@@ -73614,9 +73603,7 @@
     <row r="56" spans="1:9">
       <c r="A56" s="73"/>
       <c r="B56" s="43"/>
-      <c r="C56" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C56" s="43"/>
       <c r="D56" s="59">
         <v>0.69444444444444453</v>
       </c>
@@ -73632,9 +73619,7 @@
     <row r="57" spans="1:9">
       <c r="A57" s="73"/>
       <c r="B57" s="43"/>
-      <c r="C57" s="43" t="s">
-        <v>384</v>
-      </c>
+      <c r="C57" s="43"/>
       <c r="D57" s="59">
         <v>0</v>
       </c>
@@ -74225,9 +74210,7 @@
         <v>15</v>
       </c>
       <c r="B92" s="43"/>
-      <c r="C92" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C92" s="43"/>
       <c r="D92" s="59">
         <v>0.33333333333333331</v>
       </c>
@@ -74248,9 +74231,7 @@
     <row r="93" spans="1:9">
       <c r="A93" s="73"/>
       <c r="B93" s="43"/>
-      <c r="C93" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C93" s="43"/>
       <c r="D93" s="59">
         <v>0.35416666666666669</v>
       </c>
@@ -74266,15 +74247,13 @@
       </c>
       <c r="I93" s="59">
         <f>SUMIFS(F92:F106, C92:C106,H93)</f>
-        <v>0.27430555555555558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="73"/>
       <c r="B94" s="43"/>
-      <c r="C94" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C94" s="43"/>
       <c r="D94" s="59">
         <v>0.45833333333333331</v>
       </c>
@@ -74296,9 +74275,7 @@
     <row r="95" spans="1:9">
       <c r="A95" s="73"/>
       <c r="B95" s="43"/>
-      <c r="C95" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C95" s="43"/>
       <c r="D95" s="59">
         <v>0.46875</v>
       </c>
@@ -74314,15 +74291,13 @@
       </c>
       <c r="I95" s="59">
         <f>SUMIFS(F92:F106, C92:C106,H95)</f>
-        <v>0.12847222222222221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="73"/>
       <c r="B96" s="43"/>
-      <c r="C96" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C96" s="43"/>
       <c r="D96" s="59">
         <v>0.53472222222222221</v>
       </c>
@@ -74338,15 +74313,13 @@
       </c>
       <c r="I96" s="59">
         <f>SUMIFS(F92:F106, C92:C106,H96)</f>
-        <v>1.736111111111116E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="73"/>
       <c r="B97" s="43"/>
-      <c r="C97" s="43" t="s">
-        <v>387</v>
-      </c>
+      <c r="C97" s="43"/>
       <c r="D97" s="59">
         <v>0.57986111111111105</v>
       </c>
@@ -74362,15 +74335,13 @@
       </c>
       <c r="I97" s="59">
         <f>SUMIFS(F92:F106, C92:C106,H97)</f>
-        <v>2.7083333333333459E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="73"/>
       <c r="B98" s="43"/>
-      <c r="C98" s="43" t="s">
-        <v>387</v>
-      </c>
+      <c r="C98" s="43"/>
       <c r="D98" s="59">
         <v>0.66666666666666663</v>
       </c>
@@ -74386,15 +74357,13 @@
       </c>
       <c r="I98" s="59">
         <f>SUMIFS(F92:F106, C92:C106,H98)</f>
-        <v>5.9027777777777735E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="73"/>
       <c r="B99" s="43"/>
-      <c r="C99" s="43" t="s">
-        <v>390</v>
-      </c>
+      <c r="C99" s="43"/>
       <c r="D99" s="59">
         <v>0.71180555555555547</v>
       </c>
@@ -74410,15 +74379,13 @@
       </c>
       <c r="I99" s="57">
         <f>SUM(I93:I98)</f>
-        <v>0.50625000000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="73"/>
       <c r="B100" s="43"/>
-      <c r="C100" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C100" s="43"/>
       <c r="D100" s="59">
         <v>0.73958333333333337</v>
       </c>
@@ -74434,9 +74401,7 @@
     <row r="101" spans="1:9">
       <c r="A101" s="73"/>
       <c r="B101" s="43"/>
-      <c r="C101" s="43" t="s">
-        <v>379</v>
-      </c>
+      <c r="C101" s="43"/>
       <c r="D101" s="59">
         <v>0.76041666666666663</v>
       </c>
@@ -74452,9 +74417,7 @@
     <row r="102" spans="1:9">
       <c r="A102" s="73"/>
       <c r="B102" s="43"/>
-      <c r="C102" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C102" s="43"/>
       <c r="D102" s="59">
         <v>0.78472222222222221</v>
       </c>
@@ -74516,9 +74479,7 @@
       <c r="B107" s="43" t="s">
         <v>1253</v>
       </c>
-      <c r="C107" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C107" s="43"/>
       <c r="D107" s="59">
         <v>0.35416666666666669</v>
       </c>
@@ -74539,9 +74500,7 @@
     <row r="108" spans="1:9">
       <c r="A108" s="73"/>
       <c r="B108" s="43"/>
-      <c r="C108" s="43" t="s">
-        <v>379</v>
-      </c>
+      <c r="C108" s="43"/>
       <c r="D108" s="59">
         <v>0.36458333333333331</v>
       </c>
@@ -74557,15 +74516,13 @@
       </c>
       <c r="I108" s="59">
         <f>SUMIFS(F107:F121, C107:C121,H108)</f>
-        <v>0.29861111111111099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="73"/>
       <c r="B109" s="43"/>
-      <c r="C109" s="43" t="s">
-        <v>387</v>
-      </c>
+      <c r="C109" s="43"/>
       <c r="D109" s="59">
         <v>0.375</v>
       </c>
@@ -74587,9 +74544,7 @@
     <row r="110" spans="1:9">
       <c r="A110" s="73"/>
       <c r="B110" s="43"/>
-      <c r="C110" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C110" s="43"/>
       <c r="D110" s="59">
         <v>0.40277777777777773</v>
       </c>
@@ -74605,15 +74560,13 @@
       </c>
       <c r="I110" s="59">
         <f>SUMIFS(F107:F121, C107:C121,H110)</f>
-        <v>9.722222222222221E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="73"/>
       <c r="B111" s="43"/>
-      <c r="C111" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C111" s="43"/>
       <c r="D111" s="59">
         <v>0.44097222222222227</v>
       </c>
@@ -74629,15 +74582,13 @@
       </c>
       <c r="I111" s="59">
         <f>SUMIFS(F107:F121, C107:C121,H111)</f>
-        <v>1.0416666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="73"/>
       <c r="B112" s="43"/>
-      <c r="C112" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C112" s="43"/>
       <c r="D112" s="59">
         <v>0.4513888888888889</v>
       </c>
@@ -74659,9 +74610,7 @@
     <row r="113" spans="1:9">
       <c r="A113" s="73"/>
       <c r="B113" s="43"/>
-      <c r="C113" s="43" t="s">
-        <v>387</v>
-      </c>
+      <c r="C113" s="43"/>
       <c r="D113" s="59">
         <v>0.47916666666666669</v>
       </c>
@@ -74677,15 +74626,13 @@
       </c>
       <c r="I113" s="59">
         <f>SUMIFS(F107:F121, C107:C121,H113)</f>
-        <v>4.5138888888888951E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="73"/>
       <c r="B114" s="43"/>
-      <c r="C114" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C114" s="43"/>
       <c r="D114" s="59">
         <v>0.5</v>
       </c>
@@ -74701,15 +74648,13 @@
       </c>
       <c r="I114" s="57">
         <f>SUM(I108:I113)</f>
-        <v>0.45138888888888884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="73"/>
       <c r="B115" s="43"/>
-      <c r="C115" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C115" s="43"/>
       <c r="D115" s="59">
         <v>0.54166666666666663</v>
       </c>
@@ -74725,9 +74670,7 @@
     <row r="116" spans="1:9">
       <c r="A116" s="73"/>
       <c r="B116" s="43"/>
-      <c r="C116" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C116" s="43"/>
       <c r="D116" s="59">
         <v>0.57638888888888895</v>
       </c>
@@ -74743,9 +74686,7 @@
     <row r="117" spans="1:9">
       <c r="A117" s="73"/>
       <c r="B117" s="43"/>
-      <c r="C117" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C117" s="43"/>
       <c r="D117" s="59">
         <v>0.625</v>
       </c>
@@ -74760,9 +74701,7 @@
     <row r="118" spans="1:9">
       <c r="A118" s="73"/>
       <c r="B118" s="43"/>
-      <c r="C118" s="43" t="s">
-        <v>387</v>
-      </c>
+      <c r="C118" s="43"/>
       <c r="D118" s="59">
         <v>0.83333333333333337</v>
       </c>
@@ -74808,9 +74747,7 @@
       <c r="B122" s="43" t="s">
         <v>1253</v>
       </c>
-      <c r="C122" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C122" s="43"/>
       <c r="D122" s="59">
         <v>0.375</v>
       </c>
@@ -74831,9 +74768,7 @@
     <row r="123" spans="1:9">
       <c r="A123" s="73"/>
       <c r="B123" s="43"/>
-      <c r="C123" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C123" s="43"/>
       <c r="D123" s="59">
         <v>0.44444444444444442</v>
       </c>
@@ -74849,15 +74784,13 @@
       </c>
       <c r="I123" s="59">
         <f>SUMIFS(F122:F136, C122:C136,H123)</f>
-        <v>0.26388888888888878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="73"/>
       <c r="B124" s="43"/>
-      <c r="C124" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C124" s="43"/>
       <c r="D124" s="59">
         <v>0.45833333333333331</v>
       </c>
@@ -74879,9 +74812,7 @@
     <row r="125" spans="1:9">
       <c r="A125" s="73"/>
       <c r="B125" s="43"/>
-      <c r="C125" s="43" t="s">
-        <v>387</v>
-      </c>
+      <c r="C125" s="43"/>
       <c r="D125" s="59">
         <v>0.47222222222222227</v>
       </c>
@@ -74897,15 +74828,13 @@
       </c>
       <c r="I125" s="59">
         <f>SUMIFS(F122:F136, C122:C136,H125)</f>
-        <v>8.6805555555555525E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="73"/>
       <c r="B126" s="43"/>
-      <c r="C126" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C126" s="43"/>
       <c r="D126" s="59">
         <v>0.51388888888888895</v>
       </c>
@@ -74921,15 +74850,13 @@
       </c>
       <c r="I126" s="59">
         <f>SUMIFS(F122:F136, C122:C136,H126)</f>
-        <v>2.083333333333337E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="73"/>
       <c r="B127" s="43"/>
-      <c r="C127" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C127" s="43"/>
       <c r="D127" s="59">
         <v>0.54166666666666663</v>
       </c>
@@ -74945,15 +74872,13 @@
       </c>
       <c r="I127" s="59">
         <f>SUMIFS(F122:F136, C122:C136,H127)</f>
-        <v>2.7083333333333459E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="73"/>
       <c r="B128" s="43"/>
-      <c r="C128" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C128" s="43"/>
       <c r="D128" s="59">
         <v>0.56944444444444442</v>
       </c>
@@ -74969,15 +74894,13 @@
       </c>
       <c r="I128" s="59">
         <f>SUMIFS(F122:F136, C122:C136,H128)</f>
-        <v>8.0555555555555602E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="73"/>
       <c r="B129" s="43"/>
-      <c r="C129" s="43" t="s">
-        <v>387</v>
-      </c>
+      <c r="C129" s="43"/>
       <c r="D129" s="59">
         <v>0.66666666666666663</v>
       </c>
@@ -74993,15 +74916,13 @@
       </c>
       <c r="I129" s="57">
         <f>SUM(I123:I128)</f>
-        <v>0.47916666666666674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="73"/>
       <c r="B130" s="43"/>
-      <c r="C130" s="43" t="s">
-        <v>390</v>
-      </c>
+      <c r="C130" s="43"/>
       <c r="D130" s="59">
         <v>0.71180555555555547</v>
       </c>
@@ -75017,9 +74938,7 @@
     <row r="131" spans="1:9">
       <c r="A131" s="73"/>
       <c r="B131" s="43"/>
-      <c r="C131" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C131" s="43"/>
       <c r="D131" s="59">
         <v>0.73888888888888893</v>
       </c>
@@ -75035,9 +74954,7 @@
     <row r="132" spans="1:9">
       <c r="A132" s="73"/>
       <c r="B132" s="43"/>
-      <c r="C132" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C132" s="43"/>
       <c r="D132" s="59">
         <v>0.77777777777777779</v>
       </c>
@@ -75052,9 +74969,7 @@
     <row r="133" spans="1:9">
       <c r="A133" s="73"/>
       <c r="B133" s="43"/>
-      <c r="C133" s="43" t="s">
-        <v>379</v>
-      </c>
+      <c r="C133" s="43"/>
       <c r="D133" s="59">
         <v>0.85416666666666663</v>
       </c>
@@ -75711,17 +75626,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -75787,8 +75702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3CC296-A9A3-4B52-83D1-B6696271AFA8}">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -76442,19 +76357,21 @@
       <c r="A32" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="43"/>
+      <c r="B32" s="43" t="s">
+        <v>1266</v>
+      </c>
       <c r="C32" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D32" s="59">
-        <v>0.32777777777777778</v>
+        <v>0.30902777777777779</v>
       </c>
       <c r="E32" s="59">
-        <v>0.39583333333333331</v>
+        <v>0.37638888888888888</v>
       </c>
       <c r="F32" s="59">
         <f>E32-D32</f>
-        <v>6.8055555555555536E-2</v>
+        <v>6.7361111111111094E-2</v>
       </c>
       <c r="H32" s="57" t="s">
         <v>380</v>
@@ -76465,7 +76382,9 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="73"/>
-      <c r="B33" s="43"/>
+      <c r="B33" s="43" t="s">
+        <v>771</v>
+      </c>
       <c r="C33" s="43" t="s">
         <v>387</v>
       </c>
@@ -76473,31 +76392,33 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E33" s="59">
-        <v>0.4375</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F33" s="59">
         <f>E33-D33</f>
-        <v>4.1666666666666685E-2</v>
+        <v>4.8611111111111105E-2</v>
       </c>
       <c r="H33" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I33" s="59">
         <f>SUMIFS(F32:F46, C32:C46,H33)</f>
-        <v>0.32986111111111099</v>
+        <v>0.3694444444444443</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="73"/>
-      <c r="B34" s="43"/>
+      <c r="B34" s="43" t="s">
+        <v>499</v>
+      </c>
       <c r="C34" s="43" t="s">
         <v>379</v>
       </c>
       <c r="D34" s="59">
-        <v>0.4375</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="E34" s="59">
-        <v>0.4513888888888889</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F34" s="59">
         <f>E34-D34</f>
@@ -76508,47 +76429,52 @@
       </c>
       <c r="I34" s="59">
         <f>SUMIFS(F32:F46, C32:C46,H34)</f>
-        <v>1.7361111111111105E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="73"/>
-      <c r="B35" s="43"/>
+      <c r="B35" s="43" t="s">
+        <v>1267</v>
+      </c>
       <c r="C35" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D35" s="59">
-        <v>0.4513888888888889</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E35" s="59">
-        <v>0.46875</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="F35" s="59">
         <f>E35-D35</f>
-        <v>1.7361111111111105E-2</v>
+        <v>0.11458333333333331</v>
       </c>
       <c r="H35" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I35" s="59">
         <f>SUMIFS(F32:F46, C32:C46,H35)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>4.8611111111111105E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="73"/>
+      <c r="B36" t="s">
+        <v>545</v>
+      </c>
       <c r="C36" s="43" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D36" s="59">
-        <v>0.46875</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E36" s="59">
-        <v>0.4861111111111111</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="F36" s="59">
         <f>E36-D36</f>
-        <v>1.7361111111111105E-2</v>
+        <v>3.819444444444442E-2</v>
       </c>
       <c r="H36" s="60" t="s">
         <v>379</v>
@@ -76560,19 +76486,21 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="73"/>
-      <c r="B37" s="43"/>
+      <c r="B37" t="s">
+        <v>1268</v>
+      </c>
       <c r="C37" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D37" s="59">
-        <v>0.4861111111111111</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="E37" s="59">
-        <v>0.55208333333333337</v>
+        <v>0.71180555555555547</v>
       </c>
       <c r="F37" s="59">
         <f>E37-D37</f>
-        <v>6.5972222222222265E-2</v>
+        <v>0.10069444444444442</v>
       </c>
       <c r="H37" s="60" t="s">
         <v>390</v>
@@ -76584,85 +76512,69 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="73"/>
-      <c r="B38" s="43"/>
+      <c r="B38" s="43" t="s">
+        <v>1269</v>
+      </c>
       <c r="C38" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D38" s="59">
-        <v>0.55208333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="E38" s="59">
-        <v>0.59722222222222221</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="F38" s="59">
         <f>E38-D38</f>
-        <v>4.513888888888884E-2</v>
+        <v>8.6805555555555469E-2</v>
       </c>
       <c r="H38" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I38" s="59">
         <f>SUMIFS(F32:F46, C32:C46,H38)</f>
-        <v>4.3750000000000011E-2</v>
+        <v>3.819444444444442E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="73"/>
       <c r="B39" s="62"/>
-      <c r="C39" s="43" t="s">
-        <v>386</v>
-      </c>
-      <c r="D39" s="59">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="E39" s="59">
-        <v>0.62361111111111112</v>
-      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
       <c r="F39" s="59">
         <f>E39-D39</f>
-        <v>2.6388888888888906E-2</v>
+        <v>0</v>
       </c>
       <c r="H39" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I39" s="57">
         <f>SUM(I33:I38)</f>
-        <v>0.44652777777777769</v>
+        <v>0.47013888888888872</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="73"/>
       <c r="B40" s="62"/>
-      <c r="C40" s="43" t="s">
-        <v>382</v>
-      </c>
-      <c r="D40" s="59">
-        <v>0.62361111111111112</v>
-      </c>
-      <c r="E40" s="59">
-        <v>0.71875</v>
-      </c>
+      <c r="C40" s="43"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
       <c r="F40" s="59">
         <f>E40-D40</f>
-        <v>9.5138888888888884E-2</v>
+        <v>0</v>
       </c>
       <c r="I40" s="61"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="73"/>
       <c r="B41" s="43"/>
-      <c r="C41" s="43" t="s">
-        <v>382</v>
-      </c>
-      <c r="D41" s="59">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E41" s="59">
-        <v>0.82638888888888884</v>
-      </c>
+      <c r="C41" s="43"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
       <c r="F41" s="59">
         <f>E41-D41</f>
-        <v>5.5555555555555469E-2</v>
+        <v>0</v>
       </c>
       <c r="I41" s="61"/>
     </row>
@@ -76722,19 +76634,21 @@
       <c r="A47" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="43"/>
+      <c r="B47" s="43" t="s">
+        <v>1270</v>
+      </c>
       <c r="C47" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D47" s="59">
-        <v>0.3576388888888889</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E47" s="59">
-        <v>0.36458333333333331</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="F47" s="59">
         <f>E47-D47</f>
-        <v>6.9444444444444198E-3</v>
+        <v>5.5555555555555525E-2</v>
       </c>
       <c r="H47" s="57" t="s">
         <v>380</v>
@@ -76745,33 +76659,37 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="73"/>
-      <c r="B48" s="62"/>
+      <c r="B48" s="62" t="s">
+        <v>1271</v>
+      </c>
       <c r="C48" s="43" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="D48" s="59">
-        <v>0.36458333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E48" s="59">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="F48" s="59">
         <f>E48-D48</f>
-        <v>1.0416666666666685E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H48" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I48" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.33333333333333304</v>
+        <v>0.29166666666666641</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="73"/>
-      <c r="B49" s="43"/>
+      <c r="B49" s="43" t="s">
+        <v>499</v>
+      </c>
       <c r="C49" s="43" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D49" s="59">
         <v>0.375</v>
@@ -76788,14 +76706,16 @@
       </c>
       <c r="I49" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H49)</f>
-        <v>0</v>
+        <v>1.3888888888888951E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="73"/>
-      <c r="B50" s="43"/>
+      <c r="B50" s="43" t="s">
+        <v>1272</v>
+      </c>
       <c r="C50" s="43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D50" s="59">
         <v>0.46527777777777773</v>
@@ -76812,7 +76732,7 @@
       </c>
       <c r="I50" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H50)</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -76836,7 +76756,7 @@
       </c>
       <c r="I51" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H51)</f>
-        <v>1.0416666666666685E-2</v>
+        <v>9.0277777777777735E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -76883,7 +76803,7 @@
       </c>
       <c r="I53" s="59">
         <f>SUMIFS(F47:F61, C47:C61,H53)</f>
-        <v>5.2083333333333481E-2</v>
+        <v>3.8194444444444531E-2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -76906,7 +76826,7 @@
       </c>
       <c r="I54" s="57">
         <f>SUM(I48:I53)</f>
-        <v>0.3958333333333332</v>
+        <v>0.47569444444444431</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -78487,7 +78407,7 @@
     <row r="140" spans="1:9">
       <c r="A140" s="73"/>
       <c r="B140" t="s">
-        <v>1266</v>
+        <v>1273</v>
       </c>
       <c r="C140" s="43" t="s">
         <v>382</v>
@@ -78539,7 +78459,7 @@
     <row r="142" spans="1:9">
       <c r="A142" s="73"/>
       <c r="B142" t="s">
-        <v>1267</v>
+        <v>1274</v>
       </c>
       <c r="C142" s="43" t="s">
         <v>387</v>
@@ -78565,7 +78485,7 @@
     <row r="143" spans="1:9">
       <c r="A143" s="73"/>
       <c r="B143" s="43" t="s">
-        <v>1266</v>
+        <v>1273</v>
       </c>
       <c r="C143" s="43" t="s">
         <v>382</v>
@@ -78617,7 +78537,7 @@
     <row r="145" spans="1:9">
       <c r="A145" s="73"/>
       <c r="B145" s="43" t="s">
-        <v>1268</v>
+        <v>1275</v>
       </c>
       <c r="C145" s="43" t="s">
         <v>382</v>
@@ -78637,7 +78557,7 @@
     <row r="146" spans="1:9">
       <c r="A146" s="73"/>
       <c r="B146" s="43" t="s">
-        <v>1269</v>
+        <v>1276</v>
       </c>
       <c r="C146" s="43" t="s">
         <v>379</v>
@@ -78676,7 +78596,7 @@
     <row r="148" spans="1:9">
       <c r="A148" s="73"/>
       <c r="B148" s="43" t="s">
-        <v>1270</v>
+        <v>1277</v>
       </c>
       <c r="C148" s="43" t="s">
         <v>384</v>
@@ -78695,7 +78615,7 @@
     <row r="149" spans="1:9">
       <c r="A149" s="73"/>
       <c r="B149" s="43" t="s">
-        <v>1266</v>
+        <v>1273</v>
       </c>
       <c r="C149" s="43" t="s">
         <v>382</v>
@@ -78732,9 +78652,7 @@
         <v>480</v>
       </c>
       <c r="B152" s="43"/>
-      <c r="C152" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C152" s="43"/>
       <c r="D152" s="59">
         <v>0.41666666666666669</v>
       </c>
@@ -78757,9 +78675,7 @@
       <c r="B153" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="C153" s="43" t="s">
-        <v>384</v>
-      </c>
+      <c r="C153" s="43"/>
       <c r="D153" s="59">
         <v>0.42708333333333331</v>
       </c>
@@ -78775,7 +78691,7 @@
       </c>
       <c r="I153" s="59">
         <f>SUMIFS(F152:F166, C152:C166,H153)</f>
-        <v>0.25694444444444453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -78783,9 +78699,7 @@
       <c r="B154" s="43" t="s">
         <v>453</v>
       </c>
-      <c r="C154" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C154" s="43"/>
       <c r="D154" s="59">
         <v>0.45833333333333331</v>
       </c>
@@ -78801,7 +78715,7 @@
       </c>
       <c r="I154" s="59">
         <f>SUMIFS(F152:F166, C152:C166,H154)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -78809,9 +78723,7 @@
       <c r="B155" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="C155" s="43" t="s">
-        <v>384</v>
-      </c>
+      <c r="C155" s="43"/>
       <c r="D155" s="59">
         <v>0.47916666666666669</v>
       </c>
@@ -78835,9 +78747,7 @@
       <c r="B156" s="43" t="s">
         <v>453</v>
       </c>
-      <c r="C156" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C156" s="43"/>
       <c r="D156" s="59">
         <v>0.52083333333333337</v>
       </c>
@@ -78861,9 +78771,7 @@
       <c r="B157" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="C157" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C157" s="43"/>
       <c r="D157" s="59">
         <v>0.47222222222222227</v>
       </c>
@@ -78887,9 +78795,7 @@
       <c r="B158" s="43" t="s">
         <v>412</v>
       </c>
-      <c r="C158" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="C158" s="43"/>
       <c r="D158" s="59">
         <v>0.65625</v>
       </c>
@@ -78905,7 +78811,7 @@
       </c>
       <c r="I158" s="59">
         <f>SUMIFS(F152:F166, C152:C166,H158)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -78913,9 +78819,7 @@
       <c r="B159" s="43" t="s">
         <v>435</v>
       </c>
-      <c r="C159" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C159" s="43"/>
       <c r="D159" s="59">
         <v>0.66666666666666663</v>
       </c>
@@ -78931,7 +78835,7 @@
       </c>
       <c r="I159" s="57">
         <f>SUM(I153:I158)</f>
-        <v>0.36805555555555552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -78939,9 +78843,7 @@
       <c r="B160" s="43" t="s">
         <v>436</v>
       </c>
-      <c r="C160" s="43" t="s">
-        <v>382</v>
-      </c>
+      <c r="C160" s="43"/>
       <c r="D160" s="59">
         <v>0.75</v>
       </c>
@@ -79016,7 +78918,9 @@
       <c r="A166" s="73"/>
       <c r="B166" s="43"/>
       <c r="C166" s="43"/>
-      <c r="D166" s="59"/>
+      <c r="D166" s="59">
+        <v>0</v>
+      </c>
       <c r="E166" s="59"/>
       <c r="F166" s="59">
         <f>E166-D166</f>
@@ -79028,17 +78932,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BEE999A-2E20-41B8-BE15-FAF9196DE318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFFB5952-4F3E-4AB9-BE10-4A18FD0E01F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="36" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4401,7 +4401,7 @@
     <t>Working on Auth Service in Angular</t>
   </si>
   <si>
-    <t>Worked on navigating to home page or admin dashboard page based on User role in Angular</t>
+    <t>Worked on Once Login - navigating to home page or admin dashboard page based on User role in Angular</t>
   </si>
   <si>
     <t>Helped Girish for implemented Disable functions and fixed bugs while integration</t>
@@ -4738,7 +4738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4920,6 +4920,7 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14359,17 +14360,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="259" priority="12" operator="greaterThan">
@@ -18083,17 +18084,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="246" priority="12" operator="greaterThan">
@@ -22099,17 +22100,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="233" priority="12" operator="greaterThan">
@@ -25180,17 +25181,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="220" priority="12" operator="greaterThan">
@@ -28366,17 +28367,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="207" priority="12" operator="greaterThan">
@@ -31656,17 +31657,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="194" priority="12" operator="greaterThan">
@@ -35124,17 +35125,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="181" priority="12" operator="greaterThan">
@@ -38755,17 +38756,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="168" priority="12" operator="greaterThan">
@@ -42310,17 +42311,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="155" priority="12" operator="greaterThan">
@@ -45510,17 +45511,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="142" priority="12" operator="greaterThan">
@@ -48922,17 +48923,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="129" priority="12" operator="greaterThan">
@@ -52430,17 +52431,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="116" priority="12" operator="greaterThan">
@@ -56280,17 +56281,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="103" priority="12" operator="greaterThan">
@@ -59695,17 +59696,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
@@ -62929,17 +62930,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="77" priority="12" operator="greaterThan">
@@ -66016,17 +66017,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="64" priority="12" operator="greaterThan">
@@ -69244,17 +69245,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="12" operator="greaterThan">
@@ -72391,17 +72392,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
@@ -75626,17 +75627,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -75703,7 +75704,7 @@
   <dimension ref="A1:Q167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -76737,7 +76738,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="73"/>
-      <c r="B51" s="43"/>
+      <c r="B51" s="77"/>
       <c r="C51" s="43" t="s">
         <v>382</v>
       </c>
@@ -78932,17 +78933,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED63CFCF-3126-4058-816E-82F8ACACAF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C86DCC98-78C0-44EB-8D30-D93DA829C66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="36" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7238" uniqueCount="1283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7252" uniqueCount="1287">
   <si>
     <t>Resource Name</t>
   </si>
@@ -4414,6 +4414,18 @@
   </si>
   <si>
     <t>College Work</t>
+  </si>
+  <si>
+    <t>Exploration on Unit Testing</t>
+  </si>
+  <si>
+    <t>College Project Review</t>
+  </si>
+  <si>
+    <t>Started working on Admin SideNav Bar</t>
+  </si>
+  <si>
+    <t>Integrated the sidenav with Admindashboard and worked on collapse and responsiveness</t>
   </si>
   <si>
     <t>Seen the activities in our application</t>
@@ -14375,17 +14387,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="259" priority="12" operator="greaterThan">
@@ -18099,17 +18111,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="246" priority="12" operator="greaterThan">
@@ -22115,17 +22127,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="233" priority="12" operator="greaterThan">
@@ -25196,17 +25208,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="220" priority="12" operator="greaterThan">
@@ -28382,17 +28394,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="207" priority="12" operator="greaterThan">
@@ -31672,17 +31684,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="194" priority="12" operator="greaterThan">
@@ -35140,17 +35152,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="181" priority="12" operator="greaterThan">
@@ -38771,17 +38783,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="168" priority="12" operator="greaterThan">
@@ -42326,17 +42338,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="155" priority="12" operator="greaterThan">
@@ -45526,17 +45538,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="142" priority="12" operator="greaterThan">
@@ -48938,17 +48950,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="129" priority="12" operator="greaterThan">
@@ -52446,17 +52458,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="116" priority="12" operator="greaterThan">
@@ -56296,17 +56308,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="103" priority="12" operator="greaterThan">
@@ -59711,17 +59723,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
@@ -62945,17 +62957,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="77" priority="12" operator="greaterThan">
@@ -66032,17 +66044,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="64" priority="12" operator="greaterThan">
@@ -69260,17 +69272,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="12" operator="greaterThan">
@@ -72407,17 +72419,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
@@ -75642,17 +75654,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -75718,8 +75730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3CC296-A9A3-4B52-83D1-B6696271AFA8}">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -77194,7 +77206,9 @@
       <c r="A77" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="43"/>
+      <c r="B77" s="43" t="s">
+        <v>771</v>
+      </c>
       <c r="C77" s="43" t="s">
         <v>387</v>
       </c>
@@ -77202,11 +77216,11 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E77" s="59">
-        <v>0.4375</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F77" s="59">
         <f>E77-D77</f>
-        <v>4.1666666666666685E-2</v>
+        <v>4.8611111111111105E-2</v>
       </c>
       <c r="H77" s="57" t="s">
         <v>380</v>
@@ -77217,15 +77231,17 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="74"/>
-      <c r="B78" s="43"/>
+      <c r="B78" s="43" t="s">
+        <v>499</v>
+      </c>
       <c r="C78" s="43" t="s">
         <v>379</v>
       </c>
       <c r="D78" s="59">
-        <v>0.4375</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="E78" s="59">
-        <v>0.4513888888888889</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F78" s="59">
         <f>E78-D78</f>
@@ -77236,40 +77252,48 @@
       </c>
       <c r="I78" s="59">
         <f>SUMIFS(F77:F91, C77:C91,H78)</f>
-        <v>0</v>
+        <v>0.27083333333333326</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="74"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
+      <c r="B79" s="43" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>387</v>
+      </c>
       <c r="D79" s="59">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E79" s="59">
-        <v>0.42708333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="F79" s="59">
         <f>E79-D79</f>
-        <v>5.2083333333333315E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H79" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I79" s="59">
         <f>SUMIFS(F77:F91, C77:C91,H79)</f>
-        <v>0</v>
+        <v>5.208333333333337E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="74"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
+      <c r="B80" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="C80" s="43" t="s">
+        <v>386</v>
+      </c>
       <c r="D80" s="59">
-        <v>0.42708333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E80" s="59">
-        <v>0.44791666666666669</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F80" s="59">
         <f>E80-D80</f>
@@ -77280,22 +77304,26 @@
       </c>
       <c r="I80" s="59">
         <f>SUMIFS(F77:F91, C77:C91,H80)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>9.027777777777779E-2</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="74"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
+      <c r="B81" s="43" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>384</v>
+      </c>
       <c r="D81" s="59">
-        <v>0.44791666666666669</v>
+        <v>0.53125</v>
       </c>
       <c r="E81" s="59">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F81" s="59">
         <f>E81-D81</f>
-        <v>5.2083333333333315E-2</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="H81" s="60" t="s">
         <v>379</v>
@@ -77307,17 +77335,21 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="74"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
+      <c r="B82" s="43" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>382</v>
+      </c>
       <c r="D82" s="59">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E82" s="59">
-        <v>0.54166666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F82" s="59">
         <f>E82-D82</f>
-        <v>4.166666666666663E-2</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="H82" s="60" t="s">
         <v>390</v>
@@ -77329,13 +77361,17 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="74"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
+      <c r="B83" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>386</v>
+      </c>
       <c r="D83" s="59">
-        <v>0.54166666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E83" s="59">
-        <v>0.5625</v>
+        <v>0.6875</v>
       </c>
       <c r="F83" s="59">
         <f>E83-D83</f>
@@ -77346,29 +77382,33 @@
       </c>
       <c r="I83" s="59">
         <f>SUMIFS(F77:F91, C77:C91,H83)</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="74"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
+      <c r="B84" s="43" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>382</v>
+      </c>
       <c r="D84" s="59">
-        <v>0.5625</v>
+        <v>0.6875</v>
       </c>
       <c r="E84" s="59">
-        <v>0.62361111111111112</v>
+        <v>0.875</v>
       </c>
       <c r="F84" s="59">
         <f>E84-D84</f>
-        <v>6.1111111111111116E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="H84" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I84" s="57">
         <f>SUM(I78:I83)</f>
-        <v>5.555555555555558E-2</v>
+        <v>0.46875000000000006</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -77785,10 +77825,10 @@
     <row r="108" spans="1:9">
       <c r="A108" s="74"/>
       <c r="B108" s="43" t="s">
-        <v>499</v>
+        <v>1272</v>
       </c>
       <c r="C108" s="43" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D108" s="59">
         <v>0.44444444444444442</v>
@@ -77831,13 +77871,13 @@
       </c>
       <c r="I109" s="59">
         <f>SUMIFS(F107:F121, C107:C121,H109)</f>
-        <v>0</v>
+        <v>1.3888888888888895E-2</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="74"/>
       <c r="B110" s="43" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="C110" s="43" t="s">
         <v>382</v>
@@ -77883,13 +77923,13 @@
       </c>
       <c r="I111" s="59">
         <f>SUMIFS(F107:F121, C107:C121,H111)</f>
-        <v>1.3888888888888895E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="74"/>
       <c r="B112" s="43" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="C112" s="43" t="s">
         <v>387</v>
@@ -77915,7 +77955,7 @@
     <row r="113" spans="1:9">
       <c r="A113" s="74"/>
       <c r="B113" s="43" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="C113" s="43" t="s">
         <v>382</v>
@@ -77941,7 +77981,7 @@
     <row r="114" spans="1:9">
       <c r="A114" s="74"/>
       <c r="B114" s="43" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="C114" s="43" t="s">
         <v>382</v>
@@ -77967,7 +78007,7 @@
     <row r="115" spans="1:9">
       <c r="A115" s="74"/>
       <c r="B115" s="43" t="s">
-        <v>1277</v>
+        <v>1281</v>
       </c>
       <c r="C115" s="43" t="s">
         <v>387</v>
@@ -78429,7 +78469,7 @@
     <row r="140" spans="1:9">
       <c r="A140" s="74"/>
       <c r="B140" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
       <c r="C140" s="43" t="s">
         <v>382</v>
@@ -78481,7 +78521,7 @@
     <row r="142" spans="1:9">
       <c r="A142" s="74"/>
       <c r="B142" t="s">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="C142" s="43" t="s">
         <v>387</v>
@@ -78507,7 +78547,7 @@
     <row r="143" spans="1:9">
       <c r="A143" s="74"/>
       <c r="B143" s="43" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
       <c r="C143" s="43" t="s">
         <v>382</v>
@@ -78559,7 +78599,7 @@
     <row r="145" spans="1:9">
       <c r="A145" s="74"/>
       <c r="B145" s="43" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="C145" s="43" t="s">
         <v>382</v>
@@ -78579,7 +78619,7 @@
     <row r="146" spans="1:9">
       <c r="A146" s="74"/>
       <c r="B146" s="43" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="C146" s="43" t="s">
         <v>379</v>
@@ -78618,7 +78658,7 @@
     <row r="148" spans="1:9">
       <c r="A148" s="74"/>
       <c r="B148" s="43" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="C148" s="43" t="s">
         <v>384</v>
@@ -78637,7 +78677,7 @@
     <row r="149" spans="1:9">
       <c r="A149" s="74"/>
       <c r="B149" s="43" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
       <c r="C149" s="43" t="s">
         <v>382</v>
@@ -78954,17 +78994,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Aurora/Process/PTW-Timesheet.xlsx
+++ b/Aurora/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C86DCC98-78C0-44EB-8D30-D93DA829C66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE34D218-B820-4BD4-A145-9E058AF8CD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="36" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7252" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7272" uniqueCount="1291">
   <si>
     <t>Resource Name</t>
   </si>
@@ -4356,6 +4356,15 @@
     <t>Absent (Went to College for project)</t>
   </si>
   <si>
+    <t>Lnnch</t>
+  </si>
+  <si>
+    <t>Web api Mail service</t>
+  </si>
+  <si>
+    <t>Web api Mail services</t>
+  </si>
+  <si>
     <t>Went for College Review</t>
   </si>
   <si>
@@ -4414,6 +4423,9 @@
   </si>
   <si>
     <t>College Work</t>
+  </si>
+  <si>
+    <t>web api mail services</t>
   </si>
   <si>
     <t>Exploration on Unit Testing</t>
@@ -14387,17 +14399,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="259" priority="12" operator="greaterThan">
@@ -18111,17 +18123,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="246" priority="12" operator="greaterThan">
@@ -22127,17 +22139,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="233" priority="12" operator="greaterThan">
@@ -25208,17 +25220,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="220" priority="12" operator="greaterThan">
@@ -28394,17 +28406,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="207" priority="12" operator="greaterThan">
@@ -31684,17 +31696,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="194" priority="12" operator="greaterThan">
@@ -35152,17 +35164,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="181" priority="12" operator="greaterThan">
@@ -38783,17 +38795,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="168" priority="12" operator="greaterThan">
@@ -42338,17 +42350,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="155" priority="12" operator="greaterThan">
@@ -45538,17 +45550,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="142" priority="12" operator="greaterThan">
@@ -48950,17 +48962,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="129" priority="12" operator="greaterThan">
@@ -52458,17 +52470,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="116" priority="12" operator="greaterThan">
@@ -56308,17 +56320,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="103" priority="12" operator="greaterThan">
@@ -59723,17 +59735,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
@@ -62957,17 +62969,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="77" priority="12" operator="greaterThan">
@@ -66044,17 +66056,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="64" priority="12" operator="greaterThan">
@@ -69272,17 +69284,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="12" operator="greaterThan">
@@ -69348,7 +69360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18ADFC7E-4EAF-412D-8A67-32E077055CFA}">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -72419,17 +72431,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
@@ -72495,8 +72507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C25F95E-7D9C-41FC-BD7E-5804D726B4D4}">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -73695,7 +73707,9 @@
       <c r="A62" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="43"/>
+      <c r="B62" s="43" t="s">
+        <v>1184</v>
+      </c>
       <c r="C62" s="43" t="s">
         <v>382</v>
       </c>
@@ -73718,7 +73732,9 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="74"/>
-      <c r="B63" s="64"/>
+      <c r="B63" s="64" t="s">
+        <v>771</v>
+      </c>
       <c r="C63" s="43" t="s">
         <v>387</v>
       </c>
@@ -73737,12 +73753,14 @@
       </c>
       <c r="I63" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H63)</f>
-        <v>38.19444444444445</v>
+        <v>38.263888888888893</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="74"/>
-      <c r="B64" s="43"/>
+      <c r="B64" s="43" t="s">
+        <v>502</v>
+      </c>
       <c r="C64" s="43" t="s">
         <v>386</v>
       </c>
@@ -73766,7 +73784,9 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="74"/>
-      <c r="B65" s="43"/>
+      <c r="B65" s="43" t="s">
+        <v>1184</v>
+      </c>
       <c r="C65" s="43" t="s">
         <v>382</v>
       </c>
@@ -73774,11 +73794,11 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E65" s="59">
-        <v>0.54861111111111105</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F65" s="59">
         <f>E65-D65</f>
-        <v>9.0277777777777735E-2</v>
+        <v>0.12500000000000006</v>
       </c>
       <c r="H65" s="60" t="s">
         <v>387</v>
@@ -73790,19 +73810,21 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="74"/>
-      <c r="B66" s="43"/>
+      <c r="B66" s="43" t="s">
+        <v>1253</v>
+      </c>
       <c r="C66" s="43" t="s">
         <v>386</v>
       </c>
       <c r="D66" s="59">
-        <v>0.54861111111111105</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="E66" s="59">
-        <v>0.58333333333333337</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="F66" s="59">
         <f>E66-D66</f>
-        <v>3.4722222222222321E-2</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H66" s="60" t="s">
         <v>379</v>
@@ -73814,19 +73836,21 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="74"/>
-      <c r="B67" s="43"/>
+      <c r="B67" s="43" t="s">
+        <v>1254</v>
+      </c>
       <c r="C67" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D67" s="59">
-        <v>0.58333333333333337</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="E67" s="59">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F67" s="59">
         <f>E67-D67</f>
-        <v>8.3333333333333259E-2</v>
+        <v>3.4722222222222321E-2</v>
       </c>
       <c r="H67" s="60" t="s">
         <v>390</v>
@@ -73838,38 +73862,54 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="74"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
+      <c r="B68" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D68" s="59">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E68" s="59">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F68" s="59">
         <f>E68-D68</f>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H68" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I68" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H68)</f>
-        <v>5.5555555555555636E-2</v>
+        <v>6.2499999999999833E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="74"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
+      <c r="B69" s="43" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D69" s="59">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E69" s="59">
+        <v>0.75</v>
+      </c>
       <c r="F69" s="59">
         <f>E69-D69</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="H69" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I69" s="57">
         <f>SUM(I63:I68)</f>
-        <v>38.291666666666671</v>
+        <v>38.368055555555557</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -74505,7 +74545,7 @@
         <v>16</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="C107" s="43"/>
       <c r="D107" s="59">
@@ -74773,7 +74813,7 @@
         <v>17</v>
       </c>
       <c r="B122" s="43" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="C122" s="43"/>
       <c r="D122" s="59">
@@ -75098,7 +75138,7 @@
     <row r="139" spans="1:9">
       <c r="A139" s="74"/>
       <c r="B139" s="43" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="C139" s="43" t="s">
         <v>386</v>
@@ -75150,7 +75190,7 @@
     <row r="141" spans="1:9">
       <c r="A141" s="74"/>
       <c r="B141" s="62" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="C141" s="43" t="s">
         <v>387</v>
@@ -75202,7 +75242,7 @@
     <row r="143" spans="1:9">
       <c r="A143" s="74"/>
       <c r="B143" s="43" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="C143" s="43" t="s">
         <v>382</v>
@@ -75228,7 +75268,7 @@
     <row r="144" spans="1:9">
       <c r="A144" s="74"/>
       <c r="B144" s="62" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="C144" s="43" t="s">
         <v>386</v>
@@ -75254,7 +75294,7 @@
     <row r="145" spans="1:9">
       <c r="A145" s="74"/>
       <c r="B145" s="43" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="C145" s="43" t="s">
         <v>382</v>
@@ -75274,7 +75314,7 @@
     <row r="146" spans="1:9">
       <c r="A146" s="74"/>
       <c r="B146" s="43" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="C146" s="43" t="s">
         <v>386</v>
@@ -75294,7 +75334,7 @@
     <row r="147" spans="1:9">
       <c r="A147" s="74"/>
       <c r="B147" s="43" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="C147" s="43" t="s">
         <v>382</v>
@@ -75313,7 +75353,7 @@
     <row r="148" spans="1:9">
       <c r="A148" s="74"/>
       <c r="B148" s="43" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="C148" s="43" t="s">
         <v>382</v>
@@ -75654,17 +75694,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -75730,8 +75770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3CC296-A9A3-4B52-83D1-B6696271AFA8}">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="L76" sqref="L76"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -75863,7 +75903,7 @@
     <row r="5" spans="1:17">
       <c r="A5" s="74"/>
       <c r="B5" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>382</v>
@@ -75921,7 +75961,7 @@
     <row r="7" spans="1:17">
       <c r="A7" s="74"/>
       <c r="B7" s="62" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>382</v>
@@ -75950,7 +75990,7 @@
     <row r="8" spans="1:17">
       <c r="A8" s="74"/>
       <c r="B8" s="43" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="C8" s="43" t="s">
         <v>382</v>
@@ -75976,7 +76016,7 @@
     <row r="9" spans="1:17">
       <c r="A9" s="74"/>
       <c r="B9" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>382</v>
@@ -76002,7 +76042,7 @@
     <row r="10" spans="1:17">
       <c r="A10" s="74"/>
       <c r="B10" s="43" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>387</v>
@@ -76022,7 +76062,7 @@
     <row r="11" spans="1:17">
       <c r="A11" s="74"/>
       <c r="B11" s="43" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>386</v>
@@ -76061,7 +76101,7 @@
     <row r="13" spans="1:17">
       <c r="A13" s="74"/>
       <c r="B13" s="43" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>382</v>
@@ -76386,7 +76426,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="C32" s="43" t="s">
         <v>382</v>
@@ -76463,7 +76503,7 @@
     <row r="35" spans="1:9">
       <c r="A35" s="74"/>
       <c r="B35" s="43" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="C35" s="43" t="s">
         <v>382</v>
@@ -76515,7 +76555,7 @@
     <row r="37" spans="1:9">
       <c r="A37" s="74"/>
       <c r="B37" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="C37" s="43" t="s">
         <v>382</v>
@@ -76541,7 +76581,7 @@
     <row r="38" spans="1:9">
       <c r="A38" s="74"/>
       <c r="B38" s="43" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>382</v>
@@ -76663,7 +76703,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="C47" s="43" t="s">
         <v>382</v>
@@ -76688,7 +76728,7 @@
     <row r="48" spans="1:9">
       <c r="A48" s="74"/>
       <c r="B48" s="62" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="C48" s="43" t="s">
         <v>387</v>
@@ -76740,7 +76780,7 @@
     <row r="50" spans="1:9">
       <c r="A50" s="74"/>
       <c r="B50" s="43" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>384</v>
@@ -76946,19 +76986,21 @@
       <c r="A62" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="43"/>
+      <c r="B62" s="43" t="s">
+        <v>771</v>
+      </c>
       <c r="C62" s="43" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D62" s="59">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E62" s="59">
-        <v>38.395833333333336</v>
+        <v>38.4375</v>
       </c>
       <c r="F62" s="59">
         <f>E62-D62</f>
-        <v>38.020833333333336</v>
+        <v>38.041666666666664</v>
       </c>
       <c r="H62" s="57" t="s">
         <v>380</v>
@@ -76969,43 +77011,47 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="74"/>
-      <c r="B63" s="64"/>
+      <c r="B63" s="64" t="s">
+        <v>1231</v>
+      </c>
       <c r="C63" s="43" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D63" s="59">
-        <v>0.39583333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="E63" s="59">
-        <v>0.4375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F63" s="59">
         <f>E63-D63</f>
-        <v>4.1666666666666685E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H63" s="60" t="s">
         <v>382</v>
       </c>
       <c r="I63" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H63)</f>
-        <v>38.19444444444445</v>
+        <v>0.29166666666666652</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="74"/>
-      <c r="B64" s="43"/>
+      <c r="B64" s="43" t="s">
+        <v>385</v>
+      </c>
       <c r="C64" s="43" t="s">
         <v>386</v>
       </c>
       <c r="D64" s="59">
-        <v>0.4375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E64" s="59">
-        <v>0.45833333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F64" s="59">
         <f>E64-D64</f>
-        <v>2.0833333333333315E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H64" s="60" t="s">
         <v>384</v>
@@ -77017,31 +77063,35 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="74"/>
-      <c r="B65" s="43"/>
+      <c r="B65" s="43" t="s">
+        <v>1231</v>
+      </c>
       <c r="C65" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D65" s="59">
-        <v>0.45833333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E65" s="59">
-        <v>0.54861111111111105</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F65" s="59">
         <f>E65-D65</f>
-        <v>9.0277777777777735E-2</v>
+        <v>6.2499999999999944E-2</v>
       </c>
       <c r="H65" s="60" t="s">
         <v>387</v>
       </c>
       <c r="I65" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H65)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>38.041666666666664</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="74"/>
-      <c r="B66" s="43"/>
+      <c r="B66" s="43" t="s">
+        <v>393</v>
+      </c>
       <c r="C66" s="43" t="s">
         <v>386</v>
       </c>
@@ -77049,11 +77099,11 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="E66" s="59">
-        <v>0.58333333333333337</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="F66" s="59">
         <f>E66-D66</f>
-        <v>3.4722222222222321E-2</v>
+        <v>2.7777777777777901E-2</v>
       </c>
       <c r="H66" s="60" t="s">
         <v>379</v>
@@ -77065,7 +77115,9 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="74"/>
-      <c r="B67" s="43"/>
+      <c r="B67" s="43" t="s">
+        <v>1231</v>
+      </c>
       <c r="C67" s="43" t="s">
         <v>382</v>
       </c>
@@ -77073,11 +77125,11 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E67" s="59">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="F67" s="59">
         <f>E67-D67</f>
-        <v>8.3333333333333259E-2</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="H67" s="60" t="s">
         <v>390</v>
@@ -77089,38 +77141,54 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="74"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
+      <c r="B68" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D68" s="59">
+        <v>0.6875</v>
+      </c>
+      <c r="E68" s="59">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F68" s="59">
         <f>E68-D68</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H68" s="60" t="s">
         <v>386</v>
       </c>
       <c r="I68" s="59">
         <f>SUMIFS(F62:F76, C62:C76,H68)</f>
-        <v>5.5555555555555636E-2</v>
+        <v>6.9444444444444642E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="74"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
+      <c r="B69" s="43" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D69" s="59">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E69" s="59">
+        <v>0.8125</v>
+      </c>
       <c r="F69" s="59">
         <f>E69-D69</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="H69" s="56" t="s">
         <v>394</v>
       </c>
       <c r="I69" s="57">
         <f>SUM(I63:I68)</f>
-        <v>38.291666666666671</v>
+        <v>38.402777777777771</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -77258,7 +77326,7 @@
     <row r="79" spans="1:9">
       <c r="A79" s="74"/>
       <c r="B79" s="43" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="C79" s="43" t="s">
         <v>387</v>
@@ -77310,7 +77378,7 @@
     <row r="81" spans="1:9">
       <c r="A81" s="74"/>
       <c r="B81" s="43" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="C81" s="43" t="s">
         <v>384</v>
@@ -77336,7 +77404,7 @@
     <row r="82" spans="1:9">
       <c r="A82" s="74"/>
       <c r="B82" s="43" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="C82" s="43" t="s">
         <v>382</v>
@@ -77388,7 +77456,7 @@
     <row r="84" spans="1:9">
       <c r="A84" s="74"/>
       <c r="B84" s="43" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="C84" s="43" t="s">
         <v>382</v>
@@ -77825,7 +77893,7 @@
     <row r="108" spans="1:9">
       <c r="A108" s="74"/>
       <c r="B108" s="43" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="C108" s="43" t="s">
         <v>384</v>
@@ -77877,7 +77945,7 @@
     <row r="110" spans="1:9">
       <c r="A110" s="74"/>
       <c r="B110" s="43" t="s">
-        <v>1277</v>
+        <v>1281</v>
       </c>
       <c r="C110" s="43" t="s">
         <v>382</v>
@@ -77929,7 +77997,7 @@
     <row r="112" spans="1:9">
       <c r="A112" s="74"/>
       <c r="B112" s="43" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
       <c r="C112" s="43" t="s">
         <v>387</v>
@@ -77955,7 +78023,7 @@
     <row r="113" spans="1:9">
       <c r="A113" s="74"/>
       <c r="B113" s="43" t="s">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="C113" s="43" t="s">
         <v>382</v>
@@ -77981,7 +78049,7 @@
     <row r="114" spans="1:9">
       <c r="A114" s="74"/>
       <c r="B114" s="43" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="C114" s="43" t="s">
         <v>382</v>
@@ -78007,7 +78075,7 @@
     <row r="115" spans="1:9">
       <c r="A115" s="74"/>
       <c r="B115" s="43" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="C115" s="43" t="s">
         <v>387</v>
@@ -78469,7 +78537,7 @@
     <row r="140" spans="1:9">
       <c r="A140" s="74"/>
       <c r="B140" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="C140" s="43" t="s">
         <v>382</v>
@@ -78521,7 +78589,7 @@
     <row r="142" spans="1:9">
       <c r="A142" s="74"/>
       <c r="B142" t="s">
-        <v>1283</v>
+        <v>1287</v>
       </c>
       <c r="C142" s="43" t="s">
         <v>387</v>
@@ -78547,7 +78615,7 @@
     <row r="143" spans="1:9">
       <c r="A143" s="74"/>
       <c r="B143" s="43" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="C143" s="43" t="s">
         <v>382</v>
@@ -78599,7 +78667,7 @@
     <row r="145" spans="1:9">
       <c r="A145" s="74"/>
       <c r="B145" s="43" t="s">
-        <v>1284</v>
+        <v>1288</v>
       </c>
       <c r="C145" s="43" t="s">
         <v>382</v>
@@ -78619,7 +78687,7 @@
     <row r="146" spans="1:9">
       <c r="A146" s="74"/>
       <c r="B146" s="43" t="s">
-        <v>1285</v>
+        <v>1289</v>
       </c>
       <c r="C146" s="43" t="s">
         <v>379</v>
@@ -78639,7 +78707,7 @@
     <row r="147" spans="1:9">
       <c r="A147" s="74"/>
       <c r="B147" s="43" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="C147" s="43" t="s">
         <v>386</v>
@@ -78658,7 +78726,7 @@
     <row r="148" spans="1:9">
       <c r="A148" s="74"/>
       <c r="B148" s="43" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="C148" s="43" t="s">
         <v>384</v>
@@ -78677,7 +78745,7 @@
     <row r="149" spans="1:9">
       <c r="A149" s="74"/>
       <c r="B149" s="43" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="C149" s="43" t="s">
         <v>382</v>
@@ -78994,17 +79062,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
